--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27716"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\Baseball\Player Listing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2518A506-46BF-4C81-96C5-16D48EFC5171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0994002B-E0EB-4EF4-8626-1B9A6BB3D420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="327">
   <si>
     <t>Name</t>
   </si>
@@ -978,6 +978,48 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/687765/spots/120</t>
+  </si>
+  <si>
+    <t>Kevin Gausman</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/592332/spots/120</t>
+  </si>
+  <si>
+    <t>Mike Clevinger</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/605182/spots/120</t>
+  </si>
+  <si>
+    <t>Ryan Feltner</t>
+  </si>
+  <si>
+    <t>AJ Smith-Shawver</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/700363/spots/120</t>
+  </si>
+  <si>
+    <t>Ben Brown</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/676962/spots/120</t>
+  </si>
+  <si>
+    <t>Ray Kerr</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/678061/spots/120</t>
+  </si>
+  <si>
+    <t>MacKenzie Gore</t>
+  </si>
+  <si>
+    <t>Christian Scott</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/681035/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1034,11 +1076,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1374,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,145 +1458,166 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>318</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>319</v>
+      </c>
+      <c r="C4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>261</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>171</v>
+      </c>
+      <c r="C7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>259</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>105</v>
+        <v>176</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>321</v>
+      </c>
+      <c r="C13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>213</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>292</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>293</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
+      <c r="A16" t="s">
+        <v>255</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2</v>
+        <v>256</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>271</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>267</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>163</v>
+        <v>268</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="C19" t="s">
         <v>169</v>
@@ -1561,29 +1625,29 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>276</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>113</v>
+        <v>277</v>
+      </c>
+      <c r="C20" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C21" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
         <v>169</v>
@@ -1591,34 +1655,37 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>98</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>294</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>129</v>
+        <v>295</v>
+      </c>
+      <c r="C25" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="C26" t="s">
         <v>169</v>
@@ -1626,74 +1693,83 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>121</v>
+        <v>236</v>
+      </c>
+      <c r="C27" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>5</v>
+      <c r="A30" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C30" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>50</v>
+      <c r="A32" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>55</v>
+        <v>163</v>
+      </c>
+      <c r="C34" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="C35" t="s">
         <v>169</v>
@@ -1701,82 +1777,94 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>123</v>
+        <v>187</v>
+      </c>
+      <c r="C37" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>278</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>127</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>186</v>
+      </c>
+      <c r="C39" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>205</v>
+      </c>
+      <c r="C40" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>110</v>
+        <v>13</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>36</v>
+        <v>206</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
         <v>169</v>
@@ -1784,56 +1872,56 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>214</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>69</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>77</v>
+        <v>238</v>
+      </c>
+      <c r="C47" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>298</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>178</v>
+        <v>299</v>
       </c>
       <c r="C51" t="s">
         <v>169</v>
@@ -1841,21 +1929,18 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" t="s">
-        <v>169</v>
+        <v>29</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>165</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>168</v>
+      <c r="A53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>169</v>
@@ -1863,72 +1948,72 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C56" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>95</v>
+        <v>147</v>
+      </c>
+      <c r="C58" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>286</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>287</v>
+      </c>
+      <c r="C59" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>300</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>145</v>
+        <v>301</v>
       </c>
       <c r="C61" t="s">
         <v>169</v>
@@ -1936,96 +2021,96 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>263</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>133</v>
+        <v>264</v>
+      </c>
+      <c r="C62" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C66" t="s">
-        <v>169</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C67" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>285</v>
+      </c>
+      <c r="C68" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="C72" t="s">
         <v>169</v>
@@ -2033,97 +2118,97 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>73</v>
+        <v>201</v>
+      </c>
+      <c r="C73" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C74" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C75" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>308</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>93</v>
+        <v>307</v>
+      </c>
+      <c r="C77" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>135</v>
+        <v>155</v>
+      </c>
+      <c r="C78" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="C79" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C80" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>158</v>
+        <v>313</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>159</v>
+        <v>314</v>
       </c>
       <c r="C82" t="s">
         <v>169</v>
@@ -2131,42 +2216,54 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>125</v>
+        <v>194</v>
+      </c>
+      <c r="C83" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>143</v>
+        <v>168</v>
+      </c>
+      <c r="C84" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>204</v>
+      </c>
+      <c r="C85" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>269</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>270</v>
+      </c>
+      <c r="C86" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="C87" t="s">
         <v>169</v>
@@ -2174,10 +2271,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>177</v>
+        <v>303</v>
       </c>
       <c r="C88" t="s">
         <v>169</v>
@@ -2185,10 +2282,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="C89" t="s">
         <v>166</v>
@@ -2196,32 +2293,26 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C90" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C91" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C92" t="s">
         <v>169</v>
@@ -2229,62 +2320,53 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>65</v>
+        <v>193</v>
+      </c>
+      <c r="C93" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C94" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C95" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C96" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>181</v>
+        <v>58</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C97" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="C98" t="s">
         <v>169</v>
@@ -2292,10 +2374,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>185</v>
+        <v>291</v>
       </c>
       <c r="C99" t="s">
         <v>169</v>
@@ -2303,43 +2385,37 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C100" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C101" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C102" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="C103" t="s">
         <v>169</v>
@@ -2347,10 +2423,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>203</v>
+        <v>304</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>204</v>
+        <v>305</v>
       </c>
       <c r="C104" t="s">
         <v>166</v>
@@ -2358,10 +2434,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="C105" t="s">
         <v>169</v>
@@ -2369,112 +2445,121 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>210</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>315</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>225</v>
+        <v>316</v>
+      </c>
+      <c r="C107" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>226</v>
+        <v>202</v>
+      </c>
+      <c r="C108" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>230</v>
+        <v>151</v>
+      </c>
+      <c r="C109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>216</v>
+        <v>311</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>223</v>
+        <v>312</v>
+      </c>
+      <c r="C110" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>227</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>224</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>220</v>
+        <v>306</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>229</v>
+        <v>307</v>
+      </c>
+      <c r="C114" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C116" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C117" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C118" t="s">
         <v>169</v>
@@ -2482,21 +2567,21 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="C119" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="C120" t="s">
         <v>169</v>
@@ -2504,10 +2589,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="C121" t="s">
         <v>169</v>
@@ -2515,65 +2600,59 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C122" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>245</v>
+        <v>72</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C123" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C124" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="C125" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C126" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>253</v>
+        <v>35</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="C127" t="s">
         <v>169</v>
@@ -2581,21 +2660,18 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C128" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>257</v>
+        <v>22</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="C129" t="s">
         <v>169</v>
@@ -2603,65 +2679,56 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>259</v>
+        <v>317</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>260</v>
+        <v>93</v>
       </c>
       <c r="C130" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>261</v>
+        <v>102</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C131" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>263</v>
+        <v>92</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C132" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>265</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C133" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>267</v>
+        <v>164</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>268</v>
+        <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>269</v>
+        <v>23</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="C135" t="s">
         <v>169</v>
@@ -2669,10 +2736,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>271</v>
+        <v>33</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="C136" t="s">
         <v>166</v>
@@ -2680,86 +2747,83 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>272</v>
+        <v>158</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="C137" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>274</v>
+        <v>124</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C138" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C139" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>283</v>
+        <v>310</v>
+      </c>
+      <c r="C141" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>280</v>
+        <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>284</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>285</v>
+        <v>254</v>
+      </c>
+      <c r="C143" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C144" t="s">
-        <v>169</v>
+        <v>79</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="C145" t="s">
         <v>169</v>
@@ -2767,32 +2831,26 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>290</v>
+        <v>84</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C146" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C147" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="C148" t="s">
         <v>166</v>
@@ -2800,10 +2858,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>296</v>
+        <v>24</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>297</v>
+        <v>188</v>
       </c>
       <c r="C149" t="s">
         <v>169</v>
@@ -2811,10 +2869,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>298</v>
+        <v>25</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>299</v>
+        <v>177</v>
       </c>
       <c r="C150" t="s">
         <v>169</v>
@@ -2822,32 +2880,32 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="C151" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="C152" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>304</v>
+        <v>148</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>305</v>
+        <v>150</v>
       </c>
       <c r="C153" t="s">
         <v>166</v>
@@ -2855,10 +2913,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="C154" t="s">
         <v>169</v>
@@ -2866,21 +2924,21 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>308</v>
+        <v>172</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>307</v>
+        <v>173</v>
       </c>
       <c r="C155" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>310</v>
+        <v>208</v>
       </c>
       <c r="C156" t="s">
         <v>169</v>
@@ -2888,174 +2946,285 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>311</v>
+        <v>152</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>312</v>
+        <v>153</v>
       </c>
       <c r="C157" t="s">
         <v>169</v>
       </c>
     </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>64</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>181</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C159" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>26</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C160" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>279</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C161" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>27</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C162" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>322</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C163" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C164" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>274</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C165" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>325</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C166" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C162">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B80" r:id="rId1" xr:uid="{C45472D7-1E29-4980-95E0-15D6D01B36FA}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{1EA6B6DE-C528-4BBF-8958-B9D1378CBBEA}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{4F9BBF32-0E85-44F1-BAE2-FDFE1B91203C}"/>
-    <hyperlink ref="B13" r:id="rId4" xr:uid="{1743C8BA-2A45-4EF9-8EAE-003FA5622677}"/>
-    <hyperlink ref="B14" r:id="rId5" xr:uid="{3521B756-6F7E-42CD-AEAF-87332DE15270}"/>
+    <hyperlink ref="B135" r:id="rId1" xr:uid="{C45472D7-1E29-4980-95E0-15D6D01B36FA}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{1EA6B6DE-C528-4BBF-8958-B9D1378CBBEA}"/>
+    <hyperlink ref="B12" r:id="rId3" xr:uid="{4F9BBF32-0E85-44F1-BAE2-FDFE1B91203C}"/>
+    <hyperlink ref="B28" r:id="rId4" xr:uid="{1743C8BA-2A45-4EF9-8EAE-003FA5622677}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{3521B756-6F7E-42CD-AEAF-87332DE15270}"/>
     <hyperlink ref="B22:B33" r:id="rId6" display="https://midfield.mlbstatic.com/v1/people/607625/spots/120" xr:uid="{0BEAC05A-0642-46CC-8EFF-600216D53EAC}"/>
-    <hyperlink ref="B72" r:id="rId7" xr:uid="{759148E7-8E0F-41F6-B9F3-BB34C434E2D7}"/>
-    <hyperlink ref="B75" r:id="rId8" xr:uid="{8850343C-EAF0-4713-9C66-21BF05B290EC}"/>
-    <hyperlink ref="B15" r:id="rId9" xr:uid="{CA8DDB4C-49CE-4AA5-B564-1108A8088B23}"/>
-    <hyperlink ref="B26" r:id="rId10" xr:uid="{A96A63DD-6ED4-47E6-B759-BD9FCFC58B60}"/>
-    <hyperlink ref="B95" r:id="rId11" xr:uid="{55C307B9-C21E-4227-B6BA-602B4CDD2E63}"/>
-    <hyperlink ref="B71" r:id="rId12" xr:uid="{FBC71765-97DF-4951-8AED-C771FFA6C3B6}"/>
-    <hyperlink ref="B29" r:id="rId13" xr:uid="{44C0BA97-BC98-4009-9EF5-8C29C471CC2B}"/>
-    <hyperlink ref="B39" r:id="rId14" xr:uid="{83CC39A1-58DF-4F8E-80EF-7133BFDA09E5}"/>
-    <hyperlink ref="B40" r:id="rId15" xr:uid="{A9F4C6E5-7612-40C3-92FF-2F0A1197F32E}"/>
-    <hyperlink ref="B32" r:id="rId16" xr:uid="{29AD0F25-0604-4645-86CB-591ACB87642C}"/>
-    <hyperlink ref="B17" r:id="rId17" xr:uid="{03239B77-EAD5-4377-8E99-41BDC8C35FAF}"/>
-    <hyperlink ref="B34" r:id="rId18" xr:uid="{A963AD17-9953-4B76-B014-99AE04AFBC22}"/>
-    <hyperlink ref="B11" r:id="rId19" xr:uid="{254FC5D9-2139-49F1-AF42-C37C7AD52CF9}"/>
-    <hyperlink ref="B60" r:id="rId20" xr:uid="{ADEC84CE-4B4C-475A-B45C-A5A25ABA57F9}"/>
-    <hyperlink ref="B43" r:id="rId21" xr:uid="{A903E050-8C42-4183-880A-565DF6E20245}"/>
+    <hyperlink ref="B120" r:id="rId7" xr:uid="{759148E7-8E0F-41F6-B9F3-BB34C434E2D7}"/>
+    <hyperlink ref="B129" r:id="rId8" xr:uid="{8850343C-EAF0-4713-9C66-21BF05B290EC}"/>
+    <hyperlink ref="B31" r:id="rId9" xr:uid="{CA8DDB4C-49CE-4AA5-B564-1108A8088B23}"/>
+    <hyperlink ref="B45" r:id="rId10" xr:uid="{A96A63DD-6ED4-47E6-B759-BD9FCFC58B60}"/>
+    <hyperlink ref="B162" r:id="rId11" xr:uid="{55C307B9-C21E-4227-B6BA-602B4CDD2E63}"/>
+    <hyperlink ref="B117" r:id="rId12" xr:uid="{FBC71765-97DF-4951-8AED-C771FFA6C3B6}"/>
+    <hyperlink ref="B52" r:id="rId13" xr:uid="{44C0BA97-BC98-4009-9EF5-8C29C471CC2B}"/>
+    <hyperlink ref="B65" r:id="rId14" xr:uid="{83CC39A1-58DF-4F8E-80EF-7133BFDA09E5}"/>
+    <hyperlink ref="B66" r:id="rId15" xr:uid="{A9F4C6E5-7612-40C3-92FF-2F0A1197F32E}"/>
+    <hyperlink ref="B55" r:id="rId16" xr:uid="{29AD0F25-0604-4645-86CB-591ACB87642C}"/>
+    <hyperlink ref="B33" r:id="rId17" xr:uid="{03239B77-EAD5-4377-8E99-41BDC8C35FAF}"/>
+    <hyperlink ref="B57" r:id="rId18" xr:uid="{A963AD17-9953-4B76-B014-99AE04AFBC22}"/>
+    <hyperlink ref="B23" r:id="rId19" xr:uid="{254FC5D9-2139-49F1-AF42-C37C7AD52CF9}"/>
+    <hyperlink ref="B97" r:id="rId20" xr:uid="{ADEC84CE-4B4C-475A-B45C-A5A25ABA57F9}"/>
+    <hyperlink ref="B70" r:id="rId21" xr:uid="{A903E050-8C42-4183-880A-565DF6E20245}"/>
     <hyperlink ref="B3" r:id="rId22" xr:uid="{E83EAE86-523E-449E-8625-E0FCBC6EDE67}"/>
-    <hyperlink ref="B93" r:id="rId23" xr:uid="{4F43B789-DA90-4D7B-B4C4-7719C98AFEF4}"/>
-    <hyperlink ref="B70" r:id="rId24" xr:uid="{1073D5D0-0D5E-4AB1-940D-24EDB5EF0E1D}"/>
-    <hyperlink ref="B46" r:id="rId25" xr:uid="{30F225A0-9236-482B-8651-D6C10378128C}"/>
+    <hyperlink ref="B158" r:id="rId23" xr:uid="{4F43B789-DA90-4D7B-B4C4-7719C98AFEF4}"/>
+    <hyperlink ref="B116" r:id="rId24" xr:uid="{1073D5D0-0D5E-4AB1-940D-24EDB5EF0E1D}"/>
+    <hyperlink ref="B74" r:id="rId25" xr:uid="{30F225A0-9236-482B-8651-D6C10378128C}"/>
     <hyperlink ref="B2" r:id="rId26" xr:uid="{DE5B31BF-642F-4D65-BB0B-8BB02C0C599F}"/>
-    <hyperlink ref="B73" r:id="rId27" xr:uid="{6478F936-7CCC-485F-8FAD-5E974D281F62}"/>
-    <hyperlink ref="B59" r:id="rId28" xr:uid="{4FDE78C3-89C9-4179-86C1-21A106ED4B68}"/>
-    <hyperlink ref="B47" r:id="rId29" xr:uid="{71FF812A-69FD-42EC-A428-9503EB1166BE}"/>
-    <hyperlink ref="B85" r:id="rId30" xr:uid="{6A269B70-A168-4F22-809C-69E3664B7B4F}"/>
-    <hyperlink ref="B50" r:id="rId31" xr:uid="{2AF8C5A2-0A6E-4AFA-BE5A-8756CD3E9A15}"/>
-    <hyperlink ref="B65" r:id="rId32" xr:uid="{775807C5-A8E8-4E03-94A3-07FC338C7B2F}"/>
-    <hyperlink ref="B86" r:id="rId33" xr:uid="{4C620958-7BE1-4A72-AF05-2D2C30EFE637}"/>
-    <hyperlink ref="B68" r:id="rId34" xr:uid="{9C374395-032E-47D8-8E1D-F14135FEB884}"/>
-    <hyperlink ref="B4" r:id="rId35" xr:uid="{7C24BFBA-D940-4280-9AA6-9EB5B2A7C325}"/>
-    <hyperlink ref="B7" r:id="rId36" xr:uid="{935A4BCA-043C-42B5-9B58-F01D785A78E7}"/>
-    <hyperlink ref="B77" r:id="rId37" xr:uid="{AD23B2E5-01B6-4980-8B3E-2745128B55B6}"/>
-    <hyperlink ref="B58" r:id="rId38" xr:uid="{ADD15800-FFAF-4C56-96C3-B6E9A6B7A9B4}"/>
-    <hyperlink ref="B31" r:id="rId39" xr:uid="{FD14EBC0-A744-44D9-8D7E-8C400674FEED}"/>
-    <hyperlink ref="B12" r:id="rId40" xr:uid="{1C789BBB-C806-4AEC-87FD-4A30D09E0378}"/>
-    <hyperlink ref="B57" r:id="rId41" xr:uid="{39BDDF5C-5ED6-4DC6-8403-935839E42AE4}"/>
-    <hyperlink ref="B76" r:id="rId42" xr:uid="{16CEFA6F-1B35-42FD-8606-E6523BF824B9}"/>
+    <hyperlink ref="B123" r:id="rId27" xr:uid="{6478F936-7CCC-485F-8FAD-5E974D281F62}"/>
+    <hyperlink ref="B96" r:id="rId28" xr:uid="{4FDE78C3-89C9-4179-86C1-21A106ED4B68}"/>
+    <hyperlink ref="B75" r:id="rId29" xr:uid="{71FF812A-69FD-42EC-A428-9503EB1166BE}"/>
+    <hyperlink ref="B144" r:id="rId30" xr:uid="{6A269B70-A168-4F22-809C-69E3664B7B4F}"/>
+    <hyperlink ref="B80" r:id="rId31" xr:uid="{2AF8C5A2-0A6E-4AFA-BE5A-8756CD3E9A15}"/>
+    <hyperlink ref="B106" r:id="rId32" xr:uid="{775807C5-A8E8-4E03-94A3-07FC338C7B2F}"/>
+    <hyperlink ref="B146" r:id="rId33" xr:uid="{4C620958-7BE1-4A72-AF05-2D2C30EFE637}"/>
+    <hyperlink ref="B111" r:id="rId34" xr:uid="{9C374395-032E-47D8-8E1D-F14135FEB884}"/>
+    <hyperlink ref="B6" r:id="rId35" xr:uid="{7C24BFBA-D940-4280-9AA6-9EB5B2A7C325}"/>
+    <hyperlink ref="B11" r:id="rId36" xr:uid="{935A4BCA-043C-42B5-9B58-F01D785A78E7}"/>
+    <hyperlink ref="B132" r:id="rId37" xr:uid="{AD23B2E5-01B6-4980-8B3E-2745128B55B6}"/>
+    <hyperlink ref="B95" r:id="rId38" xr:uid="{ADD15800-FFAF-4C56-96C3-B6E9A6B7A9B4}"/>
+    <hyperlink ref="B54" r:id="rId39" xr:uid="{FD14EBC0-A744-44D9-8D7E-8C400674FEED}"/>
+    <hyperlink ref="B24" r:id="rId40" xr:uid="{1C789BBB-C806-4AEC-87FD-4A30D09E0378}"/>
+    <hyperlink ref="B94" r:id="rId41" xr:uid="{39BDDF5C-5ED6-4DC6-8403-935839E42AE4}"/>
+    <hyperlink ref="B131" r:id="rId42" xr:uid="{16CEFA6F-1B35-42FD-8606-E6523BF824B9}"/>
     <hyperlink ref="B62:B78" r:id="rId43" display="https://midfield.mlbstatic.com/v1/people/686752/spots/120" xr:uid="{1E5EFC44-7608-40AF-A777-AAC898C6A9CB}"/>
-    <hyperlink ref="B9" r:id="rId44" xr:uid="{17D051F0-8C68-4AF3-B256-1F5E71DD2455}"/>
-    <hyperlink ref="B33" r:id="rId45" xr:uid="{B4766B4E-7BF7-4C41-98C2-8E48C0CCFAC8}"/>
-    <hyperlink ref="B42" r:id="rId46" xr:uid="{49ACB698-CD82-44AA-8A65-26D2BBDB0788}"/>
-    <hyperlink ref="B23" r:id="rId47" xr:uid="{FBAE3FE6-1362-4C09-BAE7-1B131AB4C4B4}"/>
-    <hyperlink ref="B20" r:id="rId48" xr:uid="{2181E8B2-59C9-4709-AA9A-962EF37831F2}"/>
-    <hyperlink ref="B41" r:id="rId49" xr:uid="{17F5505C-32E7-4316-BF97-1E84202C4785}"/>
-    <hyperlink ref="B28" r:id="rId50" xr:uid="{880E4723-2052-4A3F-AA76-423C6810C994}"/>
-    <hyperlink ref="B63" r:id="rId51" xr:uid="{D33AE6C2-8688-4E9D-B293-9E99FBE0DEB4}"/>
-    <hyperlink ref="B27" r:id="rId52" xr:uid="{ECF4F8FF-BB1E-4B49-965D-64768DC4F1E2}"/>
-    <hyperlink ref="B37" r:id="rId53" xr:uid="{2511CD2C-B67C-4354-9629-DE649A920EDD}"/>
-    <hyperlink ref="B83" r:id="rId54" xr:uid="{AE0C1E2C-3D72-45CF-9965-CDB6C0591891}"/>
-    <hyperlink ref="B38" r:id="rId55" xr:uid="{0E258565-BD6E-428A-BCE6-5D446B3DA628}"/>
-    <hyperlink ref="B25" r:id="rId56" xr:uid="{46541DDA-A399-42E9-B388-CAC462670117}"/>
-    <hyperlink ref="B69" r:id="rId57" xr:uid="{E26B4D45-A378-40C0-ACBA-A3D7F3B56528}"/>
-    <hyperlink ref="B62" r:id="rId58" xr:uid="{845F84C0-232D-4D80-B9DD-7415056297C5}"/>
-    <hyperlink ref="B78" r:id="rId59" xr:uid="{89BF64D4-12AC-4144-8B32-FDDD10668077}"/>
-    <hyperlink ref="B64" r:id="rId60" xr:uid="{8742B9B5-62C4-423F-B53B-AE1C619A7CB3}"/>
-    <hyperlink ref="B36" r:id="rId61" xr:uid="{A93F2FF5-2AE8-404E-A935-39A2AA8E0351}"/>
-    <hyperlink ref="B54" r:id="rId62" xr:uid="{F60D4181-1F3A-4C64-97A2-8368BC1A6176}"/>
-    <hyperlink ref="B84" r:id="rId63" xr:uid="{ECDB48F3-3C25-4B15-A902-40A90B1D441F}"/>
-    <hyperlink ref="B61" r:id="rId64" xr:uid="{1BF5B84A-6403-496F-BE72-4F7CFE5CD46A}"/>
-    <hyperlink ref="B35" r:id="rId65" xr:uid="{D48CC097-21D9-4697-92AF-17FE888C3469}"/>
-    <hyperlink ref="B89" r:id="rId66" xr:uid="{BA111F30-72E9-4701-B810-D904333C5C12}"/>
-    <hyperlink ref="B67" r:id="rId67" xr:uid="{C971DFEC-7D7D-44F8-8D77-AF06DD0C3650}"/>
-    <hyperlink ref="B92" r:id="rId68" xr:uid="{FF747A90-D82C-417A-A604-11C8A9BB8A1B}"/>
-    <hyperlink ref="B48" r:id="rId69" xr:uid="{508F6AEF-0519-456E-95D4-CFBA12F1D839}"/>
-    <hyperlink ref="B55" r:id="rId70" xr:uid="{B67845F2-3B4F-45CB-AC96-C32761C20607}"/>
-    <hyperlink ref="B82" r:id="rId71" xr:uid="{B3EDDFE1-3BCD-4BF4-B469-F8CBF05D5228}"/>
-    <hyperlink ref="B10" r:id="rId72" xr:uid="{8E3867C0-9128-44B4-8D0A-62F663FD1C50}"/>
-    <hyperlink ref="B18" r:id="rId73" xr:uid="{7DF45689-E876-4814-B27F-BD82DF1893A8}"/>
-    <hyperlink ref="B79" r:id="rId74" xr:uid="{10233510-1E7F-47D8-9DC8-CECCEEAF2542}"/>
-    <hyperlink ref="B53" r:id="rId75" xr:uid="{C4B8637F-0EAC-421C-B98A-83396BEC74E6}"/>
-    <hyperlink ref="B5" r:id="rId76" xr:uid="{78FBD904-905A-4DF4-8336-339D9FD35EF9}"/>
-    <hyperlink ref="B90" r:id="rId77" xr:uid="{30FFC8B8-F48B-4956-82E5-5F5C1D42BFDA}"/>
-    <hyperlink ref="B74" r:id="rId78" xr:uid="{F297C688-6767-4A01-87CA-713F0DDF9C34}"/>
-    <hyperlink ref="B16" r:id="rId79" xr:uid="{DE8C1BDA-4F06-4739-8272-9C1526634215}"/>
-    <hyperlink ref="B88" r:id="rId80" xr:uid="{0B5DD545-15F8-4AED-86A6-780BA78A0233}"/>
-    <hyperlink ref="B51" r:id="rId81" xr:uid="{1EAB83F2-BCC3-4788-AB88-9206EE59BEFD}"/>
-    <hyperlink ref="B96" r:id="rId82" xr:uid="{B9CEB789-AD16-4793-B005-DBCE618DBE94}"/>
-    <hyperlink ref="B97" r:id="rId83" xr:uid="{BE0D192A-BC2F-4B35-99E0-370F38CA9C0B}"/>
-    <hyperlink ref="B98" r:id="rId84" xr:uid="{3F8FC17C-F146-4E12-BBB9-18B45BB5B3EC}"/>
-    <hyperlink ref="B99" r:id="rId85" xr:uid="{C3C3E0D1-E6BE-417A-AC79-EEB8F79FBE7C}"/>
-    <hyperlink ref="B100" r:id="rId86" xr:uid="{646B995D-2022-47E8-9C46-F74E16A3A629}"/>
-    <hyperlink ref="B21" r:id="rId87" xr:uid="{1F133298-7E48-4138-8126-F74D2CBDB050}"/>
-    <hyperlink ref="B87" r:id="rId88" xr:uid="{79CA2660-030A-4E38-B36D-D5A391C24AF6}"/>
-    <hyperlink ref="B101" r:id="rId89" xr:uid="{301BF770-273A-484E-AF66-F32DA8458844}"/>
-    <hyperlink ref="B94" r:id="rId90" xr:uid="{A72F7411-3596-45A9-BD47-96AE1238FE57}"/>
-    <hyperlink ref="B49" r:id="rId91" xr:uid="{9335E23F-5F7C-4364-8ABA-564F1B156EB5}"/>
-    <hyperlink ref="B56" r:id="rId92" xr:uid="{C528D45E-5270-4308-A5F4-DDDD4C29A97D}"/>
-    <hyperlink ref="B52" r:id="rId93" xr:uid="{E5C83DAC-00EF-49EE-9811-99C544403146}"/>
-    <hyperlink ref="B102" r:id="rId94" xr:uid="{F5146A50-BA2B-4466-A3AC-A9E6870FA443}"/>
-    <hyperlink ref="B103" r:id="rId95" xr:uid="{880D6AB9-DCD2-4819-B973-72461A04C7C8}"/>
-    <hyperlink ref="B81" r:id="rId96" xr:uid="{11544622-27D7-41FE-BA8C-7A64E8838D48}"/>
-    <hyperlink ref="B19" r:id="rId97" xr:uid="{BC65DFE4-1308-4C08-8CE7-8941756F790F}"/>
-    <hyperlink ref="B45" r:id="rId98" xr:uid="{8322B7F1-705E-4313-8FF2-F90CCF591E35}"/>
-    <hyperlink ref="B66" r:id="rId99" xr:uid="{EBB28F68-D663-44AA-86BD-53B20904935E}"/>
-    <hyperlink ref="B104" r:id="rId100" xr:uid="{6A80E6A8-DBFE-4A55-A512-7374F8FBE4FD}"/>
-    <hyperlink ref="B22" r:id="rId101" xr:uid="{CE6A856C-5BA0-46B8-BDBB-70D03B1E5FA6}"/>
-    <hyperlink ref="B105" r:id="rId102" xr:uid="{B219EA6C-AFC6-4A8E-A965-70B93C5367C4}"/>
-    <hyperlink ref="B91" r:id="rId103" xr:uid="{108B5805-5369-47C0-A3A2-CA30D2F91CFB}"/>
-    <hyperlink ref="B106" r:id="rId104" xr:uid="{7AD71135-DE45-46BB-A218-39306ABA3702}"/>
+    <hyperlink ref="B21" r:id="rId44" xr:uid="{17D051F0-8C68-4AF3-B256-1F5E71DD2455}"/>
+    <hyperlink ref="B56" r:id="rId45" xr:uid="{B4766B4E-7BF7-4C41-98C2-8E48C0CCFAC8}"/>
+    <hyperlink ref="B69" r:id="rId46" xr:uid="{49ACB698-CD82-44AA-8A65-26D2BBDB0788}"/>
+    <hyperlink ref="B41" r:id="rId47" xr:uid="{FBAE3FE6-1362-4C09-BAE7-1B131AB4C4B4}"/>
+    <hyperlink ref="B36" r:id="rId48" xr:uid="{2181E8B2-59C9-4709-AA9A-962EF37831F2}"/>
+    <hyperlink ref="B67" r:id="rId49" xr:uid="{17F5505C-32E7-4316-BF97-1E84202C4785}"/>
+    <hyperlink ref="B50" r:id="rId50" xr:uid="{880E4723-2052-4A3F-AA76-423C6810C994}"/>
+    <hyperlink ref="B101" r:id="rId51" xr:uid="{D33AE6C2-8688-4E9D-B293-9E99FBE0DEB4}"/>
+    <hyperlink ref="B49" r:id="rId52" xr:uid="{ECF4F8FF-BB1E-4B49-965D-64768DC4F1E2}"/>
+    <hyperlink ref="B63" r:id="rId53" xr:uid="{2511CD2C-B67C-4354-9629-DE649A920EDD}"/>
+    <hyperlink ref="B138" r:id="rId54" xr:uid="{AE0C1E2C-3D72-45CF-9965-CDB6C0591891}"/>
+    <hyperlink ref="B64" r:id="rId55" xr:uid="{0E258565-BD6E-428A-BCE6-5D446B3DA628}"/>
+    <hyperlink ref="B43" r:id="rId56" xr:uid="{46541DDA-A399-42E9-B388-CAC462670117}"/>
+    <hyperlink ref="B112" r:id="rId57" xr:uid="{E26B4D45-A378-40C0-ACBA-A3D7F3B56528}"/>
+    <hyperlink ref="B100" r:id="rId58" xr:uid="{845F84C0-232D-4D80-B9DD-7415056297C5}"/>
+    <hyperlink ref="B133" r:id="rId59" xr:uid="{89BF64D4-12AC-4144-8B32-FDDD10668077}"/>
+    <hyperlink ref="B102" r:id="rId60" xr:uid="{8742B9B5-62C4-423F-B53B-AE1C619A7CB3}"/>
+    <hyperlink ref="B60" r:id="rId61" xr:uid="{A93F2FF5-2AE8-404E-A935-39A2AA8E0351}"/>
+    <hyperlink ref="B91" r:id="rId62" xr:uid="{F60D4181-1F3A-4C64-97A2-8368BC1A6176}"/>
+    <hyperlink ref="B142" r:id="rId63" xr:uid="{ECDB48F3-3C25-4B15-A902-40A90B1D441F}"/>
+    <hyperlink ref="B98" r:id="rId64" xr:uid="{1BF5B84A-6403-496F-BE72-4F7CFE5CD46A}"/>
+    <hyperlink ref="B58" r:id="rId65" xr:uid="{D48CC097-21D9-4697-92AF-17FE888C3469}"/>
+    <hyperlink ref="B153" r:id="rId66" xr:uid="{BA111F30-72E9-4701-B810-D904333C5C12}"/>
+    <hyperlink ref="B109" r:id="rId67" xr:uid="{C971DFEC-7D7D-44F8-8D77-AF06DD0C3650}"/>
+    <hyperlink ref="B157" r:id="rId68" xr:uid="{FF747A90-D82C-417A-A604-11C8A9BB8A1B}"/>
+    <hyperlink ref="B78" r:id="rId69" xr:uid="{508F6AEF-0519-456E-95D4-CFBA12F1D839}"/>
+    <hyperlink ref="B92" r:id="rId70" xr:uid="{B67845F2-3B4F-45CB-AC96-C32761C20607}"/>
+    <hyperlink ref="B137" r:id="rId71" xr:uid="{B3EDDFE1-3BCD-4BF4-B469-F8CBF05D5228}"/>
+    <hyperlink ref="B22" r:id="rId72" xr:uid="{8E3867C0-9128-44B4-8D0A-62F663FD1C50}"/>
+    <hyperlink ref="B34" r:id="rId73" xr:uid="{7DF45689-E876-4814-B27F-BD82DF1893A8}"/>
+    <hyperlink ref="B134" r:id="rId74" xr:uid="{10233510-1E7F-47D8-9DC8-CECCEEAF2542}"/>
+    <hyperlink ref="B84" r:id="rId75" xr:uid="{C4B8637F-0EAC-421C-B98A-83396BEC74E6}"/>
+    <hyperlink ref="B7" r:id="rId76" xr:uid="{78FBD904-905A-4DF4-8336-339D9FD35EF9}"/>
+    <hyperlink ref="B155" r:id="rId77" xr:uid="{30FFC8B8-F48B-4956-82E5-5F5C1D42BFDA}"/>
+    <hyperlink ref="B127" r:id="rId78" xr:uid="{F297C688-6767-4A01-87CA-713F0DDF9C34}"/>
+    <hyperlink ref="B32" r:id="rId79" xr:uid="{DE8C1BDA-4F06-4739-8272-9C1526634215}"/>
+    <hyperlink ref="B150" r:id="rId80" xr:uid="{0B5DD545-15F8-4AED-86A6-780BA78A0233}"/>
+    <hyperlink ref="B81" r:id="rId81" xr:uid="{1EAB83F2-BCC3-4788-AB88-9206EE59BEFD}"/>
+    <hyperlink ref="B89" r:id="rId82" xr:uid="{B9CEB789-AD16-4793-B005-DBCE618DBE94}"/>
+    <hyperlink ref="B159" r:id="rId83" xr:uid="{BE0D192A-BC2F-4B35-99E0-370F38CA9C0B}"/>
+    <hyperlink ref="B48" r:id="rId84" xr:uid="{3F8FC17C-F146-4E12-BBB9-18B45BB5B3EC}"/>
+    <hyperlink ref="B72" r:id="rId85" xr:uid="{C3C3E0D1-E6BE-417A-AC79-EEB8F79FBE7C}"/>
+    <hyperlink ref="B39" r:id="rId86" xr:uid="{646B995D-2022-47E8-9C46-F74E16A3A629}"/>
+    <hyperlink ref="B37" r:id="rId87" xr:uid="{1F133298-7E48-4138-8126-F74D2CBDB050}"/>
+    <hyperlink ref="B149" r:id="rId88" xr:uid="{79CA2660-030A-4E38-B36D-D5A391C24AF6}"/>
+    <hyperlink ref="B105" r:id="rId89" xr:uid="{301BF770-273A-484E-AF66-F32DA8458844}"/>
+    <hyperlink ref="B160" r:id="rId90" xr:uid="{A72F7411-3596-45A9-BD47-96AE1238FE57}"/>
+    <hyperlink ref="B79" r:id="rId91" xr:uid="{9335E23F-5F7C-4364-8ABA-564F1B156EB5}"/>
+    <hyperlink ref="B93" r:id="rId92" xr:uid="{C528D45E-5270-4308-A5F4-DDDD4C29A97D}"/>
+    <hyperlink ref="B83" r:id="rId93" xr:uid="{E5C83DAC-00EF-49EE-9811-99C544403146}"/>
+    <hyperlink ref="B125" r:id="rId94" xr:uid="{F5146A50-BA2B-4466-A3AC-A9E6870FA443}"/>
+    <hyperlink ref="B121" r:id="rId95" xr:uid="{880D6AB9-DCD2-4819-B973-72461A04C7C8}"/>
+    <hyperlink ref="B136" r:id="rId96" xr:uid="{11544622-27D7-41FE-BA8C-7A64E8838D48}"/>
+    <hyperlink ref="B35" r:id="rId97" xr:uid="{BC65DFE4-1308-4C08-8CE7-8941756F790F}"/>
+    <hyperlink ref="B73" r:id="rId98" xr:uid="{8322B7F1-705E-4313-8FF2-F90CCF591E35}"/>
+    <hyperlink ref="B108" r:id="rId99" xr:uid="{EBB28F68-D663-44AA-86BD-53B20904935E}"/>
+    <hyperlink ref="B85" r:id="rId100" xr:uid="{6A80E6A8-DBFE-4A55-A512-7374F8FBE4FD}"/>
+    <hyperlink ref="B40" r:id="rId101" xr:uid="{CE6A856C-5BA0-46B8-BDBB-70D03B1E5FA6}"/>
+    <hyperlink ref="B44" r:id="rId102" xr:uid="{B219EA6C-AFC6-4A8E-A965-70B93C5367C4}"/>
+    <hyperlink ref="B156" r:id="rId103" xr:uid="{108B5805-5369-47C0-A3A2-CA30D2F91CFB}"/>
+    <hyperlink ref="B76" r:id="rId104" xr:uid="{7AD71135-DE45-46BB-A218-39306ABA3702}"/>
     <hyperlink ref="B107:B115" r:id="rId105" display="https://midfield.mlbstatic.com/v1/people/570632/spots/120" xr:uid="{B6AEF0A1-DAD3-493D-AD72-9992AF4AC36A}"/>
-    <hyperlink ref="B115" r:id="rId106" xr:uid="{4FC1EEA6-0897-4ECD-9CE7-1A38B7A04DF4}"/>
-    <hyperlink ref="B110" r:id="rId107" xr:uid="{1C2C51A3-E75B-4CC0-A087-8366DF24A3F2}"/>
-    <hyperlink ref="B112" r:id="rId108" xr:uid="{BB7DF76E-86EB-4858-AEA6-0696B62895BC}"/>
-    <hyperlink ref="B107" r:id="rId109" xr:uid="{01DE55D4-78E8-461B-A8B9-B03E6D65C918}"/>
-    <hyperlink ref="B108" r:id="rId110" xr:uid="{FCD4C620-BB71-4CC3-A123-50EFE98B5FE2}"/>
-    <hyperlink ref="B111" r:id="rId111" xr:uid="{29ED6610-0117-47A3-9540-69CB5AC80B92}"/>
-    <hyperlink ref="B113" r:id="rId112" xr:uid="{9E30FD12-A196-40BE-A210-0C73986E5064}"/>
-    <hyperlink ref="B114" r:id="rId113" xr:uid="{B8175F43-D70E-459F-98CF-15ECFA717548}"/>
-    <hyperlink ref="B109" r:id="rId114" xr:uid="{A1F217DD-45E3-4ABD-A801-5D9F166E4EE3}"/>
-    <hyperlink ref="B116" r:id="rId115" xr:uid="{C6E8A0D7-8E63-4EC1-8C28-4570F13EECF8}"/>
-    <hyperlink ref="B117" r:id="rId116" xr:uid="{061EEF2C-85CF-400C-B70C-3AC1B107F1EC}"/>
-    <hyperlink ref="B118" r:id="rId117" xr:uid="{07D08D3B-A3C3-4916-9FE0-2CF26ECA4304}"/>
-    <hyperlink ref="B119" r:id="rId118" xr:uid="{91E7913A-86EE-40F5-9798-4A7B25F420CA}"/>
-    <hyperlink ref="B120" r:id="rId119" xr:uid="{0A5A0FD7-8B57-41D3-A410-CA8F6779F8C0}"/>
-    <hyperlink ref="B121" r:id="rId120" xr:uid="{9979CA0C-3483-428F-A7AC-8624936FB8FA}"/>
-    <hyperlink ref="B122" r:id="rId121" xr:uid="{482918C2-89BA-496F-8160-085C2940475B}"/>
-    <hyperlink ref="B123" r:id="rId122" xr:uid="{674942CB-83E4-4508-A135-1EB5B6D6E0BF}"/>
-    <hyperlink ref="B124" r:id="rId123" xr:uid="{1F6209AE-91BF-41D4-B9AD-7DEABA16621B}"/>
-    <hyperlink ref="B125" r:id="rId124" xr:uid="{F0E5D36A-2456-4111-9B29-31D8CBD1A12D}"/>
-    <hyperlink ref="B126" r:id="rId125" xr:uid="{789C651E-21E8-4E0D-8017-9BF6770B7FE4}"/>
-    <hyperlink ref="B127" r:id="rId126" xr:uid="{E96CD394-E5F8-46F9-9A93-3EA98A4EE8DE}"/>
-    <hyperlink ref="B128" r:id="rId127" xr:uid="{170B8200-FCC5-4ED1-8A6A-63B3F60FC427}"/>
-    <hyperlink ref="B129" r:id="rId128" xr:uid="{1165D173-E61C-477D-81EA-53C274E42084}"/>
-    <hyperlink ref="B130" r:id="rId129" xr:uid="{D71E6989-E12D-4FB6-8277-45C3718AA5C4}"/>
-    <hyperlink ref="B131" r:id="rId130" xr:uid="{FB4F273B-2196-4018-85BA-D42A207F8910}"/>
-    <hyperlink ref="B132" r:id="rId131" xr:uid="{9F233235-B9B1-4E7A-807E-8F2EE493E173}"/>
-    <hyperlink ref="B133" r:id="rId132" xr:uid="{F5D1A66D-4324-4468-A7A0-AD3D00B16AE7}"/>
-    <hyperlink ref="B134" r:id="rId133" xr:uid="{1759929B-600A-4949-96E1-F424E054D97A}"/>
-    <hyperlink ref="B135" r:id="rId134" xr:uid="{8B19E95A-E327-406E-9F25-861358533D76}"/>
-    <hyperlink ref="B136" r:id="rId135" xr:uid="{1DD3FDF5-6556-4823-8827-A75B5E83FD01}"/>
-    <hyperlink ref="B137" r:id="rId136" xr:uid="{B62475DC-179F-4CE0-8CF6-51DC972D40B7}"/>
-    <hyperlink ref="B138" r:id="rId137" xr:uid="{492088BD-9B89-42AA-A6AF-1F83749BDC72}"/>
-    <hyperlink ref="B139" r:id="rId138" xr:uid="{6118D192-2DB6-4311-A382-3371906C183D}"/>
+    <hyperlink ref="B139" r:id="rId106" xr:uid="{4FC1EEA6-0897-4ECD-9CE7-1A38B7A04DF4}"/>
+    <hyperlink ref="B115" r:id="rId107" xr:uid="{1C2C51A3-E75B-4CC0-A087-8366DF24A3F2}"/>
+    <hyperlink ref="B128" r:id="rId108" xr:uid="{BB7DF76E-86EB-4858-AEA6-0696B62895BC}"/>
+    <hyperlink ref="B14" r:id="rId109" xr:uid="{01DE55D4-78E8-461B-A8B9-B03E6D65C918}"/>
+    <hyperlink ref="B46" r:id="rId110" xr:uid="{FCD4C620-BB71-4CC3-A123-50EFE98B5FE2}"/>
+    <hyperlink ref="B124" r:id="rId111" xr:uid="{29ED6610-0117-47A3-9540-69CB5AC80B92}"/>
+    <hyperlink ref="B140" r:id="rId112" xr:uid="{9E30FD12-A196-40BE-A210-0C73986E5064}"/>
+    <hyperlink ref="B147" r:id="rId113" xr:uid="{B8175F43-D70E-459F-98CF-15ECFA717548}"/>
+    <hyperlink ref="B90" r:id="rId114" xr:uid="{A1F217DD-45E3-4ABD-A801-5D9F166E4EE3}"/>
+    <hyperlink ref="B10" r:id="rId115" xr:uid="{C6E8A0D7-8E63-4EC1-8C28-4570F13EECF8}"/>
+    <hyperlink ref="B26" r:id="rId116" xr:uid="{061EEF2C-85CF-400C-B70C-3AC1B107F1EC}"/>
+    <hyperlink ref="B27" r:id="rId117" xr:uid="{07D08D3B-A3C3-4916-9FE0-2CF26ECA4304}"/>
+    <hyperlink ref="B47" r:id="rId118" xr:uid="{91E7913A-86EE-40F5-9798-4A7B25F420CA}"/>
+    <hyperlink ref="B87" r:id="rId119" xr:uid="{0A5A0FD7-8B57-41D3-A410-CA8F6779F8C0}"/>
+    <hyperlink ref="B103" r:id="rId120" xr:uid="{9979CA0C-3483-428F-A7AC-8624936FB8FA}"/>
+    <hyperlink ref="B118" r:id="rId121" xr:uid="{482918C2-89BA-496F-8160-085C2940475B}"/>
+    <hyperlink ref="B122" r:id="rId122" xr:uid="{674942CB-83E4-4508-A135-1EB5B6D6E0BF}"/>
+    <hyperlink ref="B145" r:id="rId123" xr:uid="{1F6209AE-91BF-41D4-B9AD-7DEABA16621B}"/>
+    <hyperlink ref="B148" r:id="rId124" xr:uid="{F0E5D36A-2456-4111-9B29-31D8CBD1A12D}"/>
+    <hyperlink ref="B154" r:id="rId125" xr:uid="{789C651E-21E8-4E0D-8017-9BF6770B7FE4}"/>
+    <hyperlink ref="B143" r:id="rId126" xr:uid="{E96CD394-E5F8-46F9-9A93-3EA98A4EE8DE}"/>
+    <hyperlink ref="B16" r:id="rId127" xr:uid="{170B8200-FCC5-4ED1-8A6A-63B3F60FC427}"/>
+    <hyperlink ref="B19" r:id="rId128" xr:uid="{1165D173-E61C-477D-81EA-53C274E42084}"/>
+    <hyperlink ref="B8" r:id="rId129" xr:uid="{D71E6989-E12D-4FB6-8277-45C3718AA5C4}"/>
+    <hyperlink ref="B5" r:id="rId130" xr:uid="{FB4F273B-2196-4018-85BA-D42A207F8910}"/>
+    <hyperlink ref="B62" r:id="rId131" xr:uid="{9F233235-B9B1-4E7A-807E-8F2EE493E173}"/>
+    <hyperlink ref="B126" r:id="rId132" xr:uid="{F5D1A66D-4324-4468-A7A0-AD3D00B16AE7}"/>
+    <hyperlink ref="B18" r:id="rId133" xr:uid="{1759929B-600A-4949-96E1-F424E054D97A}"/>
+    <hyperlink ref="B86" r:id="rId134" xr:uid="{8B19E95A-E327-406E-9F25-861358533D76}"/>
+    <hyperlink ref="B17" r:id="rId135" xr:uid="{1DD3FDF5-6556-4823-8827-A75B5E83FD01}"/>
+    <hyperlink ref="B152" r:id="rId136" xr:uid="{B62475DC-179F-4CE0-8CF6-51DC972D40B7}"/>
+    <hyperlink ref="B151" r:id="rId137" xr:uid="{492088BD-9B89-42AA-A6AF-1F83749BDC72}"/>
+    <hyperlink ref="B20" r:id="rId138" xr:uid="{6118D192-2DB6-4311-A382-3371906C183D}"/>
     <hyperlink ref="B140:B143" r:id="rId139" display="https://midfield.mlbstatic.com/v1/people/693821/spots/120" xr:uid="{0E83A794-B683-4463-A3A3-95576AFDD615}"/>
-    <hyperlink ref="B140" r:id="rId140" xr:uid="{98EC2002-988D-46D0-AD8B-CB1135815ADD}"/>
-    <hyperlink ref="B141" r:id="rId141" xr:uid="{80C5B6A6-E3F5-4F34-8C17-B202CF8842F5}"/>
-    <hyperlink ref="B142" r:id="rId142" xr:uid="{35842AC4-F920-4A32-B105-587FE352F876}"/>
-    <hyperlink ref="B143" r:id="rId143" xr:uid="{24E2A301-E80D-4F02-A94B-CFE6DF3719D1}"/>
-    <hyperlink ref="B144" r:id="rId144" xr:uid="{6D687EFE-5BD7-4FEF-B636-1A728E3CB6DF}"/>
-    <hyperlink ref="B145" r:id="rId145" xr:uid="{20E003D8-D5C4-4113-AFC3-D076CE9FE0A0}"/>
-    <hyperlink ref="B146" r:id="rId146" xr:uid="{3D5F262E-120A-4E2A-AF3A-1C4C1117AE44}"/>
-    <hyperlink ref="B147" r:id="rId147" xr:uid="{5ED77DE1-166F-4541-898A-786E114DAEF4}"/>
-    <hyperlink ref="B148" r:id="rId148" xr:uid="{81DC0D20-42F6-4D3C-87D3-B645CB35712A}"/>
-    <hyperlink ref="B149" r:id="rId149" xr:uid="{E396E594-A4D8-4E20-9A24-90B7589370B5}"/>
-    <hyperlink ref="B150" r:id="rId150" xr:uid="{823E8EED-4901-4993-A8EA-2CA91EBD8526}"/>
-    <hyperlink ref="B151" r:id="rId151" xr:uid="{923E21E9-8410-4112-9000-9E93896189E6}"/>
-    <hyperlink ref="B152" r:id="rId152" xr:uid="{C526E886-242E-4E87-ACB6-1E69A02EEBD3}"/>
-    <hyperlink ref="B153" r:id="rId153" xr:uid="{BFEEE380-0C63-474F-821D-61F8EF908A46}"/>
-    <hyperlink ref="B154" r:id="rId154" xr:uid="{2250FC95-0A39-4EE2-BCB2-FFF1EF3E4964}"/>
-    <hyperlink ref="B155" r:id="rId155" xr:uid="{174AA7F5-75DB-42B1-ACFF-646023A4BD2A}"/>
-    <hyperlink ref="B156" r:id="rId156" xr:uid="{30D34D43-AD29-4DE6-93CC-FD7C2F05FE00}"/>
-    <hyperlink ref="B157" r:id="rId157" xr:uid="{AD2496AE-C6CA-4D48-BE1B-E0D40292B961}"/>
+    <hyperlink ref="B38" r:id="rId140" xr:uid="{98EC2002-988D-46D0-AD8B-CB1135815ADD}"/>
+    <hyperlink ref="B161" r:id="rId141" xr:uid="{80C5B6A6-E3F5-4F34-8C17-B202CF8842F5}"/>
+    <hyperlink ref="B113" r:id="rId142" xr:uid="{35842AC4-F920-4A32-B105-587FE352F876}"/>
+    <hyperlink ref="B68" r:id="rId143" xr:uid="{24E2A301-E80D-4F02-A94B-CFE6DF3719D1}"/>
+    <hyperlink ref="B59" r:id="rId144" xr:uid="{6D687EFE-5BD7-4FEF-B636-1A728E3CB6DF}"/>
+    <hyperlink ref="B119" r:id="rId145" xr:uid="{20E003D8-D5C4-4113-AFC3-D076CE9FE0A0}"/>
+    <hyperlink ref="B99" r:id="rId146" xr:uid="{3D5F262E-120A-4E2A-AF3A-1C4C1117AE44}"/>
+    <hyperlink ref="B15" r:id="rId147" xr:uid="{5ED77DE1-166F-4541-898A-786E114DAEF4}"/>
+    <hyperlink ref="B25" r:id="rId148" xr:uid="{81DC0D20-42F6-4D3C-87D3-B645CB35712A}"/>
+    <hyperlink ref="B30" r:id="rId149" xr:uid="{E396E594-A4D8-4E20-9A24-90B7589370B5}"/>
+    <hyperlink ref="B51" r:id="rId150" xr:uid="{823E8EED-4901-4993-A8EA-2CA91EBD8526}"/>
+    <hyperlink ref="B61" r:id="rId151" xr:uid="{923E21E9-8410-4112-9000-9E93896189E6}"/>
+    <hyperlink ref="B88" r:id="rId152" xr:uid="{C526E886-242E-4E87-ACB6-1E69A02EEBD3}"/>
+    <hyperlink ref="B104" r:id="rId153" xr:uid="{BFEEE380-0C63-474F-821D-61F8EF908A46}"/>
+    <hyperlink ref="B114" r:id="rId154" xr:uid="{2250FC95-0A39-4EE2-BCB2-FFF1EF3E4964}"/>
+    <hyperlink ref="B77" r:id="rId155" xr:uid="{174AA7F5-75DB-42B1-ACFF-646023A4BD2A}"/>
+    <hyperlink ref="B141" r:id="rId156" xr:uid="{30D34D43-AD29-4DE6-93CC-FD7C2F05FE00}"/>
+    <hyperlink ref="B110" r:id="rId157" xr:uid="{AD2496AE-C6CA-4D48-BE1B-E0D40292B961}"/>
+    <hyperlink ref="B82" r:id="rId158" xr:uid="{8EA8AFE5-38A5-4C45-95E6-52202880E214}"/>
+    <hyperlink ref="B107" r:id="rId159" xr:uid="{933DFE08-9AFA-4E05-81A6-D7AD9B2936B4}"/>
+    <hyperlink ref="B130" r:id="rId160" xr:uid="{5CB1E923-0C0B-46C3-9A06-C5BF1664BB99}"/>
+    <hyperlink ref="B4" r:id="rId161" xr:uid="{F0633C7D-B030-42F8-867D-487A4D0622C9}"/>
+    <hyperlink ref="B13" r:id="rId162" xr:uid="{F7C050ED-4E17-4083-9409-29763900B9F8}"/>
+    <hyperlink ref="B53" r:id="rId163" xr:uid="{96DF98C5-93EB-4B46-A8DE-540F97FB9D2D}"/>
+    <hyperlink ref="B163" r:id="rId164" xr:uid="{DC3780E6-8DBB-43AF-868F-038344C91A4E}"/>
+    <hyperlink ref="B164" r:id="rId165" xr:uid="{AF843F30-7625-42D0-BA56-6434FAE62C25}"/>
+    <hyperlink ref="B165" r:id="rId166" xr:uid="{5D94729E-5BC9-4A90-91A4-E22E6DF54EC5}"/>
+    <hyperlink ref="B166" r:id="rId167" xr:uid="{07FE2158-E54F-4DAF-A552-7A5F3BB2BAF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\Baseball\Player Listing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0994002B-E0EB-4EF4-8626-1B9A6BB3D420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68D5F90-7322-461E-B9DF-390E549BC9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="327">
   <si>
     <t>Name</t>
   </si>
@@ -1076,12 +1076,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1419,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
   <dimension ref="A1:C166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1736,6 +1735,9 @@
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="C31" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -3019,7 +3021,7 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="4" t="s">
+      <c r="A164" t="s">
         <v>324</v>
       </c>
       <c r="B164" s="2" t="s">

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68D5F90-7322-461E-B9DF-390E549BC9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB5EC93-E01F-4202-9C2B-A5CDE7FCB55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="3540" yWindow="3228" windowWidth="17280" windowHeight="8880" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="339">
   <si>
     <t>Name</t>
   </si>
@@ -215,9 +215,6 @@
     <t>https://midfield.mlbstatic.com/v1/people/615698/spots/120</t>
   </si>
   <si>
-    <t>Martin Perez</t>
-  </si>
-  <si>
     <t>https://midfield.mlbstatic.com/v1/people/527048/spots/120</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
     <t>https://midfield.mlbstatic.com/v1/people/605400/spots/120</t>
   </si>
   <si>
-    <t>Yusei Kkuchi</t>
-  </si>
-  <si>
     <t>https://midfield.mlbstatic.com/v1/people/579328/spots/120</t>
   </si>
   <si>
@@ -269,9 +263,6 @@
     <t>https://midfield.mlbstatic.com/v1/people/573186/spots/120</t>
   </si>
   <si>
-    <t>Jose Soriano</t>
-  </si>
-  <si>
     <t>https://midfield.mlbstatic.com/v1/people/667755/spots/120</t>
   </si>
   <si>
@@ -299,9 +290,6 @@
     <t>https://midfield.mlbstatic.com/v1/people/669373/spots/120</t>
   </si>
   <si>
-    <t>Nester Cortes</t>
-  </si>
-  <si>
     <t>https://midfield.mlbstatic.com/v1/people/641482/spots/120</t>
   </si>
   <si>
@@ -413,9 +401,6 @@
     <t>https://midfield.mlbstatic.com/v1/people/665871/spots/120</t>
   </si>
   <si>
-    <t>Sixto Sanchez</t>
-  </si>
-  <si>
     <t>https://midfield.mlbstatic.com/v1/people/664350/spots/120</t>
   </si>
   <si>
@@ -668,9 +653,6 @@
     <t>https://midfield.mlbstatic.com/v1/people/808967/spots/120</t>
   </si>
   <si>
-    <t>Jose Urena</t>
-  </si>
-  <si>
     <t>https://midfield.mlbstatic.com/v1/people/570632/spots/120</t>
   </si>
   <si>
@@ -1020,6 +1002,60 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/681035/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/641726/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/656756/spots/120</t>
+  </si>
+  <si>
+    <t>José Soriano</t>
+  </si>
+  <si>
+    <t>José Ureña</t>
+  </si>
+  <si>
+    <t>Martín Pérez</t>
+  </si>
+  <si>
+    <t>Nestor Cortes</t>
+  </si>
+  <si>
+    <t>Sixto Sánchez</t>
+  </si>
+  <si>
+    <t>Yusei Kikuchi</t>
+  </si>
+  <si>
+    <t>Aaron Brooks</t>
+  </si>
+  <si>
+    <t>Blake Walston</t>
+  </si>
+  <si>
+    <t>Ryan Weathers</t>
+  </si>
+  <si>
+    <t>Kyle Bradish</t>
+  </si>
+  <si>
+    <t>Gerson Garabito</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/605156/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/686796/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/677960/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/680694/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/642520/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1049,18 +1085,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1076,11 +1106,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1416,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1436,75 +1465,84 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>63</v>
+      <c r="C3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1512,29 +1550,32 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1545,111 +1586,117 @@
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1659,46 +1706,52 @@
       <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="C23" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C25" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C27" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1708,24 +1761,30 @@
       <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C28" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C30" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1736,7 +1795,7 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1746,6 +1805,9 @@
       <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C32" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -1754,16 +1816,19 @@
       <c r="B33" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="C33" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1771,18 +1836,21 @@
         <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C35" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1790,29 +1858,32 @@
         <v>11</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
+      </c>
+      <c r="C38" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C39" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1820,45 +1891,54 @@
         <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>36</v>
+      <c r="B42" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C42" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1869,91 +1949,106 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
+      </c>
+      <c r="C46" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
+      </c>
+      <c r="C49" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="C52" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="C54" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1963,13 +2058,19 @@
       <c r="B55" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="C56" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1979,73 +2080,85 @@
       <c r="B57" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="C57" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C58" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C59" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="C60" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C62" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="C63" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2055,6 +2168,9 @@
       <c r="B65" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
@@ -2063,59 +2179,74 @@
       <c r="B66" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="C66" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="C67" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C68" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="C69" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>61</v>
+      <c r="C70" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>36</v>
+      <c r="B71" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C71" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -2123,56 +2254,65 @@
         <v>31</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C73" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="C74" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>209</v>
+        <v>324</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
+      </c>
+      <c r="C76" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C77" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -2180,18 +2320,21 @@
         <v>17</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C79" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -2199,21 +2342,21 @@
         <v>18</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C82" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -2221,103 +2364,109 @@
         <v>28</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C83" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C84" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C85" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C87" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C88" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
+      </c>
+      <c r="C90" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
+      </c>
+      <c r="C91" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C92" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -2325,143 +2474,164 @@
         <v>19</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C93" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="C94" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="C95" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="C96" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>325</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>59</v>
+      <c r="C97" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C98" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C99" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C100" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="C101" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+      <c r="C102" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C103" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C104" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C105" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="C106" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C107" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -2469,83 +2639,98 @@
         <v>20</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C108" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C109" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C110" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>326</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="C111" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
+      </c>
+      <c r="C112" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
+      </c>
+      <c r="C113" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C114" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
+      </c>
+      <c r="C115" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="C116" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -2555,27 +2740,30 @@
       <c r="B117" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="C117" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C118" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C119" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -2586,67 +2774,73 @@
         <v>40</v>
       </c>
       <c r="C120" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C121" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C122" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="C123" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
+      </c>
+      <c r="C124" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C125" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C126" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -2654,18 +2848,21 @@
         <v>35</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C127" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>212</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>224</v>
+      <c r="C128" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -2676,53 +2873,62 @@
         <v>41</v>
       </c>
       <c r="C129" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C130" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="C131" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="C132" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="C133" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C134" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -2733,7 +2939,7 @@
         <v>36</v>
       </c>
       <c r="C135" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -2741,121 +2947,142 @@
         <v>33</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C136" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>124</v>
+        <v>327</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="C138" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
+      </c>
+      <c r="C139" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
+      </c>
+      <c r="C140" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C141" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
+      </c>
+      <c r="C142" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C143" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="C144" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C145" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="C146" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
+      </c>
+      <c r="C147" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C148" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -2863,10 +3090,10 @@
         <v>24</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C149" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -2874,65 +3101,65 @@
         <v>25</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C150" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C151" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C152" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C153" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C154" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C155" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -2940,40 +3167,43 @@
         <v>34</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C156" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C157" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>64</v>
+        <v>328</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="C158" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C159" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -2981,21 +3211,21 @@
         <v>26</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C160" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C161" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -3006,51 +3236,106 @@
         <v>44</v>
       </c>
       <c r="C162" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C163" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C164" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C165" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C166" t="s">
-        <v>169</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>329</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C167" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>330</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C168" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C169" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>332</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C170" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>333</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C171" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3064,169 +3349,175 @@
     <hyperlink ref="B9" r:id="rId2" xr:uid="{1EA6B6DE-C528-4BBF-8958-B9D1378CBBEA}"/>
     <hyperlink ref="B12" r:id="rId3" xr:uid="{4F9BBF32-0E85-44F1-BAE2-FDFE1B91203C}"/>
     <hyperlink ref="B28" r:id="rId4" xr:uid="{1743C8BA-2A45-4EF9-8EAE-003FA5622677}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{3521B756-6F7E-42CD-AEAF-87332DE15270}"/>
-    <hyperlink ref="B22:B33" r:id="rId6" display="https://midfield.mlbstatic.com/v1/people/607625/spots/120" xr:uid="{0BEAC05A-0642-46CC-8EFF-600216D53EAC}"/>
-    <hyperlink ref="B120" r:id="rId7" xr:uid="{759148E7-8E0F-41F6-B9F3-BB34C434E2D7}"/>
-    <hyperlink ref="B129" r:id="rId8" xr:uid="{8850343C-EAF0-4713-9C66-21BF05B290EC}"/>
-    <hyperlink ref="B31" r:id="rId9" xr:uid="{CA8DDB4C-49CE-4AA5-B564-1108A8088B23}"/>
-    <hyperlink ref="B45" r:id="rId10" xr:uid="{A96A63DD-6ED4-47E6-B759-BD9FCFC58B60}"/>
-    <hyperlink ref="B162" r:id="rId11" xr:uid="{55C307B9-C21E-4227-B6BA-602B4CDD2E63}"/>
-    <hyperlink ref="B117" r:id="rId12" xr:uid="{FBC71765-97DF-4951-8AED-C771FFA6C3B6}"/>
-    <hyperlink ref="B52" r:id="rId13" xr:uid="{44C0BA97-BC98-4009-9EF5-8C29C471CC2B}"/>
-    <hyperlink ref="B65" r:id="rId14" xr:uid="{83CC39A1-58DF-4F8E-80EF-7133BFDA09E5}"/>
-    <hyperlink ref="B66" r:id="rId15" xr:uid="{A9F4C6E5-7612-40C3-92FF-2F0A1197F32E}"/>
-    <hyperlink ref="B55" r:id="rId16" xr:uid="{29AD0F25-0604-4645-86CB-591ACB87642C}"/>
-    <hyperlink ref="B33" r:id="rId17" xr:uid="{03239B77-EAD5-4377-8E99-41BDC8C35FAF}"/>
-    <hyperlink ref="B57" r:id="rId18" xr:uid="{A963AD17-9953-4B76-B014-99AE04AFBC22}"/>
-    <hyperlink ref="B23" r:id="rId19" xr:uid="{254FC5D9-2139-49F1-AF42-C37C7AD52CF9}"/>
-    <hyperlink ref="B97" r:id="rId20" xr:uid="{ADEC84CE-4B4C-475A-B45C-A5A25ABA57F9}"/>
-    <hyperlink ref="B70" r:id="rId21" xr:uid="{A903E050-8C42-4183-880A-565DF6E20245}"/>
-    <hyperlink ref="B3" r:id="rId22" xr:uid="{E83EAE86-523E-449E-8625-E0FCBC6EDE67}"/>
-    <hyperlink ref="B158" r:id="rId23" xr:uid="{4F43B789-DA90-4D7B-B4C4-7719C98AFEF4}"/>
-    <hyperlink ref="B116" r:id="rId24" xr:uid="{1073D5D0-0D5E-4AB1-940D-24EDB5EF0E1D}"/>
-    <hyperlink ref="B74" r:id="rId25" xr:uid="{30F225A0-9236-482B-8651-D6C10378128C}"/>
-    <hyperlink ref="B2" r:id="rId26" xr:uid="{DE5B31BF-642F-4D65-BB0B-8BB02C0C599F}"/>
-    <hyperlink ref="B123" r:id="rId27" xr:uid="{6478F936-7CCC-485F-8FAD-5E974D281F62}"/>
-    <hyperlink ref="B96" r:id="rId28" xr:uid="{4FDE78C3-89C9-4179-86C1-21A106ED4B68}"/>
-    <hyperlink ref="B75" r:id="rId29" xr:uid="{71FF812A-69FD-42EC-A428-9503EB1166BE}"/>
-    <hyperlink ref="B144" r:id="rId30" xr:uid="{6A269B70-A168-4F22-809C-69E3664B7B4F}"/>
-    <hyperlink ref="B80" r:id="rId31" xr:uid="{2AF8C5A2-0A6E-4AFA-BE5A-8756CD3E9A15}"/>
-    <hyperlink ref="B106" r:id="rId32" xr:uid="{775807C5-A8E8-4E03-94A3-07FC338C7B2F}"/>
-    <hyperlink ref="B146" r:id="rId33" xr:uid="{4C620958-7BE1-4A72-AF05-2D2C30EFE637}"/>
-    <hyperlink ref="B111" r:id="rId34" xr:uid="{9C374395-032E-47D8-8E1D-F14135FEB884}"/>
-    <hyperlink ref="B6" r:id="rId35" xr:uid="{7C24BFBA-D940-4280-9AA6-9EB5B2A7C325}"/>
-    <hyperlink ref="B11" r:id="rId36" xr:uid="{935A4BCA-043C-42B5-9B58-F01D785A78E7}"/>
-    <hyperlink ref="B132" r:id="rId37" xr:uid="{AD23B2E5-01B6-4980-8B3E-2745128B55B6}"/>
-    <hyperlink ref="B95" r:id="rId38" xr:uid="{ADD15800-FFAF-4C56-96C3-B6E9A6B7A9B4}"/>
-    <hyperlink ref="B54" r:id="rId39" xr:uid="{FD14EBC0-A744-44D9-8D7E-8C400674FEED}"/>
-    <hyperlink ref="B24" r:id="rId40" xr:uid="{1C789BBB-C806-4AEC-87FD-4A30D09E0378}"/>
-    <hyperlink ref="B94" r:id="rId41" xr:uid="{39BDDF5C-5ED6-4DC6-8403-935839E42AE4}"/>
-    <hyperlink ref="B131" r:id="rId42" xr:uid="{16CEFA6F-1B35-42FD-8606-E6523BF824B9}"/>
-    <hyperlink ref="B62:B78" r:id="rId43" display="https://midfield.mlbstatic.com/v1/people/686752/spots/120" xr:uid="{1E5EFC44-7608-40AF-A777-AAC898C6A9CB}"/>
-    <hyperlink ref="B21" r:id="rId44" xr:uid="{17D051F0-8C68-4AF3-B256-1F5E71DD2455}"/>
-    <hyperlink ref="B56" r:id="rId45" xr:uid="{B4766B4E-7BF7-4C41-98C2-8E48C0CCFAC8}"/>
-    <hyperlink ref="B69" r:id="rId46" xr:uid="{49ACB698-CD82-44AA-8A65-26D2BBDB0788}"/>
-    <hyperlink ref="B41" r:id="rId47" xr:uid="{FBAE3FE6-1362-4C09-BAE7-1B131AB4C4B4}"/>
-    <hyperlink ref="B36" r:id="rId48" xr:uid="{2181E8B2-59C9-4709-AA9A-962EF37831F2}"/>
-    <hyperlink ref="B67" r:id="rId49" xr:uid="{17F5505C-32E7-4316-BF97-1E84202C4785}"/>
-    <hyperlink ref="B50" r:id="rId50" xr:uid="{880E4723-2052-4A3F-AA76-423C6810C994}"/>
-    <hyperlink ref="B101" r:id="rId51" xr:uid="{D33AE6C2-8688-4E9D-B293-9E99FBE0DEB4}"/>
-    <hyperlink ref="B49" r:id="rId52" xr:uid="{ECF4F8FF-BB1E-4B49-965D-64768DC4F1E2}"/>
-    <hyperlink ref="B63" r:id="rId53" xr:uid="{2511CD2C-B67C-4354-9629-DE649A920EDD}"/>
-    <hyperlink ref="B138" r:id="rId54" xr:uid="{AE0C1E2C-3D72-45CF-9965-CDB6C0591891}"/>
-    <hyperlink ref="B64" r:id="rId55" xr:uid="{0E258565-BD6E-428A-BCE6-5D446B3DA628}"/>
-    <hyperlink ref="B43" r:id="rId56" xr:uid="{46541DDA-A399-42E9-B388-CAC462670117}"/>
-    <hyperlink ref="B112" r:id="rId57" xr:uid="{E26B4D45-A378-40C0-ACBA-A3D7F3B56528}"/>
-    <hyperlink ref="B100" r:id="rId58" xr:uid="{845F84C0-232D-4D80-B9DD-7415056297C5}"/>
-    <hyperlink ref="B133" r:id="rId59" xr:uid="{89BF64D4-12AC-4144-8B32-FDDD10668077}"/>
-    <hyperlink ref="B102" r:id="rId60" xr:uid="{8742B9B5-62C4-423F-B53B-AE1C619A7CB3}"/>
-    <hyperlink ref="B60" r:id="rId61" xr:uid="{A93F2FF5-2AE8-404E-A935-39A2AA8E0351}"/>
-    <hyperlink ref="B91" r:id="rId62" xr:uid="{F60D4181-1F3A-4C64-97A2-8368BC1A6176}"/>
-    <hyperlink ref="B142" r:id="rId63" xr:uid="{ECDB48F3-3C25-4B15-A902-40A90B1D441F}"/>
-    <hyperlink ref="B98" r:id="rId64" xr:uid="{1BF5B84A-6403-496F-BE72-4F7CFE5CD46A}"/>
-    <hyperlink ref="B58" r:id="rId65" xr:uid="{D48CC097-21D9-4697-92AF-17FE888C3469}"/>
-    <hyperlink ref="B153" r:id="rId66" xr:uid="{BA111F30-72E9-4701-B810-D904333C5C12}"/>
-    <hyperlink ref="B109" r:id="rId67" xr:uid="{C971DFEC-7D7D-44F8-8D77-AF06DD0C3650}"/>
-    <hyperlink ref="B157" r:id="rId68" xr:uid="{FF747A90-D82C-417A-A604-11C8A9BB8A1B}"/>
-    <hyperlink ref="B78" r:id="rId69" xr:uid="{508F6AEF-0519-456E-95D4-CFBA12F1D839}"/>
-    <hyperlink ref="B92" r:id="rId70" xr:uid="{B67845F2-3B4F-45CB-AC96-C32761C20607}"/>
-    <hyperlink ref="B137" r:id="rId71" xr:uid="{B3EDDFE1-3BCD-4BF4-B469-F8CBF05D5228}"/>
-    <hyperlink ref="B22" r:id="rId72" xr:uid="{8E3867C0-9128-44B4-8D0A-62F663FD1C50}"/>
-    <hyperlink ref="B34" r:id="rId73" xr:uid="{7DF45689-E876-4814-B27F-BD82DF1893A8}"/>
-    <hyperlink ref="B134" r:id="rId74" xr:uid="{10233510-1E7F-47D8-9DC8-CECCEEAF2542}"/>
-    <hyperlink ref="B84" r:id="rId75" xr:uid="{C4B8637F-0EAC-421C-B98A-83396BEC74E6}"/>
-    <hyperlink ref="B7" r:id="rId76" xr:uid="{78FBD904-905A-4DF4-8336-339D9FD35EF9}"/>
-    <hyperlink ref="B155" r:id="rId77" xr:uid="{30FFC8B8-F48B-4956-82E5-5F5C1D42BFDA}"/>
-    <hyperlink ref="B127" r:id="rId78" xr:uid="{F297C688-6767-4A01-87CA-713F0DDF9C34}"/>
-    <hyperlink ref="B32" r:id="rId79" xr:uid="{DE8C1BDA-4F06-4739-8272-9C1526634215}"/>
-    <hyperlink ref="B150" r:id="rId80" xr:uid="{0B5DD545-15F8-4AED-86A6-780BA78A0233}"/>
-    <hyperlink ref="B81" r:id="rId81" xr:uid="{1EAB83F2-BCC3-4788-AB88-9206EE59BEFD}"/>
-    <hyperlink ref="B89" r:id="rId82" xr:uid="{B9CEB789-AD16-4793-B005-DBCE618DBE94}"/>
-    <hyperlink ref="B159" r:id="rId83" xr:uid="{BE0D192A-BC2F-4B35-99E0-370F38CA9C0B}"/>
-    <hyperlink ref="B48" r:id="rId84" xr:uid="{3F8FC17C-F146-4E12-BBB9-18B45BB5B3EC}"/>
-    <hyperlink ref="B72" r:id="rId85" xr:uid="{C3C3E0D1-E6BE-417A-AC79-EEB8F79FBE7C}"/>
-    <hyperlink ref="B39" r:id="rId86" xr:uid="{646B995D-2022-47E8-9C46-F74E16A3A629}"/>
-    <hyperlink ref="B37" r:id="rId87" xr:uid="{1F133298-7E48-4138-8126-F74D2CBDB050}"/>
-    <hyperlink ref="B149" r:id="rId88" xr:uid="{79CA2660-030A-4E38-B36D-D5A391C24AF6}"/>
-    <hyperlink ref="B105" r:id="rId89" xr:uid="{301BF770-273A-484E-AF66-F32DA8458844}"/>
-    <hyperlink ref="B160" r:id="rId90" xr:uid="{A72F7411-3596-45A9-BD47-96AE1238FE57}"/>
-    <hyperlink ref="B79" r:id="rId91" xr:uid="{9335E23F-5F7C-4364-8ABA-564F1B156EB5}"/>
-    <hyperlink ref="B93" r:id="rId92" xr:uid="{C528D45E-5270-4308-A5F4-DDDD4C29A97D}"/>
-    <hyperlink ref="B83" r:id="rId93" xr:uid="{E5C83DAC-00EF-49EE-9811-99C544403146}"/>
-    <hyperlink ref="B125" r:id="rId94" xr:uid="{F5146A50-BA2B-4466-A3AC-A9E6870FA443}"/>
-    <hyperlink ref="B121" r:id="rId95" xr:uid="{880D6AB9-DCD2-4819-B973-72461A04C7C8}"/>
-    <hyperlink ref="B136" r:id="rId96" xr:uid="{11544622-27D7-41FE-BA8C-7A64E8838D48}"/>
-    <hyperlink ref="B35" r:id="rId97" xr:uid="{BC65DFE4-1308-4C08-8CE7-8941756F790F}"/>
-    <hyperlink ref="B73" r:id="rId98" xr:uid="{8322B7F1-705E-4313-8FF2-F90CCF591E35}"/>
-    <hyperlink ref="B108" r:id="rId99" xr:uid="{EBB28F68-D663-44AA-86BD-53B20904935E}"/>
-    <hyperlink ref="B85" r:id="rId100" xr:uid="{6A80E6A8-DBFE-4A55-A512-7374F8FBE4FD}"/>
-    <hyperlink ref="B40" r:id="rId101" xr:uid="{CE6A856C-5BA0-46B8-BDBB-70D03B1E5FA6}"/>
-    <hyperlink ref="B44" r:id="rId102" xr:uid="{B219EA6C-AFC6-4A8E-A965-70B93C5367C4}"/>
-    <hyperlink ref="B156" r:id="rId103" xr:uid="{108B5805-5369-47C0-A3A2-CA30D2F91CFB}"/>
-    <hyperlink ref="B76" r:id="rId104" xr:uid="{7AD71135-DE45-46BB-A218-39306ABA3702}"/>
-    <hyperlink ref="B107:B115" r:id="rId105" display="https://midfield.mlbstatic.com/v1/people/570632/spots/120" xr:uid="{B6AEF0A1-DAD3-493D-AD72-9992AF4AC36A}"/>
-    <hyperlink ref="B139" r:id="rId106" xr:uid="{4FC1EEA6-0897-4ECD-9CE7-1A38B7A04DF4}"/>
-    <hyperlink ref="B115" r:id="rId107" xr:uid="{1C2C51A3-E75B-4CC0-A087-8366DF24A3F2}"/>
-    <hyperlink ref="B128" r:id="rId108" xr:uid="{BB7DF76E-86EB-4858-AEA6-0696B62895BC}"/>
-    <hyperlink ref="B14" r:id="rId109" xr:uid="{01DE55D4-78E8-461B-A8B9-B03E6D65C918}"/>
-    <hyperlink ref="B46" r:id="rId110" xr:uid="{FCD4C620-BB71-4CC3-A123-50EFE98B5FE2}"/>
-    <hyperlink ref="B124" r:id="rId111" xr:uid="{29ED6610-0117-47A3-9540-69CB5AC80B92}"/>
-    <hyperlink ref="B140" r:id="rId112" xr:uid="{9E30FD12-A196-40BE-A210-0C73986E5064}"/>
-    <hyperlink ref="B147" r:id="rId113" xr:uid="{B8175F43-D70E-459F-98CF-15ECFA717548}"/>
-    <hyperlink ref="B90" r:id="rId114" xr:uid="{A1F217DD-45E3-4ABD-A801-5D9F166E4EE3}"/>
-    <hyperlink ref="B10" r:id="rId115" xr:uid="{C6E8A0D7-8E63-4EC1-8C28-4570F13EECF8}"/>
-    <hyperlink ref="B26" r:id="rId116" xr:uid="{061EEF2C-85CF-400C-B70C-3AC1B107F1EC}"/>
-    <hyperlink ref="B27" r:id="rId117" xr:uid="{07D08D3B-A3C3-4916-9FE0-2CF26ECA4304}"/>
-    <hyperlink ref="B47" r:id="rId118" xr:uid="{91E7913A-86EE-40F5-9798-4A7B25F420CA}"/>
-    <hyperlink ref="B87" r:id="rId119" xr:uid="{0A5A0FD7-8B57-41D3-A410-CA8F6779F8C0}"/>
-    <hyperlink ref="B103" r:id="rId120" xr:uid="{9979CA0C-3483-428F-A7AC-8624936FB8FA}"/>
-    <hyperlink ref="B118" r:id="rId121" xr:uid="{482918C2-89BA-496F-8160-085C2940475B}"/>
-    <hyperlink ref="B122" r:id="rId122" xr:uid="{674942CB-83E4-4508-A135-1EB5B6D6E0BF}"/>
-    <hyperlink ref="B145" r:id="rId123" xr:uid="{1F6209AE-91BF-41D4-B9AD-7DEABA16621B}"/>
-    <hyperlink ref="B148" r:id="rId124" xr:uid="{F0E5D36A-2456-4111-9B29-31D8CBD1A12D}"/>
-    <hyperlink ref="B154" r:id="rId125" xr:uid="{789C651E-21E8-4E0D-8017-9BF6770B7FE4}"/>
-    <hyperlink ref="B143" r:id="rId126" xr:uid="{E96CD394-E5F8-46F9-9A93-3EA98A4EE8DE}"/>
-    <hyperlink ref="B16" r:id="rId127" xr:uid="{170B8200-FCC5-4ED1-8A6A-63B3F60FC427}"/>
-    <hyperlink ref="B19" r:id="rId128" xr:uid="{1165D173-E61C-477D-81EA-53C274E42084}"/>
-    <hyperlink ref="B8" r:id="rId129" xr:uid="{D71E6989-E12D-4FB6-8277-45C3718AA5C4}"/>
-    <hyperlink ref="B5" r:id="rId130" xr:uid="{FB4F273B-2196-4018-85BA-D42A207F8910}"/>
-    <hyperlink ref="B62" r:id="rId131" xr:uid="{9F233235-B9B1-4E7A-807E-8F2EE493E173}"/>
-    <hyperlink ref="B126" r:id="rId132" xr:uid="{F5D1A66D-4324-4468-A7A0-AD3D00B16AE7}"/>
-    <hyperlink ref="B18" r:id="rId133" xr:uid="{1759929B-600A-4949-96E1-F424E054D97A}"/>
-    <hyperlink ref="B86" r:id="rId134" xr:uid="{8B19E95A-E327-406E-9F25-861358533D76}"/>
-    <hyperlink ref="B17" r:id="rId135" xr:uid="{1DD3FDF5-6556-4823-8827-A75B5E83FD01}"/>
-    <hyperlink ref="B152" r:id="rId136" xr:uid="{B62475DC-179F-4CE0-8CF6-51DC972D40B7}"/>
-    <hyperlink ref="B151" r:id="rId137" xr:uid="{492088BD-9B89-42AA-A6AF-1F83749BDC72}"/>
-    <hyperlink ref="B20" r:id="rId138" xr:uid="{6118D192-2DB6-4311-A382-3371906C183D}"/>
-    <hyperlink ref="B140:B143" r:id="rId139" display="https://midfield.mlbstatic.com/v1/people/693821/spots/120" xr:uid="{0E83A794-B683-4463-A3A3-95576AFDD615}"/>
-    <hyperlink ref="B38" r:id="rId140" xr:uid="{98EC2002-988D-46D0-AD8B-CB1135815ADD}"/>
-    <hyperlink ref="B161" r:id="rId141" xr:uid="{80C5B6A6-E3F5-4F34-8C17-B202CF8842F5}"/>
-    <hyperlink ref="B113" r:id="rId142" xr:uid="{35842AC4-F920-4A32-B105-587FE352F876}"/>
-    <hyperlink ref="B68" r:id="rId143" xr:uid="{24E2A301-E80D-4F02-A94B-CFE6DF3719D1}"/>
-    <hyperlink ref="B59" r:id="rId144" xr:uid="{6D687EFE-5BD7-4FEF-B636-1A728E3CB6DF}"/>
-    <hyperlink ref="B119" r:id="rId145" xr:uid="{20E003D8-D5C4-4113-AFC3-D076CE9FE0A0}"/>
-    <hyperlink ref="B99" r:id="rId146" xr:uid="{3D5F262E-120A-4E2A-AF3A-1C4C1117AE44}"/>
-    <hyperlink ref="B15" r:id="rId147" xr:uid="{5ED77DE1-166F-4541-898A-786E114DAEF4}"/>
-    <hyperlink ref="B25" r:id="rId148" xr:uid="{81DC0D20-42F6-4D3C-87D3-B645CB35712A}"/>
-    <hyperlink ref="B30" r:id="rId149" xr:uid="{E396E594-A4D8-4E20-9A24-90B7589370B5}"/>
-    <hyperlink ref="B51" r:id="rId150" xr:uid="{823E8EED-4901-4993-A8EA-2CA91EBD8526}"/>
-    <hyperlink ref="B61" r:id="rId151" xr:uid="{923E21E9-8410-4112-9000-9E93896189E6}"/>
-    <hyperlink ref="B88" r:id="rId152" xr:uid="{C526E886-242E-4E87-ACB6-1E69A02EEBD3}"/>
-    <hyperlink ref="B104" r:id="rId153" xr:uid="{BFEEE380-0C63-474F-821D-61F8EF908A46}"/>
-    <hyperlink ref="B114" r:id="rId154" xr:uid="{2250FC95-0A39-4EE2-BCB2-FFF1EF3E4964}"/>
-    <hyperlink ref="B77" r:id="rId155" xr:uid="{174AA7F5-75DB-42B1-ACFF-646023A4BD2A}"/>
-    <hyperlink ref="B141" r:id="rId156" xr:uid="{30D34D43-AD29-4DE6-93CC-FD7C2F05FE00}"/>
-    <hyperlink ref="B110" r:id="rId157" xr:uid="{AD2496AE-C6CA-4D48-BE1B-E0D40292B961}"/>
-    <hyperlink ref="B82" r:id="rId158" xr:uid="{8EA8AFE5-38A5-4C45-95E6-52202880E214}"/>
-    <hyperlink ref="B107" r:id="rId159" xr:uid="{933DFE08-9AFA-4E05-81A6-D7AD9B2936B4}"/>
-    <hyperlink ref="B130" r:id="rId160" xr:uid="{5CB1E923-0C0B-46C3-9A06-C5BF1664BB99}"/>
-    <hyperlink ref="B4" r:id="rId161" xr:uid="{F0633C7D-B030-42F8-867D-487A4D0622C9}"/>
-    <hyperlink ref="B13" r:id="rId162" xr:uid="{F7C050ED-4E17-4083-9409-29763900B9F8}"/>
-    <hyperlink ref="B53" r:id="rId163" xr:uid="{96DF98C5-93EB-4B46-A8DE-540F97FB9D2D}"/>
-    <hyperlink ref="B163" r:id="rId164" xr:uid="{DC3780E6-8DBB-43AF-868F-038344C91A4E}"/>
-    <hyperlink ref="B164" r:id="rId165" xr:uid="{AF843F30-7625-42D0-BA56-6434FAE62C25}"/>
-    <hyperlink ref="B165" r:id="rId166" xr:uid="{5D94729E-5BC9-4A90-91A4-E22E6DF54EC5}"/>
-    <hyperlink ref="B166" r:id="rId167" xr:uid="{07FE2158-E54F-4DAF-A552-7A5F3BB2BAF7}"/>
+    <hyperlink ref="B120" r:id="rId5" xr:uid="{759148E7-8E0F-41F6-B9F3-BB34C434E2D7}"/>
+    <hyperlink ref="B129" r:id="rId6" xr:uid="{8850343C-EAF0-4713-9C66-21BF05B290EC}"/>
+    <hyperlink ref="B31" r:id="rId7" xr:uid="{CA8DDB4C-49CE-4AA5-B564-1108A8088B23}"/>
+    <hyperlink ref="B45" r:id="rId8" xr:uid="{A96A63DD-6ED4-47E6-B759-BD9FCFC58B60}"/>
+    <hyperlink ref="B162" r:id="rId9" xr:uid="{55C307B9-C21E-4227-B6BA-602B4CDD2E63}"/>
+    <hyperlink ref="B117" r:id="rId10" xr:uid="{FBC71765-97DF-4951-8AED-C771FFA6C3B6}"/>
+    <hyperlink ref="B52" r:id="rId11" xr:uid="{44C0BA97-BC98-4009-9EF5-8C29C471CC2B}"/>
+    <hyperlink ref="B65" r:id="rId12" xr:uid="{83CC39A1-58DF-4F8E-80EF-7133BFDA09E5}"/>
+    <hyperlink ref="B66" r:id="rId13" xr:uid="{A9F4C6E5-7612-40C3-92FF-2F0A1197F32E}"/>
+    <hyperlink ref="B55" r:id="rId14" xr:uid="{29AD0F25-0604-4645-86CB-591ACB87642C}"/>
+    <hyperlink ref="B33" r:id="rId15" xr:uid="{03239B77-EAD5-4377-8E99-41BDC8C35FAF}"/>
+    <hyperlink ref="B57" r:id="rId16" xr:uid="{A963AD17-9953-4B76-B014-99AE04AFBC22}"/>
+    <hyperlink ref="B23" r:id="rId17" xr:uid="{254FC5D9-2139-49F1-AF42-C37C7AD52CF9}"/>
+    <hyperlink ref="B97" r:id="rId18" xr:uid="{ADEC84CE-4B4C-475A-B45C-A5A25ABA57F9}"/>
+    <hyperlink ref="B70" r:id="rId19" xr:uid="{A903E050-8C42-4183-880A-565DF6E20245}"/>
+    <hyperlink ref="B3" r:id="rId20" xr:uid="{E83EAE86-523E-449E-8625-E0FCBC6EDE67}"/>
+    <hyperlink ref="B158" r:id="rId21" xr:uid="{4F43B789-DA90-4D7B-B4C4-7719C98AFEF4}"/>
+    <hyperlink ref="B116" r:id="rId22" xr:uid="{1073D5D0-0D5E-4AB1-940D-24EDB5EF0E1D}"/>
+    <hyperlink ref="B74" r:id="rId23" xr:uid="{30F225A0-9236-482B-8651-D6C10378128C}"/>
+    <hyperlink ref="B2" r:id="rId24" xr:uid="{DE5B31BF-642F-4D65-BB0B-8BB02C0C599F}"/>
+    <hyperlink ref="B123" r:id="rId25" xr:uid="{6478F936-7CCC-485F-8FAD-5E974D281F62}"/>
+    <hyperlink ref="B96" r:id="rId26" xr:uid="{4FDE78C3-89C9-4179-86C1-21A106ED4B68}"/>
+    <hyperlink ref="B75" r:id="rId27" xr:uid="{71FF812A-69FD-42EC-A428-9503EB1166BE}"/>
+    <hyperlink ref="B144" r:id="rId28" xr:uid="{6A269B70-A168-4F22-809C-69E3664B7B4F}"/>
+    <hyperlink ref="B80" r:id="rId29" xr:uid="{2AF8C5A2-0A6E-4AFA-BE5A-8756CD3E9A15}"/>
+    <hyperlink ref="B106" r:id="rId30" xr:uid="{775807C5-A8E8-4E03-94A3-07FC338C7B2F}"/>
+    <hyperlink ref="B146" r:id="rId31" xr:uid="{4C620958-7BE1-4A72-AF05-2D2C30EFE637}"/>
+    <hyperlink ref="B111" r:id="rId32" xr:uid="{9C374395-032E-47D8-8E1D-F14135FEB884}"/>
+    <hyperlink ref="B6" r:id="rId33" xr:uid="{7C24BFBA-D940-4280-9AA6-9EB5B2A7C325}"/>
+    <hyperlink ref="B11" r:id="rId34" xr:uid="{935A4BCA-043C-42B5-9B58-F01D785A78E7}"/>
+    <hyperlink ref="B132" r:id="rId35" xr:uid="{AD23B2E5-01B6-4980-8B3E-2745128B55B6}"/>
+    <hyperlink ref="B95" r:id="rId36" xr:uid="{ADD15800-FFAF-4C56-96C3-B6E9A6B7A9B4}"/>
+    <hyperlink ref="B54" r:id="rId37" xr:uid="{FD14EBC0-A744-44D9-8D7E-8C400674FEED}"/>
+    <hyperlink ref="B24" r:id="rId38" xr:uid="{1C789BBB-C806-4AEC-87FD-4A30D09E0378}"/>
+    <hyperlink ref="B94" r:id="rId39" xr:uid="{39BDDF5C-5ED6-4DC6-8403-935839E42AE4}"/>
+    <hyperlink ref="B131" r:id="rId40" xr:uid="{16CEFA6F-1B35-42FD-8606-E6523BF824B9}"/>
+    <hyperlink ref="B62:B78" r:id="rId41" display="https://midfield.mlbstatic.com/v1/people/686752/spots/120" xr:uid="{1E5EFC44-7608-40AF-A777-AAC898C6A9CB}"/>
+    <hyperlink ref="B21" r:id="rId42" xr:uid="{17D051F0-8C68-4AF3-B256-1F5E71DD2455}"/>
+    <hyperlink ref="B56" r:id="rId43" xr:uid="{B4766B4E-7BF7-4C41-98C2-8E48C0CCFAC8}"/>
+    <hyperlink ref="B69" r:id="rId44" xr:uid="{49ACB698-CD82-44AA-8A65-26D2BBDB0788}"/>
+    <hyperlink ref="B41" r:id="rId45" xr:uid="{FBAE3FE6-1362-4C09-BAE7-1B131AB4C4B4}"/>
+    <hyperlink ref="B36" r:id="rId46" xr:uid="{2181E8B2-59C9-4709-AA9A-962EF37831F2}"/>
+    <hyperlink ref="B67" r:id="rId47" xr:uid="{17F5505C-32E7-4316-BF97-1E84202C4785}"/>
+    <hyperlink ref="B50" r:id="rId48" xr:uid="{880E4723-2052-4A3F-AA76-423C6810C994}"/>
+    <hyperlink ref="B101" r:id="rId49" xr:uid="{D33AE6C2-8688-4E9D-B293-9E99FBE0DEB4}"/>
+    <hyperlink ref="B49" r:id="rId50" xr:uid="{ECF4F8FF-BB1E-4B49-965D-64768DC4F1E2}"/>
+    <hyperlink ref="B63" r:id="rId51" xr:uid="{2511CD2C-B67C-4354-9629-DE649A920EDD}"/>
+    <hyperlink ref="B138" r:id="rId52" xr:uid="{AE0C1E2C-3D72-45CF-9965-CDB6C0591891}"/>
+    <hyperlink ref="B64" r:id="rId53" xr:uid="{0E258565-BD6E-428A-BCE6-5D446B3DA628}"/>
+    <hyperlink ref="B43" r:id="rId54" xr:uid="{46541DDA-A399-42E9-B388-CAC462670117}"/>
+    <hyperlink ref="B112" r:id="rId55" xr:uid="{E26B4D45-A378-40C0-ACBA-A3D7F3B56528}"/>
+    <hyperlink ref="B100" r:id="rId56" xr:uid="{845F84C0-232D-4D80-B9DD-7415056297C5}"/>
+    <hyperlink ref="B133" r:id="rId57" xr:uid="{89BF64D4-12AC-4144-8B32-FDDD10668077}"/>
+    <hyperlink ref="B102" r:id="rId58" xr:uid="{8742B9B5-62C4-423F-B53B-AE1C619A7CB3}"/>
+    <hyperlink ref="B60" r:id="rId59" xr:uid="{A93F2FF5-2AE8-404E-A935-39A2AA8E0351}"/>
+    <hyperlink ref="B91" r:id="rId60" xr:uid="{F60D4181-1F3A-4C64-97A2-8368BC1A6176}"/>
+    <hyperlink ref="B142" r:id="rId61" xr:uid="{ECDB48F3-3C25-4B15-A902-40A90B1D441F}"/>
+    <hyperlink ref="B98" r:id="rId62" xr:uid="{1BF5B84A-6403-496F-BE72-4F7CFE5CD46A}"/>
+    <hyperlink ref="B58" r:id="rId63" xr:uid="{D48CC097-21D9-4697-92AF-17FE888C3469}"/>
+    <hyperlink ref="B153" r:id="rId64" xr:uid="{BA111F30-72E9-4701-B810-D904333C5C12}"/>
+    <hyperlink ref="B109" r:id="rId65" xr:uid="{C971DFEC-7D7D-44F8-8D77-AF06DD0C3650}"/>
+    <hyperlink ref="B157" r:id="rId66" xr:uid="{FF747A90-D82C-417A-A604-11C8A9BB8A1B}"/>
+    <hyperlink ref="B78" r:id="rId67" xr:uid="{508F6AEF-0519-456E-95D4-CFBA12F1D839}"/>
+    <hyperlink ref="B92" r:id="rId68" xr:uid="{B67845F2-3B4F-45CB-AC96-C32761C20607}"/>
+    <hyperlink ref="B137" r:id="rId69" xr:uid="{B3EDDFE1-3BCD-4BF4-B469-F8CBF05D5228}"/>
+    <hyperlink ref="B22" r:id="rId70" xr:uid="{8E3867C0-9128-44B4-8D0A-62F663FD1C50}"/>
+    <hyperlink ref="B34" r:id="rId71" xr:uid="{7DF45689-E876-4814-B27F-BD82DF1893A8}"/>
+    <hyperlink ref="B134" r:id="rId72" xr:uid="{10233510-1E7F-47D8-9DC8-CECCEEAF2542}"/>
+    <hyperlink ref="B84" r:id="rId73" xr:uid="{C4B8637F-0EAC-421C-B98A-83396BEC74E6}"/>
+    <hyperlink ref="B7" r:id="rId74" xr:uid="{78FBD904-905A-4DF4-8336-339D9FD35EF9}"/>
+    <hyperlink ref="B155" r:id="rId75" xr:uid="{30FFC8B8-F48B-4956-82E5-5F5C1D42BFDA}"/>
+    <hyperlink ref="B127" r:id="rId76" xr:uid="{F297C688-6767-4A01-87CA-713F0DDF9C34}"/>
+    <hyperlink ref="B32" r:id="rId77" xr:uid="{DE8C1BDA-4F06-4739-8272-9C1526634215}"/>
+    <hyperlink ref="B150" r:id="rId78" xr:uid="{0B5DD545-15F8-4AED-86A6-780BA78A0233}"/>
+    <hyperlink ref="B81" r:id="rId79" xr:uid="{1EAB83F2-BCC3-4788-AB88-9206EE59BEFD}"/>
+    <hyperlink ref="B89" r:id="rId80" xr:uid="{B9CEB789-AD16-4793-B005-DBCE618DBE94}"/>
+    <hyperlink ref="B159" r:id="rId81" xr:uid="{BE0D192A-BC2F-4B35-99E0-370F38CA9C0B}"/>
+    <hyperlink ref="B48" r:id="rId82" xr:uid="{3F8FC17C-F146-4E12-BBB9-18B45BB5B3EC}"/>
+    <hyperlink ref="B72" r:id="rId83" xr:uid="{C3C3E0D1-E6BE-417A-AC79-EEB8F79FBE7C}"/>
+    <hyperlink ref="B39" r:id="rId84" xr:uid="{646B995D-2022-47E8-9C46-F74E16A3A629}"/>
+    <hyperlink ref="B37" r:id="rId85" xr:uid="{1F133298-7E48-4138-8126-F74D2CBDB050}"/>
+    <hyperlink ref="B149" r:id="rId86" xr:uid="{79CA2660-030A-4E38-B36D-D5A391C24AF6}"/>
+    <hyperlink ref="B105" r:id="rId87" xr:uid="{301BF770-273A-484E-AF66-F32DA8458844}"/>
+    <hyperlink ref="B160" r:id="rId88" xr:uid="{A72F7411-3596-45A9-BD47-96AE1238FE57}"/>
+    <hyperlink ref="B79" r:id="rId89" xr:uid="{9335E23F-5F7C-4364-8ABA-564F1B156EB5}"/>
+    <hyperlink ref="B93" r:id="rId90" xr:uid="{C528D45E-5270-4308-A5F4-DDDD4C29A97D}"/>
+    <hyperlink ref="B83" r:id="rId91" xr:uid="{E5C83DAC-00EF-49EE-9811-99C544403146}"/>
+    <hyperlink ref="B125" r:id="rId92" xr:uid="{F5146A50-BA2B-4466-A3AC-A9E6870FA443}"/>
+    <hyperlink ref="B121" r:id="rId93" xr:uid="{880D6AB9-DCD2-4819-B973-72461A04C7C8}"/>
+    <hyperlink ref="B136" r:id="rId94" xr:uid="{11544622-27D7-41FE-BA8C-7A64E8838D48}"/>
+    <hyperlink ref="B35" r:id="rId95" xr:uid="{BC65DFE4-1308-4C08-8CE7-8941756F790F}"/>
+    <hyperlink ref="B73" r:id="rId96" xr:uid="{8322B7F1-705E-4313-8FF2-F90CCF591E35}"/>
+    <hyperlink ref="B108" r:id="rId97" xr:uid="{EBB28F68-D663-44AA-86BD-53B20904935E}"/>
+    <hyperlink ref="B85" r:id="rId98" xr:uid="{6A80E6A8-DBFE-4A55-A512-7374F8FBE4FD}"/>
+    <hyperlink ref="B40" r:id="rId99" xr:uid="{CE6A856C-5BA0-46B8-BDBB-70D03B1E5FA6}"/>
+    <hyperlink ref="B44" r:id="rId100" xr:uid="{B219EA6C-AFC6-4A8E-A965-70B93C5367C4}"/>
+    <hyperlink ref="B156" r:id="rId101" xr:uid="{108B5805-5369-47C0-A3A2-CA30D2F91CFB}"/>
+    <hyperlink ref="B76" r:id="rId102" xr:uid="{7AD71135-DE45-46BB-A218-39306ABA3702}"/>
+    <hyperlink ref="B107:B115" r:id="rId103" display="https://midfield.mlbstatic.com/v1/people/570632/spots/120" xr:uid="{B6AEF0A1-DAD3-493D-AD72-9992AF4AC36A}"/>
+    <hyperlink ref="B139" r:id="rId104" xr:uid="{4FC1EEA6-0897-4ECD-9CE7-1A38B7A04DF4}"/>
+    <hyperlink ref="B115" r:id="rId105" xr:uid="{1C2C51A3-E75B-4CC0-A087-8366DF24A3F2}"/>
+    <hyperlink ref="B128" r:id="rId106" xr:uid="{BB7DF76E-86EB-4858-AEA6-0696B62895BC}"/>
+    <hyperlink ref="B14" r:id="rId107" xr:uid="{01DE55D4-78E8-461B-A8B9-B03E6D65C918}"/>
+    <hyperlink ref="B46" r:id="rId108" xr:uid="{FCD4C620-BB71-4CC3-A123-50EFE98B5FE2}"/>
+    <hyperlink ref="B124" r:id="rId109" xr:uid="{29ED6610-0117-47A3-9540-69CB5AC80B92}"/>
+    <hyperlink ref="B140" r:id="rId110" xr:uid="{9E30FD12-A196-40BE-A210-0C73986E5064}"/>
+    <hyperlink ref="B147" r:id="rId111" xr:uid="{B8175F43-D70E-459F-98CF-15ECFA717548}"/>
+    <hyperlink ref="B90" r:id="rId112" xr:uid="{A1F217DD-45E3-4ABD-A801-5D9F166E4EE3}"/>
+    <hyperlink ref="B10" r:id="rId113" xr:uid="{C6E8A0D7-8E63-4EC1-8C28-4570F13EECF8}"/>
+    <hyperlink ref="B26" r:id="rId114" xr:uid="{061EEF2C-85CF-400C-B70C-3AC1B107F1EC}"/>
+    <hyperlink ref="B27" r:id="rId115" xr:uid="{07D08D3B-A3C3-4916-9FE0-2CF26ECA4304}"/>
+    <hyperlink ref="B47" r:id="rId116" xr:uid="{91E7913A-86EE-40F5-9798-4A7B25F420CA}"/>
+    <hyperlink ref="B87" r:id="rId117" xr:uid="{0A5A0FD7-8B57-41D3-A410-CA8F6779F8C0}"/>
+    <hyperlink ref="B103" r:id="rId118" xr:uid="{9979CA0C-3483-428F-A7AC-8624936FB8FA}"/>
+    <hyperlink ref="B118" r:id="rId119" xr:uid="{482918C2-89BA-496F-8160-085C2940475B}"/>
+    <hyperlink ref="B122" r:id="rId120" xr:uid="{674942CB-83E4-4508-A135-1EB5B6D6E0BF}"/>
+    <hyperlink ref="B145" r:id="rId121" xr:uid="{1F6209AE-91BF-41D4-B9AD-7DEABA16621B}"/>
+    <hyperlink ref="B148" r:id="rId122" xr:uid="{F0E5D36A-2456-4111-9B29-31D8CBD1A12D}"/>
+    <hyperlink ref="B154" r:id="rId123" xr:uid="{789C651E-21E8-4E0D-8017-9BF6770B7FE4}"/>
+    <hyperlink ref="B143" r:id="rId124" xr:uid="{E96CD394-E5F8-46F9-9A93-3EA98A4EE8DE}"/>
+    <hyperlink ref="B16" r:id="rId125" xr:uid="{170B8200-FCC5-4ED1-8A6A-63B3F60FC427}"/>
+    <hyperlink ref="B19" r:id="rId126" xr:uid="{1165D173-E61C-477D-81EA-53C274E42084}"/>
+    <hyperlink ref="B8" r:id="rId127" xr:uid="{D71E6989-E12D-4FB6-8277-45C3718AA5C4}"/>
+    <hyperlink ref="B5" r:id="rId128" xr:uid="{FB4F273B-2196-4018-85BA-D42A207F8910}"/>
+    <hyperlink ref="B62" r:id="rId129" xr:uid="{9F233235-B9B1-4E7A-807E-8F2EE493E173}"/>
+    <hyperlink ref="B126" r:id="rId130" xr:uid="{F5D1A66D-4324-4468-A7A0-AD3D00B16AE7}"/>
+    <hyperlink ref="B18" r:id="rId131" xr:uid="{1759929B-600A-4949-96E1-F424E054D97A}"/>
+    <hyperlink ref="B86" r:id="rId132" xr:uid="{8B19E95A-E327-406E-9F25-861358533D76}"/>
+    <hyperlink ref="B17" r:id="rId133" xr:uid="{1DD3FDF5-6556-4823-8827-A75B5E83FD01}"/>
+    <hyperlink ref="B152" r:id="rId134" xr:uid="{B62475DC-179F-4CE0-8CF6-51DC972D40B7}"/>
+    <hyperlink ref="B151" r:id="rId135" xr:uid="{492088BD-9B89-42AA-A6AF-1F83749BDC72}"/>
+    <hyperlink ref="B20" r:id="rId136" xr:uid="{6118D192-2DB6-4311-A382-3371906C183D}"/>
+    <hyperlink ref="B140:B143" r:id="rId137" display="https://midfield.mlbstatic.com/v1/people/693821/spots/120" xr:uid="{0E83A794-B683-4463-A3A3-95576AFDD615}"/>
+    <hyperlink ref="B38" r:id="rId138" xr:uid="{98EC2002-988D-46D0-AD8B-CB1135815ADD}"/>
+    <hyperlink ref="B161" r:id="rId139" xr:uid="{80C5B6A6-E3F5-4F34-8C17-B202CF8842F5}"/>
+    <hyperlink ref="B113" r:id="rId140" xr:uid="{35842AC4-F920-4A32-B105-587FE352F876}"/>
+    <hyperlink ref="B68" r:id="rId141" xr:uid="{24E2A301-E80D-4F02-A94B-CFE6DF3719D1}"/>
+    <hyperlink ref="B59" r:id="rId142" xr:uid="{6D687EFE-5BD7-4FEF-B636-1A728E3CB6DF}"/>
+    <hyperlink ref="B119" r:id="rId143" xr:uid="{20E003D8-D5C4-4113-AFC3-D076CE9FE0A0}"/>
+    <hyperlink ref="B99" r:id="rId144" xr:uid="{3D5F262E-120A-4E2A-AF3A-1C4C1117AE44}"/>
+    <hyperlink ref="B15" r:id="rId145" xr:uid="{5ED77DE1-166F-4541-898A-786E114DAEF4}"/>
+    <hyperlink ref="B25" r:id="rId146" xr:uid="{81DC0D20-42F6-4D3C-87D3-B645CB35712A}"/>
+    <hyperlink ref="B30" r:id="rId147" xr:uid="{E396E594-A4D8-4E20-9A24-90B7589370B5}"/>
+    <hyperlink ref="B51" r:id="rId148" xr:uid="{823E8EED-4901-4993-A8EA-2CA91EBD8526}"/>
+    <hyperlink ref="B61" r:id="rId149" xr:uid="{923E21E9-8410-4112-9000-9E93896189E6}"/>
+    <hyperlink ref="B88" r:id="rId150" xr:uid="{C526E886-242E-4E87-ACB6-1E69A02EEBD3}"/>
+    <hyperlink ref="B104" r:id="rId151" xr:uid="{BFEEE380-0C63-474F-821D-61F8EF908A46}"/>
+    <hyperlink ref="B114" r:id="rId152" xr:uid="{2250FC95-0A39-4EE2-BCB2-FFF1EF3E4964}"/>
+    <hyperlink ref="B77" r:id="rId153" xr:uid="{174AA7F5-75DB-42B1-ACFF-646023A4BD2A}"/>
+    <hyperlink ref="B141" r:id="rId154" xr:uid="{30D34D43-AD29-4DE6-93CC-FD7C2F05FE00}"/>
+    <hyperlink ref="B110" r:id="rId155" xr:uid="{AD2496AE-C6CA-4D48-BE1B-E0D40292B961}"/>
+    <hyperlink ref="B82" r:id="rId156" xr:uid="{8EA8AFE5-38A5-4C45-95E6-52202880E214}"/>
+    <hyperlink ref="B107" r:id="rId157" xr:uid="{933DFE08-9AFA-4E05-81A6-D7AD9B2936B4}"/>
+    <hyperlink ref="B130" r:id="rId158" xr:uid="{5CB1E923-0C0B-46C3-9A06-C5BF1664BB99}"/>
+    <hyperlink ref="B4" r:id="rId159" xr:uid="{F0633C7D-B030-42F8-867D-487A4D0622C9}"/>
+    <hyperlink ref="B13" r:id="rId160" xr:uid="{F7C050ED-4E17-4083-9409-29763900B9F8}"/>
+    <hyperlink ref="B53" r:id="rId161" xr:uid="{96DF98C5-93EB-4B46-A8DE-540F97FB9D2D}"/>
+    <hyperlink ref="B163" r:id="rId162" xr:uid="{DC3780E6-8DBB-43AF-868F-038344C91A4E}"/>
+    <hyperlink ref="B164" r:id="rId163" xr:uid="{AF843F30-7625-42D0-BA56-6434FAE62C25}"/>
+    <hyperlink ref="B165" r:id="rId164" xr:uid="{5D94729E-5BC9-4A90-91A4-E22E6DF54EC5}"/>
+    <hyperlink ref="B166" r:id="rId165" xr:uid="{07FE2158-E54F-4DAF-A552-7A5F3BB2BAF7}"/>
+    <hyperlink ref="B29" r:id="rId166" xr:uid="{202CCF33-99A3-4853-AE16-95008489CCC5}"/>
+    <hyperlink ref="B42" r:id="rId167" xr:uid="{F4B5E23D-9319-41A2-AB51-5DE0A45DD8B4}"/>
+    <hyperlink ref="B71" r:id="rId168" xr:uid="{1692F5E0-FB63-492A-92F7-244666AA4D6C}"/>
+    <hyperlink ref="B167" r:id="rId169" xr:uid="{AB038426-E25A-4D00-959B-BADAAFC83263}"/>
+    <hyperlink ref="B168" r:id="rId170" xr:uid="{37BD58F8-5963-4DEE-8AC0-94C476AAA7B4}"/>
+    <hyperlink ref="B169" r:id="rId171" xr:uid="{224B22F8-17AF-4F0E-B83D-83E51925E3DA}"/>
+    <hyperlink ref="B170" r:id="rId172" xr:uid="{7C41A3D8-7B2C-4E19-8D41-28A0650CBF55}"/>
+    <hyperlink ref="B171" r:id="rId173" xr:uid="{04763326-6E4F-46B3-85EC-C59D9071D0F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB5EC93-E01F-4202-9C2B-A5CDE7FCB55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F990C4-D093-4A0A-B60F-98083EC84444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3228" windowWidth="17280" windowHeight="8880" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="349">
   <si>
     <t>Name</t>
   </si>
@@ -1056,6 +1056,36 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/642520/spots/120</t>
+  </si>
+  <si>
+    <t>Blake Snell</t>
+  </si>
+  <si>
+    <t>Mitchell Parker</t>
+  </si>
+  <si>
+    <t>Nick Nastrini</t>
+  </si>
+  <si>
+    <t>Xzavion Curry</t>
+  </si>
+  <si>
+    <t>Anthony Molina</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/605483/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/680730/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/680897/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/675540/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/683627/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1445,10 +1475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="B169" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3336,6 +3366,46 @@
       </c>
       <c r="C171" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>339</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>340</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>341</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>342</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>343</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3518,6 +3588,11 @@
     <hyperlink ref="B169" r:id="rId171" xr:uid="{224B22F8-17AF-4F0E-B83D-83E51925E3DA}"/>
     <hyperlink ref="B170" r:id="rId172" xr:uid="{7C41A3D8-7B2C-4E19-8D41-28A0650CBF55}"/>
     <hyperlink ref="B171" r:id="rId173" xr:uid="{04763326-6E4F-46B3-85EC-C59D9071D0F0}"/>
+    <hyperlink ref="B172" r:id="rId174" xr:uid="{6595AC92-4EB6-4C25-8AA6-B1D9744B1285}"/>
+    <hyperlink ref="B173" r:id="rId175" xr:uid="{B78F9174-E83B-47E6-946E-143B1E2D43D8}"/>
+    <hyperlink ref="B174" r:id="rId176" xr:uid="{063DB121-1B09-4C4A-A7CB-67F92A70E822}"/>
+    <hyperlink ref="B175" r:id="rId177" xr:uid="{4529126A-013E-48BE-BF9C-0857DD382C6C}"/>
+    <hyperlink ref="B176" r:id="rId178" xr:uid="{2F41BBD7-2015-4D42-8F88-8932B17FA34E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F990C4-D093-4A0A-B60F-98083EC84444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03A2B61-538A-4A08-84E2-39A3BBE11E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="359">
   <si>
     <t>Name</t>
   </si>
@@ -1086,6 +1086,36 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/683627/spots/120</t>
+  </si>
+  <si>
+    <t>Dane Dunning</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/641540/spots/120</t>
+  </si>
+  <si>
+    <t>Andre Pallante</t>
+  </si>
+  <si>
+    <t>Keider Montero</t>
+  </si>
+  <si>
+    <t>Spencer Schwellenbach</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/669467/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/672456/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/680885/spots/120</t>
+  </si>
+  <si>
+    <t>David Peterson</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/656849/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1475,16 +1505,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B169" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="133" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -3375,6 +3405,9 @@
       <c r="B172" s="2" t="s">
         <v>344</v>
       </c>
+      <c r="C172" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
@@ -3383,6 +3416,9 @@
       <c r="B173" s="2" t="s">
         <v>345</v>
       </c>
+      <c r="C173" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
@@ -3391,6 +3427,9 @@
       <c r="B174" s="2" t="s">
         <v>346</v>
       </c>
+      <c r="C174" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
@@ -3399,6 +3438,9 @@
       <c r="B175" s="2" t="s">
         <v>347</v>
       </c>
+      <c r="C175" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
@@ -3406,6 +3448,61 @@
       </c>
       <c r="B176" s="2" t="s">
         <v>348</v>
+      </c>
+      <c r="C176" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>349</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C177" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>351</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C178" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>352</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C179" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>353</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C180" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>357</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3593,6 +3690,11 @@
     <hyperlink ref="B174" r:id="rId176" xr:uid="{063DB121-1B09-4C4A-A7CB-67F92A70E822}"/>
     <hyperlink ref="B175" r:id="rId177" xr:uid="{4529126A-013E-48BE-BF9C-0857DD382C6C}"/>
     <hyperlink ref="B176" r:id="rId178" xr:uid="{2F41BBD7-2015-4D42-8F88-8932B17FA34E}"/>
+    <hyperlink ref="B177" r:id="rId179" xr:uid="{E3EEE818-F47C-4DA4-97C5-449CA4C17CE4}"/>
+    <hyperlink ref="B178" r:id="rId180" xr:uid="{9F68A673-C7E6-4A90-BBDE-1C7409208E96}"/>
+    <hyperlink ref="B179" r:id="rId181" xr:uid="{889380E0-647D-4489-BE9B-25BAE5EB7861}"/>
+    <hyperlink ref="B180" r:id="rId182" xr:uid="{E541544B-61E3-4737-BBE7-E7662EC00A72}"/>
+    <hyperlink ref="B181" r:id="rId183" xr:uid="{4BE71305-E922-40EC-A901-A899B6397770}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27716"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27723"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03A2B61-538A-4A08-84E2-39A3BBE11E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CD4BCD-6310-4514-929E-499486EA4544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="363">
   <si>
     <t>Name</t>
   </si>
@@ -1116,6 +1116,18 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/656849/spots/120</t>
+  </si>
+  <si>
+    <t>Albert Suarez</t>
+  </si>
+  <si>
+    <t>Dylan Cease</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/544150/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/656302/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1505,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3503,6 +3515,31 @@
       </c>
       <c r="B181" s="2" t="s">
         <v>358</v>
+      </c>
+      <c r="C181" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>359</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C182" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>360</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C183" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3695,6 +3732,8 @@
     <hyperlink ref="B179" r:id="rId181" xr:uid="{889380E0-647D-4489-BE9B-25BAE5EB7861}"/>
     <hyperlink ref="B180" r:id="rId182" xr:uid="{E541544B-61E3-4737-BBE7-E7662EC00A72}"/>
     <hyperlink ref="B181" r:id="rId183" xr:uid="{4BE71305-E922-40EC-A901-A899B6397770}"/>
+    <hyperlink ref="B182" r:id="rId184" xr:uid="{1DB36123-F811-448C-80B1-68D23463FD4D}"/>
+    <hyperlink ref="B183" r:id="rId185" xr:uid="{3C679776-3AB8-453B-A4D3-B37792A73D16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CD4BCD-6310-4514-929E-499486EA4544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE235F9D-19B1-4A67-B6D1-3F11614CFA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="365">
   <si>
     <t>Name</t>
   </si>
@@ -1128,6 +1128,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/656302/spots/120</t>
+  </si>
+  <si>
+    <t>Cody Poteet</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/547001/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1517,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+      <selection activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3539,6 +3545,17 @@
         <v>362</v>
       </c>
       <c r="C183" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>363</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C184" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3734,6 +3751,7 @@
     <hyperlink ref="B181" r:id="rId183" xr:uid="{4BE71305-E922-40EC-A901-A899B6397770}"/>
     <hyperlink ref="B182" r:id="rId184" xr:uid="{1DB36123-F811-448C-80B1-68D23463FD4D}"/>
     <hyperlink ref="B183" r:id="rId185" xr:uid="{3C679776-3AB8-453B-A4D3-B37792A73D16}"/>
+    <hyperlink ref="B184" r:id="rId186" xr:uid="{FA711ADD-C082-40DD-82D1-0E78DD912F0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE235F9D-19B1-4A67-B6D1-3F11614CFA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727FDF1D-69BD-46F4-818A-E02604CABE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="371">
   <si>
     <t>Name</t>
   </si>
@@ -1134,6 +1134,24 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/547001/spots/120</t>
+  </si>
+  <si>
+    <t>Tyler Megill</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/656731/spots/120</t>
+  </si>
+  <si>
+    <t>Spencer Howard</t>
+  </si>
+  <si>
+    <t>Nathan Eovaldi</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/675921/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/543135/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1523,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="D184" sqref="D184"/>
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3556,6 +3574,39 @@
         <v>364</v>
       </c>
       <c r="C184" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>365</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C185" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>367</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C186" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>368</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C187" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3752,6 +3803,9 @@
     <hyperlink ref="B182" r:id="rId184" xr:uid="{1DB36123-F811-448C-80B1-68D23463FD4D}"/>
     <hyperlink ref="B183" r:id="rId185" xr:uid="{3C679776-3AB8-453B-A4D3-B37792A73D16}"/>
     <hyperlink ref="B184" r:id="rId186" xr:uid="{FA711ADD-C082-40DD-82D1-0E78DD912F0F}"/>
+    <hyperlink ref="B185" r:id="rId187" xr:uid="{C7B04CD8-F035-43DB-A418-9133A48E8921}"/>
+    <hyperlink ref="B186" r:id="rId188" xr:uid="{53F20A14-3749-4B51-B405-0EB1EA8BE457}"/>
+    <hyperlink ref="B187" r:id="rId189" xr:uid="{F2A8C005-E73E-4EA8-9A69-7D1C21C8DA9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727FDF1D-69BD-46F4-818A-E02604CABE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F60AE8-5F46-4D2D-B706-913676BB9DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="379">
   <si>
     <t>Name</t>
   </si>
@@ -1152,6 +1152,30 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/543135/spots/120</t>
+  </si>
+  <si>
+    <t>Bowden Francis</t>
+  </si>
+  <si>
+    <t>Jesus Luzardo</t>
+  </si>
+  <si>
+    <t>DJ Herz</t>
+  </si>
+  <si>
+    <t>Adam Mazur</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/687792/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/800049/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/670102/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/666200/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1541,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+      <selection activeCell="B192" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3607,6 +3631,50 @@
         <v>370</v>
       </c>
       <c r="C187" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>371</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C188" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>372</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C189" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>373</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C190" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>374</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C191" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3806,6 +3874,10 @@
     <hyperlink ref="B185" r:id="rId187" xr:uid="{C7B04CD8-F035-43DB-A418-9133A48E8921}"/>
     <hyperlink ref="B186" r:id="rId188" xr:uid="{53F20A14-3749-4B51-B405-0EB1EA8BE457}"/>
     <hyperlink ref="B187" r:id="rId189" xr:uid="{F2A8C005-E73E-4EA8-9A69-7D1C21C8DA9F}"/>
+    <hyperlink ref="B188" r:id="rId190" xr:uid="{E1A325DE-861E-4917-B535-A3626E67093B}"/>
+    <hyperlink ref="B189" r:id="rId191" xr:uid="{0B8721CA-ADDC-484A-A593-AA5D129028A4}"/>
+    <hyperlink ref="B190" r:id="rId192" xr:uid="{976908EE-A22D-40EC-95CA-B678C03D5727}"/>
+    <hyperlink ref="B191" r:id="rId193" xr:uid="{2359E283-699E-4E88-A140-3D7A568FC6E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F60AE8-5F46-4D2D-B706-913676BB9DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E83F15E-5E8D-41F6-B73B-57BCDE9A6068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="381">
   <si>
     <t>Name</t>
   </si>
@@ -1176,6 +1176,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/666200/spots/120</t>
+  </si>
+  <si>
+    <t>Aaron Ashby</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/676879/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:C191"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
       <selection activeCell="B192" sqref="B192"/>
@@ -3676,6 +3682,17 @@
       </c>
       <c r="C191" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>379</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C192" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3878,6 +3895,7 @@
     <hyperlink ref="B189" r:id="rId191" xr:uid="{0B8721CA-ADDC-484A-A593-AA5D129028A4}"/>
     <hyperlink ref="B190" r:id="rId192" xr:uid="{976908EE-A22D-40EC-95CA-B678C03D5727}"/>
     <hyperlink ref="B191" r:id="rId193" xr:uid="{2359E283-699E-4E88-A140-3D7A568FC6E6}"/>
+    <hyperlink ref="B192" r:id="rId194" xr:uid="{6EAF58AD-5C21-4CAF-9E5B-779352704AB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E83F15E-5E8D-41F6-B73B-57BCDE9A6068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420B0BA3-7D9F-4F68-8425-14673C620454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="385">
   <si>
     <t>Name</t>
   </si>
@@ -1182,6 +1182,18 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/676879/spots/120</t>
+  </si>
+  <si>
+    <t>Jake Woodford</t>
+  </si>
+  <si>
+    <t>Cade Povich</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/663765/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/700249/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1571,10 +1583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B192" sqref="B192"/>
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3692,6 +3704,28 @@
         <v>380</v>
       </c>
       <c r="C192" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>381</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C193" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>382</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C194" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3896,6 +3930,8 @@
     <hyperlink ref="B190" r:id="rId192" xr:uid="{976908EE-A22D-40EC-95CA-B678C03D5727}"/>
     <hyperlink ref="B191" r:id="rId193" xr:uid="{2359E283-699E-4E88-A140-3D7A568FC6E6}"/>
     <hyperlink ref="B192" r:id="rId194" xr:uid="{6EAF58AD-5C21-4CAF-9E5B-779352704AB8}"/>
+    <hyperlink ref="B193" r:id="rId195" xr:uid="{075C6DD4-9B5F-454C-9441-F8AB51EBBED6}"/>
+    <hyperlink ref="B194" r:id="rId196" xr:uid="{2AB02CE7-6DE6-4936-A9B6-C3A30517DB7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420B0BA3-7D9F-4F68-8425-14673C620454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27877CA8-09D7-4BB7-A2CA-98FDE12DEA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="387">
   <si>
     <t>Name</t>
   </si>
@@ -1194,6 +1194,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/700249/spots/120</t>
+  </si>
+  <si>
+    <t>Hogan Harris</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/663687/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1583,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:C194"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B195" sqref="B195"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3726,6 +3732,17 @@
         <v>384</v>
       </c>
       <c r="C194" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>385</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C195" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3932,6 +3949,7 @@
     <hyperlink ref="B192" r:id="rId194" xr:uid="{6EAF58AD-5C21-4CAF-9E5B-779352704AB8}"/>
     <hyperlink ref="B193" r:id="rId195" xr:uid="{075C6DD4-9B5F-454C-9441-F8AB51EBBED6}"/>
     <hyperlink ref="B194" r:id="rId196" xr:uid="{2AB02CE7-6DE6-4936-A9B6-C3A30517DB7F}"/>
+    <hyperlink ref="B195" r:id="rId197" xr:uid="{3FA450BF-3E01-439C-8C3C-97285CDF42E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27877CA8-09D7-4BB7-A2CA-98FDE12DEA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76048424-1465-4DCD-BBBC-D82464CB7671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="393">
   <si>
     <t>Name</t>
   </si>
@@ -1200,6 +1200,24 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/663687/spots/120</t>
+  </si>
+  <si>
+    <t>Gavin Stone</t>
+  </si>
+  <si>
+    <t>Luis Medina</t>
+  </si>
+  <si>
+    <t>Luis Ortiz</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/665622/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/694813/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/123456/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1589,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="C196" sqref="C196"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3744,6 +3762,36 @@
       </c>
       <c r="C195" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>387</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C196" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>388</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C197" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>389</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -3950,6 +3998,9 @@
     <hyperlink ref="B193" r:id="rId195" xr:uid="{075C6DD4-9B5F-454C-9441-F8AB51EBBED6}"/>
     <hyperlink ref="B194" r:id="rId196" xr:uid="{2AB02CE7-6DE6-4936-A9B6-C3A30517DB7F}"/>
     <hyperlink ref="B195" r:id="rId197" xr:uid="{3FA450BF-3E01-439C-8C3C-97285CDF42E4}"/>
+    <hyperlink ref="B196" r:id="rId198" xr:uid="{B7C88999-8CA0-468E-9DB7-0C84FECCE62D}"/>
+    <hyperlink ref="B197" r:id="rId199" xr:uid="{4030FD80-AC58-4604-AAD9-3C8DDF33D9BF}"/>
+    <hyperlink ref="B198" r:id="rId200" xr:uid="{A6D3B7B5-05D6-404A-A466-9DFEDA40D0C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76048424-1465-4DCD-BBBC-D82464CB7671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0D8267-E4F9-4CFD-9ACB-FAECF213A678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="399">
   <si>
     <t>Name</t>
   </si>
@@ -1208,16 +1208,34 @@
     <t>Luis Medina</t>
   </si>
   <si>
-    <t>Luis Ortiz</t>
-  </si>
-  <si>
     <t>https://midfield.mlbstatic.com/v1/people/665622/spots/120</t>
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/694813/spots/120</t>
   </si>
   <si>
-    <t>https://midfield.mlbstatic.com/v1/people/123456/spots/120</t>
+    <t>Bryce Jarvis</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/686826/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/682847/spots/120</t>
+  </si>
+  <si>
+    <t>Luis L Ortiz</t>
+  </si>
+  <si>
+    <t>Hurston Waldrep</t>
+  </si>
+  <si>
+    <t>Brennan Bernardino</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/694462/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/657514/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1607,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="C198" sqref="C198"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3769,7 +3787,7 @@
         <v>387</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C196" t="s">
         <v>164</v>
@@ -3780,7 +3798,7 @@
         <v>388</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C197" t="s">
         <v>164</v>
@@ -3788,10 +3806,46 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C198" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>391</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>392</v>
+      </c>
+      <c r="C199" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>395</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C200" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>396</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C201" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4001,6 +4055,9 @@
     <hyperlink ref="B196" r:id="rId198" xr:uid="{B7C88999-8CA0-468E-9DB7-0C84FECCE62D}"/>
     <hyperlink ref="B197" r:id="rId199" xr:uid="{4030FD80-AC58-4604-AAD9-3C8DDF33D9BF}"/>
     <hyperlink ref="B198" r:id="rId200" xr:uid="{A6D3B7B5-05D6-404A-A466-9DFEDA40D0C8}"/>
+    <hyperlink ref="B199" r:id="rId201" xr:uid="{E49A6EE8-5822-4020-9BE9-083EAD5C84FB}"/>
+    <hyperlink ref="B200" r:id="rId202" xr:uid="{9CB2615F-20AF-4560-8DE8-06A6D01F94D3}"/>
+    <hyperlink ref="B201" r:id="rId203" xr:uid="{050FB622-EB1C-4B7B-9B5C-D0165F6DB2BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0D8267-E4F9-4CFD-9ACB-FAECF213A678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1137630-64C4-4A64-B806-97D34D6D4FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -905,9 +905,6 @@
     <t>https://midfield.mlbstatic.com/v1/people/663903/spots/120</t>
   </si>
   <si>
-    <t>Carlos Rodon</t>
-  </si>
-  <si>
     <t>https://midfield.mlbstatic.com/v1/people/607074/spots/120</t>
   </si>
   <si>
@@ -1236,6 +1233,9 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/657514/spots/120</t>
+  </si>
+  <si>
+    <t>Carlos Rodón</t>
   </si>
 </sst>
 </file>
@@ -1627,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="C202" sqref="C202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="C4" t="s">
         <v>164</v>
@@ -1771,10 +1771,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="C13" t="s">
         <v>164</v>
@@ -1903,10 +1903,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>398</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="C25" t="s">
         <v>161</v>
@@ -1958,10 +1958,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="C30" t="s">
         <v>164</v>
@@ -2093,7 +2093,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C42" t="s">
         <v>164</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>291</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="C51" t="s">
         <v>164</v>
@@ -2299,10 +2299,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="C61" t="s">
         <v>164</v>
@@ -2412,7 +2412,7 @@
         <v>16</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C71" t="s">
         <v>161</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>74</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>204</v>
@@ -2475,10 +2475,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C77" t="s">
         <v>161</v>
@@ -2530,10 +2530,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>306</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="C82" t="s">
         <v>164</v>
@@ -2596,10 +2596,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>295</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="C88" t="s">
         <v>164</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>58</v>
@@ -2772,10 +2772,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>297</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="C104" t="s">
         <v>161</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>308</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="C107" t="s">
         <v>164</v>
@@ -2838,10 +2838,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>304</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="C110" t="s">
         <v>164</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>83</v>
@@ -2882,10 +2882,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>299</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="C114" t="s">
         <v>164</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>89</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>120</v>
@@ -3179,10 +3179,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>302</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="C141" t="s">
         <v>164</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>63</v>
@@ -3421,10 +3421,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>315</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="C163" t="s">
         <v>161</v>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>91</v>
@@ -3454,10 +3454,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
+        <v>318</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="C166" t="s">
         <v>164</v>
@@ -3465,10 +3465,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C167" t="s">
         <v>164</v>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C168" t="s">
         <v>161</v>
@@ -3487,10 +3487,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C169" t="s">
         <v>161</v>
@@ -3498,10 +3498,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C170" t="s">
         <v>164</v>
@@ -3509,10 +3509,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C171" t="s">
         <v>164</v>
@@ -3520,10 +3520,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C172" t="s">
         <v>161</v>
@@ -3531,10 +3531,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C173" t="s">
         <v>161</v>
@@ -3542,10 +3542,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C174" t="s">
         <v>164</v>
@@ -3553,10 +3553,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C175" t="s">
         <v>164</v>
@@ -3564,10 +3564,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C176" t="s">
         <v>164</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
+        <v>348</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="C177" t="s">
         <v>164</v>
@@ -3586,10 +3586,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C178" t="s">
         <v>164</v>
@@ -3597,10 +3597,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C179" t="s">
         <v>164</v>
@@ -3608,10 +3608,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C180" t="s">
         <v>164</v>
@@ -3619,10 +3619,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>356</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="C181" t="s">
         <v>161</v>
@@ -3630,10 +3630,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C182" t="s">
         <v>164</v>
@@ -3641,10 +3641,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C183" t="s">
         <v>164</v>
@@ -3652,10 +3652,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>362</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="C184" t="s">
         <v>164</v>
@@ -3663,10 +3663,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
+        <v>364</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="C185" t="s">
         <v>164</v>
@@ -3674,10 +3674,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C186" t="s">
         <v>164</v>
@@ -3685,10 +3685,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C187" t="s">
         <v>164</v>
@@ -3696,10 +3696,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C188" t="s">
         <v>164</v>
@@ -3707,10 +3707,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C189" t="s">
         <v>161</v>
@@ -3718,10 +3718,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C190" t="s">
         <v>161</v>
@@ -3729,10 +3729,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C191" t="s">
         <v>164</v>
@@ -3740,10 +3740,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
+        <v>378</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="C192" t="s">
         <v>161</v>
@@ -3751,10 +3751,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C193" t="s">
         <v>164</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C194" t="s">
         <v>161</v>
@@ -3773,10 +3773,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
+        <v>384</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="C195" t="s">
         <v>161</v>
@@ -3784,10 +3784,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C196" t="s">
         <v>164</v>
@@ -3795,10 +3795,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
+        <v>387</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="C197" t="s">
         <v>164</v>
@@ -3806,10 +3806,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C198" t="s">
         <v>164</v>
@@ -3817,10 +3817,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
+        <v>390</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="C199" t="s">
         <v>164</v>
@@ -3828,10 +3828,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C200" t="s">
         <v>164</v>
@@ -3839,10 +3839,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C201" t="s">
         <v>161</v>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1137630-64C4-4A64-B806-97D34D6D4FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79695CCE-603F-48A7-90F8-4C9E2FD32370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="401">
   <si>
     <t>Name</t>
   </si>
@@ -1236,6 +1236,12 @@
   </si>
   <si>
     <t>Carlos Rodón</t>
+  </si>
+  <si>
+    <t>Carlos Rodon</t>
+  </si>
+  <si>
+    <t>Baseball_Savant_Name</t>
   </si>
 </sst>
 </file>
@@ -1625,2439 +1631,3043 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="50.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>311</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>255</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>313</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>207</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>286</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>249</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>265</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>261</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>251</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>270</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>399</v>
+      </c>
+      <c r="B25" t="s">
         <v>398</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>229</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C29" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>289</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
+        <v>289</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C32" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C33" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>155</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C34" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C36" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C37" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>272</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C38" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>206</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C39" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C40" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C41" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C43" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>201</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
+        <v>201</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C45" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>208</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C46" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>231</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C47" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>178</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C48" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C49" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C50" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>291</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
+        <v>291</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C51" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C53" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>92</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C54" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C55" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C56" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C57" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>141</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C58" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>280</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s">
+        <v>280</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C60" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>293</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
+        <v>293</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C61" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>257</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" t="s">
+        <v>257</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C62" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C63" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C64" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C65" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>48</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C66" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>110</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C67" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>275</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
+        <v>275</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C68" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C69" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>59</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C71" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>205</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C73" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>66</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C74" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>322</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
+        <v>322</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C75" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>323</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" t="s">
+        <v>323</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C76" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>301</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s">
+        <v>301</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C77" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C78" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>17</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C79" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C80" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>18</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C81" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>306</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s">
+        <v>306</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C82" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C83" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>160</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C84" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>198</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C85" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>263</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" t="s">
+        <v>263</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C86" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>233</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C87" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>295</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" t="s">
+        <v>295</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C88" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>174</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C89" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>209</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" t="s">
+        <v>209</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C90" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>135</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C91" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>151</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C92" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>19</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C93" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C94" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>90</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C95" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C96" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>324</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" t="s">
+        <v>324</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C97" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>139</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C98" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>284</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" t="s">
+        <v>284</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C99" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>127</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" t="s">
+        <v>127</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C100" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>114</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" t="s">
+        <v>114</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C101" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>131</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" t="s">
+        <v>131</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C102" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>235</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" t="s">
+        <v>235</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C103" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>297</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" t="s">
+        <v>297</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C104" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>184</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" t="s">
+        <v>184</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C105" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>78</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C106" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>308</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" t="s">
+        <v>308</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C107" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>20</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C108" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>144</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" t="s">
+        <v>144</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C109" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>304</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" t="s">
+        <v>304</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C110" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>325</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" t="s">
+        <v>325</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C111" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>125</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" t="s">
+        <v>125</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C112" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>274</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" t="s">
+        <v>274</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C113" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>299</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" t="s">
+        <v>299</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C114" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>210</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" t="s">
+        <v>210</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C115" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>64</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" t="s">
+        <v>64</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C116" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>21</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C117" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>237</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" t="s">
+        <v>237</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C118" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>282</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" t="s">
+        <v>282</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C119" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>32</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C120" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>192</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" t="s">
+        <v>192</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C121" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>239</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" t="s">
+        <v>239</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C122" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>70</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" t="s">
+        <v>70</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C123" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>211</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" t="s">
+        <v>211</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C124" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>190</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" t="s">
+        <v>190</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C125" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>259</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" t="s">
+        <v>259</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C126" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>35</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C127" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>212</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" t="s">
+        <v>212</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C128" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>22</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C129" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>310</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" t="s">
+        <v>310</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C130" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>98</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C131" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>88</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" t="s">
+        <v>88</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C132" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>129</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" t="s">
+        <v>129</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C133" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>159</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" t="s">
+        <v>159</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C134" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>23</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C135" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>33</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C136" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>153</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" t="s">
+        <v>153</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C137" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>326</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" t="s">
+        <v>326</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C138" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>215</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" t="s">
+        <v>215</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C139" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>213</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" t="s">
+        <v>213</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C140" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>302</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" t="s">
+        <v>302</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C141" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>137</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" t="s">
+        <v>137</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C142" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>247</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" t="s">
+        <v>247</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C143" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>75</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" t="s">
+        <v>75</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C144" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>241</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" t="s">
+        <v>241</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C145" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D145" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>81</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" t="s">
+        <v>81</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C146" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>214</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" t="s">
+        <v>214</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C147" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>243</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" t="s">
+        <v>243</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C148" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>24</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" t="s">
+        <v>24</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C149" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>25</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C150" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>268</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" t="s">
+        <v>268</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C151" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D151" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>266</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" t="s">
+        <v>266</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C152" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D152" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>143</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" t="s">
+        <v>143</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C153" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>245</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" t="s">
+        <v>245</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C154" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D154" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>167</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" t="s">
+        <v>167</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C155" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D155" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>34</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" t="s">
+        <v>34</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C156" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D156" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>147</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" t="s">
+        <v>147</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C157" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D157" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>327</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" t="s">
+        <v>327</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C158" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>176</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" t="s">
+        <v>176</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C159" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>26</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" t="s">
+        <v>26</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C160" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>273</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" t="s">
+        <v>273</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C161" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>27</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C162" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>315</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" t="s">
+        <v>315</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C163" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>317</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" t="s">
+        <v>317</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C164" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>268</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" t="s">
+        <v>268</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C165" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>318</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" t="s">
+        <v>318</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C166" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D166" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>328</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" t="s">
+        <v>328</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C167" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>329</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" t="s">
+        <v>329</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C168" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D168" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>330</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" t="s">
+        <v>330</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C169" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>331</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" t="s">
+        <v>331</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C170" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>332</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" t="s">
+        <v>332</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C171" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>338</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" t="s">
+        <v>338</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C172" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>339</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" t="s">
+        <v>339</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C173" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D173" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>340</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" t="s">
+        <v>340</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C174" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D174" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>341</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" t="s">
+        <v>341</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C175" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D175" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>342</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" t="s">
+        <v>342</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C176" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D176" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>348</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" t="s">
+        <v>348</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C177" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D177" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>350</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" t="s">
+        <v>350</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C178" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D178" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>351</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" t="s">
+        <v>351</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C179" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D179" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>352</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" t="s">
+        <v>352</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C180" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D180" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>356</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" t="s">
+        <v>356</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C181" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D181" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>358</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" t="s">
+        <v>358</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C182" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D182" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>359</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" t="s">
+        <v>359</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C183" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D183" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>362</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" t="s">
+        <v>362</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C184" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D184" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>364</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" t="s">
+        <v>364</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C185" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D185" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>366</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" t="s">
+        <v>366</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C186" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D186" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>367</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" t="s">
+        <v>367</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C187" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D187" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>370</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" t="s">
+        <v>370</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C188" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D188" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>371</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" t="s">
+        <v>371</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C189" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D189" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>372</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" t="s">
+        <v>372</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C190" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D190" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>373</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" t="s">
+        <v>373</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C191" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D191" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>378</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" t="s">
+        <v>378</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C192" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D192" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>380</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" t="s">
+        <v>380</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C193" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D193" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>381</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" t="s">
+        <v>381</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C194" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D194" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>384</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" t="s">
+        <v>384</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C195" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D195" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>386</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" t="s">
+        <v>386</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C196" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D196" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>387</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" t="s">
+        <v>387</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C197" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D197" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>393</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" t="s">
+        <v>393</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C198" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D198" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>390</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" t="s">
+        <v>390</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C199" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D199" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>394</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" t="s">
+        <v>394</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C200" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D200" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>395</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" t="s">
+        <v>395</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C162">
+  <autoFilter ref="A1:D1" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D162">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B135" r:id="rId1" xr:uid="{C45472D7-1E29-4980-95E0-15D6D01B36FA}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{1EA6B6DE-C528-4BBF-8958-B9D1378CBBEA}"/>
-    <hyperlink ref="B12" r:id="rId3" xr:uid="{4F9BBF32-0E85-44F1-BAE2-FDFE1B91203C}"/>
-    <hyperlink ref="B28" r:id="rId4" xr:uid="{1743C8BA-2A45-4EF9-8EAE-003FA5622677}"/>
-    <hyperlink ref="B120" r:id="rId5" xr:uid="{759148E7-8E0F-41F6-B9F3-BB34C434E2D7}"/>
-    <hyperlink ref="B129" r:id="rId6" xr:uid="{8850343C-EAF0-4713-9C66-21BF05B290EC}"/>
-    <hyperlink ref="B31" r:id="rId7" xr:uid="{CA8DDB4C-49CE-4AA5-B564-1108A8088B23}"/>
-    <hyperlink ref="B45" r:id="rId8" xr:uid="{A96A63DD-6ED4-47E6-B759-BD9FCFC58B60}"/>
-    <hyperlink ref="B162" r:id="rId9" xr:uid="{55C307B9-C21E-4227-B6BA-602B4CDD2E63}"/>
-    <hyperlink ref="B117" r:id="rId10" xr:uid="{FBC71765-97DF-4951-8AED-C771FFA6C3B6}"/>
-    <hyperlink ref="B52" r:id="rId11" xr:uid="{44C0BA97-BC98-4009-9EF5-8C29C471CC2B}"/>
-    <hyperlink ref="B65" r:id="rId12" xr:uid="{83CC39A1-58DF-4F8E-80EF-7133BFDA09E5}"/>
-    <hyperlink ref="B66" r:id="rId13" xr:uid="{A9F4C6E5-7612-40C3-92FF-2F0A1197F32E}"/>
-    <hyperlink ref="B55" r:id="rId14" xr:uid="{29AD0F25-0604-4645-86CB-591ACB87642C}"/>
-    <hyperlink ref="B33" r:id="rId15" xr:uid="{03239B77-EAD5-4377-8E99-41BDC8C35FAF}"/>
-    <hyperlink ref="B57" r:id="rId16" xr:uid="{A963AD17-9953-4B76-B014-99AE04AFBC22}"/>
-    <hyperlink ref="B23" r:id="rId17" xr:uid="{254FC5D9-2139-49F1-AF42-C37C7AD52CF9}"/>
-    <hyperlink ref="B97" r:id="rId18" xr:uid="{ADEC84CE-4B4C-475A-B45C-A5A25ABA57F9}"/>
-    <hyperlink ref="B70" r:id="rId19" xr:uid="{A903E050-8C42-4183-880A-565DF6E20245}"/>
-    <hyperlink ref="B3" r:id="rId20" xr:uid="{E83EAE86-523E-449E-8625-E0FCBC6EDE67}"/>
-    <hyperlink ref="B158" r:id="rId21" xr:uid="{4F43B789-DA90-4D7B-B4C4-7719C98AFEF4}"/>
-    <hyperlink ref="B116" r:id="rId22" xr:uid="{1073D5D0-0D5E-4AB1-940D-24EDB5EF0E1D}"/>
-    <hyperlink ref="B74" r:id="rId23" xr:uid="{30F225A0-9236-482B-8651-D6C10378128C}"/>
-    <hyperlink ref="B2" r:id="rId24" xr:uid="{DE5B31BF-642F-4D65-BB0B-8BB02C0C599F}"/>
-    <hyperlink ref="B123" r:id="rId25" xr:uid="{6478F936-7CCC-485F-8FAD-5E974D281F62}"/>
-    <hyperlink ref="B96" r:id="rId26" xr:uid="{4FDE78C3-89C9-4179-86C1-21A106ED4B68}"/>
-    <hyperlink ref="B75" r:id="rId27" xr:uid="{71FF812A-69FD-42EC-A428-9503EB1166BE}"/>
-    <hyperlink ref="B144" r:id="rId28" xr:uid="{6A269B70-A168-4F22-809C-69E3664B7B4F}"/>
-    <hyperlink ref="B80" r:id="rId29" xr:uid="{2AF8C5A2-0A6E-4AFA-BE5A-8756CD3E9A15}"/>
-    <hyperlink ref="B106" r:id="rId30" xr:uid="{775807C5-A8E8-4E03-94A3-07FC338C7B2F}"/>
-    <hyperlink ref="B146" r:id="rId31" xr:uid="{4C620958-7BE1-4A72-AF05-2D2C30EFE637}"/>
-    <hyperlink ref="B111" r:id="rId32" xr:uid="{9C374395-032E-47D8-8E1D-F14135FEB884}"/>
-    <hyperlink ref="B6" r:id="rId33" xr:uid="{7C24BFBA-D940-4280-9AA6-9EB5B2A7C325}"/>
-    <hyperlink ref="B11" r:id="rId34" xr:uid="{935A4BCA-043C-42B5-9B58-F01D785A78E7}"/>
-    <hyperlink ref="B132" r:id="rId35" xr:uid="{AD23B2E5-01B6-4980-8B3E-2745128B55B6}"/>
-    <hyperlink ref="B95" r:id="rId36" xr:uid="{ADD15800-FFAF-4C56-96C3-B6E9A6B7A9B4}"/>
-    <hyperlink ref="B54" r:id="rId37" xr:uid="{FD14EBC0-A744-44D9-8D7E-8C400674FEED}"/>
-    <hyperlink ref="B24" r:id="rId38" xr:uid="{1C789BBB-C806-4AEC-87FD-4A30D09E0378}"/>
-    <hyperlink ref="B94" r:id="rId39" xr:uid="{39BDDF5C-5ED6-4DC6-8403-935839E42AE4}"/>
-    <hyperlink ref="B131" r:id="rId40" xr:uid="{16CEFA6F-1B35-42FD-8606-E6523BF824B9}"/>
-    <hyperlink ref="B62:B78" r:id="rId41" display="https://midfield.mlbstatic.com/v1/people/686752/spots/120" xr:uid="{1E5EFC44-7608-40AF-A777-AAC898C6A9CB}"/>
-    <hyperlink ref="B21" r:id="rId42" xr:uid="{17D051F0-8C68-4AF3-B256-1F5E71DD2455}"/>
-    <hyperlink ref="B56" r:id="rId43" xr:uid="{B4766B4E-7BF7-4C41-98C2-8E48C0CCFAC8}"/>
-    <hyperlink ref="B69" r:id="rId44" xr:uid="{49ACB698-CD82-44AA-8A65-26D2BBDB0788}"/>
-    <hyperlink ref="B41" r:id="rId45" xr:uid="{FBAE3FE6-1362-4C09-BAE7-1B131AB4C4B4}"/>
-    <hyperlink ref="B36" r:id="rId46" xr:uid="{2181E8B2-59C9-4709-AA9A-962EF37831F2}"/>
-    <hyperlink ref="B67" r:id="rId47" xr:uid="{17F5505C-32E7-4316-BF97-1E84202C4785}"/>
-    <hyperlink ref="B50" r:id="rId48" xr:uid="{880E4723-2052-4A3F-AA76-423C6810C994}"/>
-    <hyperlink ref="B101" r:id="rId49" xr:uid="{D33AE6C2-8688-4E9D-B293-9E99FBE0DEB4}"/>
-    <hyperlink ref="B49" r:id="rId50" xr:uid="{ECF4F8FF-BB1E-4B49-965D-64768DC4F1E2}"/>
-    <hyperlink ref="B63" r:id="rId51" xr:uid="{2511CD2C-B67C-4354-9629-DE649A920EDD}"/>
-    <hyperlink ref="B138" r:id="rId52" xr:uid="{AE0C1E2C-3D72-45CF-9965-CDB6C0591891}"/>
-    <hyperlink ref="B64" r:id="rId53" xr:uid="{0E258565-BD6E-428A-BCE6-5D446B3DA628}"/>
-    <hyperlink ref="B43" r:id="rId54" xr:uid="{46541DDA-A399-42E9-B388-CAC462670117}"/>
-    <hyperlink ref="B112" r:id="rId55" xr:uid="{E26B4D45-A378-40C0-ACBA-A3D7F3B56528}"/>
-    <hyperlink ref="B100" r:id="rId56" xr:uid="{845F84C0-232D-4D80-B9DD-7415056297C5}"/>
-    <hyperlink ref="B133" r:id="rId57" xr:uid="{89BF64D4-12AC-4144-8B32-FDDD10668077}"/>
-    <hyperlink ref="B102" r:id="rId58" xr:uid="{8742B9B5-62C4-423F-B53B-AE1C619A7CB3}"/>
-    <hyperlink ref="B60" r:id="rId59" xr:uid="{A93F2FF5-2AE8-404E-A935-39A2AA8E0351}"/>
-    <hyperlink ref="B91" r:id="rId60" xr:uid="{F60D4181-1F3A-4C64-97A2-8368BC1A6176}"/>
-    <hyperlink ref="B142" r:id="rId61" xr:uid="{ECDB48F3-3C25-4B15-A902-40A90B1D441F}"/>
-    <hyperlink ref="B98" r:id="rId62" xr:uid="{1BF5B84A-6403-496F-BE72-4F7CFE5CD46A}"/>
-    <hyperlink ref="B58" r:id="rId63" xr:uid="{D48CC097-21D9-4697-92AF-17FE888C3469}"/>
-    <hyperlink ref="B153" r:id="rId64" xr:uid="{BA111F30-72E9-4701-B810-D904333C5C12}"/>
-    <hyperlink ref="B109" r:id="rId65" xr:uid="{C971DFEC-7D7D-44F8-8D77-AF06DD0C3650}"/>
-    <hyperlink ref="B157" r:id="rId66" xr:uid="{FF747A90-D82C-417A-A604-11C8A9BB8A1B}"/>
-    <hyperlink ref="B78" r:id="rId67" xr:uid="{508F6AEF-0519-456E-95D4-CFBA12F1D839}"/>
-    <hyperlink ref="B92" r:id="rId68" xr:uid="{B67845F2-3B4F-45CB-AC96-C32761C20607}"/>
-    <hyperlink ref="B137" r:id="rId69" xr:uid="{B3EDDFE1-3BCD-4BF4-B469-F8CBF05D5228}"/>
-    <hyperlink ref="B22" r:id="rId70" xr:uid="{8E3867C0-9128-44B4-8D0A-62F663FD1C50}"/>
-    <hyperlink ref="B34" r:id="rId71" xr:uid="{7DF45689-E876-4814-B27F-BD82DF1893A8}"/>
-    <hyperlink ref="B134" r:id="rId72" xr:uid="{10233510-1E7F-47D8-9DC8-CECCEEAF2542}"/>
-    <hyperlink ref="B84" r:id="rId73" xr:uid="{C4B8637F-0EAC-421C-B98A-83396BEC74E6}"/>
-    <hyperlink ref="B7" r:id="rId74" xr:uid="{78FBD904-905A-4DF4-8336-339D9FD35EF9}"/>
-    <hyperlink ref="B155" r:id="rId75" xr:uid="{30FFC8B8-F48B-4956-82E5-5F5C1D42BFDA}"/>
-    <hyperlink ref="B127" r:id="rId76" xr:uid="{F297C688-6767-4A01-87CA-713F0DDF9C34}"/>
-    <hyperlink ref="B32" r:id="rId77" xr:uid="{DE8C1BDA-4F06-4739-8272-9C1526634215}"/>
-    <hyperlink ref="B150" r:id="rId78" xr:uid="{0B5DD545-15F8-4AED-86A6-780BA78A0233}"/>
-    <hyperlink ref="B81" r:id="rId79" xr:uid="{1EAB83F2-BCC3-4788-AB88-9206EE59BEFD}"/>
-    <hyperlink ref="B89" r:id="rId80" xr:uid="{B9CEB789-AD16-4793-B005-DBCE618DBE94}"/>
-    <hyperlink ref="B159" r:id="rId81" xr:uid="{BE0D192A-BC2F-4B35-99E0-370F38CA9C0B}"/>
-    <hyperlink ref="B48" r:id="rId82" xr:uid="{3F8FC17C-F146-4E12-BBB9-18B45BB5B3EC}"/>
-    <hyperlink ref="B72" r:id="rId83" xr:uid="{C3C3E0D1-E6BE-417A-AC79-EEB8F79FBE7C}"/>
-    <hyperlink ref="B39" r:id="rId84" xr:uid="{646B995D-2022-47E8-9C46-F74E16A3A629}"/>
-    <hyperlink ref="B37" r:id="rId85" xr:uid="{1F133298-7E48-4138-8126-F74D2CBDB050}"/>
-    <hyperlink ref="B149" r:id="rId86" xr:uid="{79CA2660-030A-4E38-B36D-D5A391C24AF6}"/>
-    <hyperlink ref="B105" r:id="rId87" xr:uid="{301BF770-273A-484E-AF66-F32DA8458844}"/>
-    <hyperlink ref="B160" r:id="rId88" xr:uid="{A72F7411-3596-45A9-BD47-96AE1238FE57}"/>
-    <hyperlink ref="B79" r:id="rId89" xr:uid="{9335E23F-5F7C-4364-8ABA-564F1B156EB5}"/>
-    <hyperlink ref="B93" r:id="rId90" xr:uid="{C528D45E-5270-4308-A5F4-DDDD4C29A97D}"/>
-    <hyperlink ref="B83" r:id="rId91" xr:uid="{E5C83DAC-00EF-49EE-9811-99C544403146}"/>
-    <hyperlink ref="B125" r:id="rId92" xr:uid="{F5146A50-BA2B-4466-A3AC-A9E6870FA443}"/>
-    <hyperlink ref="B121" r:id="rId93" xr:uid="{880D6AB9-DCD2-4819-B973-72461A04C7C8}"/>
-    <hyperlink ref="B136" r:id="rId94" xr:uid="{11544622-27D7-41FE-BA8C-7A64E8838D48}"/>
-    <hyperlink ref="B35" r:id="rId95" xr:uid="{BC65DFE4-1308-4C08-8CE7-8941756F790F}"/>
-    <hyperlink ref="B73" r:id="rId96" xr:uid="{8322B7F1-705E-4313-8FF2-F90CCF591E35}"/>
-    <hyperlink ref="B108" r:id="rId97" xr:uid="{EBB28F68-D663-44AA-86BD-53B20904935E}"/>
-    <hyperlink ref="B85" r:id="rId98" xr:uid="{6A80E6A8-DBFE-4A55-A512-7374F8FBE4FD}"/>
-    <hyperlink ref="B40" r:id="rId99" xr:uid="{CE6A856C-5BA0-46B8-BDBB-70D03B1E5FA6}"/>
-    <hyperlink ref="B44" r:id="rId100" xr:uid="{B219EA6C-AFC6-4A8E-A965-70B93C5367C4}"/>
-    <hyperlink ref="B156" r:id="rId101" xr:uid="{108B5805-5369-47C0-A3A2-CA30D2F91CFB}"/>
-    <hyperlink ref="B76" r:id="rId102" xr:uid="{7AD71135-DE45-46BB-A218-39306ABA3702}"/>
-    <hyperlink ref="B107:B115" r:id="rId103" display="https://midfield.mlbstatic.com/v1/people/570632/spots/120" xr:uid="{B6AEF0A1-DAD3-493D-AD72-9992AF4AC36A}"/>
-    <hyperlink ref="B139" r:id="rId104" xr:uid="{4FC1EEA6-0897-4ECD-9CE7-1A38B7A04DF4}"/>
-    <hyperlink ref="B115" r:id="rId105" xr:uid="{1C2C51A3-E75B-4CC0-A087-8366DF24A3F2}"/>
-    <hyperlink ref="B128" r:id="rId106" xr:uid="{BB7DF76E-86EB-4858-AEA6-0696B62895BC}"/>
-    <hyperlink ref="B14" r:id="rId107" xr:uid="{01DE55D4-78E8-461B-A8B9-B03E6D65C918}"/>
-    <hyperlink ref="B46" r:id="rId108" xr:uid="{FCD4C620-BB71-4CC3-A123-50EFE98B5FE2}"/>
-    <hyperlink ref="B124" r:id="rId109" xr:uid="{29ED6610-0117-47A3-9540-69CB5AC80B92}"/>
-    <hyperlink ref="B140" r:id="rId110" xr:uid="{9E30FD12-A196-40BE-A210-0C73986E5064}"/>
-    <hyperlink ref="B147" r:id="rId111" xr:uid="{B8175F43-D70E-459F-98CF-15ECFA717548}"/>
-    <hyperlink ref="B90" r:id="rId112" xr:uid="{A1F217DD-45E3-4ABD-A801-5D9F166E4EE3}"/>
-    <hyperlink ref="B10" r:id="rId113" xr:uid="{C6E8A0D7-8E63-4EC1-8C28-4570F13EECF8}"/>
-    <hyperlink ref="B26" r:id="rId114" xr:uid="{061EEF2C-85CF-400C-B70C-3AC1B107F1EC}"/>
-    <hyperlink ref="B27" r:id="rId115" xr:uid="{07D08D3B-A3C3-4916-9FE0-2CF26ECA4304}"/>
-    <hyperlink ref="B47" r:id="rId116" xr:uid="{91E7913A-86EE-40F5-9798-4A7B25F420CA}"/>
-    <hyperlink ref="B87" r:id="rId117" xr:uid="{0A5A0FD7-8B57-41D3-A410-CA8F6779F8C0}"/>
-    <hyperlink ref="B103" r:id="rId118" xr:uid="{9979CA0C-3483-428F-A7AC-8624936FB8FA}"/>
-    <hyperlink ref="B118" r:id="rId119" xr:uid="{482918C2-89BA-496F-8160-085C2940475B}"/>
-    <hyperlink ref="B122" r:id="rId120" xr:uid="{674942CB-83E4-4508-A135-1EB5B6D6E0BF}"/>
-    <hyperlink ref="B145" r:id="rId121" xr:uid="{1F6209AE-91BF-41D4-B9AD-7DEABA16621B}"/>
-    <hyperlink ref="B148" r:id="rId122" xr:uid="{F0E5D36A-2456-4111-9B29-31D8CBD1A12D}"/>
-    <hyperlink ref="B154" r:id="rId123" xr:uid="{789C651E-21E8-4E0D-8017-9BF6770B7FE4}"/>
-    <hyperlink ref="B143" r:id="rId124" xr:uid="{E96CD394-E5F8-46F9-9A93-3EA98A4EE8DE}"/>
-    <hyperlink ref="B16" r:id="rId125" xr:uid="{170B8200-FCC5-4ED1-8A6A-63B3F60FC427}"/>
-    <hyperlink ref="B19" r:id="rId126" xr:uid="{1165D173-E61C-477D-81EA-53C274E42084}"/>
-    <hyperlink ref="B8" r:id="rId127" xr:uid="{D71E6989-E12D-4FB6-8277-45C3718AA5C4}"/>
-    <hyperlink ref="B5" r:id="rId128" xr:uid="{FB4F273B-2196-4018-85BA-D42A207F8910}"/>
-    <hyperlink ref="B62" r:id="rId129" xr:uid="{9F233235-B9B1-4E7A-807E-8F2EE493E173}"/>
-    <hyperlink ref="B126" r:id="rId130" xr:uid="{F5D1A66D-4324-4468-A7A0-AD3D00B16AE7}"/>
-    <hyperlink ref="B18" r:id="rId131" xr:uid="{1759929B-600A-4949-96E1-F424E054D97A}"/>
-    <hyperlink ref="B86" r:id="rId132" xr:uid="{8B19E95A-E327-406E-9F25-861358533D76}"/>
-    <hyperlink ref="B17" r:id="rId133" xr:uid="{1DD3FDF5-6556-4823-8827-A75B5E83FD01}"/>
-    <hyperlink ref="B152" r:id="rId134" xr:uid="{B62475DC-179F-4CE0-8CF6-51DC972D40B7}"/>
-    <hyperlink ref="B151" r:id="rId135" xr:uid="{492088BD-9B89-42AA-A6AF-1F83749BDC72}"/>
-    <hyperlink ref="B20" r:id="rId136" xr:uid="{6118D192-2DB6-4311-A382-3371906C183D}"/>
-    <hyperlink ref="B140:B143" r:id="rId137" display="https://midfield.mlbstatic.com/v1/people/693821/spots/120" xr:uid="{0E83A794-B683-4463-A3A3-95576AFDD615}"/>
-    <hyperlink ref="B38" r:id="rId138" xr:uid="{98EC2002-988D-46D0-AD8B-CB1135815ADD}"/>
-    <hyperlink ref="B161" r:id="rId139" xr:uid="{80C5B6A6-E3F5-4F34-8C17-B202CF8842F5}"/>
-    <hyperlink ref="B113" r:id="rId140" xr:uid="{35842AC4-F920-4A32-B105-587FE352F876}"/>
-    <hyperlink ref="B68" r:id="rId141" xr:uid="{24E2A301-E80D-4F02-A94B-CFE6DF3719D1}"/>
-    <hyperlink ref="B59" r:id="rId142" xr:uid="{6D687EFE-5BD7-4FEF-B636-1A728E3CB6DF}"/>
-    <hyperlink ref="B119" r:id="rId143" xr:uid="{20E003D8-D5C4-4113-AFC3-D076CE9FE0A0}"/>
-    <hyperlink ref="B99" r:id="rId144" xr:uid="{3D5F262E-120A-4E2A-AF3A-1C4C1117AE44}"/>
-    <hyperlink ref="B15" r:id="rId145" xr:uid="{5ED77DE1-166F-4541-898A-786E114DAEF4}"/>
-    <hyperlink ref="B25" r:id="rId146" xr:uid="{81DC0D20-42F6-4D3C-87D3-B645CB35712A}"/>
-    <hyperlink ref="B30" r:id="rId147" xr:uid="{E396E594-A4D8-4E20-9A24-90B7589370B5}"/>
-    <hyperlink ref="B51" r:id="rId148" xr:uid="{823E8EED-4901-4993-A8EA-2CA91EBD8526}"/>
-    <hyperlink ref="B61" r:id="rId149" xr:uid="{923E21E9-8410-4112-9000-9E93896189E6}"/>
-    <hyperlink ref="B88" r:id="rId150" xr:uid="{C526E886-242E-4E87-ACB6-1E69A02EEBD3}"/>
-    <hyperlink ref="B104" r:id="rId151" xr:uid="{BFEEE380-0C63-474F-821D-61F8EF908A46}"/>
-    <hyperlink ref="B114" r:id="rId152" xr:uid="{2250FC95-0A39-4EE2-BCB2-FFF1EF3E4964}"/>
-    <hyperlink ref="B77" r:id="rId153" xr:uid="{174AA7F5-75DB-42B1-ACFF-646023A4BD2A}"/>
-    <hyperlink ref="B141" r:id="rId154" xr:uid="{30D34D43-AD29-4DE6-93CC-FD7C2F05FE00}"/>
-    <hyperlink ref="B110" r:id="rId155" xr:uid="{AD2496AE-C6CA-4D48-BE1B-E0D40292B961}"/>
-    <hyperlink ref="B82" r:id="rId156" xr:uid="{8EA8AFE5-38A5-4C45-95E6-52202880E214}"/>
-    <hyperlink ref="B107" r:id="rId157" xr:uid="{933DFE08-9AFA-4E05-81A6-D7AD9B2936B4}"/>
-    <hyperlink ref="B130" r:id="rId158" xr:uid="{5CB1E923-0C0B-46C3-9A06-C5BF1664BB99}"/>
-    <hyperlink ref="B4" r:id="rId159" xr:uid="{F0633C7D-B030-42F8-867D-487A4D0622C9}"/>
-    <hyperlink ref="B13" r:id="rId160" xr:uid="{F7C050ED-4E17-4083-9409-29763900B9F8}"/>
-    <hyperlink ref="B53" r:id="rId161" xr:uid="{96DF98C5-93EB-4B46-A8DE-540F97FB9D2D}"/>
-    <hyperlink ref="B163" r:id="rId162" xr:uid="{DC3780E6-8DBB-43AF-868F-038344C91A4E}"/>
-    <hyperlink ref="B164" r:id="rId163" xr:uid="{AF843F30-7625-42D0-BA56-6434FAE62C25}"/>
-    <hyperlink ref="B165" r:id="rId164" xr:uid="{5D94729E-5BC9-4A90-91A4-E22E6DF54EC5}"/>
-    <hyperlink ref="B166" r:id="rId165" xr:uid="{07FE2158-E54F-4DAF-A552-7A5F3BB2BAF7}"/>
-    <hyperlink ref="B29" r:id="rId166" xr:uid="{202CCF33-99A3-4853-AE16-95008489CCC5}"/>
-    <hyperlink ref="B42" r:id="rId167" xr:uid="{F4B5E23D-9319-41A2-AB51-5DE0A45DD8B4}"/>
-    <hyperlink ref="B71" r:id="rId168" xr:uid="{1692F5E0-FB63-492A-92F7-244666AA4D6C}"/>
-    <hyperlink ref="B167" r:id="rId169" xr:uid="{AB038426-E25A-4D00-959B-BADAAFC83263}"/>
-    <hyperlink ref="B168" r:id="rId170" xr:uid="{37BD58F8-5963-4DEE-8AC0-94C476AAA7B4}"/>
-    <hyperlink ref="B169" r:id="rId171" xr:uid="{224B22F8-17AF-4F0E-B83D-83E51925E3DA}"/>
-    <hyperlink ref="B170" r:id="rId172" xr:uid="{7C41A3D8-7B2C-4E19-8D41-28A0650CBF55}"/>
-    <hyperlink ref="B171" r:id="rId173" xr:uid="{04763326-6E4F-46B3-85EC-C59D9071D0F0}"/>
-    <hyperlink ref="B172" r:id="rId174" xr:uid="{6595AC92-4EB6-4C25-8AA6-B1D9744B1285}"/>
-    <hyperlink ref="B173" r:id="rId175" xr:uid="{B78F9174-E83B-47E6-946E-143B1E2D43D8}"/>
-    <hyperlink ref="B174" r:id="rId176" xr:uid="{063DB121-1B09-4C4A-A7CB-67F92A70E822}"/>
-    <hyperlink ref="B175" r:id="rId177" xr:uid="{4529126A-013E-48BE-BF9C-0857DD382C6C}"/>
-    <hyperlink ref="B176" r:id="rId178" xr:uid="{2F41BBD7-2015-4D42-8F88-8932B17FA34E}"/>
-    <hyperlink ref="B177" r:id="rId179" xr:uid="{E3EEE818-F47C-4DA4-97C5-449CA4C17CE4}"/>
-    <hyperlink ref="B178" r:id="rId180" xr:uid="{9F68A673-C7E6-4A90-BBDE-1C7409208E96}"/>
-    <hyperlink ref="B179" r:id="rId181" xr:uid="{889380E0-647D-4489-BE9B-25BAE5EB7861}"/>
-    <hyperlink ref="B180" r:id="rId182" xr:uid="{E541544B-61E3-4737-BBE7-E7662EC00A72}"/>
-    <hyperlink ref="B181" r:id="rId183" xr:uid="{4BE71305-E922-40EC-A901-A899B6397770}"/>
-    <hyperlink ref="B182" r:id="rId184" xr:uid="{1DB36123-F811-448C-80B1-68D23463FD4D}"/>
-    <hyperlink ref="B183" r:id="rId185" xr:uid="{3C679776-3AB8-453B-A4D3-B37792A73D16}"/>
-    <hyperlink ref="B184" r:id="rId186" xr:uid="{FA711ADD-C082-40DD-82D1-0E78DD912F0F}"/>
-    <hyperlink ref="B185" r:id="rId187" xr:uid="{C7B04CD8-F035-43DB-A418-9133A48E8921}"/>
-    <hyperlink ref="B186" r:id="rId188" xr:uid="{53F20A14-3749-4B51-B405-0EB1EA8BE457}"/>
-    <hyperlink ref="B187" r:id="rId189" xr:uid="{F2A8C005-E73E-4EA8-9A69-7D1C21C8DA9F}"/>
-    <hyperlink ref="B188" r:id="rId190" xr:uid="{E1A325DE-861E-4917-B535-A3626E67093B}"/>
-    <hyperlink ref="B189" r:id="rId191" xr:uid="{0B8721CA-ADDC-484A-A593-AA5D129028A4}"/>
-    <hyperlink ref="B190" r:id="rId192" xr:uid="{976908EE-A22D-40EC-95CA-B678C03D5727}"/>
-    <hyperlink ref="B191" r:id="rId193" xr:uid="{2359E283-699E-4E88-A140-3D7A568FC6E6}"/>
-    <hyperlink ref="B192" r:id="rId194" xr:uid="{6EAF58AD-5C21-4CAF-9E5B-779352704AB8}"/>
-    <hyperlink ref="B193" r:id="rId195" xr:uid="{075C6DD4-9B5F-454C-9441-F8AB51EBBED6}"/>
-    <hyperlink ref="B194" r:id="rId196" xr:uid="{2AB02CE7-6DE6-4936-A9B6-C3A30517DB7F}"/>
-    <hyperlink ref="B195" r:id="rId197" xr:uid="{3FA450BF-3E01-439C-8C3C-97285CDF42E4}"/>
-    <hyperlink ref="B196" r:id="rId198" xr:uid="{B7C88999-8CA0-468E-9DB7-0C84FECCE62D}"/>
-    <hyperlink ref="B197" r:id="rId199" xr:uid="{4030FD80-AC58-4604-AAD9-3C8DDF33D9BF}"/>
-    <hyperlink ref="B198" r:id="rId200" xr:uid="{A6D3B7B5-05D6-404A-A466-9DFEDA40D0C8}"/>
-    <hyperlink ref="B199" r:id="rId201" xr:uid="{E49A6EE8-5822-4020-9BE9-083EAD5C84FB}"/>
-    <hyperlink ref="B200" r:id="rId202" xr:uid="{9CB2615F-20AF-4560-8DE8-06A6D01F94D3}"/>
-    <hyperlink ref="B201" r:id="rId203" xr:uid="{050FB622-EB1C-4B7B-9B5C-D0165F6DB2BB}"/>
+    <hyperlink ref="C135" r:id="rId1" xr:uid="{C45472D7-1E29-4980-95E0-15D6D01B36FA}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{1EA6B6DE-C528-4BBF-8958-B9D1378CBBEA}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{4F9BBF32-0E85-44F1-BAE2-FDFE1B91203C}"/>
+    <hyperlink ref="C28" r:id="rId4" xr:uid="{1743C8BA-2A45-4EF9-8EAE-003FA5622677}"/>
+    <hyperlink ref="C120" r:id="rId5" xr:uid="{759148E7-8E0F-41F6-B9F3-BB34C434E2D7}"/>
+    <hyperlink ref="C129" r:id="rId6" xr:uid="{8850343C-EAF0-4713-9C66-21BF05B290EC}"/>
+    <hyperlink ref="C31" r:id="rId7" xr:uid="{CA8DDB4C-49CE-4AA5-B564-1108A8088B23}"/>
+    <hyperlink ref="C45" r:id="rId8" xr:uid="{A96A63DD-6ED4-47E6-B759-BD9FCFC58B60}"/>
+    <hyperlink ref="C162" r:id="rId9" xr:uid="{55C307B9-C21E-4227-B6BA-602B4CDD2E63}"/>
+    <hyperlink ref="C117" r:id="rId10" xr:uid="{FBC71765-97DF-4951-8AED-C771FFA6C3B6}"/>
+    <hyperlink ref="C52" r:id="rId11" xr:uid="{44C0BA97-BC98-4009-9EF5-8C29C471CC2B}"/>
+    <hyperlink ref="C65" r:id="rId12" xr:uid="{83CC39A1-58DF-4F8E-80EF-7133BFDA09E5}"/>
+    <hyperlink ref="C66" r:id="rId13" xr:uid="{A9F4C6E5-7612-40C3-92FF-2F0A1197F32E}"/>
+    <hyperlink ref="C55" r:id="rId14" xr:uid="{29AD0F25-0604-4645-86CB-591ACB87642C}"/>
+    <hyperlink ref="C33" r:id="rId15" xr:uid="{03239B77-EAD5-4377-8E99-41BDC8C35FAF}"/>
+    <hyperlink ref="C57" r:id="rId16" xr:uid="{A963AD17-9953-4B76-B014-99AE04AFBC22}"/>
+    <hyperlink ref="C23" r:id="rId17" xr:uid="{254FC5D9-2139-49F1-AF42-C37C7AD52CF9}"/>
+    <hyperlink ref="C97" r:id="rId18" xr:uid="{ADEC84CE-4B4C-475A-B45C-A5A25ABA57F9}"/>
+    <hyperlink ref="C70" r:id="rId19" xr:uid="{A903E050-8C42-4183-880A-565DF6E20245}"/>
+    <hyperlink ref="C3" r:id="rId20" xr:uid="{E83EAE86-523E-449E-8625-E0FCBC6EDE67}"/>
+    <hyperlink ref="C158" r:id="rId21" xr:uid="{4F43B789-DA90-4D7B-B4C4-7719C98AFEF4}"/>
+    <hyperlink ref="C116" r:id="rId22" xr:uid="{1073D5D0-0D5E-4AB1-940D-24EDB5EF0E1D}"/>
+    <hyperlink ref="C74" r:id="rId23" xr:uid="{30F225A0-9236-482B-8651-D6C10378128C}"/>
+    <hyperlink ref="C2" r:id="rId24" xr:uid="{DE5B31BF-642F-4D65-BB0B-8BB02C0C599F}"/>
+    <hyperlink ref="C123" r:id="rId25" xr:uid="{6478F936-7CCC-485F-8FAD-5E974D281F62}"/>
+    <hyperlink ref="C96" r:id="rId26" xr:uid="{4FDE78C3-89C9-4179-86C1-21A106ED4B68}"/>
+    <hyperlink ref="C75" r:id="rId27" xr:uid="{71FF812A-69FD-42EC-A428-9503EB1166BE}"/>
+    <hyperlink ref="C144" r:id="rId28" xr:uid="{6A269B70-A168-4F22-809C-69E3664B7B4F}"/>
+    <hyperlink ref="C80" r:id="rId29" xr:uid="{2AF8C5A2-0A6E-4AFA-BE5A-8756CD3E9A15}"/>
+    <hyperlink ref="C106" r:id="rId30" xr:uid="{775807C5-A8E8-4E03-94A3-07FC338C7B2F}"/>
+    <hyperlink ref="C146" r:id="rId31" xr:uid="{4C620958-7BE1-4A72-AF05-2D2C30EFE637}"/>
+    <hyperlink ref="C111" r:id="rId32" xr:uid="{9C374395-032E-47D8-8E1D-F14135FEB884}"/>
+    <hyperlink ref="C6" r:id="rId33" xr:uid="{7C24BFBA-D940-4280-9AA6-9EB5B2A7C325}"/>
+    <hyperlink ref="C11" r:id="rId34" xr:uid="{935A4BCA-043C-42B5-9B58-F01D785A78E7}"/>
+    <hyperlink ref="C132" r:id="rId35" xr:uid="{AD23B2E5-01B6-4980-8B3E-2745128B55B6}"/>
+    <hyperlink ref="C95" r:id="rId36" xr:uid="{ADD15800-FFAF-4C56-96C3-B6E9A6B7A9B4}"/>
+    <hyperlink ref="C54" r:id="rId37" xr:uid="{FD14EBC0-A744-44D9-8D7E-8C400674FEED}"/>
+    <hyperlink ref="C24" r:id="rId38" xr:uid="{1C789BBB-C806-4AEC-87FD-4A30D09E0378}"/>
+    <hyperlink ref="C94" r:id="rId39" xr:uid="{39BDDF5C-5ED6-4DC6-8403-935839E42AE4}"/>
+    <hyperlink ref="C131" r:id="rId40" xr:uid="{16CEFA6F-1B35-42FD-8606-E6523BF824B9}"/>
+    <hyperlink ref="C62:C78" r:id="rId41" display="https://midfield.mlbstatic.com/v1/people/686752/spots/120" xr:uid="{1E5EFC44-7608-40AF-A777-AAC898C6A9CB}"/>
+    <hyperlink ref="C21" r:id="rId42" xr:uid="{17D051F0-8C68-4AF3-B256-1F5E71DD2455}"/>
+    <hyperlink ref="C56" r:id="rId43" xr:uid="{B4766B4E-7BF7-4C41-98C2-8E48C0CCFAC8}"/>
+    <hyperlink ref="C69" r:id="rId44" xr:uid="{49ACB698-CD82-44AA-8A65-26D2BBDB0788}"/>
+    <hyperlink ref="C41" r:id="rId45" xr:uid="{FBAE3FE6-1362-4C09-BAE7-1B131AB4C4B4}"/>
+    <hyperlink ref="C36" r:id="rId46" xr:uid="{2181E8B2-59C9-4709-AA9A-962EF37831F2}"/>
+    <hyperlink ref="C67" r:id="rId47" xr:uid="{17F5505C-32E7-4316-BF97-1E84202C4785}"/>
+    <hyperlink ref="C50" r:id="rId48" xr:uid="{880E4723-2052-4A3F-AA76-423C6810C994}"/>
+    <hyperlink ref="C101" r:id="rId49" xr:uid="{D33AE6C2-8688-4E9D-B293-9E99FBE0DEB4}"/>
+    <hyperlink ref="C49" r:id="rId50" xr:uid="{ECF4F8FF-BB1E-4B49-965D-64768DC4F1E2}"/>
+    <hyperlink ref="C63" r:id="rId51" xr:uid="{2511CD2C-B67C-4354-9629-DE649A920EDD}"/>
+    <hyperlink ref="C138" r:id="rId52" xr:uid="{AE0C1E2C-3D72-45CF-9965-CDB6C0591891}"/>
+    <hyperlink ref="C64" r:id="rId53" xr:uid="{0E258565-BD6E-428A-BCE6-5D446B3DA628}"/>
+    <hyperlink ref="C43" r:id="rId54" xr:uid="{46541DDA-A399-42E9-B388-CAC462670117}"/>
+    <hyperlink ref="C112" r:id="rId55" xr:uid="{E26B4D45-A378-40C0-ACBA-A3D7F3B56528}"/>
+    <hyperlink ref="C100" r:id="rId56" xr:uid="{845F84C0-232D-4D80-B9DD-7415056297C5}"/>
+    <hyperlink ref="C133" r:id="rId57" xr:uid="{89BF64D4-12AC-4144-8B32-FDDD10668077}"/>
+    <hyperlink ref="C102" r:id="rId58" xr:uid="{8742B9B5-62C4-423F-B53B-AE1C619A7CB3}"/>
+    <hyperlink ref="C60" r:id="rId59" xr:uid="{A93F2FF5-2AE8-404E-A935-39A2AA8E0351}"/>
+    <hyperlink ref="C91" r:id="rId60" xr:uid="{F60D4181-1F3A-4C64-97A2-8368BC1A6176}"/>
+    <hyperlink ref="C142" r:id="rId61" xr:uid="{ECDB48F3-3C25-4B15-A902-40A90B1D441F}"/>
+    <hyperlink ref="C98" r:id="rId62" xr:uid="{1BF5B84A-6403-496F-BE72-4F7CFE5CD46A}"/>
+    <hyperlink ref="C58" r:id="rId63" xr:uid="{D48CC097-21D9-4697-92AF-17FE888C3469}"/>
+    <hyperlink ref="C153" r:id="rId64" xr:uid="{BA111F30-72E9-4701-B810-D904333C5C12}"/>
+    <hyperlink ref="C109" r:id="rId65" xr:uid="{C971DFEC-7D7D-44F8-8D77-AF06DD0C3650}"/>
+    <hyperlink ref="C157" r:id="rId66" xr:uid="{FF747A90-D82C-417A-A604-11C8A9BB8A1B}"/>
+    <hyperlink ref="C78" r:id="rId67" xr:uid="{508F6AEF-0519-456E-95D4-CFBA12F1D839}"/>
+    <hyperlink ref="C92" r:id="rId68" xr:uid="{B67845F2-3B4F-45CB-AC96-C32761C20607}"/>
+    <hyperlink ref="C137" r:id="rId69" xr:uid="{B3EDDFE1-3BCD-4BF4-B469-F8CBF05D5228}"/>
+    <hyperlink ref="C22" r:id="rId70" xr:uid="{8E3867C0-9128-44B4-8D0A-62F663FD1C50}"/>
+    <hyperlink ref="C34" r:id="rId71" xr:uid="{7DF45689-E876-4814-B27F-BD82DF1893A8}"/>
+    <hyperlink ref="C134" r:id="rId72" xr:uid="{10233510-1E7F-47D8-9DC8-CECCEEAF2542}"/>
+    <hyperlink ref="C84" r:id="rId73" xr:uid="{C4B8637F-0EAC-421C-B98A-83396BEC74E6}"/>
+    <hyperlink ref="C7" r:id="rId74" xr:uid="{78FBD904-905A-4DF4-8336-339D9FD35EF9}"/>
+    <hyperlink ref="C155" r:id="rId75" xr:uid="{30FFC8B8-F48B-4956-82E5-5F5C1D42BFDA}"/>
+    <hyperlink ref="C127" r:id="rId76" xr:uid="{F297C688-6767-4A01-87CA-713F0DDF9C34}"/>
+    <hyperlink ref="C32" r:id="rId77" xr:uid="{DE8C1BDA-4F06-4739-8272-9C1526634215}"/>
+    <hyperlink ref="C150" r:id="rId78" xr:uid="{0B5DD545-15F8-4AED-86A6-780BA78A0233}"/>
+    <hyperlink ref="C81" r:id="rId79" xr:uid="{1EAB83F2-BCC3-4788-AB88-9206EE59BEFD}"/>
+    <hyperlink ref="C89" r:id="rId80" xr:uid="{B9CEB789-AD16-4793-B005-DBCE618DBE94}"/>
+    <hyperlink ref="C159" r:id="rId81" xr:uid="{BE0D192A-BC2F-4B35-99E0-370F38CA9C0B}"/>
+    <hyperlink ref="C48" r:id="rId82" xr:uid="{3F8FC17C-F146-4E12-BBB9-18B45BB5B3EC}"/>
+    <hyperlink ref="C72" r:id="rId83" xr:uid="{C3C3E0D1-E6BE-417A-AC79-EEB8F79FBE7C}"/>
+    <hyperlink ref="C39" r:id="rId84" xr:uid="{646B995D-2022-47E8-9C46-F74E16A3A629}"/>
+    <hyperlink ref="C37" r:id="rId85" xr:uid="{1F133298-7E48-4138-8126-F74D2CBDB050}"/>
+    <hyperlink ref="C149" r:id="rId86" xr:uid="{79CA2660-030A-4E38-B36D-D5A391C24AF6}"/>
+    <hyperlink ref="C105" r:id="rId87" xr:uid="{301BF770-273A-484E-AF66-F32DA8458844}"/>
+    <hyperlink ref="C160" r:id="rId88" xr:uid="{A72F7411-3596-45A9-BD47-96AE1238FE57}"/>
+    <hyperlink ref="C79" r:id="rId89" xr:uid="{9335E23F-5F7C-4364-8ABA-564F1B156EB5}"/>
+    <hyperlink ref="C93" r:id="rId90" xr:uid="{C528D45E-5270-4308-A5F4-DDDD4C29A97D}"/>
+    <hyperlink ref="C83" r:id="rId91" xr:uid="{E5C83DAC-00EF-49EE-9811-99C544403146}"/>
+    <hyperlink ref="C125" r:id="rId92" xr:uid="{F5146A50-BA2B-4466-A3AC-A9E6870FA443}"/>
+    <hyperlink ref="C121" r:id="rId93" xr:uid="{880D6AB9-DCD2-4819-B973-72461A04C7C8}"/>
+    <hyperlink ref="C136" r:id="rId94" xr:uid="{11544622-27D7-41FE-BA8C-7A64E8838D48}"/>
+    <hyperlink ref="C35" r:id="rId95" xr:uid="{BC65DFE4-1308-4C08-8CE7-8941756F790F}"/>
+    <hyperlink ref="C73" r:id="rId96" xr:uid="{8322B7F1-705E-4313-8FF2-F90CCF591E35}"/>
+    <hyperlink ref="C108" r:id="rId97" xr:uid="{EBB28F68-D663-44AA-86BD-53B20904935E}"/>
+    <hyperlink ref="C85" r:id="rId98" xr:uid="{6A80E6A8-DBFE-4A55-A512-7374F8FBE4FD}"/>
+    <hyperlink ref="C40" r:id="rId99" xr:uid="{CE6A856C-5BA0-46B8-BDBB-70D03B1E5FA6}"/>
+    <hyperlink ref="C44" r:id="rId100" xr:uid="{B219EA6C-AFC6-4A8E-A965-70B93C5367C4}"/>
+    <hyperlink ref="C156" r:id="rId101" xr:uid="{108B5805-5369-47C0-A3A2-CA30D2F91CFB}"/>
+    <hyperlink ref="C76" r:id="rId102" xr:uid="{7AD71135-DE45-46BB-A218-39306ABA3702}"/>
+    <hyperlink ref="C107:C115" r:id="rId103" display="https://midfield.mlbstatic.com/v1/people/570632/spots/120" xr:uid="{B6AEF0A1-DAD3-493D-AD72-9992AF4AC36A}"/>
+    <hyperlink ref="C139" r:id="rId104" xr:uid="{4FC1EEA6-0897-4ECD-9CE7-1A38B7A04DF4}"/>
+    <hyperlink ref="C115" r:id="rId105" xr:uid="{1C2C51A3-E75B-4CC0-A087-8366DF24A3F2}"/>
+    <hyperlink ref="C128" r:id="rId106" xr:uid="{BB7DF76E-86EB-4858-AEA6-0696B62895BC}"/>
+    <hyperlink ref="C14" r:id="rId107" xr:uid="{01DE55D4-78E8-461B-A8B9-B03E6D65C918}"/>
+    <hyperlink ref="C46" r:id="rId108" xr:uid="{FCD4C620-BB71-4CC3-A123-50EFE98B5FE2}"/>
+    <hyperlink ref="C124" r:id="rId109" xr:uid="{29ED6610-0117-47A3-9540-69CB5AC80B92}"/>
+    <hyperlink ref="C140" r:id="rId110" xr:uid="{9E30FD12-A196-40BE-A210-0C73986E5064}"/>
+    <hyperlink ref="C147" r:id="rId111" xr:uid="{B8175F43-D70E-459F-98CF-15ECFA717548}"/>
+    <hyperlink ref="C90" r:id="rId112" xr:uid="{A1F217DD-45E3-4ABD-A801-5D9F166E4EE3}"/>
+    <hyperlink ref="C10" r:id="rId113" xr:uid="{C6E8A0D7-8E63-4EC1-8C28-4570F13EECF8}"/>
+    <hyperlink ref="C26" r:id="rId114" xr:uid="{061EEF2C-85CF-400C-B70C-3AC1B107F1EC}"/>
+    <hyperlink ref="C27" r:id="rId115" xr:uid="{07D08D3B-A3C3-4916-9FE0-2CF26ECA4304}"/>
+    <hyperlink ref="C47" r:id="rId116" xr:uid="{91E7913A-86EE-40F5-9798-4A7B25F420CA}"/>
+    <hyperlink ref="C87" r:id="rId117" xr:uid="{0A5A0FD7-8B57-41D3-A410-CA8F6779F8C0}"/>
+    <hyperlink ref="C103" r:id="rId118" xr:uid="{9979CA0C-3483-428F-A7AC-8624936FB8FA}"/>
+    <hyperlink ref="C118" r:id="rId119" xr:uid="{482918C2-89BA-496F-8160-085C2940475B}"/>
+    <hyperlink ref="C122" r:id="rId120" xr:uid="{674942CB-83E4-4508-A135-1EB5B6D6E0BF}"/>
+    <hyperlink ref="C145" r:id="rId121" xr:uid="{1F6209AE-91BF-41D4-B9AD-7DEABA16621B}"/>
+    <hyperlink ref="C148" r:id="rId122" xr:uid="{F0E5D36A-2456-4111-9B29-31D8CBD1A12D}"/>
+    <hyperlink ref="C154" r:id="rId123" xr:uid="{789C651E-21E8-4E0D-8017-9BF6770B7FE4}"/>
+    <hyperlink ref="C143" r:id="rId124" xr:uid="{E96CD394-E5F8-46F9-9A93-3EA98A4EE8DE}"/>
+    <hyperlink ref="C16" r:id="rId125" xr:uid="{170B8200-FCC5-4ED1-8A6A-63B3F60FC427}"/>
+    <hyperlink ref="C19" r:id="rId126" xr:uid="{1165D173-E61C-477D-81EA-53C274E42084}"/>
+    <hyperlink ref="C8" r:id="rId127" xr:uid="{D71E6989-E12D-4FB6-8277-45C3718AA5C4}"/>
+    <hyperlink ref="C5" r:id="rId128" xr:uid="{FB4F273B-2196-4018-85BA-D42A207F8910}"/>
+    <hyperlink ref="C62" r:id="rId129" xr:uid="{9F233235-B9B1-4E7A-807E-8F2EE493E173}"/>
+    <hyperlink ref="C126" r:id="rId130" xr:uid="{F5D1A66D-4324-4468-A7A0-AD3D00B16AE7}"/>
+    <hyperlink ref="C18" r:id="rId131" xr:uid="{1759929B-600A-4949-96E1-F424E054D97A}"/>
+    <hyperlink ref="C86" r:id="rId132" xr:uid="{8B19E95A-E327-406E-9F25-861358533D76}"/>
+    <hyperlink ref="C17" r:id="rId133" xr:uid="{1DD3FDF5-6556-4823-8827-A75B5E83FD01}"/>
+    <hyperlink ref="C152" r:id="rId134" xr:uid="{B62475DC-179F-4CE0-8CF6-51DC972D40B7}"/>
+    <hyperlink ref="C151" r:id="rId135" xr:uid="{492088BD-9B89-42AA-A6AF-1F83749BDC72}"/>
+    <hyperlink ref="C20" r:id="rId136" xr:uid="{6118D192-2DB6-4311-A382-3371906C183D}"/>
+    <hyperlink ref="C140:C143" r:id="rId137" display="https://midfield.mlbstatic.com/v1/people/693821/spots/120" xr:uid="{0E83A794-B683-4463-A3A3-95576AFDD615}"/>
+    <hyperlink ref="C38" r:id="rId138" xr:uid="{98EC2002-988D-46D0-AD8B-CB1135815ADD}"/>
+    <hyperlink ref="C161" r:id="rId139" xr:uid="{80C5B6A6-E3F5-4F34-8C17-B202CF8842F5}"/>
+    <hyperlink ref="C113" r:id="rId140" xr:uid="{35842AC4-F920-4A32-B105-587FE352F876}"/>
+    <hyperlink ref="C68" r:id="rId141" xr:uid="{24E2A301-E80D-4F02-A94B-CFE6DF3719D1}"/>
+    <hyperlink ref="C59" r:id="rId142" xr:uid="{6D687EFE-5BD7-4FEF-B636-1A728E3CB6DF}"/>
+    <hyperlink ref="C119" r:id="rId143" xr:uid="{20E003D8-D5C4-4113-AFC3-D076CE9FE0A0}"/>
+    <hyperlink ref="C99" r:id="rId144" xr:uid="{3D5F262E-120A-4E2A-AF3A-1C4C1117AE44}"/>
+    <hyperlink ref="C15" r:id="rId145" xr:uid="{5ED77DE1-166F-4541-898A-786E114DAEF4}"/>
+    <hyperlink ref="C25" r:id="rId146" xr:uid="{81DC0D20-42F6-4D3C-87D3-B645CB35712A}"/>
+    <hyperlink ref="C30" r:id="rId147" xr:uid="{E396E594-A4D8-4E20-9A24-90B7589370B5}"/>
+    <hyperlink ref="C51" r:id="rId148" xr:uid="{823E8EED-4901-4993-A8EA-2CA91EBD8526}"/>
+    <hyperlink ref="C61" r:id="rId149" xr:uid="{923E21E9-8410-4112-9000-9E93896189E6}"/>
+    <hyperlink ref="C88" r:id="rId150" xr:uid="{C526E886-242E-4E87-ACB6-1E69A02EEBD3}"/>
+    <hyperlink ref="C104" r:id="rId151" xr:uid="{BFEEE380-0C63-474F-821D-61F8EF908A46}"/>
+    <hyperlink ref="C114" r:id="rId152" xr:uid="{2250FC95-0A39-4EE2-BCB2-FFF1EF3E4964}"/>
+    <hyperlink ref="C77" r:id="rId153" xr:uid="{174AA7F5-75DB-42B1-ACFF-646023A4BD2A}"/>
+    <hyperlink ref="C141" r:id="rId154" xr:uid="{30D34D43-AD29-4DE6-93CC-FD7C2F05FE00}"/>
+    <hyperlink ref="C110" r:id="rId155" xr:uid="{AD2496AE-C6CA-4D48-BE1B-E0D40292B961}"/>
+    <hyperlink ref="C82" r:id="rId156" xr:uid="{8EA8AFE5-38A5-4C45-95E6-52202880E214}"/>
+    <hyperlink ref="C107" r:id="rId157" xr:uid="{933DFE08-9AFA-4E05-81A6-D7AD9B2936B4}"/>
+    <hyperlink ref="C130" r:id="rId158" xr:uid="{5CB1E923-0C0B-46C3-9A06-C5BF1664BB99}"/>
+    <hyperlink ref="C4" r:id="rId159" xr:uid="{F0633C7D-B030-42F8-867D-487A4D0622C9}"/>
+    <hyperlink ref="C13" r:id="rId160" xr:uid="{F7C050ED-4E17-4083-9409-29763900B9F8}"/>
+    <hyperlink ref="C53" r:id="rId161" xr:uid="{96DF98C5-93EB-4B46-A8DE-540F97FB9D2D}"/>
+    <hyperlink ref="C163" r:id="rId162" xr:uid="{DC3780E6-8DBB-43AF-868F-038344C91A4E}"/>
+    <hyperlink ref="C164" r:id="rId163" xr:uid="{AF843F30-7625-42D0-BA56-6434FAE62C25}"/>
+    <hyperlink ref="C165" r:id="rId164" xr:uid="{5D94729E-5BC9-4A90-91A4-E22E6DF54EC5}"/>
+    <hyperlink ref="C166" r:id="rId165" xr:uid="{07FE2158-E54F-4DAF-A552-7A5F3BB2BAF7}"/>
+    <hyperlink ref="C29" r:id="rId166" xr:uid="{202CCF33-99A3-4853-AE16-95008489CCC5}"/>
+    <hyperlink ref="C42" r:id="rId167" xr:uid="{F4B5E23D-9319-41A2-AB51-5DE0A45DD8B4}"/>
+    <hyperlink ref="C71" r:id="rId168" xr:uid="{1692F5E0-FB63-492A-92F7-244666AA4D6C}"/>
+    <hyperlink ref="C167" r:id="rId169" xr:uid="{AB038426-E25A-4D00-959B-BADAAFC83263}"/>
+    <hyperlink ref="C168" r:id="rId170" xr:uid="{37BD58F8-5963-4DEE-8AC0-94C476AAA7B4}"/>
+    <hyperlink ref="C169" r:id="rId171" xr:uid="{224B22F8-17AF-4F0E-B83D-83E51925E3DA}"/>
+    <hyperlink ref="C170" r:id="rId172" xr:uid="{7C41A3D8-7B2C-4E19-8D41-28A0650CBF55}"/>
+    <hyperlink ref="C171" r:id="rId173" xr:uid="{04763326-6E4F-46B3-85EC-C59D9071D0F0}"/>
+    <hyperlink ref="C172" r:id="rId174" xr:uid="{6595AC92-4EB6-4C25-8AA6-B1D9744B1285}"/>
+    <hyperlink ref="C173" r:id="rId175" xr:uid="{B78F9174-E83B-47E6-946E-143B1E2D43D8}"/>
+    <hyperlink ref="C174" r:id="rId176" xr:uid="{063DB121-1B09-4C4A-A7CB-67F92A70E822}"/>
+    <hyperlink ref="C175" r:id="rId177" xr:uid="{4529126A-013E-48BE-BF9C-0857DD382C6C}"/>
+    <hyperlink ref="C176" r:id="rId178" xr:uid="{2F41BBD7-2015-4D42-8F88-8932B17FA34E}"/>
+    <hyperlink ref="C177" r:id="rId179" xr:uid="{E3EEE818-F47C-4DA4-97C5-449CA4C17CE4}"/>
+    <hyperlink ref="C178" r:id="rId180" xr:uid="{9F68A673-C7E6-4A90-BBDE-1C7409208E96}"/>
+    <hyperlink ref="C179" r:id="rId181" xr:uid="{889380E0-647D-4489-BE9B-25BAE5EB7861}"/>
+    <hyperlink ref="C180" r:id="rId182" xr:uid="{E541544B-61E3-4737-BBE7-E7662EC00A72}"/>
+    <hyperlink ref="C181" r:id="rId183" xr:uid="{4BE71305-E922-40EC-A901-A899B6397770}"/>
+    <hyperlink ref="C182" r:id="rId184" xr:uid="{1DB36123-F811-448C-80B1-68D23463FD4D}"/>
+    <hyperlink ref="C183" r:id="rId185" xr:uid="{3C679776-3AB8-453B-A4D3-B37792A73D16}"/>
+    <hyperlink ref="C184" r:id="rId186" xr:uid="{FA711ADD-C082-40DD-82D1-0E78DD912F0F}"/>
+    <hyperlink ref="C185" r:id="rId187" xr:uid="{C7B04CD8-F035-43DB-A418-9133A48E8921}"/>
+    <hyperlink ref="C186" r:id="rId188" xr:uid="{53F20A14-3749-4B51-B405-0EB1EA8BE457}"/>
+    <hyperlink ref="C187" r:id="rId189" xr:uid="{F2A8C005-E73E-4EA8-9A69-7D1C21C8DA9F}"/>
+    <hyperlink ref="C188" r:id="rId190" xr:uid="{E1A325DE-861E-4917-B535-A3626E67093B}"/>
+    <hyperlink ref="C189" r:id="rId191" xr:uid="{0B8721CA-ADDC-484A-A593-AA5D129028A4}"/>
+    <hyperlink ref="C190" r:id="rId192" xr:uid="{976908EE-A22D-40EC-95CA-B678C03D5727}"/>
+    <hyperlink ref="C191" r:id="rId193" xr:uid="{2359E283-699E-4E88-A140-3D7A568FC6E6}"/>
+    <hyperlink ref="C192" r:id="rId194" xr:uid="{6EAF58AD-5C21-4CAF-9E5B-779352704AB8}"/>
+    <hyperlink ref="C193" r:id="rId195" xr:uid="{075C6DD4-9B5F-454C-9441-F8AB51EBBED6}"/>
+    <hyperlink ref="C194" r:id="rId196" xr:uid="{2AB02CE7-6DE6-4936-A9B6-C3A30517DB7F}"/>
+    <hyperlink ref="C195" r:id="rId197" xr:uid="{3FA450BF-3E01-439C-8C3C-97285CDF42E4}"/>
+    <hyperlink ref="C196" r:id="rId198" xr:uid="{B7C88999-8CA0-468E-9DB7-0C84FECCE62D}"/>
+    <hyperlink ref="C197" r:id="rId199" xr:uid="{4030FD80-AC58-4604-AAD9-3C8DDF33D9BF}"/>
+    <hyperlink ref="C198" r:id="rId200" xr:uid="{A6D3B7B5-05D6-404A-A466-9DFEDA40D0C8}"/>
+    <hyperlink ref="C199" r:id="rId201" xr:uid="{E49A6EE8-5822-4020-9BE9-083EAD5C84FB}"/>
+    <hyperlink ref="C200" r:id="rId202" xr:uid="{9CB2615F-20AF-4560-8DE8-06A6D01F94D3}"/>
+    <hyperlink ref="C201" r:id="rId203" xr:uid="{050FB622-EB1C-4B7B-9B5C-D0165F6DB2BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79695CCE-603F-48A7-90F8-4C9E2FD32370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D39AAD-F28D-4C42-A93D-A594A42BE621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -1634,7 +1634,7 @@
   <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4459,11 +4459,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D162">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <hyperlinks>
     <hyperlink ref="C135" r:id="rId1" xr:uid="{C45472D7-1E29-4980-95E0-15D6D01B36FA}"/>
     <hyperlink ref="C9" r:id="rId2" xr:uid="{1EA6B6DE-C528-4BBF-8958-B9D1378CBBEA}"/>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D39AAD-F28D-4C42-A93D-A594A42BE621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880E74F5-C9DC-4B7A-AFA7-B01064007C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="408">
   <si>
     <t>Name</t>
   </si>
@@ -1242,6 +1242,27 @@
   </si>
   <si>
     <t>Baseball_Savant_Name</t>
+  </si>
+  <si>
+    <t>Drew Thorpe</t>
+  </si>
+  <si>
+    <t>Jose Suarez</t>
+  </si>
+  <si>
+    <t>Louie Varland</t>
+  </si>
+  <si>
+    <t>Carlos Rodriguez</t>
+  </si>
+  <si>
+    <t>José Suarez</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/660761/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/686973/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1631,10 +1652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="D206" sqref="D206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4456,6 +4477,59 @@
       </c>
       <c r="D201" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>401</v>
+      </c>
+      <c r="B202" t="s">
+        <v>401</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D202" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>402</v>
+      </c>
+      <c r="B203" t="s">
+        <v>405</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D203" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>403</v>
+      </c>
+      <c r="B204" t="s">
+        <v>403</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D204" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>404</v>
+      </c>
+      <c r="B205" t="s">
+        <v>404</v>
+      </c>
+      <c r="D205" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4663,6 +4737,9 @@
     <hyperlink ref="C199" r:id="rId201" xr:uid="{E49A6EE8-5822-4020-9BE9-083EAD5C84FB}"/>
     <hyperlink ref="C200" r:id="rId202" xr:uid="{9CB2615F-20AF-4560-8DE8-06A6D01F94D3}"/>
     <hyperlink ref="C201" r:id="rId203" xr:uid="{050FB622-EB1C-4B7B-9B5C-D0165F6DB2BB}"/>
+    <hyperlink ref="C202" r:id="rId204" xr:uid="{B0AA3E5E-F474-4547-A4BB-1562AFD05639}"/>
+    <hyperlink ref="C203" r:id="rId205" xr:uid="{5EE48E44-6645-423B-9D3B-BA27E3C88CF6}"/>
+    <hyperlink ref="C204" r:id="rId206" xr:uid="{DC2CCDEC-A6B0-4412-9293-3D708FF0E861}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880E74F5-C9DC-4B7A-AFA7-B01064007C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E7D610-04CA-4946-B196-BF003C9D4468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="413">
   <si>
     <t>Name</t>
   </si>
@@ -1263,6 +1263,21 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/686973/spots/120</t>
+  </si>
+  <si>
+    <t>Jhonathan Diaz</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/646242/spots/120</t>
+  </si>
+  <si>
+    <t>Jonathan Cannon</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/686563/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/692230/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1652,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="D206" sqref="D206"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4528,7 +4543,38 @@
       <c r="B205" t="s">
         <v>404</v>
       </c>
+      <c r="C205" s="2" t="s">
+        <v>412</v>
+      </c>
       <c r="D205" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>408</v>
+      </c>
+      <c r="B206" t="s">
+        <v>408</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D206" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>410</v>
+      </c>
+      <c r="B207" t="s">
+        <v>410</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D207" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4740,6 +4786,9 @@
     <hyperlink ref="C202" r:id="rId204" xr:uid="{B0AA3E5E-F474-4547-A4BB-1562AFD05639}"/>
     <hyperlink ref="C203" r:id="rId205" xr:uid="{5EE48E44-6645-423B-9D3B-BA27E3C88CF6}"/>
     <hyperlink ref="C204" r:id="rId206" xr:uid="{DC2CCDEC-A6B0-4412-9293-3D708FF0E861}"/>
+    <hyperlink ref="C206" r:id="rId207" xr:uid="{ACFA800E-8414-4E9A-BE09-CB33D46601E0}"/>
+    <hyperlink ref="C207" r:id="rId208" xr:uid="{4423E675-229D-4F9B-9CC0-F8C46E201512}"/>
+    <hyperlink ref="C205" r:id="rId209" xr:uid="{4DA93860-D7DA-4B52-A9A0-ABAC3B793A26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27809"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E7D610-04CA-4946-B196-BF003C9D4468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1362A30-626A-4C07-A805-796BCBC3D339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="8208" yWindow="1704" windowWidth="17280" windowHeight="8880" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="416">
   <si>
     <t>Name</t>
   </si>
@@ -1278,6 +1278,15 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/692230/spots/120</t>
+  </si>
+  <si>
+    <t>Ryan Yarbrough</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/642232/spots/120</t>
+  </si>
+  <si>
+    <t>Roddery Muñoz</t>
   </si>
 </sst>
 </file>
@@ -1667,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="C206" sqref="C206"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3449,7 +3458,7 @@
         <v>35</v>
       </c>
       <c r="B127" t="s">
-        <v>35</v>
+        <v>415</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>170</v>
@@ -4576,6 +4585,20 @@
       </c>
       <c r="D207" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>413</v>
+      </c>
+      <c r="B208" t="s">
+        <v>413</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D208" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4789,6 +4812,7 @@
     <hyperlink ref="C206" r:id="rId207" xr:uid="{ACFA800E-8414-4E9A-BE09-CB33D46601E0}"/>
     <hyperlink ref="C207" r:id="rId208" xr:uid="{4423E675-229D-4F9B-9CC0-F8C46E201512}"/>
     <hyperlink ref="C205" r:id="rId209" xr:uid="{4DA93860-D7DA-4B52-A9A0-ABAC3B793A26}"/>
+    <hyperlink ref="C208" r:id="rId210" xr:uid="{FA66E72F-4556-483C-AED4-B7C4E5F6ED33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1362A30-626A-4C07-A805-796BCBC3D339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FDBF06-CE81-47E1-B294-66A651038CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8208" yWindow="1704" windowWidth="17280" windowHeight="8880" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="418">
   <si>
     <t>Name</t>
   </si>
@@ -1287,6 +1287,12 @@
   </si>
   <si>
     <t>Roddery Muñoz</t>
+  </si>
+  <si>
+    <t>Tommy Henry</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/674072/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1676,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D208"/>
+  <dimension ref="A1:D209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="D210" sqref="D210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4598,6 +4604,20 @@
         <v>414</v>
       </c>
       <c r="D208" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>416</v>
+      </c>
+      <c r="B209" t="s">
+        <v>416</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D209" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4813,7 +4833,9 @@
     <hyperlink ref="C207" r:id="rId208" xr:uid="{4423E675-229D-4F9B-9CC0-F8C46E201512}"/>
     <hyperlink ref="C205" r:id="rId209" xr:uid="{4DA93860-D7DA-4B52-A9A0-ABAC3B793A26}"/>
     <hyperlink ref="C208" r:id="rId210" xr:uid="{FA66E72F-4556-483C-AED4-B7C4E5F6ED33}"/>
+    <hyperlink ref="C209" r:id="rId211" xr:uid="{6B606037-8FCB-4B89-85F6-9C109BB639E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId212"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FDBF06-CE81-47E1-B294-66A651038CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FB8C31-A6B4-4055-AB3A-8AAA4969B778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="423">
   <si>
     <t>Name</t>
   </si>
@@ -1133,9 +1133,6 @@
     <t>https://midfield.mlbstatic.com/v1/people/547001/spots/120</t>
   </si>
   <si>
-    <t>Tyler Megill</t>
-  </si>
-  <si>
     <t>https://midfield.mlbstatic.com/v1/people/656731/spots/120</t>
   </si>
   <si>
@@ -1293,6 +1290,24 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/674072/spots/120</t>
+  </si>
+  <si>
+    <t>Jesús Luzardo</t>
+  </si>
+  <si>
+    <t>Josh Fleming</t>
+  </si>
+  <si>
+    <t>Tylor Megill</t>
+  </si>
+  <si>
+    <t>Spencer Bivens</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/676595/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/702352/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1682,10 +1697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D209"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1700,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2033,10 +2048,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>288</v>
@@ -3464,7 +3479,7 @@
         <v>35</v>
       </c>
       <c r="B127" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>170</v>
@@ -4273,13 +4288,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
+        <v>419</v>
+      </c>
+      <c r="B185" t="s">
+        <v>419</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="B185" t="s">
-        <v>364</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="D185" t="s">
         <v>164</v>
@@ -4287,13 +4302,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B186" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D186" t="s">
         <v>164</v>
@@ -4301,13 +4316,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B187" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D187" t="s">
         <v>164</v>
@@ -4315,13 +4330,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B188" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D188" t="s">
         <v>164</v>
@@ -4329,13 +4344,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B189" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D189" t="s">
         <v>161</v>
@@ -4343,13 +4358,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B190" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D190" t="s">
         <v>161</v>
@@ -4357,13 +4372,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B191" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D191" t="s">
         <v>164</v>
@@ -4371,13 +4386,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
+        <v>377</v>
+      </c>
+      <c r="B192" t="s">
+        <v>377</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="B192" t="s">
-        <v>378</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="D192" t="s">
         <v>161</v>
@@ -4385,13 +4400,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B193" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D193" t="s">
         <v>164</v>
@@ -4399,13 +4414,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B194" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D194" t="s">
         <v>161</v>
@@ -4413,13 +4428,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
+        <v>383</v>
+      </c>
+      <c r="B195" t="s">
+        <v>383</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="B195" t="s">
-        <v>384</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="D195" t="s">
         <v>161</v>
@@ -4427,13 +4442,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B196" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D196" t="s">
         <v>164</v>
@@ -4441,13 +4456,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
+        <v>386</v>
+      </c>
+      <c r="B197" t="s">
+        <v>386</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="B197" t="s">
-        <v>387</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="D197" t="s">
         <v>164</v>
@@ -4455,13 +4470,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B198" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D198" t="s">
         <v>164</v>
@@ -4469,13 +4484,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
+        <v>389</v>
+      </c>
+      <c r="B199" t="s">
+        <v>389</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="B199" t="s">
-        <v>390</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="D199" t="s">
         <v>164</v>
@@ -4483,13 +4498,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B200" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D200" t="s">
         <v>164</v>
@@ -4497,13 +4512,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B201" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D201" t="s">
         <v>161</v>
@@ -4511,13 +4526,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B202" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D202" t="s">
         <v>164</v>
@@ -4525,13 +4540,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B203" t="s">
+        <v>404</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="D203" t="s">
         <v>161</v>
@@ -4539,13 +4554,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B204" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D204" t="s">
         <v>164</v>
@@ -4553,13 +4568,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B205" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D205" t="s">
         <v>164</v>
@@ -4567,13 +4582,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
+        <v>407</v>
+      </c>
+      <c r="B206" t="s">
+        <v>407</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="B206" t="s">
-        <v>408</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="D206" t="s">
         <v>161</v>
@@ -4581,13 +4596,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
+        <v>409</v>
+      </c>
+      <c r="B207" t="s">
+        <v>409</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="B207" t="s">
-        <v>410</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="D207" t="s">
         <v>164</v>
@@ -4595,13 +4610,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
+        <v>412</v>
+      </c>
+      <c r="B208" t="s">
+        <v>412</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="B208" t="s">
-        <v>413</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="D208" t="s">
         <v>161</v>
@@ -4609,16 +4624,44 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
+        <v>415</v>
+      </c>
+      <c r="B209" t="s">
+        <v>415</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B209" t="s">
-        <v>416</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>417</v>
-      </c>
       <c r="D209" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>418</v>
+      </c>
+      <c r="B210" t="s">
+        <v>418</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D210" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>420</v>
+      </c>
+      <c r="B211" t="s">
+        <v>420</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D211" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4834,8 +4877,10 @@
     <hyperlink ref="C205" r:id="rId209" xr:uid="{4DA93860-D7DA-4B52-A9A0-ABAC3B793A26}"/>
     <hyperlink ref="C208" r:id="rId210" xr:uid="{FA66E72F-4556-483C-AED4-B7C4E5F6ED33}"/>
     <hyperlink ref="C209" r:id="rId211" xr:uid="{6B606037-8FCB-4B89-85F6-9C109BB639E4}"/>
+    <hyperlink ref="C210" r:id="rId212" xr:uid="{043B1326-06A0-4BFB-AE2B-D08C2362D448}"/>
+    <hyperlink ref="C211" r:id="rId213" xr:uid="{ED67AC35-5992-4B66-83D1-089BA4E99A16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId212"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId214"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FB8C31-A6B4-4055-AB3A-8AAA4969B778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3CB096-7B2A-466E-8B31-19907DA8B503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="425">
   <si>
     <t>Name</t>
   </si>
@@ -1308,6 +1308,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/702352/spots/120</t>
+  </si>
+  <si>
+    <t>Carson Spiers</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/686730/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1697,10 +1703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D211"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="C212" sqref="C212"/>
+      <selection activeCell="D213" sqref="D213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4661,6 +4667,20 @@
         <v>422</v>
       </c>
       <c r="D211" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>423</v>
+      </c>
+      <c r="B212" t="s">
+        <v>423</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D212" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4879,8 +4899,9 @@
     <hyperlink ref="C209" r:id="rId211" xr:uid="{6B606037-8FCB-4B89-85F6-9C109BB639E4}"/>
     <hyperlink ref="C210" r:id="rId212" xr:uid="{043B1326-06A0-4BFB-AE2B-D08C2362D448}"/>
     <hyperlink ref="C211" r:id="rId213" xr:uid="{ED67AC35-5992-4B66-83D1-089BA4E99A16}"/>
+    <hyperlink ref="C212" r:id="rId214" xr:uid="{CF84CEFF-E17D-40A8-AD53-CB8315ADCC37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId214"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId215"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3CB096-7B2A-466E-8B31-19907DA8B503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9829393E-8BF1-4621-8E65-27844F158612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="427">
   <si>
     <t>Name</t>
   </si>
@@ -1314,6 +1314,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/686730/spots/120</t>
+  </si>
+  <si>
+    <t>Zach Plesac</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/668676/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1703,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="D213" sqref="D213"/>
+      <selection activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4681,6 +4687,20 @@
         <v>424</v>
       </c>
       <c r="D212" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>425</v>
+      </c>
+      <c r="B213" t="s">
+        <v>425</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D213" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4900,8 +4920,9 @@
     <hyperlink ref="C210" r:id="rId212" xr:uid="{043B1326-06A0-4BFB-AE2B-D08C2362D448}"/>
     <hyperlink ref="C211" r:id="rId213" xr:uid="{ED67AC35-5992-4B66-83D1-089BA4E99A16}"/>
     <hyperlink ref="C212" r:id="rId214" xr:uid="{CF84CEFF-E17D-40A8-AD53-CB8315ADCC37}"/>
+    <hyperlink ref="C213" r:id="rId215" xr:uid="{1BAB86BA-7E57-4837-A02D-20C7C66B9848}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId215"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId216"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9829393E-8BF1-4621-8E65-27844F158612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1EF0BC-9C3E-47DC-BF3D-C2B19F7EE221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="428">
   <si>
     <t>Name</t>
   </si>
@@ -1320,6 +1320,9 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/668676/spots/120</t>
+  </si>
+  <si>
+    <t>Triston Mckenzie</t>
   </si>
 </sst>
 </file>
@@ -1711,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
   <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="D214" sqref="D214"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3813,7 +3816,7 @@
         <v>25</v>
       </c>
       <c r="B150" t="s">
-        <v>25</v>
+        <v>427</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>172</v>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1EF0BC-9C3E-47DC-BF3D-C2B19F7EE221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB959108-6856-4100-B6DA-B51FE7AE6868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="433">
   <si>
     <t>Name</t>
   </si>
@@ -1322,7 +1322,22 @@
     <t>https://midfield.mlbstatic.com/v1/people/668676/spots/120</t>
   </si>
   <si>
-    <t>Triston Mckenzie</t>
+    <t>Yonny Chirinos</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/630023/spots/120</t>
+  </si>
+  <si>
+    <t>Gerrit Cole</t>
+  </si>
+  <si>
+    <t>Bobby Miller</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/676272/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/543037/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1712,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D213"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3816,7 +3831,7 @@
         <v>25</v>
       </c>
       <c r="B150" t="s">
-        <v>427</v>
+        <v>25</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>172</v>
@@ -4704,6 +4719,48 @@
         <v>426</v>
       </c>
       <c r="D213" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>427</v>
+      </c>
+      <c r="B214" t="s">
+        <v>427</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D214" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>429</v>
+      </c>
+      <c r="B215" t="s">
+        <v>429</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D215" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>430</v>
+      </c>
+      <c r="B216" t="s">
+        <v>430</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D216" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4924,8 +4981,11 @@
     <hyperlink ref="C211" r:id="rId213" xr:uid="{ED67AC35-5992-4B66-83D1-089BA4E99A16}"/>
     <hyperlink ref="C212" r:id="rId214" xr:uid="{CF84CEFF-E17D-40A8-AD53-CB8315ADCC37}"/>
     <hyperlink ref="C213" r:id="rId215" xr:uid="{1BAB86BA-7E57-4837-A02D-20C7C66B9848}"/>
+    <hyperlink ref="C214" r:id="rId216" xr:uid="{3EA55CB4-1A31-46CB-B169-BAD40E4583E7}"/>
+    <hyperlink ref="C215" r:id="rId217" xr:uid="{2B1255F2-0C8E-4311-B384-A243584166D0}"/>
+    <hyperlink ref="C216" r:id="rId218" xr:uid="{73AE9BCD-6C33-4EA3-8B2C-295D6F0D05CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId216"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId219"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB959108-6856-4100-B6DA-B51FE7AE6868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8D5B10-5B6B-4A5A-AD57-4955B7C2E015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="434">
   <si>
     <t>Name</t>
   </si>
@@ -1338,6 +1338,9 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/543037/spots/120</t>
+  </si>
+  <si>
+    <t>Ranger Suárez</t>
   </si>
 </sst>
 </file>
@@ -1729,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
   <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="D216" sqref="D216"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3439,7 +3442,7 @@
         <v>239</v>
       </c>
       <c r="B122" t="s">
-        <v>239</v>
+        <v>433</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>240</v>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8D5B10-5B6B-4A5A-AD57-4955B7C2E015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A255BA6-A3E6-43E9-BBDB-02E53B1603B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -1733,7 +1733,7 @@
   <dimension ref="A1:D216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A255BA6-A3E6-43E9-BBDB-02E53B1603B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDAEC74-CCC5-49FE-9209-A56691315BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="439">
   <si>
     <t>Name</t>
   </si>
@@ -1341,6 +1341,21 @@
   </si>
   <si>
     <t>Ranger Suárez</t>
+  </si>
+  <si>
+    <t>Yariel Rodriguez</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/684320/spots/120</t>
+  </si>
+  <si>
+    <t>Yariel Rodríguez</t>
+  </si>
+  <si>
+    <t>Jake Bloss</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/814005/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1730,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:D218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="E217" sqref="E217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4764,6 +4779,34 @@
         <v>431</v>
       </c>
       <c r="D216" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>434</v>
+      </c>
+      <c r="B217" t="s">
+        <v>436</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D217" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>437</v>
+      </c>
+      <c r="B218" t="s">
+        <v>437</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D218" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4987,8 +5030,10 @@
     <hyperlink ref="C214" r:id="rId216" xr:uid="{3EA55CB4-1A31-46CB-B169-BAD40E4583E7}"/>
     <hyperlink ref="C215" r:id="rId217" xr:uid="{2B1255F2-0C8E-4311-B384-A243584166D0}"/>
     <hyperlink ref="C216" r:id="rId218" xr:uid="{73AE9BCD-6C33-4EA3-8B2C-295D6F0D05CF}"/>
+    <hyperlink ref="C217" r:id="rId219" xr:uid="{498C586A-7DD4-40BB-8CE1-2E05FEE50369}"/>
+    <hyperlink ref="C218" r:id="rId220" xr:uid="{A11E9FF1-3605-41EC-A0B4-E449B0C39866}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId219"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId221"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27816"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDAEC74-CCC5-49FE-9209-A56691315BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC3EC4E-83B3-4E69-BD59-3728824CB7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="2472" yWindow="3516" windowWidth="17280" windowHeight="8880" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="441">
   <si>
     <t>Name</t>
   </si>
@@ -1356,6 +1356,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/814005/spots/120</t>
+  </si>
+  <si>
+    <t>Shaun Anderson</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/641312/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1745,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="E217" sqref="E217"/>
+      <selection activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4807,6 +4813,20 @@
         <v>438</v>
       </c>
       <c r="D218" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>439</v>
+      </c>
+      <c r="B219" t="s">
+        <v>439</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D219" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5032,8 +5052,9 @@
     <hyperlink ref="C216" r:id="rId218" xr:uid="{73AE9BCD-6C33-4EA3-8B2C-295D6F0D05CF}"/>
     <hyperlink ref="C217" r:id="rId219" xr:uid="{498C586A-7DD4-40BB-8CE1-2E05FEE50369}"/>
     <hyperlink ref="C218" r:id="rId220" xr:uid="{A11E9FF1-3605-41EC-A0B4-E449B0C39866}"/>
+    <hyperlink ref="C219" r:id="rId221" xr:uid="{055DA19C-8857-47CC-ADFC-73E251BEB3F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId221"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId222"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC3EC4E-83B3-4E69-BD59-3728824CB7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CD9CA5-142F-4B39-9C95-C69EF43085AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="3516" windowWidth="17280" windowHeight="8880" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="442">
   <si>
     <t>Name</t>
   </si>
@@ -1362,6 +1362,9 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/641312/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/689672/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1753,8 +1756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
   <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="C220" sqref="C220"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4586,7 +4589,7 @@
         <v>400</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="D202" t="s">
         <v>164</v>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CD9CA5-142F-4B39-9C95-C69EF43085AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A827CC-687F-4B91-AB3A-96782FADBBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="450">
   <si>
     <t>Name</t>
   </si>
@@ -1365,6 +1365,30 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/689672/spots/120</t>
+  </si>
+  <si>
+    <t>Max Scherzer</t>
+  </si>
+  <si>
+    <t>Chase Anderson</t>
+  </si>
+  <si>
+    <t>Kyle Tyler</t>
+  </si>
+  <si>
+    <t>Kyle Freeland</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/453286/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/502624/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/667725/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/607536/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1754,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D219"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="C224" sqref="C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4831,6 +4855,62 @@
       </c>
       <c r="D219" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>442</v>
+      </c>
+      <c r="B220" t="s">
+        <v>442</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D220" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>443</v>
+      </c>
+      <c r="B221" t="s">
+        <v>443</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D221" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>444</v>
+      </c>
+      <c r="B222" t="s">
+        <v>444</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D222" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>445</v>
+      </c>
+      <c r="B223" t="s">
+        <v>445</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D223" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5056,8 +5136,12 @@
     <hyperlink ref="C217" r:id="rId219" xr:uid="{498C586A-7DD4-40BB-8CE1-2E05FEE50369}"/>
     <hyperlink ref="C218" r:id="rId220" xr:uid="{A11E9FF1-3605-41EC-A0B4-E449B0C39866}"/>
     <hyperlink ref="C219" r:id="rId221" xr:uid="{055DA19C-8857-47CC-ADFC-73E251BEB3F6}"/>
+    <hyperlink ref="C220" r:id="rId222" xr:uid="{C53F4E20-43C2-464F-97C3-89E4C10E252A}"/>
+    <hyperlink ref="C221" r:id="rId223" xr:uid="{FE90B83E-5FAF-459E-A2DA-3A8652D917EF}"/>
+    <hyperlink ref="C222" r:id="rId224" xr:uid="{BF5DAC24-D303-4D5E-A915-A885363E7451}"/>
+    <hyperlink ref="C223" r:id="rId225" xr:uid="{80A36AEF-A598-4857-BE4F-69DA9DA67DFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId222"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId226"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A827CC-687F-4B91-AB3A-96782FADBBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CBA6DA-3DA3-475C-AF57-DEA7DBEC231E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="452">
   <si>
     <t>Name</t>
   </si>
@@ -1389,6 +1389,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/607536/spots/120</t>
+  </si>
+  <si>
+    <t>Sean Hjelle</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/663546/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1778,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="C224" sqref="C224"/>
+      <selection activeCell="D225" sqref="D225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4911,6 +4917,20 @@
       </c>
       <c r="D223" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>450</v>
+      </c>
+      <c r="B224" t="s">
+        <v>450</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D224" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5140,8 +5160,9 @@
     <hyperlink ref="C221" r:id="rId223" xr:uid="{FE90B83E-5FAF-459E-A2DA-3A8652D917EF}"/>
     <hyperlink ref="C222" r:id="rId224" xr:uid="{BF5DAC24-D303-4D5E-A915-A885363E7451}"/>
     <hyperlink ref="C223" r:id="rId225" xr:uid="{80A36AEF-A598-4857-BE4F-69DA9DA67DFD}"/>
+    <hyperlink ref="C224" r:id="rId226" xr:uid="{B7D987BA-6271-4CC8-A0DC-4BF330477802}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId226"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId227"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27820"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CBA6DA-3DA3-475C-AF57-DEA7DBEC231E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93868BA1-59D5-4C45-B5E8-33E402AD5A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="6864" yWindow="2556" windowWidth="17280" windowHeight="8880" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="462">
   <si>
     <t>Name</t>
   </si>
@@ -1395,6 +1395,36 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/663546/spots/120</t>
+  </si>
+  <si>
+    <t>Dallas Keuchel</t>
+  </si>
+  <si>
+    <t>Roansy Contreras</t>
+  </si>
+  <si>
+    <t>Spencer Turnbull</t>
+  </si>
+  <si>
+    <t>Valente Bellozo</t>
+  </si>
+  <si>
+    <t>Hayden Birdsong</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/678368/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/806185/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/572971/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/672710/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/605513/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1784,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D224"/>
+  <dimension ref="A1:D229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="D225" sqref="D225"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4930,6 +4960,76 @@
         <v>451</v>
       </c>
       <c r="D224" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>452</v>
+      </c>
+      <c r="B225" t="s">
+        <v>452</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D225" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>453</v>
+      </c>
+      <c r="B226" t="s">
+        <v>453</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D226" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>454</v>
+      </c>
+      <c r="B227" t="s">
+        <v>454</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D227" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>455</v>
+      </c>
+      <c r="B228" t="s">
+        <v>455</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D228" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>456</v>
+      </c>
+      <c r="B229" t="s">
+        <v>456</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D229" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5161,8 +5261,13 @@
     <hyperlink ref="C222" r:id="rId224" xr:uid="{BF5DAC24-D303-4D5E-A915-A885363E7451}"/>
     <hyperlink ref="C223" r:id="rId225" xr:uid="{80A36AEF-A598-4857-BE4F-69DA9DA67DFD}"/>
     <hyperlink ref="C224" r:id="rId226" xr:uid="{B7D987BA-6271-4CC8-A0DC-4BF330477802}"/>
+    <hyperlink ref="C228" r:id="rId227" xr:uid="{20EE4B5A-0C19-4A82-A1B2-5DDF4FA49FDE}"/>
+    <hyperlink ref="C229" r:id="rId228" xr:uid="{DDEB8DCF-19D0-4DAE-873E-83BD559EDD37}"/>
+    <hyperlink ref="C225" r:id="rId229" xr:uid="{E823F0E1-6A3E-40D1-BDE4-8CFCEDB0173E}"/>
+    <hyperlink ref="C226" r:id="rId230" xr:uid="{571ED490-0BB2-41BB-96E6-1E80746B048B}"/>
+    <hyperlink ref="C227" r:id="rId231" xr:uid="{45DC0BB5-E895-42EC-B035-878800D93341}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId227"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId232"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93868BA1-59D5-4C45-B5E8-33E402AD5A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2666B26D-45C3-4D75-B36C-D0A4A6002A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6864" yWindow="2556" windowWidth="17280" windowHeight="8880" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="468">
   <si>
     <t>Name</t>
   </si>
@@ -1425,6 +1425,24 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/605513/spots/120</t>
+  </si>
+  <si>
+    <t>Chad Kuhl</t>
+  </si>
+  <si>
+    <t>David Festa</t>
+  </si>
+  <si>
+    <t>Davis Daniel</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/701581/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/669721/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/641771/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1814,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D229"/>
+  <dimension ref="A1:D232"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="E225" sqref="E225"/>
+      <selection activeCell="D231" sqref="D231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5030,6 +5048,48 @@
         <v>458</v>
       </c>
       <c r="D229" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>462</v>
+      </c>
+      <c r="B230" t="s">
+        <v>462</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D230" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>463</v>
+      </c>
+      <c r="B231" t="s">
+        <v>463</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D231" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>464</v>
+      </c>
+      <c r="B232" t="s">
+        <v>464</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D232" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5266,8 +5326,11 @@
     <hyperlink ref="C225" r:id="rId229" xr:uid="{E823F0E1-6A3E-40D1-BDE4-8CFCEDB0173E}"/>
     <hyperlink ref="C226" r:id="rId230" xr:uid="{571ED490-0BB2-41BB-96E6-1E80746B048B}"/>
     <hyperlink ref="C227" r:id="rId231" xr:uid="{45DC0BB5-E895-42EC-B035-878800D93341}"/>
+    <hyperlink ref="C230" r:id="rId232" xr:uid="{EE178400-7D70-4075-8104-3752416DC5D0}"/>
+    <hyperlink ref="C231" r:id="rId233" xr:uid="{19C897C7-B2B8-445D-8CA3-7B0E06E16618}"/>
+    <hyperlink ref="C232" r:id="rId234" xr:uid="{6B029C37-DB04-4255-9E5E-5B9AD78DD349}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId232"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId235"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2666B26D-45C3-4D75-B36C-D0A4A6002A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB71E487-D80D-49EB-B504-090C5F0F5CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="470">
   <si>
     <t>Name</t>
   </si>
@@ -1443,6 +1443,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/641771/spots/120</t>
+  </si>
+  <si>
+    <t>Albert Suárez</t>
+  </si>
+  <si>
+    <t>Randy Vásquez</t>
   </si>
 </sst>
 </file>
@@ -1834,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
   <dimension ref="A1:D232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="D231" sqref="D231"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3530,7 +3536,7 @@
         <v>192</v>
       </c>
       <c r="B121" t="s">
-        <v>192</v>
+        <v>469</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>193</v>
@@ -4384,7 +4390,7 @@
         <v>358</v>
       </c>
       <c r="B182" t="s">
-        <v>358</v>
+        <v>468</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>360</v>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB71E487-D80D-49EB-B504-090C5F0F5CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA49D8D-4FDF-4AFD-A941-3588BC3A3F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="472">
   <si>
     <t>Name</t>
   </si>
@@ -1449,6 +1449,12 @@
   </si>
   <si>
     <t>Randy Vásquez</t>
+  </si>
+  <si>
+    <t>Erik Miller</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/669062/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1838,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D232"/>
+  <dimension ref="A1:D233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="C234" sqref="C234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5097,6 +5103,20 @@
       </c>
       <c r="D232" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>470</v>
+      </c>
+      <c r="B233" t="s">
+        <v>470</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D233" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5335,8 +5355,9 @@
     <hyperlink ref="C230" r:id="rId232" xr:uid="{EE178400-7D70-4075-8104-3752416DC5D0}"/>
     <hyperlink ref="C231" r:id="rId233" xr:uid="{19C897C7-B2B8-445D-8CA3-7B0E06E16618}"/>
     <hyperlink ref="C232" r:id="rId234" xr:uid="{6B029C37-DB04-4255-9E5E-5B9AD78DD349}"/>
+    <hyperlink ref="C233" r:id="rId235" xr:uid="{A9A83049-37C9-4D85-962F-CDE28F86C75A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId235"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId236"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA49D8D-4FDF-4AFD-A941-3588BC3A3F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9DC70C-5D2A-496A-803B-A20E68A02360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="474">
   <si>
     <t>Name</t>
   </si>
@@ -1455,6 +1455,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/669062/spots/120</t>
+  </si>
+  <si>
+    <t>Michael Mercado</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/675650/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1844,7 +1850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D233"/>
+  <dimension ref="A1:D234"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
       <selection activeCell="C234" sqref="C234"/>
@@ -5117,6 +5123,20 @@
       </c>
       <c r="D233" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>472</v>
+      </c>
+      <c r="B234" t="s">
+        <v>472</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D234" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5356,8 +5376,9 @@
     <hyperlink ref="C231" r:id="rId233" xr:uid="{19C897C7-B2B8-445D-8CA3-7B0E06E16618}"/>
     <hyperlink ref="C232" r:id="rId234" xr:uid="{6B029C37-DB04-4255-9E5E-5B9AD78DD349}"/>
     <hyperlink ref="C233" r:id="rId235" xr:uid="{A9A83049-37C9-4D85-962F-CDE28F86C75A}"/>
+    <hyperlink ref="C234" r:id="rId236" xr:uid="{B4FECB5A-4B35-4E03-AFC1-6C2C41C57BC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId236"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId237"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9DC70C-5D2A-496A-803B-A20E68A02360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67A565E-82E3-4BD9-B493-8AF610B36AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="476">
   <si>
     <t>Name</t>
   </si>
@@ -1461,6 +1461,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/675650/spots/120</t>
+  </si>
+  <si>
+    <t>Cristian Mena</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/691441/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1850,10 +1856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D234"/>
+  <dimension ref="A1:D235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="C234" sqref="C234"/>
+      <selection activeCell="C236" sqref="C236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5136,6 +5142,20 @@
         <v>473</v>
       </c>
       <c r="D234" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>474</v>
+      </c>
+      <c r="B235" t="s">
+        <v>474</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D235" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5377,8 +5397,9 @@
     <hyperlink ref="C232" r:id="rId234" xr:uid="{6B029C37-DB04-4255-9E5E-5B9AD78DD349}"/>
     <hyperlink ref="C233" r:id="rId235" xr:uid="{A9A83049-37C9-4D85-962F-CDE28F86C75A}"/>
     <hyperlink ref="C234" r:id="rId236" xr:uid="{B4FECB5A-4B35-4E03-AFC1-6C2C41C57BC4}"/>
+    <hyperlink ref="C235" r:id="rId237" xr:uid="{6AF6B864-0809-4988-BC6C-FE85AF6A202D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId237"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId238"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67A565E-82E3-4BD9-B493-8AF610B36AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B104FAE6-7C3B-41E7-AD12-54EBF19C447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="478">
   <si>
     <t>Name</t>
   </si>
@@ -1467,6 +1467,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/691441/spots/120</t>
+  </si>
+  <si>
+    <t>Gavin Williams</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/668909/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1856,10 +1862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D235"/>
+  <dimension ref="A1:D236"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="C236" sqref="C236"/>
+      <selection activeCell="C237" sqref="C237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5156,6 +5162,20 @@
         <v>475</v>
       </c>
       <c r="D235" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>476</v>
+      </c>
+      <c r="B236" t="s">
+        <v>476</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D236" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5398,8 +5418,9 @@
     <hyperlink ref="C233" r:id="rId235" xr:uid="{A9A83049-37C9-4D85-962F-CDE28F86C75A}"/>
     <hyperlink ref="C234" r:id="rId236" xr:uid="{B4FECB5A-4B35-4E03-AFC1-6C2C41C57BC4}"/>
     <hyperlink ref="C235" r:id="rId237" xr:uid="{6AF6B864-0809-4988-BC6C-FE85AF6A202D}"/>
+    <hyperlink ref="C236" r:id="rId238" xr:uid="{92E22DB8-61D8-40BB-9529-1D8887BF37E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId238"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId239"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B104FAE6-7C3B-41E7-AD12-54EBF19C447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0931D700-4FCF-45D6-94E3-059C20D18C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="480">
   <si>
     <t>Name</t>
   </si>
@@ -1473,6 +1473,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/668909/spots/120</t>
+  </si>
+  <si>
+    <t>Josh Winckowski</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/670174/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1862,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D236"/>
+  <dimension ref="A1:D237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="C237" sqref="C237"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="D238" sqref="D238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5176,6 +5182,20 @@
         <v>477</v>
       </c>
       <c r="D236" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>478</v>
+      </c>
+      <c r="B237" t="s">
+        <v>478</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D237" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5419,8 +5439,9 @@
     <hyperlink ref="C234" r:id="rId236" xr:uid="{B4FECB5A-4B35-4E03-AFC1-6C2C41C57BC4}"/>
     <hyperlink ref="C235" r:id="rId237" xr:uid="{6AF6B864-0809-4988-BC6C-FE85AF6A202D}"/>
     <hyperlink ref="C236" r:id="rId238" xr:uid="{92E22DB8-61D8-40BB-9529-1D8887BF37E3}"/>
+    <hyperlink ref="C237" r:id="rId239" xr:uid="{EF429FDF-10FE-4488-85F5-9AAD30A38E0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId239"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId240"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0931D700-4FCF-45D6-94E3-059C20D18C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF43661B-6A93-41B3-A3F2-167D6C95D4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="484">
   <si>
     <t>Name</t>
   </si>
@@ -1479,6 +1479,18 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/670174/spots/120</t>
+  </si>
+  <si>
+    <t>Tanner Gordon</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/685299/spots/120</t>
+  </si>
+  <si>
+    <t>Justin Wrobleski</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/680736/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1868,10 +1880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D237"/>
+  <dimension ref="A1:D239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="D238" sqref="D238"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5197,6 +5209,34 @@
       </c>
       <c r="D237" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>480</v>
+      </c>
+      <c r="B238" t="s">
+        <v>480</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D238" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>482</v>
+      </c>
+      <c r="B239" t="s">
+        <v>482</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D239" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5440,8 +5480,10 @@
     <hyperlink ref="C235" r:id="rId237" xr:uid="{6AF6B864-0809-4988-BC6C-FE85AF6A202D}"/>
     <hyperlink ref="C236" r:id="rId238" xr:uid="{92E22DB8-61D8-40BB-9529-1D8887BF37E3}"/>
     <hyperlink ref="C237" r:id="rId239" xr:uid="{EF429FDF-10FE-4488-85F5-9AAD30A38E0D}"/>
+    <hyperlink ref="C238" r:id="rId240" xr:uid="{1CB793AA-FB4F-4E62-A9F2-D519D201BB92}"/>
+    <hyperlink ref="C239" r:id="rId241" xr:uid="{FB613A25-AD87-4EA9-8D51-EB22AD2DA559}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId240"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId242"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF43661B-6A93-41B3-A3F2-167D6C95D4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C97339-70B3-4F77-86B5-E7006C1EE250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="486">
   <si>
     <t>Name</t>
   </si>
@@ -1491,6 +1491,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/680736/spots/120</t>
+  </si>
+  <si>
+    <t>Yilber Diaz</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/700270/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1880,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D239"/>
+  <dimension ref="A1:D240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="C240" sqref="C240"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5237,6 +5243,20 @@
       </c>
       <c r="D239" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>484</v>
+      </c>
+      <c r="B240" t="s">
+        <v>484</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D240" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5482,8 +5502,9 @@
     <hyperlink ref="C237" r:id="rId239" xr:uid="{EF429FDF-10FE-4488-85F5-9AAD30A38E0D}"/>
     <hyperlink ref="C238" r:id="rId240" xr:uid="{1CB793AA-FB4F-4E62-A9F2-D519D201BB92}"/>
     <hyperlink ref="C239" r:id="rId241" xr:uid="{FB613A25-AD87-4EA9-8D51-EB22AD2DA559}"/>
+    <hyperlink ref="C240" r:id="rId242" xr:uid="{BC37F7AB-1C24-408D-B43C-01BC9A4CB101}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId242"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId243"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C97339-70B3-4F77-86B5-E7006C1EE250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBB0F86-3ECD-48FF-92AB-C4A64F23DB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="490">
   <si>
     <t>Name</t>
   </si>
@@ -1497,6 +1497,18 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/700270/spots/120</t>
+  </si>
+  <si>
+    <t>Bryan Hoeing</t>
+  </si>
+  <si>
+    <t>Gordon Graceffo</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/700669/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/663773/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1886,10 +1898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D240"/>
+  <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="C241" sqref="C241"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="C242" sqref="C242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5256,6 +5268,34 @@
         <v>485</v>
       </c>
       <c r="D240" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>486</v>
+      </c>
+      <c r="B241" t="s">
+        <v>486</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D241" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>487</v>
+      </c>
+      <c r="B242" t="s">
+        <v>487</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D242" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5503,8 +5543,10 @@
     <hyperlink ref="C238" r:id="rId240" xr:uid="{1CB793AA-FB4F-4E62-A9F2-D519D201BB92}"/>
     <hyperlink ref="C239" r:id="rId241" xr:uid="{FB613A25-AD87-4EA9-8D51-EB22AD2DA559}"/>
     <hyperlink ref="C240" r:id="rId242" xr:uid="{BC37F7AB-1C24-408D-B43C-01BC9A4CB101}"/>
+    <hyperlink ref="C241" r:id="rId243" xr:uid="{79BF7850-C154-4D58-B412-E89AB032C55E}"/>
+    <hyperlink ref="C242" r:id="rId244" xr:uid="{B8E8A859-C13F-41E7-9FAD-D3C18BA3F91A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId243"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId245"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27820"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBB0F86-3ECD-48FF-92AB-C4A64F23DB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4713D32D-FFA1-4C23-88BA-8BB681D9E8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="494">
   <si>
     <t>Name</t>
   </si>
@@ -1509,6 +1509,18 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/663773/spots/120</t>
+  </si>
+  <si>
+    <t>Jack Kochanowicz</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/686799/spots/120</t>
+  </si>
+  <si>
+    <t>Shane Baz</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/669358/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1898,10 +1910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D242"/>
+  <dimension ref="A1:D244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="C242" sqref="C242"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1927,27 +1939,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>377</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>378</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>328</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>333</v>
       </c>
       <c r="D3" t="s">
         <v>164</v>
@@ -1955,13 +1967,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>312</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
         <v>164</v>
@@ -1969,13 +1981,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>256</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
         <v>164</v>
@@ -1983,13 +1995,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>372</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>374</v>
       </c>
       <c r="D6" t="s">
         <v>164</v>
@@ -1997,69 +2009,69 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>311</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>166</v>
+        <v>312</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>468</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>254</v>
+        <v>360</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>255</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>171</v>
+        <v>256</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>226</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
         <v>161</v>
@@ -2067,13 +2079,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>350</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>350</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>353</v>
       </c>
       <c r="D12" t="s">
         <v>164</v>
@@ -2081,41 +2093,41 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="B13" t="s">
-        <v>313</v>
+        <v>253</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>342</v>
       </c>
       <c r="B15" t="s">
-        <v>286</v>
+        <v>342</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
       <c r="D15" t="s">
         <v>164</v>
@@ -2123,24 +2135,24 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="B16" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>265</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>87</v>
@@ -2151,13 +2163,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>261</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>261</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
         <v>164</v>
@@ -2165,13 +2177,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>313</v>
       </c>
       <c r="B19" t="s">
-        <v>251</v>
+        <v>313</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="D19" t="s">
         <v>164</v>
@@ -2179,13 +2191,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c r="D20" t="s">
         <v>164</v>
@@ -2193,41 +2205,41 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>338</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>338</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>101</v>
+        <v>343</v>
       </c>
       <c r="D21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>329</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>329</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>157</v>
+        <v>334</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>430</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>430</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>431</v>
       </c>
       <c r="D23" t="s">
         <v>164</v>
@@ -2235,13 +2247,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>369</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>369</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>95</v>
+        <v>375</v>
       </c>
       <c r="D24" t="s">
         <v>164</v>
@@ -2249,27 +2261,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>398</v>
+        <v>286</v>
       </c>
       <c r="B25" t="s">
-        <v>397</v>
+        <v>286</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="D26" t="s">
         <v>164</v>
@@ -2277,27 +2289,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>230</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="D28" t="s">
         <v>164</v>
@@ -2305,27 +2317,27 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>394</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>394</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>396</v>
       </c>
       <c r="D29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>289</v>
+        <v>486</v>
       </c>
       <c r="B30" t="s">
-        <v>289</v>
+        <v>486</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>290</v>
+        <v>489</v>
       </c>
       <c r="D30" t="s">
         <v>164</v>
@@ -2333,27 +2345,27 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>3</v>
+      <c r="A32" t="s">
+        <v>270</v>
+      </c>
+      <c r="B32" t="s">
+        <v>270</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>2</v>
+        <v>271</v>
       </c>
       <c r="D32" t="s">
         <v>164</v>
@@ -2361,41 +2373,41 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>389</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>389</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>53</v>
+        <v>390</v>
       </c>
       <c r="D33" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="D35" t="s">
         <v>164</v>
@@ -2403,27 +2415,27 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>380</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>380</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>109</v>
+        <v>382</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
         <v>164</v>
@@ -2431,13 +2443,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>272</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>272</v>
+        <v>94</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>276</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
         <v>164</v>
@@ -2445,13 +2457,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>206</v>
+        <v>398</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
+        <v>397</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>181</v>
+        <v>288</v>
       </c>
       <c r="D39" t="s">
         <v>161</v>
@@ -2459,13 +2471,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>403</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>403</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>200</v>
+        <v>411</v>
       </c>
       <c r="D40" t="s">
         <v>164</v>
@@ -2473,27 +2485,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>423</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>423</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>107</v>
+        <v>424</v>
       </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>227</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>320</v>
+        <v>228</v>
       </c>
       <c r="D42" t="s">
         <v>164</v>
@@ -2501,13 +2513,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>462</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>462</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>124</v>
+        <v>467</v>
       </c>
       <c r="D43" t="s">
         <v>164</v>
@@ -2515,13 +2527,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="B44" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="D44" t="s">
         <v>164</v>
@@ -2529,13 +2541,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>443</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>443</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>43</v>
+        <v>447</v>
       </c>
       <c r="D45" t="s">
         <v>164</v>
@@ -2543,13 +2555,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
         <v>164</v>
@@ -2557,27 +2569,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>231</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>231</v>
+        <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>289</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>289</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>179</v>
+        <v>290</v>
       </c>
       <c r="D48" t="s">
         <v>164</v>
@@ -2585,41 +2597,41 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>318</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>113</v>
+        <v>319</v>
       </c>
       <c r="D50" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>291</v>
-      </c>
-      <c r="B51" t="s">
-        <v>291</v>
+      <c r="A51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>292</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
         <v>164</v>
@@ -2627,55 +2639,55 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>362</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>362</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>46</v>
+        <v>363</v>
       </c>
       <c r="D52" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>4</v>
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="D55" t="s">
         <v>164</v>
@@ -2683,13 +2695,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D56" t="s">
         <v>164</v>
@@ -2697,13 +2709,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="D57" t="s">
         <v>164</v>
@@ -2711,13 +2723,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>141</v>
+        <v>272</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>272</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="D58" t="s">
         <v>164</v>
@@ -2725,13 +2737,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>280</v>
+        <v>474</v>
       </c>
       <c r="B59" t="s">
-        <v>280</v>
+        <v>474</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>281</v>
+        <v>475</v>
       </c>
       <c r="D59" t="s">
         <v>164</v>
@@ -2739,13 +2751,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="D60" t="s">
         <v>161</v>
@@ -2753,13 +2765,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="D61" t="s">
         <v>164</v>
@@ -2767,27 +2779,27 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>257</v>
+        <v>452</v>
       </c>
       <c r="B62" t="s">
-        <v>257</v>
+        <v>452</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>258</v>
+        <v>459</v>
       </c>
       <c r="D62" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>348</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>348</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>119</v>
+        <v>349</v>
       </c>
       <c r="D63" t="s">
         <v>164</v>
@@ -2795,27 +2807,27 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D64" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>47</v>
+        <v>320</v>
       </c>
       <c r="D65" t="s">
         <v>164</v>
@@ -2823,13 +2835,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>463</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>463</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>49</v>
+        <v>465</v>
       </c>
       <c r="D66" t="s">
         <v>164</v>
@@ -2837,27 +2849,27 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>356</v>
       </c>
       <c r="B67" t="s">
-        <v>110</v>
+        <v>356</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>111</v>
+        <v>357</v>
       </c>
       <c r="D67" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>275</v>
+        <v>464</v>
       </c>
       <c r="B68" t="s">
-        <v>275</v>
+        <v>464</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>279</v>
+        <v>466</v>
       </c>
       <c r="D68" t="s">
         <v>164</v>
@@ -2865,13 +2877,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D69" t="s">
         <v>164</v>
@@ -2879,41 +2891,41 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>371</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>371</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>60</v>
+        <v>373</v>
       </c>
       <c r="D70" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>400</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>321</v>
+        <v>441</v>
       </c>
       <c r="D71" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>205</v>
+        <v>359</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
+        <v>359</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>180</v>
+        <v>361</v>
       </c>
       <c r="D72" t="s">
         <v>164</v>
@@ -2921,13 +2933,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D73" t="s">
         <v>164</v>
@@ -2935,27 +2947,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D74" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>322</v>
+        <v>208</v>
       </c>
       <c r="B75" t="s">
-        <v>322</v>
+        <v>208</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="D75" t="s">
         <v>164</v>
@@ -2963,27 +2975,27 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>323</v>
+        <v>470</v>
       </c>
       <c r="B76" t="s">
-        <v>323</v>
+        <v>470</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>204</v>
+        <v>471</v>
       </c>
       <c r="D76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="B77" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="D77" t="s">
         <v>161</v>
@@ -2991,27 +3003,27 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="B78" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="D78" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="D79" t="s">
         <v>164</v>
@@ -3019,27 +3031,27 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="D80" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>385</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>385</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>173</v>
+        <v>388</v>
       </c>
       <c r="D81" t="s">
         <v>164</v>
@@ -3047,13 +3059,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="B82" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>307</v>
+        <v>477</v>
       </c>
       <c r="D82" t="s">
         <v>164</v>
@@ -3061,13 +3073,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>291</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>291</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>189</v>
+        <v>292</v>
       </c>
       <c r="D83" t="s">
         <v>164</v>
@@ -3075,13 +3087,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>160</v>
+        <v>429</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>429</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>163</v>
+        <v>432</v>
       </c>
       <c r="D84" t="s">
         <v>164</v>
@@ -3089,27 +3101,27 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>198</v>
+        <v>332</v>
       </c>
       <c r="B85" t="s">
-        <v>198</v>
+        <v>332</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>199</v>
+        <v>337</v>
       </c>
       <c r="D85" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>263</v>
+        <v>487</v>
       </c>
       <c r="B86" t="s">
-        <v>263</v>
+        <v>487</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>264</v>
+        <v>488</v>
       </c>
       <c r="D86" t="s">
         <v>164</v>
@@ -3117,27 +3129,27 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="B87" t="s">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c r="D87" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>295</v>
-      </c>
-      <c r="B88" t="s">
-        <v>295</v>
+      <c r="A88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>296</v>
+        <v>5</v>
       </c>
       <c r="D88" t="s">
         <v>164</v>
@@ -3145,27 +3157,27 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="D89" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>209</v>
+        <v>456</v>
       </c>
       <c r="B90" t="s">
-        <v>209</v>
+        <v>456</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>224</v>
+        <v>458</v>
       </c>
       <c r="D90" t="s">
         <v>164</v>
@@ -3173,13 +3185,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="B91" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="D91" t="s">
         <v>164</v>
@@ -3187,27 +3199,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>151</v>
+        <v>383</v>
       </c>
       <c r="B92" t="s">
-        <v>151</v>
+        <v>383</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>152</v>
+        <v>384</v>
       </c>
       <c r="D92" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="D93" t="s">
         <v>164</v>
@@ -3215,13 +3227,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D94" t="s">
         <v>164</v>
@@ -3229,27 +3241,27 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>393</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>393</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>91</v>
+        <v>395</v>
       </c>
       <c r="D95" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="B96" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="D96" t="s">
         <v>164</v>
@@ -3257,27 +3269,27 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>324</v>
+        <v>490</v>
       </c>
       <c r="B97" t="s">
-        <v>324</v>
+        <v>490</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>58</v>
+        <v>491</v>
       </c>
       <c r="D97" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>139</v>
+        <v>437</v>
       </c>
       <c r="B98" t="s">
-        <v>139</v>
+        <v>437</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>140</v>
+        <v>438</v>
       </c>
       <c r="D98" t="s">
         <v>164</v>
@@ -3285,13 +3297,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B99" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D99" t="s">
         <v>164</v>
@@ -3299,13 +3311,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>379</v>
       </c>
       <c r="B100" t="s">
-        <v>127</v>
+        <v>379</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>128</v>
+        <v>381</v>
       </c>
       <c r="D100" t="s">
         <v>164</v>
@@ -3313,13 +3325,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B101" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D101" t="s">
         <v>161</v>
@@ -3327,27 +3339,27 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>293</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
+        <v>293</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="D102" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="D103" t="s">
         <v>164</v>
@@ -3355,55 +3367,55 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>297</v>
+        <v>118</v>
       </c>
       <c r="B104" t="s">
-        <v>297</v>
+        <v>118</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>298</v>
+        <v>119</v>
       </c>
       <c r="D104" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>184</v>
+        <v>370</v>
       </c>
       <c r="B105" t="s">
-        <v>184</v>
+        <v>417</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>185</v>
+        <v>376</v>
       </c>
       <c r="D105" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="B106" t="s">
-        <v>78</v>
+        <v>407</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="D106" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>308</v>
+        <v>121</v>
       </c>
       <c r="B107" t="s">
-        <v>308</v>
+        <v>121</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>309</v>
+        <v>122</v>
       </c>
       <c r="D107" t="s">
         <v>164</v>
@@ -3411,13 +3423,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="D108" t="s">
         <v>164</v>
@@ -3425,13 +3437,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="B109" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="D109" t="s">
         <v>164</v>
@@ -3439,13 +3451,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>304</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>304</v>
+        <v>110</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>305</v>
+        <v>111</v>
       </c>
       <c r="D110" t="s">
         <v>164</v>
@@ -3453,41 +3465,41 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="B111" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="D111" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="D112" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>274</v>
+        <v>409</v>
       </c>
       <c r="B113" t="s">
-        <v>274</v>
+        <v>409</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>278</v>
+        <v>410</v>
       </c>
       <c r="D113" t="s">
         <v>164</v>
@@ -3495,13 +3507,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>299</v>
+        <v>59</v>
       </c>
       <c r="B114" t="s">
-        <v>299</v>
+        <v>59</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="D114" t="s">
         <v>164</v>
@@ -3509,69 +3521,69 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>217</v>
+        <v>321</v>
       </c>
       <c r="D115" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="B116" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="D116" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="D117" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>237</v>
+        <v>66</v>
       </c>
       <c r="B118" t="s">
-        <v>237</v>
+        <v>66</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>238</v>
+        <v>67</v>
       </c>
       <c r="D118" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="B119" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c r="D119" t="s">
         <v>164</v>
@@ -3579,27 +3591,27 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>32</v>
+        <v>401</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>404</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>40</v>
+        <v>405</v>
       </c>
       <c r="D120" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>192</v>
+        <v>323</v>
       </c>
       <c r="B121" t="s">
-        <v>469</v>
+        <v>323</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D121" t="s">
         <v>164</v>
@@ -3607,13 +3619,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>239</v>
+        <v>418</v>
       </c>
       <c r="B122" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>240</v>
+        <v>421</v>
       </c>
       <c r="D122" t="s">
         <v>161</v>
@@ -3621,13 +3633,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>70</v>
+        <v>478</v>
       </c>
       <c r="B123" t="s">
-        <v>70</v>
+        <v>478</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>71</v>
+        <v>479</v>
       </c>
       <c r="D123" t="s">
         <v>164</v>
@@ -3635,13 +3647,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>211</v>
+        <v>301</v>
       </c>
       <c r="B124" t="s">
-        <v>211</v>
+        <v>301</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>221</v>
+        <v>300</v>
       </c>
       <c r="D124" t="s">
         <v>161</v>
@@ -3649,55 +3661,55 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="B125" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="D125" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>259</v>
+        <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>259</v>
+        <v>17</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="D126" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>35</v>
+        <v>482</v>
       </c>
       <c r="B127" t="s">
-        <v>414</v>
+        <v>482</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>170</v>
+        <v>483</v>
       </c>
       <c r="D127" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="B128" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="D128" t="s">
         <v>164</v>
@@ -3705,13 +3717,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>22</v>
+        <v>351</v>
       </c>
       <c r="B129" t="s">
-        <v>22</v>
+        <v>351</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>41</v>
+        <v>354</v>
       </c>
       <c r="D129" t="s">
         <v>164</v>
@@ -3719,13 +3731,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>310</v>
+        <v>18</v>
       </c>
       <c r="B130" t="s">
-        <v>310</v>
+        <v>18</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="D130" t="s">
         <v>164</v>
@@ -3733,13 +3745,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>98</v>
+        <v>306</v>
       </c>
       <c r="B131" t="s">
-        <v>98</v>
+        <v>306</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>99</v>
+        <v>307</v>
       </c>
       <c r="D131" t="s">
         <v>164</v>
@@ -3747,13 +3759,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B132" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="D132" t="s">
         <v>164</v>
@@ -3761,13 +3773,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>129</v>
+        <v>331</v>
       </c>
       <c r="B133" t="s">
-        <v>129</v>
+        <v>331</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>130</v>
+        <v>336</v>
       </c>
       <c r="D133" t="s">
         <v>164</v>
@@ -3775,13 +3787,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>159</v>
+        <v>445</v>
       </c>
       <c r="B134" t="s">
-        <v>159</v>
+        <v>445</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>162</v>
+        <v>449</v>
       </c>
       <c r="D134" t="s">
         <v>161</v>
@@ -3789,13 +3801,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="B135" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="D135" t="s">
         <v>164</v>
@@ -3803,13 +3815,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="B136" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D136" t="s">
         <v>161</v>
@@ -3817,13 +3829,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="B137" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>154</v>
+        <v>264</v>
       </c>
       <c r="D137" t="s">
         <v>164</v>
@@ -3831,13 +3843,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>326</v>
+        <v>444</v>
       </c>
       <c r="B138" t="s">
-        <v>326</v>
+        <v>444</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>120</v>
+        <v>448</v>
       </c>
       <c r="D138" t="s">
         <v>164</v>
@@ -3845,13 +3857,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="B139" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="D139" t="s">
         <v>164</v>
@@ -3859,13 +3871,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>213</v>
+        <v>295</v>
       </c>
       <c r="B140" t="s">
-        <v>213</v>
+        <v>295</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="D140" t="s">
         <v>164</v>
@@ -3873,27 +3885,27 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>302</v>
+        <v>174</v>
       </c>
       <c r="B141" t="s">
-        <v>302</v>
+        <v>174</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>303</v>
+        <v>175</v>
       </c>
       <c r="D141" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="B142" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="D142" t="s">
         <v>164</v>
@@ -3901,13 +3913,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>247</v>
+        <v>135</v>
       </c>
       <c r="B143" t="s">
-        <v>247</v>
+        <v>135</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>248</v>
+        <v>136</v>
       </c>
       <c r="D143" t="s">
         <v>164</v>
@@ -3915,13 +3927,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="B144" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>76</v>
+        <v>406</v>
       </c>
       <c r="D144" t="s">
         <v>164</v>
@@ -3929,13 +3941,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="D145" t="s">
         <v>164</v>
@@ -3943,27 +3955,27 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="B146" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="D146" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>214</v>
+        <v>392</v>
       </c>
       <c r="B147" t="s">
-        <v>214</v>
+        <v>392</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>223</v>
+        <v>391</v>
       </c>
       <c r="D147" t="s">
         <v>164</v>
@@ -3971,27 +3983,27 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>243</v>
+        <v>386</v>
       </c>
       <c r="B148" t="s">
-        <v>243</v>
+        <v>386</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>244</v>
+        <v>387</v>
       </c>
       <c r="D148" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="B149" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="D149" t="s">
         <v>164</v>
@@ -3999,27 +4011,27 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="B150" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="D150" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="B151" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>269</v>
+        <v>91</v>
       </c>
       <c r="D151" t="s">
         <v>161</v>
@@ -4027,27 +4039,27 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>266</v>
+        <v>72</v>
       </c>
       <c r="B152" t="s">
-        <v>266</v>
+        <v>72</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="D152" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>143</v>
+        <v>324</v>
       </c>
       <c r="B153" t="s">
-        <v>143</v>
+        <v>324</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="D153" t="s">
         <v>161</v>
@@ -4055,13 +4067,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>245</v>
+        <v>139</v>
       </c>
       <c r="B154" t="s">
-        <v>245</v>
+        <v>139</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>246</v>
+        <v>140</v>
       </c>
       <c r="D154" t="s">
         <v>164</v>
@@ -4069,13 +4081,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="B155" t="s">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>168</v>
+        <v>285</v>
       </c>
       <c r="D155" t="s">
         <v>164</v>
@@ -4083,13 +4095,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="B156" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="D156" t="s">
         <v>164</v>
@@ -4097,27 +4109,27 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="B157" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="D157" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>327</v>
+        <v>131</v>
       </c>
       <c r="B158" t="s">
-        <v>327</v>
+        <v>131</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="D158" t="s">
         <v>161</v>
@@ -4125,13 +4137,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>176</v>
+        <v>442</v>
       </c>
       <c r="B159" t="s">
-        <v>176</v>
+        <v>442</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>177</v>
+        <v>446</v>
       </c>
       <c r="D159" t="s">
         <v>164</v>
@@ -4139,13 +4151,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c r="B160" t="s">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="D160" t="s">
         <v>164</v>
@@ -4153,27 +4165,27 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="B161" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="D161" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>27</v>
+        <v>472</v>
       </c>
       <c r="B162" t="s">
-        <v>27</v>
+        <v>472</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>44</v>
+        <v>473</v>
       </c>
       <c r="D162" t="s">
         <v>164</v>
@@ -4181,55 +4193,55 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>315</v>
+        <v>184</v>
       </c>
       <c r="B163" t="s">
-        <v>315</v>
+        <v>184</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>316</v>
+        <v>185</v>
       </c>
       <c r="D163" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="B164" t="s">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D164" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="B165" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="D165" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>318</v>
+        <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>318</v>
+        <v>20</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>319</v>
+        <v>197</v>
       </c>
       <c r="D166" t="s">
         <v>164</v>
@@ -4237,13 +4249,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>328</v>
+        <v>144</v>
       </c>
       <c r="B167" t="s">
-        <v>328</v>
+        <v>144</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>333</v>
+        <v>146</v>
       </c>
       <c r="D167" t="s">
         <v>164</v>
@@ -4251,27 +4263,27 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="B168" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="D168" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B169" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D169" t="s">
         <v>161</v>
@@ -4279,13 +4291,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="B170" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="D170" t="s">
         <v>164</v>
@@ -4293,27 +4305,27 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B171" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>337</v>
+        <v>83</v>
       </c>
       <c r="D171" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>338</v>
+        <v>125</v>
       </c>
       <c r="B172" t="s">
-        <v>338</v>
+        <v>125</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>343</v>
+        <v>126</v>
       </c>
       <c r="D172" t="s">
         <v>161</v>
@@ -4321,16 +4333,16 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>339</v>
+        <v>274</v>
       </c>
       <c r="B173" t="s">
-        <v>339</v>
+        <v>274</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>344</v>
+        <v>278</v>
       </c>
       <c r="D173" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -4349,13 +4361,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="B175" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
       <c r="D175" t="s">
         <v>164</v>
@@ -4363,13 +4375,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>342</v>
+        <v>210</v>
       </c>
       <c r="B176" t="s">
-        <v>342</v>
+        <v>210</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>347</v>
+        <v>217</v>
       </c>
       <c r="D176" t="s">
         <v>164</v>
@@ -4377,41 +4389,41 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>348</v>
+        <v>64</v>
       </c>
       <c r="B177" t="s">
-        <v>348</v>
+        <v>64</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>349</v>
+        <v>65</v>
       </c>
       <c r="D177" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>350</v>
+        <v>21</v>
       </c>
       <c r="B178" t="s">
-        <v>350</v>
+        <v>21</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="D178" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>351</v>
+        <v>237</v>
       </c>
       <c r="B179" t="s">
-        <v>351</v>
+        <v>237</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>354</v>
+        <v>238</v>
       </c>
       <c r="D179" t="s">
         <v>164</v>
@@ -4419,13 +4431,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>352</v>
+        <v>282</v>
       </c>
       <c r="B180" t="s">
-        <v>352</v>
+        <v>282</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>355</v>
+        <v>283</v>
       </c>
       <c r="D180" t="s">
         <v>164</v>
@@ -4433,27 +4445,27 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>356</v>
+        <v>32</v>
       </c>
       <c r="B181" t="s">
-        <v>356</v>
+        <v>32</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>357</v>
+        <v>40</v>
       </c>
       <c r="D181" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>358</v>
+        <v>192</v>
       </c>
       <c r="B182" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>360</v>
+        <v>193</v>
       </c>
       <c r="D182" t="s">
         <v>164</v>
@@ -4461,41 +4473,41 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>359</v>
+        <v>239</v>
       </c>
       <c r="B183" t="s">
-        <v>359</v>
+        <v>433</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>361</v>
+        <v>240</v>
       </c>
       <c r="D183" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="B184" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="D184" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>419</v>
+        <v>70</v>
       </c>
       <c r="B185" t="s">
-        <v>419</v>
+        <v>70</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>364</v>
+        <v>71</v>
       </c>
       <c r="D185" t="s">
         <v>164</v>
@@ -4503,27 +4515,27 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>365</v>
+        <v>211</v>
       </c>
       <c r="B186" t="s">
-        <v>365</v>
+        <v>211</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>367</v>
+        <v>221</v>
       </c>
       <c r="D186" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>366</v>
+        <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>366</v>
+        <v>190</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>368</v>
+        <v>191</v>
       </c>
       <c r="D187" t="s">
         <v>164</v>
@@ -4531,13 +4543,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>369</v>
+        <v>453</v>
       </c>
       <c r="B188" t="s">
-        <v>369</v>
+        <v>453</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>375</v>
+        <v>460</v>
       </c>
       <c r="D188" t="s">
         <v>164</v>
@@ -4545,13 +4557,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>370</v>
+        <v>259</v>
       </c>
       <c r="B189" t="s">
-        <v>417</v>
+        <v>259</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>376</v>
+        <v>260</v>
       </c>
       <c r="D189" t="s">
         <v>161</v>
@@ -4559,27 +4571,27 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>371</v>
+        <v>35</v>
       </c>
       <c r="B190" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>373</v>
+        <v>170</v>
       </c>
       <c r="D190" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>372</v>
+        <v>212</v>
       </c>
       <c r="B191" t="s">
-        <v>372</v>
+        <v>212</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>374</v>
+        <v>218</v>
       </c>
       <c r="D191" t="s">
         <v>164</v>
@@ -4587,27 +4599,27 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>377</v>
+        <v>22</v>
       </c>
       <c r="B192" t="s">
-        <v>377</v>
+        <v>22</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>378</v>
+        <v>41</v>
       </c>
       <c r="D192" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>379</v>
+        <v>310</v>
       </c>
       <c r="B193" t="s">
-        <v>379</v>
+        <v>310</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>381</v>
+        <v>89</v>
       </c>
       <c r="D193" t="s">
         <v>164</v>
@@ -4615,27 +4627,27 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>380</v>
+        <v>98</v>
       </c>
       <c r="B194" t="s">
-        <v>380</v>
+        <v>98</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>382</v>
+        <v>99</v>
       </c>
       <c r="D194" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="B195" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="D195" t="s">
         <v>161</v>
@@ -4643,27 +4655,27 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="B196" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="D196" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>386</v>
+        <v>88</v>
       </c>
       <c r="B197" t="s">
-        <v>386</v>
+        <v>88</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>387</v>
+        <v>89</v>
       </c>
       <c r="D197" t="s">
         <v>164</v>
@@ -4671,13 +4683,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>392</v>
+        <v>129</v>
       </c>
       <c r="B198" t="s">
-        <v>392</v>
+        <v>129</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>391</v>
+        <v>130</v>
       </c>
       <c r="D198" t="s">
         <v>164</v>
@@ -4685,13 +4697,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>389</v>
+        <v>450</v>
       </c>
       <c r="B199" t="s">
-        <v>389</v>
+        <v>450</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>390</v>
+        <v>451</v>
       </c>
       <c r="D199" t="s">
         <v>164</v>
@@ -4699,41 +4711,41 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>393</v>
+        <v>159</v>
       </c>
       <c r="B200" t="s">
-        <v>393</v>
+        <v>159</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>395</v>
+        <v>162</v>
       </c>
       <c r="D200" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>394</v>
+        <v>23</v>
       </c>
       <c r="B201" t="s">
-        <v>394</v>
+        <v>23</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>396</v>
+        <v>36</v>
       </c>
       <c r="D201" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>400</v>
+        <v>492</v>
       </c>
       <c r="B202" t="s">
-        <v>400</v>
+        <v>492</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="D202" t="s">
         <v>164</v>
@@ -4741,41 +4753,41 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="B203" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="D203" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>402</v>
+        <v>33</v>
       </c>
       <c r="B204" t="s">
-        <v>402</v>
+        <v>33</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>406</v>
+        <v>194</v>
       </c>
       <c r="D204" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>403</v>
+        <v>153</v>
       </c>
       <c r="B205" t="s">
-        <v>403</v>
+        <v>153</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>411</v>
+        <v>154</v>
       </c>
       <c r="D205" t="s">
         <v>164</v>
@@ -4783,27 +4795,27 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>407</v>
+        <v>326</v>
       </c>
       <c r="B206" t="s">
-        <v>407</v>
+        <v>326</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>408</v>
+        <v>120</v>
       </c>
       <c r="D206" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>409</v>
+        <v>215</v>
       </c>
       <c r="B207" t="s">
-        <v>409</v>
+        <v>215</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>410</v>
+        <v>216</v>
       </c>
       <c r="D207" t="s">
         <v>164</v>
@@ -4811,55 +4823,55 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>412</v>
+        <v>213</v>
       </c>
       <c r="B208" t="s">
-        <v>412</v>
+        <v>213</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>413</v>
+        <v>222</v>
       </c>
       <c r="D208" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>415</v>
+        <v>302</v>
       </c>
       <c r="B209" t="s">
-        <v>415</v>
+        <v>302</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>416</v>
+        <v>303</v>
       </c>
       <c r="D209" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B210" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D210" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>420</v>
+        <v>365</v>
       </c>
       <c r="B211" t="s">
-        <v>420</v>
+        <v>365</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>422</v>
+        <v>367</v>
       </c>
       <c r="D211" t="s">
         <v>164</v>
@@ -4867,13 +4879,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>423</v>
+        <v>352</v>
       </c>
       <c r="B212" t="s">
-        <v>423</v>
+        <v>352</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>424</v>
+        <v>355</v>
       </c>
       <c r="D212" t="s">
         <v>164</v>
@@ -4881,13 +4893,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="B213" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="D213" t="s">
         <v>164</v>
@@ -4895,13 +4907,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>427</v>
+        <v>137</v>
       </c>
       <c r="B214" t="s">
-        <v>427</v>
+        <v>137</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>428</v>
+        <v>138</v>
       </c>
       <c r="D214" t="s">
         <v>164</v>
@@ -4909,13 +4921,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>429</v>
+        <v>247</v>
       </c>
       <c r="B215" t="s">
-        <v>429</v>
+        <v>247</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>432</v>
+        <v>248</v>
       </c>
       <c r="D215" t="s">
         <v>164</v>
@@ -4923,13 +4935,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>430</v>
+        <v>75</v>
       </c>
       <c r="B216" t="s">
-        <v>430</v>
+        <v>75</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>431</v>
+        <v>76</v>
       </c>
       <c r="D216" t="s">
         <v>164</v>
@@ -4937,13 +4949,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="B217" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="D217" t="s">
         <v>164</v>
@@ -4951,13 +4963,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>437</v>
+        <v>241</v>
       </c>
       <c r="B218" t="s">
-        <v>437</v>
+        <v>241</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>438</v>
+        <v>242</v>
       </c>
       <c r="D218" t="s">
         <v>164</v>
@@ -4965,27 +4977,27 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>439</v>
+        <v>81</v>
       </c>
       <c r="B219" t="s">
-        <v>439</v>
+        <v>81</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="D219" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>442</v>
+        <v>214</v>
       </c>
       <c r="B220" t="s">
-        <v>442</v>
+        <v>214</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>446</v>
+        <v>223</v>
       </c>
       <c r="D220" t="s">
         <v>164</v>
@@ -4993,55 +5005,55 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="B221" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="D221" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>444</v>
+        <v>243</v>
       </c>
       <c r="B222" t="s">
-        <v>444</v>
+        <v>243</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>448</v>
+        <v>244</v>
       </c>
       <c r="D222" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>445</v>
+        <v>24</v>
       </c>
       <c r="B223" t="s">
-        <v>445</v>
+        <v>24</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>449</v>
+        <v>183</v>
       </c>
       <c r="D223" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>450</v>
+        <v>25</v>
       </c>
       <c r="B224" t="s">
-        <v>450</v>
+        <v>25</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>451</v>
+        <v>172</v>
       </c>
       <c r="D224" t="s">
         <v>164</v>
@@ -5049,13 +5061,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>452</v>
+        <v>268</v>
       </c>
       <c r="B225" t="s">
-        <v>452</v>
+        <v>268</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>459</v>
+        <v>269</v>
       </c>
       <c r="D225" t="s">
         <v>161</v>
@@ -5063,55 +5075,55 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>453</v>
+        <v>268</v>
       </c>
       <c r="B226" t="s">
-        <v>453</v>
+        <v>268</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>460</v>
+        <v>269</v>
       </c>
       <c r="D226" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>454</v>
+        <v>266</v>
       </c>
       <c r="B227" t="s">
-        <v>454</v>
+        <v>266</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>461</v>
+        <v>267</v>
       </c>
       <c r="D227" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>455</v>
+        <v>143</v>
       </c>
       <c r="B228" t="s">
-        <v>455</v>
+        <v>143</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>457</v>
+        <v>145</v>
       </c>
       <c r="D228" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>456</v>
+        <v>245</v>
       </c>
       <c r="B229" t="s">
-        <v>456</v>
+        <v>245</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>458</v>
+        <v>246</v>
       </c>
       <c r="D229" t="s">
         <v>164</v>
@@ -5119,13 +5131,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>462</v>
+        <v>419</v>
       </c>
       <c r="B230" t="s">
-        <v>462</v>
+        <v>419</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>467</v>
+        <v>364</v>
       </c>
       <c r="D230" t="s">
         <v>164</v>
@@ -5133,13 +5145,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B231" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D231" t="s">
         <v>164</v>
@@ -5147,13 +5159,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>464</v>
+        <v>167</v>
       </c>
       <c r="B232" t="s">
-        <v>464</v>
+        <v>167</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>466</v>
+        <v>168</v>
       </c>
       <c r="D232" t="s">
         <v>164</v>
@@ -5161,27 +5173,27 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>470</v>
+        <v>341</v>
       </c>
       <c r="B233" t="s">
-        <v>470</v>
+        <v>341</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>471</v>
+        <v>346</v>
       </c>
       <c r="D233" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="B234" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="D234" t="s">
         <v>164</v>
@@ -5189,13 +5201,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="B235" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="D235" t="s">
         <v>164</v>
@@ -5203,13 +5215,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>476</v>
+        <v>427</v>
       </c>
       <c r="B236" t="s">
-        <v>476</v>
+        <v>427</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>477</v>
+        <v>428</v>
       </c>
       <c r="D236" t="s">
         <v>164</v>
@@ -5217,13 +5229,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>478</v>
+        <v>34</v>
       </c>
       <c r="B237" t="s">
-        <v>478</v>
+        <v>34</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>479</v>
+        <v>203</v>
       </c>
       <c r="D237" t="s">
         <v>164</v>
@@ -5231,13 +5243,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>480</v>
+        <v>147</v>
       </c>
       <c r="B238" t="s">
-        <v>480</v>
+        <v>147</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>481</v>
+        <v>148</v>
       </c>
       <c r="D238" t="s">
         <v>164</v>
@@ -5245,13 +5257,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>482</v>
+        <v>327</v>
       </c>
       <c r="B239" t="s">
-        <v>482</v>
+        <v>327</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>483</v>
+        <v>63</v>
       </c>
       <c r="D239" t="s">
         <v>161</v>
@@ -5259,13 +5271,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>484</v>
+        <v>176</v>
       </c>
       <c r="B240" t="s">
-        <v>484</v>
+        <v>176</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>485</v>
+        <v>177</v>
       </c>
       <c r="D240" t="s">
         <v>164</v>
@@ -5273,13 +5285,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>486</v>
+        <v>26</v>
       </c>
       <c r="B241" t="s">
-        <v>486</v>
+        <v>26</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>489</v>
+        <v>186</v>
       </c>
       <c r="D241" t="s">
         <v>164</v>
@@ -5287,266 +5299,296 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>487</v>
+        <v>425</v>
       </c>
       <c r="B242" t="s">
-        <v>487</v>
+        <v>425</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>488</v>
+        <v>426</v>
       </c>
       <c r="D242" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>273</v>
+      </c>
+      <c r="B243" t="s">
+        <v>273</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D243" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>27</v>
+      </c>
+      <c r="B244" t="s">
+        <v>27</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D244" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C135" r:id="rId1" xr:uid="{C45472D7-1E29-4980-95E0-15D6D01B36FA}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{1EA6B6DE-C528-4BBF-8958-B9D1378CBBEA}"/>
-    <hyperlink ref="C12" r:id="rId3" xr:uid="{4F9BBF32-0E85-44F1-BAE2-FDFE1B91203C}"/>
-    <hyperlink ref="C28" r:id="rId4" xr:uid="{1743C8BA-2A45-4EF9-8EAE-003FA5622677}"/>
-    <hyperlink ref="C120" r:id="rId5" xr:uid="{759148E7-8E0F-41F6-B9F3-BB34C434E2D7}"/>
-    <hyperlink ref="C129" r:id="rId6" xr:uid="{8850343C-EAF0-4713-9C66-21BF05B290EC}"/>
-    <hyperlink ref="C31" r:id="rId7" xr:uid="{CA8DDB4C-49CE-4AA5-B564-1108A8088B23}"/>
-    <hyperlink ref="C45" r:id="rId8" xr:uid="{A96A63DD-6ED4-47E6-B759-BD9FCFC58B60}"/>
-    <hyperlink ref="C162" r:id="rId9" xr:uid="{55C307B9-C21E-4227-B6BA-602B4CDD2E63}"/>
-    <hyperlink ref="C117" r:id="rId10" xr:uid="{FBC71765-97DF-4951-8AED-C771FFA6C3B6}"/>
-    <hyperlink ref="C52" r:id="rId11" xr:uid="{44C0BA97-BC98-4009-9EF5-8C29C471CC2B}"/>
-    <hyperlink ref="C65" r:id="rId12" xr:uid="{83CC39A1-58DF-4F8E-80EF-7133BFDA09E5}"/>
-    <hyperlink ref="C66" r:id="rId13" xr:uid="{A9F4C6E5-7612-40C3-92FF-2F0A1197F32E}"/>
-    <hyperlink ref="C55" r:id="rId14" xr:uid="{29AD0F25-0604-4645-86CB-591ACB87642C}"/>
-    <hyperlink ref="C33" r:id="rId15" xr:uid="{03239B77-EAD5-4377-8E99-41BDC8C35FAF}"/>
-    <hyperlink ref="C57" r:id="rId16" xr:uid="{A963AD17-9953-4B76-B014-99AE04AFBC22}"/>
-    <hyperlink ref="C23" r:id="rId17" xr:uid="{254FC5D9-2139-49F1-AF42-C37C7AD52CF9}"/>
-    <hyperlink ref="C97" r:id="rId18" xr:uid="{ADEC84CE-4B4C-475A-B45C-A5A25ABA57F9}"/>
-    <hyperlink ref="C70" r:id="rId19" xr:uid="{A903E050-8C42-4183-880A-565DF6E20245}"/>
-    <hyperlink ref="C3" r:id="rId20" xr:uid="{E83EAE86-523E-449E-8625-E0FCBC6EDE67}"/>
-    <hyperlink ref="C158" r:id="rId21" xr:uid="{4F43B789-DA90-4D7B-B4C4-7719C98AFEF4}"/>
-    <hyperlink ref="C116" r:id="rId22" xr:uid="{1073D5D0-0D5E-4AB1-940D-24EDB5EF0E1D}"/>
-    <hyperlink ref="C74" r:id="rId23" xr:uid="{30F225A0-9236-482B-8651-D6C10378128C}"/>
-    <hyperlink ref="C2" r:id="rId24" xr:uid="{DE5B31BF-642F-4D65-BB0B-8BB02C0C599F}"/>
-    <hyperlink ref="C123" r:id="rId25" xr:uid="{6478F936-7CCC-485F-8FAD-5E974D281F62}"/>
-    <hyperlink ref="C96" r:id="rId26" xr:uid="{4FDE78C3-89C9-4179-86C1-21A106ED4B68}"/>
-    <hyperlink ref="C75" r:id="rId27" xr:uid="{71FF812A-69FD-42EC-A428-9503EB1166BE}"/>
-    <hyperlink ref="C144" r:id="rId28" xr:uid="{6A269B70-A168-4F22-809C-69E3664B7B4F}"/>
-    <hyperlink ref="C80" r:id="rId29" xr:uid="{2AF8C5A2-0A6E-4AFA-BE5A-8756CD3E9A15}"/>
-    <hyperlink ref="C106" r:id="rId30" xr:uid="{775807C5-A8E8-4E03-94A3-07FC338C7B2F}"/>
-    <hyperlink ref="C146" r:id="rId31" xr:uid="{4C620958-7BE1-4A72-AF05-2D2C30EFE637}"/>
-    <hyperlink ref="C111" r:id="rId32" xr:uid="{9C374395-032E-47D8-8E1D-F14135FEB884}"/>
-    <hyperlink ref="C6" r:id="rId33" xr:uid="{7C24BFBA-D940-4280-9AA6-9EB5B2A7C325}"/>
-    <hyperlink ref="C11" r:id="rId34" xr:uid="{935A4BCA-043C-42B5-9B58-F01D785A78E7}"/>
-    <hyperlink ref="C132" r:id="rId35" xr:uid="{AD23B2E5-01B6-4980-8B3E-2745128B55B6}"/>
-    <hyperlink ref="C95" r:id="rId36" xr:uid="{ADD15800-FFAF-4C56-96C3-B6E9A6B7A9B4}"/>
-    <hyperlink ref="C54" r:id="rId37" xr:uid="{FD14EBC0-A744-44D9-8D7E-8C400674FEED}"/>
-    <hyperlink ref="C24" r:id="rId38" xr:uid="{1C789BBB-C806-4AEC-87FD-4A30D09E0378}"/>
-    <hyperlink ref="C94" r:id="rId39" xr:uid="{39BDDF5C-5ED6-4DC6-8403-935839E42AE4}"/>
-    <hyperlink ref="C131" r:id="rId40" xr:uid="{16CEFA6F-1B35-42FD-8606-E6523BF824B9}"/>
+    <hyperlink ref="C201" r:id="rId1" xr:uid="{C45472D7-1E29-4980-95E0-15D6D01B36FA}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{1EA6B6DE-C528-4BBF-8958-B9D1378CBBEA}"/>
+    <hyperlink ref="C18" r:id="rId3" xr:uid="{4F9BBF32-0E85-44F1-BAE2-FDFE1B91203C}"/>
+    <hyperlink ref="C46" r:id="rId4" xr:uid="{1743C8BA-2A45-4EF9-8EAE-003FA5622677}"/>
+    <hyperlink ref="C181" r:id="rId5" xr:uid="{759148E7-8E0F-41F6-B9F3-BB34C434E2D7}"/>
+    <hyperlink ref="C192" r:id="rId6" xr:uid="{8850343C-EAF0-4713-9C66-21BF05B290EC}"/>
+    <hyperlink ref="C49" r:id="rId7" xr:uid="{CA8DDB4C-49CE-4AA5-B564-1108A8088B23}"/>
+    <hyperlink ref="C74" r:id="rId8" xr:uid="{A96A63DD-6ED4-47E6-B759-BD9FCFC58B60}"/>
+    <hyperlink ref="C244" r:id="rId9" xr:uid="{55C307B9-C21E-4227-B6BA-602B4CDD2E63}"/>
+    <hyperlink ref="C178" r:id="rId10" xr:uid="{FBC71765-97DF-4951-8AED-C771FFA6C3B6}"/>
+    <hyperlink ref="C87" r:id="rId11" xr:uid="{44C0BA97-BC98-4009-9EF5-8C29C471CC2B}"/>
+    <hyperlink ref="C108" r:id="rId12" xr:uid="{83CC39A1-58DF-4F8E-80EF-7133BFDA09E5}"/>
+    <hyperlink ref="C109" r:id="rId13" xr:uid="{A9F4C6E5-7612-40C3-92FF-2F0A1197F32E}"/>
+    <hyperlink ref="C91" r:id="rId14" xr:uid="{29AD0F25-0604-4645-86CB-591ACB87642C}"/>
+    <hyperlink ref="C53" r:id="rId15" xr:uid="{03239B77-EAD5-4377-8E99-41BDC8C35FAF}"/>
+    <hyperlink ref="C94" r:id="rId16" xr:uid="{A963AD17-9953-4B76-B014-99AE04AFBC22}"/>
+    <hyperlink ref="C37" r:id="rId17" xr:uid="{254FC5D9-2139-49F1-AF42-C37C7AD52CF9}"/>
+    <hyperlink ref="C153" r:id="rId18" xr:uid="{ADEC84CE-4B4C-475A-B45C-A5A25ABA57F9}"/>
+    <hyperlink ref="C114" r:id="rId19" xr:uid="{A903E050-8C42-4183-880A-565DF6E20245}"/>
+    <hyperlink ref="C5" r:id="rId20" xr:uid="{E83EAE86-523E-449E-8625-E0FCBC6EDE67}"/>
+    <hyperlink ref="C239" r:id="rId21" xr:uid="{4F43B789-DA90-4D7B-B4C4-7719C98AFEF4}"/>
+    <hyperlink ref="C177" r:id="rId22" xr:uid="{1073D5D0-0D5E-4AB1-940D-24EDB5EF0E1D}"/>
+    <hyperlink ref="C118" r:id="rId23" xr:uid="{30F225A0-9236-482B-8651-D6C10378128C}"/>
+    <hyperlink ref="C4" r:id="rId24" xr:uid="{DE5B31BF-642F-4D65-BB0B-8BB02C0C599F}"/>
+    <hyperlink ref="C185" r:id="rId25" xr:uid="{6478F936-7CCC-485F-8FAD-5E974D281F62}"/>
+    <hyperlink ref="C152" r:id="rId26" xr:uid="{4FDE78C3-89C9-4179-86C1-21A106ED4B68}"/>
+    <hyperlink ref="C119" r:id="rId27" xr:uid="{71FF812A-69FD-42EC-A428-9503EB1166BE}"/>
+    <hyperlink ref="C216" r:id="rId28" xr:uid="{6A269B70-A168-4F22-809C-69E3664B7B4F}"/>
+    <hyperlink ref="C128" r:id="rId29" xr:uid="{2AF8C5A2-0A6E-4AFA-BE5A-8756CD3E9A15}"/>
+    <hyperlink ref="C164" r:id="rId30" xr:uid="{775807C5-A8E8-4E03-94A3-07FC338C7B2F}"/>
+    <hyperlink ref="C219" r:id="rId31" xr:uid="{4C620958-7BE1-4A72-AF05-2D2C30EFE637}"/>
+    <hyperlink ref="C171" r:id="rId32" xr:uid="{9C374395-032E-47D8-8E1D-F14135FEB884}"/>
+    <hyperlink ref="C10" r:id="rId33" xr:uid="{7C24BFBA-D940-4280-9AA6-9EB5B2A7C325}"/>
+    <hyperlink ref="C17" r:id="rId34" xr:uid="{935A4BCA-043C-42B5-9B58-F01D785A78E7}"/>
+    <hyperlink ref="C197" r:id="rId35" xr:uid="{AD23B2E5-01B6-4980-8B3E-2745128B55B6}"/>
+    <hyperlink ref="C150" r:id="rId36" xr:uid="{ADD15800-FFAF-4C56-96C3-B6E9A6B7A9B4}"/>
+    <hyperlink ref="C89" r:id="rId37" xr:uid="{FD14EBC0-A744-44D9-8D7E-8C400674FEED}"/>
+    <hyperlink ref="C38" r:id="rId38" xr:uid="{1C789BBB-C806-4AEC-87FD-4A30D09E0378}"/>
+    <hyperlink ref="C149" r:id="rId39" xr:uid="{39BDDF5C-5ED6-4DC6-8403-935839E42AE4}"/>
+    <hyperlink ref="C194" r:id="rId40" xr:uid="{16CEFA6F-1B35-42FD-8606-E6523BF824B9}"/>
     <hyperlink ref="C62:C78" r:id="rId41" display="https://midfield.mlbstatic.com/v1/people/686752/spots/120" xr:uid="{1E5EFC44-7608-40AF-A777-AAC898C6A9CB}"/>
-    <hyperlink ref="C21" r:id="rId42" xr:uid="{17D051F0-8C68-4AF3-B256-1F5E71DD2455}"/>
-    <hyperlink ref="C56" r:id="rId43" xr:uid="{B4766B4E-7BF7-4C41-98C2-8E48C0CCFAC8}"/>
-    <hyperlink ref="C69" r:id="rId44" xr:uid="{49ACB698-CD82-44AA-8A65-26D2BBDB0788}"/>
-    <hyperlink ref="C41" r:id="rId45" xr:uid="{FBAE3FE6-1362-4C09-BAE7-1B131AB4C4B4}"/>
-    <hyperlink ref="C36" r:id="rId46" xr:uid="{2181E8B2-59C9-4709-AA9A-962EF37831F2}"/>
-    <hyperlink ref="C67" r:id="rId47" xr:uid="{17F5505C-32E7-4316-BF97-1E84202C4785}"/>
-    <hyperlink ref="C50" r:id="rId48" xr:uid="{880E4723-2052-4A3F-AA76-423C6810C994}"/>
-    <hyperlink ref="C101" r:id="rId49" xr:uid="{D33AE6C2-8688-4E9D-B293-9E99FBE0DEB4}"/>
-    <hyperlink ref="C49" r:id="rId50" xr:uid="{ECF4F8FF-BB1E-4B49-965D-64768DC4F1E2}"/>
-    <hyperlink ref="C63" r:id="rId51" xr:uid="{2511CD2C-B67C-4354-9629-DE649A920EDD}"/>
-    <hyperlink ref="C138" r:id="rId52" xr:uid="{AE0C1E2C-3D72-45CF-9965-CDB6C0591891}"/>
-    <hyperlink ref="C64" r:id="rId53" xr:uid="{0E258565-BD6E-428A-BCE6-5D446B3DA628}"/>
-    <hyperlink ref="C43" r:id="rId54" xr:uid="{46541DDA-A399-42E9-B388-CAC462670117}"/>
-    <hyperlink ref="C112" r:id="rId55" xr:uid="{E26B4D45-A378-40C0-ACBA-A3D7F3B56528}"/>
-    <hyperlink ref="C100" r:id="rId56" xr:uid="{845F84C0-232D-4D80-B9DD-7415056297C5}"/>
-    <hyperlink ref="C133" r:id="rId57" xr:uid="{89BF64D4-12AC-4144-8B32-FDDD10668077}"/>
-    <hyperlink ref="C102" r:id="rId58" xr:uid="{8742B9B5-62C4-423F-B53B-AE1C619A7CB3}"/>
-    <hyperlink ref="C60" r:id="rId59" xr:uid="{A93F2FF5-2AE8-404E-A935-39A2AA8E0351}"/>
-    <hyperlink ref="C91" r:id="rId60" xr:uid="{F60D4181-1F3A-4C64-97A2-8368BC1A6176}"/>
-    <hyperlink ref="C142" r:id="rId61" xr:uid="{ECDB48F3-3C25-4B15-A902-40A90B1D441F}"/>
-    <hyperlink ref="C98" r:id="rId62" xr:uid="{1BF5B84A-6403-496F-BE72-4F7CFE5CD46A}"/>
-    <hyperlink ref="C58" r:id="rId63" xr:uid="{D48CC097-21D9-4697-92AF-17FE888C3469}"/>
-    <hyperlink ref="C153" r:id="rId64" xr:uid="{BA111F30-72E9-4701-B810-D904333C5C12}"/>
-    <hyperlink ref="C109" r:id="rId65" xr:uid="{C971DFEC-7D7D-44F8-8D77-AF06DD0C3650}"/>
-    <hyperlink ref="C157" r:id="rId66" xr:uid="{FF747A90-D82C-417A-A604-11C8A9BB8A1B}"/>
-    <hyperlink ref="C78" r:id="rId67" xr:uid="{508F6AEF-0519-456E-95D4-CFBA12F1D839}"/>
-    <hyperlink ref="C92" r:id="rId68" xr:uid="{B67845F2-3B4F-45CB-AC96-C32761C20607}"/>
-    <hyperlink ref="C137" r:id="rId69" xr:uid="{B3EDDFE1-3BCD-4BF4-B469-F8CBF05D5228}"/>
-    <hyperlink ref="C22" r:id="rId70" xr:uid="{8E3867C0-9128-44B4-8D0A-62F663FD1C50}"/>
-    <hyperlink ref="C34" r:id="rId71" xr:uid="{7DF45689-E876-4814-B27F-BD82DF1893A8}"/>
-    <hyperlink ref="C134" r:id="rId72" xr:uid="{10233510-1E7F-47D8-9DC8-CECCEEAF2542}"/>
-    <hyperlink ref="C84" r:id="rId73" xr:uid="{C4B8637F-0EAC-421C-B98A-83396BEC74E6}"/>
-    <hyperlink ref="C7" r:id="rId74" xr:uid="{78FBD904-905A-4DF4-8336-339D9FD35EF9}"/>
-    <hyperlink ref="C155" r:id="rId75" xr:uid="{30FFC8B8-F48B-4956-82E5-5F5C1D42BFDA}"/>
-    <hyperlink ref="C127" r:id="rId76" xr:uid="{F297C688-6767-4A01-87CA-713F0DDF9C34}"/>
-    <hyperlink ref="C32" r:id="rId77" xr:uid="{DE8C1BDA-4F06-4739-8272-9C1526634215}"/>
-    <hyperlink ref="C150" r:id="rId78" xr:uid="{0B5DD545-15F8-4AED-86A6-780BA78A0233}"/>
-    <hyperlink ref="C81" r:id="rId79" xr:uid="{1EAB83F2-BCC3-4788-AB88-9206EE59BEFD}"/>
-    <hyperlink ref="C89" r:id="rId80" xr:uid="{B9CEB789-AD16-4793-B005-DBCE618DBE94}"/>
-    <hyperlink ref="C159" r:id="rId81" xr:uid="{BE0D192A-BC2F-4B35-99E0-370F38CA9C0B}"/>
-    <hyperlink ref="C48" r:id="rId82" xr:uid="{3F8FC17C-F146-4E12-BBB9-18B45BB5B3EC}"/>
-    <hyperlink ref="C72" r:id="rId83" xr:uid="{C3C3E0D1-E6BE-417A-AC79-EEB8F79FBE7C}"/>
-    <hyperlink ref="C39" r:id="rId84" xr:uid="{646B995D-2022-47E8-9C46-F74E16A3A629}"/>
-    <hyperlink ref="C37" r:id="rId85" xr:uid="{1F133298-7E48-4138-8126-F74D2CBDB050}"/>
-    <hyperlink ref="C149" r:id="rId86" xr:uid="{79CA2660-030A-4E38-B36D-D5A391C24AF6}"/>
-    <hyperlink ref="C105" r:id="rId87" xr:uid="{301BF770-273A-484E-AF66-F32DA8458844}"/>
-    <hyperlink ref="C160" r:id="rId88" xr:uid="{A72F7411-3596-45A9-BD47-96AE1238FE57}"/>
-    <hyperlink ref="C79" r:id="rId89" xr:uid="{9335E23F-5F7C-4364-8ABA-564F1B156EB5}"/>
-    <hyperlink ref="C93" r:id="rId90" xr:uid="{C528D45E-5270-4308-A5F4-DDDD4C29A97D}"/>
-    <hyperlink ref="C83" r:id="rId91" xr:uid="{E5C83DAC-00EF-49EE-9811-99C544403146}"/>
-    <hyperlink ref="C125" r:id="rId92" xr:uid="{F5146A50-BA2B-4466-A3AC-A9E6870FA443}"/>
-    <hyperlink ref="C121" r:id="rId93" xr:uid="{880D6AB9-DCD2-4819-B973-72461A04C7C8}"/>
-    <hyperlink ref="C136" r:id="rId94" xr:uid="{11544622-27D7-41FE-BA8C-7A64E8838D48}"/>
-    <hyperlink ref="C35" r:id="rId95" xr:uid="{BC65DFE4-1308-4C08-8CE7-8941756F790F}"/>
-    <hyperlink ref="C73" r:id="rId96" xr:uid="{8322B7F1-705E-4313-8FF2-F90CCF591E35}"/>
-    <hyperlink ref="C108" r:id="rId97" xr:uid="{EBB28F68-D663-44AA-86BD-53B20904935E}"/>
-    <hyperlink ref="C85" r:id="rId98" xr:uid="{6A80E6A8-DBFE-4A55-A512-7374F8FBE4FD}"/>
-    <hyperlink ref="C40" r:id="rId99" xr:uid="{CE6A856C-5BA0-46B8-BDBB-70D03B1E5FA6}"/>
-    <hyperlink ref="C44" r:id="rId100" xr:uid="{B219EA6C-AFC6-4A8E-A965-70B93C5367C4}"/>
-    <hyperlink ref="C156" r:id="rId101" xr:uid="{108B5805-5369-47C0-A3A2-CA30D2F91CFB}"/>
-    <hyperlink ref="C76" r:id="rId102" xr:uid="{7AD71135-DE45-46BB-A218-39306ABA3702}"/>
+    <hyperlink ref="C34" r:id="rId42" xr:uid="{17D051F0-8C68-4AF3-B256-1F5E71DD2455}"/>
+    <hyperlink ref="C93" r:id="rId43" xr:uid="{B4766B4E-7BF7-4C41-98C2-8E48C0CCFAC8}"/>
+    <hyperlink ref="C112" r:id="rId44" xr:uid="{49ACB698-CD82-44AA-8A65-26D2BBDB0788}"/>
+    <hyperlink ref="C64" r:id="rId45" xr:uid="{FBAE3FE6-1362-4C09-BAE7-1B131AB4C4B4}"/>
+    <hyperlink ref="C56" r:id="rId46" xr:uid="{2181E8B2-59C9-4709-AA9A-962EF37831F2}"/>
+    <hyperlink ref="C110" r:id="rId47" xr:uid="{17F5505C-32E7-4316-BF97-1E84202C4785}"/>
+    <hyperlink ref="C80" r:id="rId48" xr:uid="{880E4723-2052-4A3F-AA76-423C6810C994}"/>
+    <hyperlink ref="C157" r:id="rId49" xr:uid="{D33AE6C2-8688-4E9D-B293-9E99FBE0DEB4}"/>
+    <hyperlink ref="C79" r:id="rId50" xr:uid="{ECF4F8FF-BB1E-4B49-965D-64768DC4F1E2}"/>
+    <hyperlink ref="C104" r:id="rId51" xr:uid="{2511CD2C-B67C-4354-9629-DE649A920EDD}"/>
+    <hyperlink ref="C206" r:id="rId52" xr:uid="{AE0C1E2C-3D72-45CF-9965-CDB6C0591891}"/>
+    <hyperlink ref="C107" r:id="rId53" xr:uid="{0E258565-BD6E-428A-BCE6-5D446B3DA628}"/>
+    <hyperlink ref="C69" r:id="rId54" xr:uid="{46541DDA-A399-42E9-B388-CAC462670117}"/>
+    <hyperlink ref="C172" r:id="rId55" xr:uid="{E26B4D45-A378-40C0-ACBA-A3D7F3B56528}"/>
+    <hyperlink ref="C156" r:id="rId56" xr:uid="{845F84C0-232D-4D80-B9DD-7415056297C5}"/>
+    <hyperlink ref="C198" r:id="rId57" xr:uid="{89BF64D4-12AC-4144-8B32-FDDD10668077}"/>
+    <hyperlink ref="C158" r:id="rId58" xr:uid="{8742B9B5-62C4-423F-B53B-AE1C619A7CB3}"/>
+    <hyperlink ref="C101" r:id="rId59" xr:uid="{A93F2FF5-2AE8-404E-A935-39A2AA8E0351}"/>
+    <hyperlink ref="C143" r:id="rId60" xr:uid="{F60D4181-1F3A-4C64-97A2-8368BC1A6176}"/>
+    <hyperlink ref="C214" r:id="rId61" xr:uid="{ECDB48F3-3C25-4B15-A902-40A90B1D441F}"/>
+    <hyperlink ref="C154" r:id="rId62" xr:uid="{1BF5B84A-6403-496F-BE72-4F7CFE5CD46A}"/>
+    <hyperlink ref="C96" r:id="rId63" xr:uid="{D48CC097-21D9-4697-92AF-17FE888C3469}"/>
+    <hyperlink ref="C228" r:id="rId64" xr:uid="{BA111F30-72E9-4701-B810-D904333C5C12}"/>
+    <hyperlink ref="C167" r:id="rId65" xr:uid="{C971DFEC-7D7D-44F8-8D77-AF06DD0C3650}"/>
+    <hyperlink ref="C238" r:id="rId66" xr:uid="{FF747A90-D82C-417A-A604-11C8A9BB8A1B}"/>
+    <hyperlink ref="C125" r:id="rId67" xr:uid="{508F6AEF-0519-456E-95D4-CFBA12F1D839}"/>
+    <hyperlink ref="C145" r:id="rId68" xr:uid="{B67845F2-3B4F-45CB-AC96-C32761C20607}"/>
+    <hyperlink ref="C205" r:id="rId69" xr:uid="{B3EDDFE1-3BCD-4BF4-B469-F8CBF05D5228}"/>
+    <hyperlink ref="C35" r:id="rId70" xr:uid="{8E3867C0-9128-44B4-8D0A-62F663FD1C50}"/>
+    <hyperlink ref="C54" r:id="rId71" xr:uid="{7DF45689-E876-4814-B27F-BD82DF1893A8}"/>
+    <hyperlink ref="C200" r:id="rId72" xr:uid="{10233510-1E7F-47D8-9DC8-CECCEEAF2542}"/>
+    <hyperlink ref="C135" r:id="rId73" xr:uid="{C4B8637F-0EAC-421C-B98A-83396BEC74E6}"/>
+    <hyperlink ref="C11" r:id="rId74" xr:uid="{78FBD904-905A-4DF4-8336-339D9FD35EF9}"/>
+    <hyperlink ref="C232" r:id="rId75" xr:uid="{30FFC8B8-F48B-4956-82E5-5F5C1D42BFDA}"/>
+    <hyperlink ref="C190" r:id="rId76" xr:uid="{F297C688-6767-4A01-87CA-713F0DDF9C34}"/>
+    <hyperlink ref="C51" r:id="rId77" xr:uid="{DE8C1BDA-4F06-4739-8272-9C1526634215}"/>
+    <hyperlink ref="C224" r:id="rId78" xr:uid="{0B5DD545-15F8-4AED-86A6-780BA78A0233}"/>
+    <hyperlink ref="C130" r:id="rId79" xr:uid="{1EAB83F2-BCC3-4788-AB88-9206EE59BEFD}"/>
+    <hyperlink ref="C141" r:id="rId80" xr:uid="{B9CEB789-AD16-4793-B005-DBCE618DBE94}"/>
+    <hyperlink ref="C240" r:id="rId81" xr:uid="{BE0D192A-BC2F-4B35-99E0-370F38CA9C0B}"/>
+    <hyperlink ref="C78" r:id="rId82" xr:uid="{3F8FC17C-F146-4E12-BBB9-18B45BB5B3EC}"/>
+    <hyperlink ref="C116" r:id="rId83" xr:uid="{C3C3E0D1-E6BE-417A-AC79-EEB8F79FBE7C}"/>
+    <hyperlink ref="C60" r:id="rId84" xr:uid="{646B995D-2022-47E8-9C46-F74E16A3A629}"/>
+    <hyperlink ref="C57" r:id="rId85" xr:uid="{1F133298-7E48-4138-8126-F74D2CBDB050}"/>
+    <hyperlink ref="C223" r:id="rId86" xr:uid="{79CA2660-030A-4E38-B36D-D5A391C24AF6}"/>
+    <hyperlink ref="C163" r:id="rId87" xr:uid="{301BF770-273A-484E-AF66-F32DA8458844}"/>
+    <hyperlink ref="C241" r:id="rId88" xr:uid="{A72F7411-3596-45A9-BD47-96AE1238FE57}"/>
+    <hyperlink ref="C126" r:id="rId89" xr:uid="{9335E23F-5F7C-4364-8ABA-564F1B156EB5}"/>
+    <hyperlink ref="C146" r:id="rId90" xr:uid="{C528D45E-5270-4308-A5F4-DDDD4C29A97D}"/>
+    <hyperlink ref="C132" r:id="rId91" xr:uid="{E5C83DAC-00EF-49EE-9811-99C544403146}"/>
+    <hyperlink ref="C187" r:id="rId92" xr:uid="{F5146A50-BA2B-4466-A3AC-A9E6870FA443}"/>
+    <hyperlink ref="C182" r:id="rId93" xr:uid="{880D6AB9-DCD2-4819-B973-72461A04C7C8}"/>
+    <hyperlink ref="C204" r:id="rId94" xr:uid="{11544622-27D7-41FE-BA8C-7A64E8838D48}"/>
+    <hyperlink ref="C55" r:id="rId95" xr:uid="{BC65DFE4-1308-4C08-8CE7-8941756F790F}"/>
+    <hyperlink ref="C117" r:id="rId96" xr:uid="{8322B7F1-705E-4313-8FF2-F90CCF591E35}"/>
+    <hyperlink ref="C166" r:id="rId97" xr:uid="{EBB28F68-D663-44AA-86BD-53B20904935E}"/>
+    <hyperlink ref="C136" r:id="rId98" xr:uid="{6A80E6A8-DBFE-4A55-A512-7374F8FBE4FD}"/>
+    <hyperlink ref="C61" r:id="rId99" xr:uid="{CE6A856C-5BA0-46B8-BDBB-70D03B1E5FA6}"/>
+    <hyperlink ref="C73" r:id="rId100" xr:uid="{B219EA6C-AFC6-4A8E-A965-70B93C5367C4}"/>
+    <hyperlink ref="C237" r:id="rId101" xr:uid="{108B5805-5369-47C0-A3A2-CA30D2F91CFB}"/>
+    <hyperlink ref="C121" r:id="rId102" xr:uid="{7AD71135-DE45-46BB-A218-39306ABA3702}"/>
     <hyperlink ref="C107:C115" r:id="rId103" display="https://midfield.mlbstatic.com/v1/people/570632/spots/120" xr:uid="{B6AEF0A1-DAD3-493D-AD72-9992AF4AC36A}"/>
-    <hyperlink ref="C139" r:id="rId104" xr:uid="{4FC1EEA6-0897-4ECD-9CE7-1A38B7A04DF4}"/>
-    <hyperlink ref="C115" r:id="rId105" xr:uid="{1C2C51A3-E75B-4CC0-A087-8366DF24A3F2}"/>
-    <hyperlink ref="C128" r:id="rId106" xr:uid="{BB7DF76E-86EB-4858-AEA6-0696B62895BC}"/>
-    <hyperlink ref="C14" r:id="rId107" xr:uid="{01DE55D4-78E8-461B-A8B9-B03E6D65C918}"/>
-    <hyperlink ref="C46" r:id="rId108" xr:uid="{FCD4C620-BB71-4CC3-A123-50EFE98B5FE2}"/>
-    <hyperlink ref="C124" r:id="rId109" xr:uid="{29ED6610-0117-47A3-9540-69CB5AC80B92}"/>
-    <hyperlink ref="C140" r:id="rId110" xr:uid="{9E30FD12-A196-40BE-A210-0C73986E5064}"/>
-    <hyperlink ref="C147" r:id="rId111" xr:uid="{B8175F43-D70E-459F-98CF-15ECFA717548}"/>
-    <hyperlink ref="C90" r:id="rId112" xr:uid="{A1F217DD-45E3-4ABD-A801-5D9F166E4EE3}"/>
-    <hyperlink ref="C10" r:id="rId113" xr:uid="{C6E8A0D7-8E63-4EC1-8C28-4570F13EECF8}"/>
-    <hyperlink ref="C26" r:id="rId114" xr:uid="{061EEF2C-85CF-400C-B70C-3AC1B107F1EC}"/>
-    <hyperlink ref="C27" r:id="rId115" xr:uid="{07D08D3B-A3C3-4916-9FE0-2CF26ECA4304}"/>
-    <hyperlink ref="C47" r:id="rId116" xr:uid="{91E7913A-86EE-40F5-9798-4A7B25F420CA}"/>
-    <hyperlink ref="C87" r:id="rId117" xr:uid="{0A5A0FD7-8B57-41D3-A410-CA8F6779F8C0}"/>
-    <hyperlink ref="C103" r:id="rId118" xr:uid="{9979CA0C-3483-428F-A7AC-8624936FB8FA}"/>
-    <hyperlink ref="C118" r:id="rId119" xr:uid="{482918C2-89BA-496F-8160-085C2940475B}"/>
-    <hyperlink ref="C122" r:id="rId120" xr:uid="{674942CB-83E4-4508-A135-1EB5B6D6E0BF}"/>
-    <hyperlink ref="C145" r:id="rId121" xr:uid="{1F6209AE-91BF-41D4-B9AD-7DEABA16621B}"/>
-    <hyperlink ref="C148" r:id="rId122" xr:uid="{F0E5D36A-2456-4111-9B29-31D8CBD1A12D}"/>
-    <hyperlink ref="C154" r:id="rId123" xr:uid="{789C651E-21E8-4E0D-8017-9BF6770B7FE4}"/>
-    <hyperlink ref="C143" r:id="rId124" xr:uid="{E96CD394-E5F8-46F9-9A93-3EA98A4EE8DE}"/>
-    <hyperlink ref="C16" r:id="rId125" xr:uid="{170B8200-FCC5-4ED1-8A6A-63B3F60FC427}"/>
-    <hyperlink ref="C19" r:id="rId126" xr:uid="{1165D173-E61C-477D-81EA-53C274E42084}"/>
-    <hyperlink ref="C8" r:id="rId127" xr:uid="{D71E6989-E12D-4FB6-8277-45C3718AA5C4}"/>
-    <hyperlink ref="C5" r:id="rId128" xr:uid="{FB4F273B-2196-4018-85BA-D42A207F8910}"/>
-    <hyperlink ref="C62" r:id="rId129" xr:uid="{9F233235-B9B1-4E7A-807E-8F2EE493E173}"/>
-    <hyperlink ref="C126" r:id="rId130" xr:uid="{F5D1A66D-4324-4468-A7A0-AD3D00B16AE7}"/>
-    <hyperlink ref="C18" r:id="rId131" xr:uid="{1759929B-600A-4949-96E1-F424E054D97A}"/>
-    <hyperlink ref="C86" r:id="rId132" xr:uid="{8B19E95A-E327-406E-9F25-861358533D76}"/>
-    <hyperlink ref="C17" r:id="rId133" xr:uid="{1DD3FDF5-6556-4823-8827-A75B5E83FD01}"/>
-    <hyperlink ref="C152" r:id="rId134" xr:uid="{B62475DC-179F-4CE0-8CF6-51DC972D40B7}"/>
-    <hyperlink ref="C151" r:id="rId135" xr:uid="{492088BD-9B89-42AA-A6AF-1F83749BDC72}"/>
-    <hyperlink ref="C20" r:id="rId136" xr:uid="{6118D192-2DB6-4311-A382-3371906C183D}"/>
+    <hyperlink ref="C207" r:id="rId104" xr:uid="{4FC1EEA6-0897-4ECD-9CE7-1A38B7A04DF4}"/>
+    <hyperlink ref="C176" r:id="rId105" xr:uid="{1C2C51A3-E75B-4CC0-A087-8366DF24A3F2}"/>
+    <hyperlink ref="C191" r:id="rId106" xr:uid="{BB7DF76E-86EB-4858-AEA6-0696B62895BC}"/>
+    <hyperlink ref="C20" r:id="rId107" xr:uid="{01DE55D4-78E8-461B-A8B9-B03E6D65C918}"/>
+    <hyperlink ref="C75" r:id="rId108" xr:uid="{FCD4C620-BB71-4CC3-A123-50EFE98B5FE2}"/>
+    <hyperlink ref="C186" r:id="rId109" xr:uid="{29ED6610-0117-47A3-9540-69CB5AC80B92}"/>
+    <hyperlink ref="C208" r:id="rId110" xr:uid="{9E30FD12-A196-40BE-A210-0C73986E5064}"/>
+    <hyperlink ref="C220" r:id="rId111" xr:uid="{B8175F43-D70E-459F-98CF-15ECFA717548}"/>
+    <hyperlink ref="C142" r:id="rId112" xr:uid="{A1F217DD-45E3-4ABD-A801-5D9F166E4EE3}"/>
+    <hyperlink ref="C16" r:id="rId113" xr:uid="{C6E8A0D7-8E63-4EC1-8C28-4570F13EECF8}"/>
+    <hyperlink ref="C42" r:id="rId114" xr:uid="{061EEF2C-85CF-400C-B70C-3AC1B107F1EC}"/>
+    <hyperlink ref="C44" r:id="rId115" xr:uid="{07D08D3B-A3C3-4916-9FE0-2CF26ECA4304}"/>
+    <hyperlink ref="C77" r:id="rId116" xr:uid="{91E7913A-86EE-40F5-9798-4A7B25F420CA}"/>
+    <hyperlink ref="C139" r:id="rId117" xr:uid="{0A5A0FD7-8B57-41D3-A410-CA8F6779F8C0}"/>
+    <hyperlink ref="C160" r:id="rId118" xr:uid="{9979CA0C-3483-428F-A7AC-8624936FB8FA}"/>
+    <hyperlink ref="C179" r:id="rId119" xr:uid="{482918C2-89BA-496F-8160-085C2940475B}"/>
+    <hyperlink ref="C183" r:id="rId120" xr:uid="{674942CB-83E4-4508-A135-1EB5B6D6E0BF}"/>
+    <hyperlink ref="C218" r:id="rId121" xr:uid="{1F6209AE-91BF-41D4-B9AD-7DEABA16621B}"/>
+    <hyperlink ref="C222" r:id="rId122" xr:uid="{F0E5D36A-2456-4111-9B29-31D8CBD1A12D}"/>
+    <hyperlink ref="C229" r:id="rId123" xr:uid="{789C651E-21E8-4E0D-8017-9BF6770B7FE4}"/>
+    <hyperlink ref="C215" r:id="rId124" xr:uid="{E96CD394-E5F8-46F9-9A93-3EA98A4EE8DE}"/>
+    <hyperlink ref="C26" r:id="rId125" xr:uid="{170B8200-FCC5-4ED1-8A6A-63B3F60FC427}"/>
+    <hyperlink ref="C31" r:id="rId126" xr:uid="{1165D173-E61C-477D-81EA-53C274E42084}"/>
+    <hyperlink ref="C13" r:id="rId127" xr:uid="{D71E6989-E12D-4FB6-8277-45C3718AA5C4}"/>
+    <hyperlink ref="C9" r:id="rId128" xr:uid="{FB4F273B-2196-4018-85BA-D42A207F8910}"/>
+    <hyperlink ref="C103" r:id="rId129" xr:uid="{9F233235-B9B1-4E7A-807E-8F2EE493E173}"/>
+    <hyperlink ref="C189" r:id="rId130" xr:uid="{F5D1A66D-4324-4468-A7A0-AD3D00B16AE7}"/>
+    <hyperlink ref="C28" r:id="rId131" xr:uid="{1759929B-600A-4949-96E1-F424E054D97A}"/>
+    <hyperlink ref="C137" r:id="rId132" xr:uid="{8B19E95A-E327-406E-9F25-861358533D76}"/>
+    <hyperlink ref="C27" r:id="rId133" xr:uid="{1DD3FDF5-6556-4823-8827-A75B5E83FD01}"/>
+    <hyperlink ref="C227" r:id="rId134" xr:uid="{B62475DC-179F-4CE0-8CF6-51DC972D40B7}"/>
+    <hyperlink ref="C225" r:id="rId135" xr:uid="{492088BD-9B89-42AA-A6AF-1F83749BDC72}"/>
+    <hyperlink ref="C32" r:id="rId136" xr:uid="{6118D192-2DB6-4311-A382-3371906C183D}"/>
     <hyperlink ref="C140:C143" r:id="rId137" display="https://midfield.mlbstatic.com/v1/people/693821/spots/120" xr:uid="{0E83A794-B683-4463-A3A3-95576AFDD615}"/>
-    <hyperlink ref="C38" r:id="rId138" xr:uid="{98EC2002-988D-46D0-AD8B-CB1135815ADD}"/>
-    <hyperlink ref="C161" r:id="rId139" xr:uid="{80C5B6A6-E3F5-4F34-8C17-B202CF8842F5}"/>
-    <hyperlink ref="C113" r:id="rId140" xr:uid="{35842AC4-F920-4A32-B105-587FE352F876}"/>
-    <hyperlink ref="C68" r:id="rId141" xr:uid="{24E2A301-E80D-4F02-A94B-CFE6DF3719D1}"/>
-    <hyperlink ref="C59" r:id="rId142" xr:uid="{6D687EFE-5BD7-4FEF-B636-1A728E3CB6DF}"/>
-    <hyperlink ref="C119" r:id="rId143" xr:uid="{20E003D8-D5C4-4113-AFC3-D076CE9FE0A0}"/>
-    <hyperlink ref="C99" r:id="rId144" xr:uid="{3D5F262E-120A-4E2A-AF3A-1C4C1117AE44}"/>
-    <hyperlink ref="C15" r:id="rId145" xr:uid="{5ED77DE1-166F-4541-898A-786E114DAEF4}"/>
-    <hyperlink ref="C25" r:id="rId146" xr:uid="{81DC0D20-42F6-4D3C-87D3-B645CB35712A}"/>
-    <hyperlink ref="C30" r:id="rId147" xr:uid="{E396E594-A4D8-4E20-9A24-90B7589370B5}"/>
-    <hyperlink ref="C51" r:id="rId148" xr:uid="{823E8EED-4901-4993-A8EA-2CA91EBD8526}"/>
-    <hyperlink ref="C61" r:id="rId149" xr:uid="{923E21E9-8410-4112-9000-9E93896189E6}"/>
-    <hyperlink ref="C88" r:id="rId150" xr:uid="{C526E886-242E-4E87-ACB6-1E69A02EEBD3}"/>
-    <hyperlink ref="C104" r:id="rId151" xr:uid="{BFEEE380-0C63-474F-821D-61F8EF908A46}"/>
-    <hyperlink ref="C114" r:id="rId152" xr:uid="{2250FC95-0A39-4EE2-BCB2-FFF1EF3E4964}"/>
-    <hyperlink ref="C77" r:id="rId153" xr:uid="{174AA7F5-75DB-42B1-ACFF-646023A4BD2A}"/>
-    <hyperlink ref="C141" r:id="rId154" xr:uid="{30D34D43-AD29-4DE6-93CC-FD7C2F05FE00}"/>
-    <hyperlink ref="C110" r:id="rId155" xr:uid="{AD2496AE-C6CA-4D48-BE1B-E0D40292B961}"/>
-    <hyperlink ref="C82" r:id="rId156" xr:uid="{8EA8AFE5-38A5-4C45-95E6-52202880E214}"/>
-    <hyperlink ref="C107" r:id="rId157" xr:uid="{933DFE08-9AFA-4E05-81A6-D7AD9B2936B4}"/>
-    <hyperlink ref="C130" r:id="rId158" xr:uid="{5CB1E923-0C0B-46C3-9A06-C5BF1664BB99}"/>
-    <hyperlink ref="C4" r:id="rId159" xr:uid="{F0633C7D-B030-42F8-867D-487A4D0622C9}"/>
-    <hyperlink ref="C13" r:id="rId160" xr:uid="{F7C050ED-4E17-4083-9409-29763900B9F8}"/>
-    <hyperlink ref="C53" r:id="rId161" xr:uid="{96DF98C5-93EB-4B46-A8DE-540F97FB9D2D}"/>
-    <hyperlink ref="C163" r:id="rId162" xr:uid="{DC3780E6-8DBB-43AF-868F-038344C91A4E}"/>
-    <hyperlink ref="C164" r:id="rId163" xr:uid="{AF843F30-7625-42D0-BA56-6434FAE62C25}"/>
-    <hyperlink ref="C165" r:id="rId164" xr:uid="{5D94729E-5BC9-4A90-91A4-E22E6DF54EC5}"/>
-    <hyperlink ref="C166" r:id="rId165" xr:uid="{07FE2158-E54F-4DAF-A552-7A5F3BB2BAF7}"/>
-    <hyperlink ref="C29" r:id="rId166" xr:uid="{202CCF33-99A3-4853-AE16-95008489CCC5}"/>
-    <hyperlink ref="C42" r:id="rId167" xr:uid="{F4B5E23D-9319-41A2-AB51-5DE0A45DD8B4}"/>
-    <hyperlink ref="C71" r:id="rId168" xr:uid="{1692F5E0-FB63-492A-92F7-244666AA4D6C}"/>
-    <hyperlink ref="C167" r:id="rId169" xr:uid="{AB038426-E25A-4D00-959B-BADAAFC83263}"/>
-    <hyperlink ref="C168" r:id="rId170" xr:uid="{37BD58F8-5963-4DEE-8AC0-94C476AAA7B4}"/>
-    <hyperlink ref="C169" r:id="rId171" xr:uid="{224B22F8-17AF-4F0E-B83D-83E51925E3DA}"/>
-    <hyperlink ref="C170" r:id="rId172" xr:uid="{7C41A3D8-7B2C-4E19-8D41-28A0650CBF55}"/>
-    <hyperlink ref="C171" r:id="rId173" xr:uid="{04763326-6E4F-46B3-85EC-C59D9071D0F0}"/>
-    <hyperlink ref="C172" r:id="rId174" xr:uid="{6595AC92-4EB6-4C25-8AA6-B1D9744B1285}"/>
-    <hyperlink ref="C173" r:id="rId175" xr:uid="{B78F9174-E83B-47E6-946E-143B1E2D43D8}"/>
+    <hyperlink ref="C58" r:id="rId138" xr:uid="{98EC2002-988D-46D0-AD8B-CB1135815ADD}"/>
+    <hyperlink ref="C243" r:id="rId139" xr:uid="{80C5B6A6-E3F5-4F34-8C17-B202CF8842F5}"/>
+    <hyperlink ref="C173" r:id="rId140" xr:uid="{35842AC4-F920-4A32-B105-587FE352F876}"/>
+    <hyperlink ref="C111" r:id="rId141" xr:uid="{24E2A301-E80D-4F02-A94B-CFE6DF3719D1}"/>
+    <hyperlink ref="C99" r:id="rId142" xr:uid="{6D687EFE-5BD7-4FEF-B636-1A728E3CB6DF}"/>
+    <hyperlink ref="C180" r:id="rId143" xr:uid="{20E003D8-D5C4-4113-AFC3-D076CE9FE0A0}"/>
+    <hyperlink ref="C155" r:id="rId144" xr:uid="{3D5F262E-120A-4E2A-AF3A-1C4C1117AE44}"/>
+    <hyperlink ref="C25" r:id="rId145" xr:uid="{5ED77DE1-166F-4541-898A-786E114DAEF4}"/>
+    <hyperlink ref="C39" r:id="rId146" xr:uid="{81DC0D20-42F6-4D3C-87D3-B645CB35712A}"/>
+    <hyperlink ref="C48" r:id="rId147" xr:uid="{E396E594-A4D8-4E20-9A24-90B7589370B5}"/>
+    <hyperlink ref="C83" r:id="rId148" xr:uid="{823E8EED-4901-4993-A8EA-2CA91EBD8526}"/>
+    <hyperlink ref="C102" r:id="rId149" xr:uid="{923E21E9-8410-4112-9000-9E93896189E6}"/>
+    <hyperlink ref="C140" r:id="rId150" xr:uid="{C526E886-242E-4E87-ACB6-1E69A02EEBD3}"/>
+    <hyperlink ref="C161" r:id="rId151" xr:uid="{BFEEE380-0C63-474F-821D-61F8EF908A46}"/>
+    <hyperlink ref="C175" r:id="rId152" xr:uid="{2250FC95-0A39-4EE2-BCB2-FFF1EF3E4964}"/>
+    <hyperlink ref="C124" r:id="rId153" xr:uid="{174AA7F5-75DB-42B1-ACFF-646023A4BD2A}"/>
+    <hyperlink ref="C209" r:id="rId154" xr:uid="{30D34D43-AD29-4DE6-93CC-FD7C2F05FE00}"/>
+    <hyperlink ref="C168" r:id="rId155" xr:uid="{AD2496AE-C6CA-4D48-BE1B-E0D40292B961}"/>
+    <hyperlink ref="C131" r:id="rId156" xr:uid="{8EA8AFE5-38A5-4C45-95E6-52202880E214}"/>
+    <hyperlink ref="C165" r:id="rId157" xr:uid="{933DFE08-9AFA-4E05-81A6-D7AD9B2936B4}"/>
+    <hyperlink ref="C193" r:id="rId158" xr:uid="{5CB1E923-0C0B-46C3-9A06-C5BF1664BB99}"/>
+    <hyperlink ref="C7" r:id="rId159" xr:uid="{F0633C7D-B030-42F8-867D-487A4D0622C9}"/>
+    <hyperlink ref="C19" r:id="rId160" xr:uid="{F7C050ED-4E17-4083-9409-29763900B9F8}"/>
+    <hyperlink ref="C88" r:id="rId161" xr:uid="{96DF98C5-93EB-4B46-A8DE-540F97FB9D2D}"/>
+    <hyperlink ref="C184" r:id="rId162" xr:uid="{DC3780E6-8DBB-43AF-868F-038344C91A4E}"/>
+    <hyperlink ref="C151" r:id="rId163" xr:uid="{AF843F30-7625-42D0-BA56-6434FAE62C25}"/>
+    <hyperlink ref="C226" r:id="rId164" xr:uid="{5D94729E-5BC9-4A90-91A4-E22E6DF54EC5}"/>
+    <hyperlink ref="C50" r:id="rId165" xr:uid="{07FE2158-E54F-4DAF-A552-7A5F3BB2BAF7}"/>
+    <hyperlink ref="C47" r:id="rId166" xr:uid="{202CCF33-99A3-4853-AE16-95008489CCC5}"/>
+    <hyperlink ref="C65" r:id="rId167" xr:uid="{F4B5E23D-9319-41A2-AB51-5DE0A45DD8B4}"/>
+    <hyperlink ref="C115" r:id="rId168" xr:uid="{1692F5E0-FB63-492A-92F7-244666AA4D6C}"/>
+    <hyperlink ref="C3" r:id="rId169" xr:uid="{AB038426-E25A-4D00-959B-BADAAFC83263}"/>
+    <hyperlink ref="C22" r:id="rId170" xr:uid="{37BD58F8-5963-4DEE-8AC0-94C476AAA7B4}"/>
+    <hyperlink ref="C195" r:id="rId171" xr:uid="{224B22F8-17AF-4F0E-B83D-83E51925E3DA}"/>
+    <hyperlink ref="C133" r:id="rId172" xr:uid="{7C41A3D8-7B2C-4E19-8D41-28A0650CBF55}"/>
+    <hyperlink ref="C85" r:id="rId173" xr:uid="{04763326-6E4F-46B3-85EC-C59D9071D0F0}"/>
+    <hyperlink ref="C21" r:id="rId174" xr:uid="{6595AC92-4EB6-4C25-8AA6-B1D9744B1285}"/>
+    <hyperlink ref="C169" r:id="rId175" xr:uid="{B78F9174-E83B-47E6-946E-143B1E2D43D8}"/>
     <hyperlink ref="C174" r:id="rId176" xr:uid="{063DB121-1B09-4C4A-A7CB-67F92A70E822}"/>
-    <hyperlink ref="C175" r:id="rId177" xr:uid="{4529126A-013E-48BE-BF9C-0857DD382C6C}"/>
-    <hyperlink ref="C176" r:id="rId178" xr:uid="{2F41BBD7-2015-4D42-8F88-8932B17FA34E}"/>
-    <hyperlink ref="C177" r:id="rId179" xr:uid="{E3EEE818-F47C-4DA4-97C5-449CA4C17CE4}"/>
-    <hyperlink ref="C178" r:id="rId180" xr:uid="{9F68A673-C7E6-4A90-BBDE-1C7409208E96}"/>
-    <hyperlink ref="C179" r:id="rId181" xr:uid="{889380E0-647D-4489-BE9B-25BAE5EB7861}"/>
-    <hyperlink ref="C180" r:id="rId182" xr:uid="{E541544B-61E3-4737-BBE7-E7662EC00A72}"/>
-    <hyperlink ref="C181" r:id="rId183" xr:uid="{4BE71305-E922-40EC-A901-A899B6397770}"/>
-    <hyperlink ref="C182" r:id="rId184" xr:uid="{1DB36123-F811-448C-80B1-68D23463FD4D}"/>
-    <hyperlink ref="C183" r:id="rId185" xr:uid="{3C679776-3AB8-453B-A4D3-B37792A73D16}"/>
-    <hyperlink ref="C184" r:id="rId186" xr:uid="{FA711ADD-C082-40DD-82D1-0E78DD912F0F}"/>
-    <hyperlink ref="C185" r:id="rId187" xr:uid="{C7B04CD8-F035-43DB-A418-9133A48E8921}"/>
-    <hyperlink ref="C186" r:id="rId188" xr:uid="{53F20A14-3749-4B51-B405-0EB1EA8BE457}"/>
-    <hyperlink ref="C187" r:id="rId189" xr:uid="{F2A8C005-E73E-4EA8-9A69-7D1C21C8DA9F}"/>
-    <hyperlink ref="C188" r:id="rId190" xr:uid="{E1A325DE-861E-4917-B535-A3626E67093B}"/>
-    <hyperlink ref="C189" r:id="rId191" xr:uid="{0B8721CA-ADDC-484A-A593-AA5D129028A4}"/>
-    <hyperlink ref="C190" r:id="rId192" xr:uid="{976908EE-A22D-40EC-95CA-B678C03D5727}"/>
-    <hyperlink ref="C191" r:id="rId193" xr:uid="{2359E283-699E-4E88-A140-3D7A568FC6E6}"/>
-    <hyperlink ref="C192" r:id="rId194" xr:uid="{6EAF58AD-5C21-4CAF-9E5B-779352704AB8}"/>
-    <hyperlink ref="C193" r:id="rId195" xr:uid="{075C6DD4-9B5F-454C-9441-F8AB51EBBED6}"/>
-    <hyperlink ref="C194" r:id="rId196" xr:uid="{2AB02CE7-6DE6-4936-A9B6-C3A30517DB7F}"/>
-    <hyperlink ref="C195" r:id="rId197" xr:uid="{3FA450BF-3E01-439C-8C3C-97285CDF42E4}"/>
-    <hyperlink ref="C196" r:id="rId198" xr:uid="{B7C88999-8CA0-468E-9DB7-0C84FECCE62D}"/>
-    <hyperlink ref="C197" r:id="rId199" xr:uid="{4030FD80-AC58-4604-AAD9-3C8DDF33D9BF}"/>
-    <hyperlink ref="C198" r:id="rId200" xr:uid="{A6D3B7B5-05D6-404A-A466-9DFEDA40D0C8}"/>
-    <hyperlink ref="C199" r:id="rId201" xr:uid="{E49A6EE8-5822-4020-9BE9-083EAD5C84FB}"/>
-    <hyperlink ref="C200" r:id="rId202" xr:uid="{9CB2615F-20AF-4560-8DE8-06A6D01F94D3}"/>
-    <hyperlink ref="C201" r:id="rId203" xr:uid="{050FB622-EB1C-4B7B-9B5C-D0165F6DB2BB}"/>
-    <hyperlink ref="C202" r:id="rId204" xr:uid="{B0AA3E5E-F474-4547-A4BB-1562AFD05639}"/>
-    <hyperlink ref="C203" r:id="rId205" xr:uid="{5EE48E44-6645-423B-9D3B-BA27E3C88CF6}"/>
-    <hyperlink ref="C204" r:id="rId206" xr:uid="{DC2CCDEC-A6B0-4412-9293-3D708FF0E861}"/>
-    <hyperlink ref="C206" r:id="rId207" xr:uid="{ACFA800E-8414-4E9A-BE09-CB33D46601E0}"/>
-    <hyperlink ref="C207" r:id="rId208" xr:uid="{4423E675-229D-4F9B-9CC0-F8C46E201512}"/>
-    <hyperlink ref="C205" r:id="rId209" xr:uid="{4DA93860-D7DA-4B52-A9A0-ABAC3B793A26}"/>
-    <hyperlink ref="C208" r:id="rId210" xr:uid="{FA66E72F-4556-483C-AED4-B7C4E5F6ED33}"/>
-    <hyperlink ref="C209" r:id="rId211" xr:uid="{6B606037-8FCB-4B89-85F6-9C109BB639E4}"/>
-    <hyperlink ref="C210" r:id="rId212" xr:uid="{043B1326-06A0-4BFB-AE2B-D08C2362D448}"/>
-    <hyperlink ref="C211" r:id="rId213" xr:uid="{ED67AC35-5992-4B66-83D1-089BA4E99A16}"/>
-    <hyperlink ref="C212" r:id="rId214" xr:uid="{CF84CEFF-E17D-40A8-AD53-CB8315ADCC37}"/>
-    <hyperlink ref="C213" r:id="rId215" xr:uid="{1BAB86BA-7E57-4837-A02D-20C7C66B9848}"/>
-    <hyperlink ref="C214" r:id="rId216" xr:uid="{3EA55CB4-1A31-46CB-B169-BAD40E4583E7}"/>
-    <hyperlink ref="C215" r:id="rId217" xr:uid="{2B1255F2-0C8E-4311-B384-A243584166D0}"/>
-    <hyperlink ref="C216" r:id="rId218" xr:uid="{73AE9BCD-6C33-4EA3-8B2C-295D6F0D05CF}"/>
-    <hyperlink ref="C217" r:id="rId219" xr:uid="{498C586A-7DD4-40BB-8CE1-2E05FEE50369}"/>
-    <hyperlink ref="C218" r:id="rId220" xr:uid="{A11E9FF1-3605-41EC-A0B4-E449B0C39866}"/>
-    <hyperlink ref="C219" r:id="rId221" xr:uid="{055DA19C-8857-47CC-ADFC-73E251BEB3F6}"/>
-    <hyperlink ref="C220" r:id="rId222" xr:uid="{C53F4E20-43C2-464F-97C3-89E4C10E252A}"/>
-    <hyperlink ref="C221" r:id="rId223" xr:uid="{FE90B83E-5FAF-459E-A2DA-3A8652D917EF}"/>
-    <hyperlink ref="C222" r:id="rId224" xr:uid="{BF5DAC24-D303-4D5E-A915-A885363E7451}"/>
-    <hyperlink ref="C223" r:id="rId225" xr:uid="{80A36AEF-A598-4857-BE4F-69DA9DA67DFD}"/>
-    <hyperlink ref="C224" r:id="rId226" xr:uid="{B7D987BA-6271-4CC8-A0DC-4BF330477802}"/>
-    <hyperlink ref="C228" r:id="rId227" xr:uid="{20EE4B5A-0C19-4A82-A1B2-5DDF4FA49FDE}"/>
-    <hyperlink ref="C229" r:id="rId228" xr:uid="{DDEB8DCF-19D0-4DAE-873E-83BD559EDD37}"/>
-    <hyperlink ref="C225" r:id="rId229" xr:uid="{E823F0E1-6A3E-40D1-BDE4-8CFCEDB0173E}"/>
-    <hyperlink ref="C226" r:id="rId230" xr:uid="{571ED490-0BB2-41BB-96E6-1E80746B048B}"/>
-    <hyperlink ref="C227" r:id="rId231" xr:uid="{45DC0BB5-E895-42EC-B035-878800D93341}"/>
-    <hyperlink ref="C230" r:id="rId232" xr:uid="{EE178400-7D70-4075-8104-3752416DC5D0}"/>
-    <hyperlink ref="C231" r:id="rId233" xr:uid="{19C897C7-B2B8-445D-8CA3-7B0E06E16618}"/>
-    <hyperlink ref="C232" r:id="rId234" xr:uid="{6B029C37-DB04-4255-9E5E-5B9AD78DD349}"/>
-    <hyperlink ref="C233" r:id="rId235" xr:uid="{A9A83049-37C9-4D85-962F-CDE28F86C75A}"/>
-    <hyperlink ref="C234" r:id="rId236" xr:uid="{B4FECB5A-4B35-4E03-AFC1-6C2C41C57BC4}"/>
-    <hyperlink ref="C235" r:id="rId237" xr:uid="{6AF6B864-0809-4988-BC6C-FE85AF6A202D}"/>
-    <hyperlink ref="C236" r:id="rId238" xr:uid="{92E22DB8-61D8-40BB-9529-1D8887BF37E3}"/>
-    <hyperlink ref="C237" r:id="rId239" xr:uid="{EF429FDF-10FE-4488-85F5-9AAD30A38E0D}"/>
-    <hyperlink ref="C238" r:id="rId240" xr:uid="{1CB793AA-FB4F-4E62-A9F2-D519D201BB92}"/>
-    <hyperlink ref="C239" r:id="rId241" xr:uid="{FB613A25-AD87-4EA9-8D51-EB22AD2DA559}"/>
-    <hyperlink ref="C240" r:id="rId242" xr:uid="{BC37F7AB-1C24-408D-B43C-01BC9A4CB101}"/>
-    <hyperlink ref="C241" r:id="rId243" xr:uid="{79BF7850-C154-4D58-B412-E89AB032C55E}"/>
-    <hyperlink ref="C242" r:id="rId244" xr:uid="{B8E8A859-C13F-41E7-9FAD-D3C18BA3F91A}"/>
+    <hyperlink ref="C233" r:id="rId177" xr:uid="{4529126A-013E-48BE-BF9C-0857DD382C6C}"/>
+    <hyperlink ref="C15" r:id="rId178" xr:uid="{2F41BBD7-2015-4D42-8F88-8932B17FA34E}"/>
+    <hyperlink ref="C63" r:id="rId179" xr:uid="{E3EEE818-F47C-4DA4-97C5-449CA4C17CE4}"/>
+    <hyperlink ref="C12" r:id="rId180" xr:uid="{9F68A673-C7E6-4A90-BBDE-1C7409208E96}"/>
+    <hyperlink ref="C129" r:id="rId181" xr:uid="{889380E0-647D-4489-BE9B-25BAE5EB7861}"/>
+    <hyperlink ref="C212" r:id="rId182" xr:uid="{E541544B-61E3-4737-BBE7-E7662EC00A72}"/>
+    <hyperlink ref="C67" r:id="rId183" xr:uid="{4BE71305-E922-40EC-A901-A899B6397770}"/>
+    <hyperlink ref="C8" r:id="rId184" xr:uid="{1DB36123-F811-448C-80B1-68D23463FD4D}"/>
+    <hyperlink ref="C72" r:id="rId185" xr:uid="{3C679776-3AB8-453B-A4D3-B37792A73D16}"/>
+    <hyperlink ref="C52" r:id="rId186" xr:uid="{FA711ADD-C082-40DD-82D1-0E78DD912F0F}"/>
+    <hyperlink ref="C230" r:id="rId187" xr:uid="{C7B04CD8-F035-43DB-A418-9133A48E8921}"/>
+    <hyperlink ref="C211" r:id="rId188" xr:uid="{53F20A14-3749-4B51-B405-0EB1EA8BE457}"/>
+    <hyperlink ref="C170" r:id="rId189" xr:uid="{F2A8C005-E73E-4EA8-9A69-7D1C21C8DA9F}"/>
+    <hyperlink ref="C24" r:id="rId190" xr:uid="{E1A325DE-861E-4917-B535-A3626E67093B}"/>
+    <hyperlink ref="C105" r:id="rId191" xr:uid="{0B8721CA-ADDC-484A-A593-AA5D129028A4}"/>
+    <hyperlink ref="C70" r:id="rId192" xr:uid="{976908EE-A22D-40EC-95CA-B678C03D5727}"/>
+    <hyperlink ref="C6" r:id="rId193" xr:uid="{2359E283-699E-4E88-A140-3D7A568FC6E6}"/>
+    <hyperlink ref="C2" r:id="rId194" xr:uid="{6EAF58AD-5C21-4CAF-9E5B-779352704AB8}"/>
+    <hyperlink ref="C100" r:id="rId195" xr:uid="{075C6DD4-9B5F-454C-9441-F8AB51EBBED6}"/>
+    <hyperlink ref="C36" r:id="rId196" xr:uid="{2AB02CE7-6DE6-4936-A9B6-C3A30517DB7F}"/>
+    <hyperlink ref="C92" r:id="rId197" xr:uid="{3FA450BF-3E01-439C-8C3C-97285CDF42E4}"/>
+    <hyperlink ref="C81" r:id="rId198" xr:uid="{B7C88999-8CA0-468E-9DB7-0C84FECCE62D}"/>
+    <hyperlink ref="C148" r:id="rId199" xr:uid="{4030FD80-AC58-4604-AAD9-3C8DDF33D9BF}"/>
+    <hyperlink ref="C147" r:id="rId200" xr:uid="{A6D3B7B5-05D6-404A-A466-9DFEDA40D0C8}"/>
+    <hyperlink ref="C33" r:id="rId201" xr:uid="{E49A6EE8-5822-4020-9BE9-083EAD5C84FB}"/>
+    <hyperlink ref="C95" r:id="rId202" xr:uid="{9CB2615F-20AF-4560-8DE8-06A6D01F94D3}"/>
+    <hyperlink ref="C29" r:id="rId203" xr:uid="{050FB622-EB1C-4B7B-9B5C-D0165F6DB2BB}"/>
+    <hyperlink ref="C71" r:id="rId204" xr:uid="{B0AA3E5E-F474-4547-A4BB-1562AFD05639}"/>
+    <hyperlink ref="C120" r:id="rId205" xr:uid="{5EE48E44-6645-423B-9D3B-BA27E3C88CF6}"/>
+    <hyperlink ref="C144" r:id="rId206" xr:uid="{DC2CCDEC-A6B0-4412-9293-3D708FF0E861}"/>
+    <hyperlink ref="C106" r:id="rId207" xr:uid="{ACFA800E-8414-4E9A-BE09-CB33D46601E0}"/>
+    <hyperlink ref="C113" r:id="rId208" xr:uid="{4423E675-229D-4F9B-9CC0-F8C46E201512}"/>
+    <hyperlink ref="C40" r:id="rId209" xr:uid="{4DA93860-D7DA-4B52-A9A0-ABAC3B793A26}"/>
+    <hyperlink ref="C196" r:id="rId210" xr:uid="{FA66E72F-4556-483C-AED4-B7C4E5F6ED33}"/>
+    <hyperlink ref="C221" r:id="rId211" xr:uid="{6B606037-8FCB-4B89-85F6-9C109BB639E4}"/>
+    <hyperlink ref="C122" r:id="rId212" xr:uid="{043B1326-06A0-4BFB-AE2B-D08C2362D448}"/>
+    <hyperlink ref="C210" r:id="rId213" xr:uid="{ED67AC35-5992-4B66-83D1-089BA4E99A16}"/>
+    <hyperlink ref="C41" r:id="rId214" xr:uid="{CF84CEFF-E17D-40A8-AD53-CB8315ADCC37}"/>
+    <hyperlink ref="C242" r:id="rId215" xr:uid="{1BAB86BA-7E57-4837-A02D-20C7C66B9848}"/>
+    <hyperlink ref="C236" r:id="rId216" xr:uid="{3EA55CB4-1A31-46CB-B169-BAD40E4583E7}"/>
+    <hyperlink ref="C84" r:id="rId217" xr:uid="{2B1255F2-0C8E-4311-B384-A243584166D0}"/>
+    <hyperlink ref="C23" r:id="rId218" xr:uid="{73AE9BCD-6C33-4EA3-8B2C-295D6F0D05CF}"/>
+    <hyperlink ref="C234" r:id="rId219" xr:uid="{498C586A-7DD4-40BB-8CE1-2E05FEE50369}"/>
+    <hyperlink ref="C98" r:id="rId220" xr:uid="{A11E9FF1-3605-41EC-A0B4-E449B0C39866}"/>
+    <hyperlink ref="C203" r:id="rId221" xr:uid="{055DA19C-8857-47CC-ADFC-73E251BEB3F6}"/>
+    <hyperlink ref="C159" r:id="rId222" xr:uid="{C53F4E20-43C2-464F-97C3-89E4C10E252A}"/>
+    <hyperlink ref="C45" r:id="rId223" xr:uid="{FE90B83E-5FAF-459E-A2DA-3A8652D917EF}"/>
+    <hyperlink ref="C138" r:id="rId224" xr:uid="{BF5DAC24-D303-4D5E-A915-A885363E7451}"/>
+    <hyperlink ref="C134" r:id="rId225" xr:uid="{80A36AEF-A598-4857-BE4F-69DA9DA67DFD}"/>
+    <hyperlink ref="C199" r:id="rId226" xr:uid="{B7D987BA-6271-4CC8-A0DC-4BF330477802}"/>
+    <hyperlink ref="C231" r:id="rId227" xr:uid="{20EE4B5A-0C19-4A82-A1B2-5DDF4FA49FDE}"/>
+    <hyperlink ref="C90" r:id="rId228" xr:uid="{DDEB8DCF-19D0-4DAE-873E-83BD559EDD37}"/>
+    <hyperlink ref="C62" r:id="rId229" xr:uid="{E823F0E1-6A3E-40D1-BDE4-8CFCEDB0173E}"/>
+    <hyperlink ref="C188" r:id="rId230" xr:uid="{571ED490-0BB2-41BB-96E6-1E80746B048B}"/>
+    <hyperlink ref="C213" r:id="rId231" xr:uid="{45DC0BB5-E895-42EC-B035-878800D93341}"/>
+    <hyperlink ref="C43" r:id="rId232" xr:uid="{EE178400-7D70-4075-8104-3752416DC5D0}"/>
+    <hyperlink ref="C66" r:id="rId233" xr:uid="{19C897C7-B2B8-445D-8CA3-7B0E06E16618}"/>
+    <hyperlink ref="C68" r:id="rId234" xr:uid="{6B029C37-DB04-4255-9E5E-5B9AD78DD349}"/>
+    <hyperlink ref="C76" r:id="rId235" xr:uid="{A9A83049-37C9-4D85-962F-CDE28F86C75A}"/>
+    <hyperlink ref="C162" r:id="rId236" xr:uid="{B4FECB5A-4B35-4E03-AFC1-6C2C41C57BC4}"/>
+    <hyperlink ref="C59" r:id="rId237" xr:uid="{6AF6B864-0809-4988-BC6C-FE85AF6A202D}"/>
+    <hyperlink ref="C82" r:id="rId238" xr:uid="{92E22DB8-61D8-40BB-9529-1D8887BF37E3}"/>
+    <hyperlink ref="C123" r:id="rId239" xr:uid="{EF429FDF-10FE-4488-85F5-9AAD30A38E0D}"/>
+    <hyperlink ref="C217" r:id="rId240" xr:uid="{1CB793AA-FB4F-4E62-A9F2-D519D201BB92}"/>
+    <hyperlink ref="C127" r:id="rId241" xr:uid="{FB613A25-AD87-4EA9-8D51-EB22AD2DA559}"/>
+    <hyperlink ref="C235" r:id="rId242" xr:uid="{BC37F7AB-1C24-408D-B43C-01BC9A4CB101}"/>
+    <hyperlink ref="C30" r:id="rId243" xr:uid="{79BF7850-C154-4D58-B412-E89AB032C55E}"/>
+    <hyperlink ref="C86" r:id="rId244" xr:uid="{B8E8A859-C13F-41E7-9FAD-D3C18BA3F91A}"/>
+    <hyperlink ref="C97" r:id="rId245" xr:uid="{3F2A85F7-CD20-4B5E-8F45-33C916C206AC}"/>
+    <hyperlink ref="C202" r:id="rId246" xr:uid="{E3459AA4-E722-42C5-A1AB-A7FFD03D0F3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId245"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId247"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4713D32D-FFA1-4C23-88BA-8BB681D9E8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF97194-9F8F-4E6C-B318-8C52F757B394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="496">
   <si>
     <t>Name</t>
   </si>
@@ -1521,6 +1521,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/669358/spots/120</t>
+  </si>
+  <si>
+    <t>Jackson Rutledge</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/671131/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1910,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D244"/>
+  <dimension ref="A1:D245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5336,6 +5342,20 @@
         <v>44</v>
       </c>
       <c r="D244" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>494</v>
+      </c>
+      <c r="B245" t="s">
+        <v>494</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D245" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5587,8 +5607,9 @@
     <hyperlink ref="C86" r:id="rId244" xr:uid="{B8E8A859-C13F-41E7-9FAD-D3C18BA3F91A}"/>
     <hyperlink ref="C97" r:id="rId245" xr:uid="{3F2A85F7-CD20-4B5E-8F45-33C916C206AC}"/>
     <hyperlink ref="C202" r:id="rId246" xr:uid="{E3459AA4-E722-42C5-A1AB-A7FFD03D0F3B}"/>
+    <hyperlink ref="C245" r:id="rId247" xr:uid="{1743BC82-9600-4519-9B4F-9CD7EFD81FF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId247"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId248"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF97194-9F8F-4E6C-B318-8C52F757B394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5ED413-92D5-4507-8106-39D824AA8768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="498">
   <si>
     <t>Name</t>
   </si>
@@ -1527,6 +1527,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/671131/spots/120</t>
+  </si>
+  <si>
+    <t>Carson Fulmer</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/608334/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1916,10 +1922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D245"/>
+  <dimension ref="A1:D246"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="B246" sqref="B246"/>
+      <selection activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5356,6 +5362,20 @@
         <v>495</v>
       </c>
       <c r="D245" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>496</v>
+      </c>
+      <c r="B246" t="s">
+        <v>496</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D246" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5608,8 +5628,9 @@
     <hyperlink ref="C97" r:id="rId245" xr:uid="{3F2A85F7-CD20-4B5E-8F45-33C916C206AC}"/>
     <hyperlink ref="C202" r:id="rId246" xr:uid="{E3459AA4-E722-42C5-A1AB-A7FFD03D0F3B}"/>
     <hyperlink ref="C245" r:id="rId247" xr:uid="{1743BC82-9600-4519-9B4F-9CD7EFD81FF1}"/>
+    <hyperlink ref="C246" r:id="rId248" xr:uid="{EE28F3C4-52BE-44BE-9325-4786DD6AB506}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId248"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId249"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5ED413-92D5-4507-8106-39D824AA8768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6B47C9-A0A4-4B83-BF0B-E821B06C1CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="500">
   <si>
     <t>Name</t>
   </si>
@@ -1533,6 +1533,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/608334/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/689981/spots/120</t>
+  </si>
+  <si>
+    <t>River Ryan</t>
   </si>
 </sst>
 </file>
@@ -1922,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D246"/>
+  <dimension ref="A1:D247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="C247" sqref="C247"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5376,6 +5382,20 @@
         <v>497</v>
       </c>
       <c r="D246" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>499</v>
+      </c>
+      <c r="B247" t="s">
+        <v>499</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D247" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5629,8 +5649,9 @@
     <hyperlink ref="C202" r:id="rId246" xr:uid="{E3459AA4-E722-42C5-A1AB-A7FFD03D0F3B}"/>
     <hyperlink ref="C245" r:id="rId247" xr:uid="{1743BC82-9600-4519-9B4F-9CD7EFD81FF1}"/>
     <hyperlink ref="C246" r:id="rId248" xr:uid="{EE28F3C4-52BE-44BE-9325-4786DD6AB506}"/>
+    <hyperlink ref="C247" r:id="rId249" xr:uid="{F0E6E7B5-1C14-476D-9A89-29BFCE96A9D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId249"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId250"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6B47C9-A0A4-4B83-BF0B-E821B06C1CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EAFB5A-953D-4D1F-A6FE-DC84FEF26478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="504">
   <si>
     <t>Name</t>
   </si>
@@ -1539,6 +1539,18 @@
   </si>
   <si>
     <t>River Ryan</t>
+  </si>
+  <si>
+    <t>Robbie Ray</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/592662/spots/120</t>
+  </si>
+  <si>
+    <t>Chayce McDermott</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/694646/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1928,10 +1940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D247"/>
+  <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B247" sqref="B247"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="C249" sqref="C249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5397,6 +5409,34 @@
       </c>
       <c r="D247" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>502</v>
+      </c>
+      <c r="B248" t="s">
+        <v>502</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D248" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>500</v>
+      </c>
+      <c r="B249" t="s">
+        <v>500</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D249">
+        <v>592662</v>
       </c>
     </row>
   </sheetData>
@@ -5650,8 +5690,10 @@
     <hyperlink ref="C245" r:id="rId247" xr:uid="{1743BC82-9600-4519-9B4F-9CD7EFD81FF1}"/>
     <hyperlink ref="C246" r:id="rId248" xr:uid="{EE28F3C4-52BE-44BE-9325-4786DD6AB506}"/>
     <hyperlink ref="C247" r:id="rId249" xr:uid="{F0E6E7B5-1C14-476D-9A89-29BFCE96A9D7}"/>
+    <hyperlink ref="C249" r:id="rId250" xr:uid="{38155FF3-C389-470F-BA87-10126AA09D77}"/>
+    <hyperlink ref="C248" r:id="rId251" xr:uid="{F252B92C-DC16-4B40-A105-556309A9543A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId250"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId252"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EAFB5A-953D-4D1F-A6FE-DC84FEF26478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714B30CE-46E4-4C1F-BA0F-0AF0B9E1EF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="15684" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="506">
   <si>
     <t>Name</t>
   </si>
@@ -1551,6 +1551,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/694646/spots/120</t>
+  </si>
+  <si>
+    <t>Allen Winans</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/642216/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1940,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D249"/>
+  <dimension ref="A1:D250"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="C249" sqref="C249"/>
+      <selection activeCell="D250" sqref="D250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5435,8 +5441,22 @@
       <c r="C249" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="D249">
-        <v>592662</v>
+      <c r="D249" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>504</v>
+      </c>
+      <c r="B250" t="s">
+        <v>504</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D250" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5692,8 +5712,9 @@
     <hyperlink ref="C247" r:id="rId249" xr:uid="{F0E6E7B5-1C14-476D-9A89-29BFCE96A9D7}"/>
     <hyperlink ref="C249" r:id="rId250" xr:uid="{38155FF3-C389-470F-BA87-10126AA09D77}"/>
     <hyperlink ref="C248" r:id="rId251" xr:uid="{F252B92C-DC16-4B40-A105-556309A9543A}"/>
+    <hyperlink ref="C250" r:id="rId252" xr:uid="{1C3BCD92-F988-49D2-B8EE-4A69CC30D4DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId252"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId253"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714B30CE-46E4-4C1F-BA0F-0AF0B9E1EF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2970499-FD6C-4920-9718-515E8E96B3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15684" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -1553,10 +1553,10 @@
     <t>https://midfield.mlbstatic.com/v1/people/694646/spots/120</t>
   </si>
   <si>
-    <t>Allen Winans</t>
-  </si>
-  <si>
     <t>https://midfield.mlbstatic.com/v1/people/642216/spots/120</t>
+  </si>
+  <si>
+    <t>Allan Winans</t>
   </si>
 </sst>
 </file>
@@ -1948,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="D250" sqref="D250"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5447,13 +5447,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
+        <v>505</v>
+      </c>
+      <c r="B250" t="s">
+        <v>505</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="B250" t="s">
-        <v>504</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="D250" t="s">
         <v>164</v>

--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2970499-FD6C-4920-9718-515E8E96B3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BA1952-D799-488B-9A46-FE2B1487730B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15684" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="508">
   <si>
     <t>Name</t>
   </si>
@@ -1557,6 +1557,12 @@
   </si>
   <si>
     <t>Allan Winans</t>
+  </si>
+  <si>
+    <t>Kenny Rosenberg</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/670046/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1946,10 +1952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D250"/>
+  <dimension ref="A1:D251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="A251" sqref="A251"/>
+      <selection activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5457,6 +5463,20 @@
       </c>
       <c r="D250" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>506</v>
+      </c>
+      <c r="B251" t="s">
+        <v>506</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D251" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5713,8 +5733,9 @@
     <hyperlink ref="C249" r:id="rId250" xr:uid="{38155FF3-C389-470F-BA87-10126AA09D77}"/>
     <hyperlink ref="C248" r:id="rId251" xr:uid="{F252B92C-DC16-4B40-A105-556309A9543A}"/>
     <hyperlink ref="C250" r:id="rId252" xr:uid="{1C3BCD92-F988-49D2-B8EE-4A69CC30D4DB}"/>
+    <hyperlink ref="C251" r:id="rId253" xr:uid="{DDC84E62-B03E-4D21-A421-DF6C2A56BFBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId253"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId254"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BA1952-D799-488B-9A46-FE2B1487730B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640DCCB5-ECAE-4E6C-ACEA-AB91107BAA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="512">
   <si>
     <t>Name</t>
   </si>
@@ -1563,6 +1563,18 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/670046/spots/120</t>
+  </si>
+  <si>
+    <t>Kolby Allard</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/663465/spots/120</t>
+  </si>
+  <si>
+    <t>Joey Cantillo</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/676282/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1952,10 +1964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:D253"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="D252" sqref="D252"/>
+      <selection activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5476,6 +5488,34 @@
         <v>507</v>
       </c>
       <c r="D251" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>508</v>
+      </c>
+      <c r="B252" t="s">
+        <v>508</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D252" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>510</v>
+      </c>
+      <c r="B253" t="s">
+        <v>510</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D253" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5734,8 +5774,10 @@
     <hyperlink ref="C248" r:id="rId251" xr:uid="{F252B92C-DC16-4B40-A105-556309A9543A}"/>
     <hyperlink ref="C250" r:id="rId252" xr:uid="{1C3BCD92-F988-49D2-B8EE-4A69CC30D4DB}"/>
     <hyperlink ref="C251" r:id="rId253" xr:uid="{DDC84E62-B03E-4D21-A421-DF6C2A56BFBE}"/>
+    <hyperlink ref="C252" r:id="rId254" xr:uid="{31950E17-1D24-4646-BC8C-02FC7FA9FB84}"/>
+    <hyperlink ref="C253" r:id="rId255" xr:uid="{443D6E6B-8664-4842-A466-97A6B65D4324}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId254"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId256"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640DCCB5-ECAE-4E6C-ACEA-AB91107BAA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33309EB-83F0-4049-9B6E-153205969B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="514">
   <si>
     <t>Name</t>
   </si>
@@ -1575,6 +1575,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/676282/spots/120</t>
+  </si>
+  <si>
+    <t>Grant Holmes</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/656550/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1964,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D253"/>
+  <dimension ref="A1:D254"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="D254" sqref="D254"/>
+      <selection activeCell="C255" sqref="C255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5517,6 +5523,20 @@
       </c>
       <c r="D253" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>512</v>
+      </c>
+      <c r="B254" t="s">
+        <v>512</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D254" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5776,8 +5796,9 @@
     <hyperlink ref="C251" r:id="rId253" xr:uid="{DDC84E62-B03E-4D21-A421-DF6C2A56BFBE}"/>
     <hyperlink ref="C252" r:id="rId254" xr:uid="{31950E17-1D24-4646-BC8C-02FC7FA9FB84}"/>
     <hyperlink ref="C253" r:id="rId255" xr:uid="{443D6E6B-8664-4842-A466-97A6B65D4324}"/>
+    <hyperlink ref="C254" r:id="rId256" xr:uid="{78CAF157-7D63-4B6C-B1DF-9A525C2E0A15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId256"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId257"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27920"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33309EB-83F0-4049-9B6E-153205969B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF5A383-24C1-42D4-93DF-09009F526490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="1836" yWindow="3024" windowWidth="17280" windowHeight="8880" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="520">
   <si>
     <t>Name</t>
   </si>
@@ -1581,6 +1581,24 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/656550/spots/120</t>
+  </si>
+  <si>
+    <t>Jeffrey Springs</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/605488/spots/120</t>
+  </si>
+  <si>
+    <t>Will Warren</t>
+  </si>
+  <si>
+    <t>Lyon Richardson</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/701542/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/680689/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1970,10 +1988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D254"/>
+  <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="C255" sqref="C255"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="B257" sqref="B257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5536,6 +5554,48 @@
         <v>513</v>
       </c>
       <c r="D254" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>514</v>
+      </c>
+      <c r="B255" t="s">
+        <v>514</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D255" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>516</v>
+      </c>
+      <c r="B256" t="s">
+        <v>516</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D256" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>517</v>
+      </c>
+      <c r="B257" t="s">
+        <v>517</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D257" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5797,8 +5857,11 @@
     <hyperlink ref="C252" r:id="rId254" xr:uid="{31950E17-1D24-4646-BC8C-02FC7FA9FB84}"/>
     <hyperlink ref="C253" r:id="rId255" xr:uid="{443D6E6B-8664-4842-A466-97A6B65D4324}"/>
     <hyperlink ref="C254" r:id="rId256" xr:uid="{78CAF157-7D63-4B6C-B1DF-9A525C2E0A15}"/>
+    <hyperlink ref="C255" r:id="rId257" xr:uid="{3B63F0D3-856B-4A30-8787-3B63743AB327}"/>
+    <hyperlink ref="C256" r:id="rId258" xr:uid="{594FEABE-FD5E-4217-A563-4A66D78D95C3}"/>
+    <hyperlink ref="C257" r:id="rId259" xr:uid="{F900DDFE-DBD7-4F11-A705-56E2B860D510}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId257"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId260"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF5A383-24C1-42D4-93DF-09009F526490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0853499C-2D47-4EF0-A1EC-6FD6415ACEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1836" yWindow="3024" windowWidth="17280" windowHeight="8880" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="522">
   <si>
     <t>Name</t>
   </si>
@@ -1599,6 +1599,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/680689/spots/120</t>
+  </si>
+  <si>
+    <t>Joey Wentz</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/666214/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1988,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D257"/>
+  <dimension ref="A1:D258"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="B257" sqref="B257"/>
+      <selection activeCell="C259" sqref="C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5597,6 +5603,20 @@
       </c>
       <c r="D257" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>520</v>
+      </c>
+      <c r="B258" t="s">
+        <v>520</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D258" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5860,8 +5880,9 @@
     <hyperlink ref="C255" r:id="rId257" xr:uid="{3B63F0D3-856B-4A30-8787-3B63743AB327}"/>
     <hyperlink ref="C256" r:id="rId258" xr:uid="{594FEABE-FD5E-4217-A563-4A66D78D95C3}"/>
     <hyperlink ref="C257" r:id="rId259" xr:uid="{F900DDFE-DBD7-4F11-A705-56E2B860D510}"/>
+    <hyperlink ref="C258" r:id="rId260" xr:uid="{D0C39FB3-3224-4C83-8762-9D6D731D2136}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId260"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId261"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0853499C-2D47-4EF0-A1EC-6FD6415ACEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D63618B-0D05-4293-9D7D-2B41C2166A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="525">
   <si>
     <t>Name</t>
   </si>
@@ -305,9 +305,6 @@
     <t>https://midfield.mlbstatic.com/v1/people/663559/spots/120</t>
   </si>
   <si>
-    <t>Ryne Feltner</t>
-  </si>
-  <si>
     <t>https://midfield.mlbstatic.com/v1/people/663372/spots/120</t>
   </si>
   <si>
@@ -1605,6 +1602,18 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/666214/spots/120</t>
+  </si>
+  <si>
+    <t>Paolo Espino</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/502179/spots/120</t>
+  </si>
+  <si>
+    <t>Michael McGreevy</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/700241/spots/120</t>
   </si>
 </sst>
 </file>
@@ -1994,10 +2003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D258"/>
+  <dimension ref="A1:D259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="C259" sqref="C259"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A100" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2012,41 +2021,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2060,7 +2069,7 @@
         <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2074,63 +2083,63 @@
         <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2144,49 +2153,49 @@
         <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2197,38 +2206,38 @@
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2242,7 +2251,7 @@
         <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2256,259 +2265,259 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>312</v>
+      </c>
+      <c r="B19" t="s">
+        <v>312</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B19" t="s">
-        <v>313</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>429</v>
+      </c>
+      <c r="B23" t="s">
+        <v>429</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B23" t="s">
-        <v>430</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="D23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25" t="s">
+        <v>285</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B25" t="s">
-        <v>286</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B26" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B26" t="s">
-        <v>249</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="D26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>260</v>
+      </c>
+      <c r="B28" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B28" t="s">
-        <v>261</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>250</v>
+      </c>
+      <c r="B31" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B31" t="s">
-        <v>251</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="D31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B32" t="s">
-        <v>270</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="D32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>388</v>
+      </c>
+      <c r="B33" t="s">
+        <v>388</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B33" t="s">
-        <v>389</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="D35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2522,119 +2531,119 @@
         <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B39" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>422</v>
+      </c>
+      <c r="B41" t="s">
+        <v>422</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B41" t="s">
-        <v>423</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="D41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>226</v>
+      </c>
+      <c r="B42" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B42" t="s">
-        <v>227</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="D42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B43" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>228</v>
+      </c>
+      <c r="B44" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B44" t="s">
-        <v>229</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B45" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2648,7 +2657,7 @@
         <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2662,21 +2671,21 @@
         <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>288</v>
+      </c>
+      <c r="B48" t="s">
+        <v>288</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B48" t="s">
-        <v>289</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="D48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2690,21 +2699,21 @@
         <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>317</v>
+      </c>
+      <c r="B50" t="s">
+        <v>317</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B50" t="s">
-        <v>318</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="D50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2718,21 +2727,21 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>361</v>
+      </c>
+      <c r="B52" t="s">
+        <v>361</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B52" t="s">
-        <v>362</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="D52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2746,21 +2755,21 @@
         <v>53</v>
       </c>
       <c r="D53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2771,24 +2780,24 @@
         <v>30</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B56" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="D56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2799,52 +2808,52 @@
         <v>11</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B58" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>473</v>
+      </c>
+      <c r="B59" t="s">
+        <v>473</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B59" t="s">
-        <v>474</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>475</v>
-      </c>
       <c r="D59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2855,52 +2864,52 @@
         <v>12</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B62" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>347</v>
+      </c>
+      <c r="B63" t="s">
+        <v>347</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B63" t="s">
-        <v>348</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="D63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2911,122 +2920,122 @@
         <v>13</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B66" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>355</v>
+      </c>
+      <c r="B67" t="s">
+        <v>355</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B67" t="s">
-        <v>356</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B68" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B69" t="s">
-        <v>123</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="D69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B70" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B71" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B72" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>200</v>
+      </c>
+      <c r="B73" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B73" t="s">
-        <v>201</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="D73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3040,175 +3049,175 @@
         <v>43</v>
       </c>
       <c r="D74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B75" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>469</v>
+      </c>
+      <c r="B76" t="s">
+        <v>469</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B76" t="s">
-        <v>470</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77" t="s">
+        <v>230</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B77" t="s">
-        <v>231</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="D77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B78" t="s">
-        <v>178</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="D78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B79" t="s">
-        <v>116</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="D79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>111</v>
+      </c>
+      <c r="B80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B80" t="s">
-        <v>112</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="D80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B81" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>475</v>
+      </c>
+      <c r="B82" t="s">
+        <v>475</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B82" t="s">
-        <v>476</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>477</v>
-      </c>
       <c r="D82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>290</v>
+      </c>
+      <c r="B83" t="s">
+        <v>290</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B83" t="s">
-        <v>291</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="D83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B84" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B85" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>486</v>
+      </c>
+      <c r="B86" t="s">
+        <v>486</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B86" t="s">
-        <v>487</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="D86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -3222,7 +3231,7 @@
         <v>46</v>
       </c>
       <c r="D87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -3236,35 +3245,35 @@
         <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B89" t="s">
-        <v>92</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B90" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3278,35 +3287,35 @@
         <v>51</v>
       </c>
       <c r="D91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>382</v>
+      </c>
+      <c r="B92" t="s">
+        <v>382</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B92" t="s">
-        <v>383</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>384</v>
-      </c>
       <c r="D92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B93" t="s">
-        <v>102</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="D93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -3320,189 +3329,189 @@
         <v>55</v>
       </c>
       <c r="D94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B95" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B96" t="s">
-        <v>141</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="D96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>489</v>
+      </c>
+      <c r="B97" t="s">
+        <v>489</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B97" t="s">
-        <v>490</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="D97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>436</v>
+      </c>
+      <c r="B98" t="s">
+        <v>436</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B98" t="s">
-        <v>437</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="D98" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>279</v>
+      </c>
+      <c r="B99" t="s">
+        <v>279</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B99" t="s">
-        <v>280</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="D99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B100" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D100" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B101" t="s">
-        <v>133</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="D101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>292</v>
+      </c>
+      <c r="B102" t="s">
+        <v>292</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B102" t="s">
-        <v>293</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="D102" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>256</v>
+      </c>
+      <c r="B103" t="s">
+        <v>256</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B103" t="s">
-        <v>257</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="D103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B104" t="s">
-        <v>118</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B105" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>406</v>
+      </c>
+      <c r="B106" t="s">
+        <v>406</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B106" t="s">
-        <v>407</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="D106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>120</v>
+      </c>
+      <c r="B107" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B107" t="s">
-        <v>121</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3516,7 +3525,7 @@
         <v>47</v>
       </c>
       <c r="D108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -3530,63 +3539,63 @@
         <v>49</v>
       </c>
       <c r="D109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>109</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B110" t="s">
-        <v>110</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="D110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B111" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D111" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B112" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>408</v>
+      </c>
+      <c r="B113" t="s">
+        <v>408</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B113" t="s">
-        <v>409</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="D113" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -3600,7 +3609,7 @@
         <v>60</v>
       </c>
       <c r="D114" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -3611,24 +3620,24 @@
         <v>16</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B116" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D116" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3639,10 +3648,10 @@
         <v>31</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3656,105 +3665,105 @@
         <v>67</v>
       </c>
       <c r="D118" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B119" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D119" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B120" t="s">
+        <v>403</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="D120" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B121" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B122" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D122" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>477</v>
+      </c>
+      <c r="B123" t="s">
+        <v>477</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B123" t="s">
-        <v>478</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="D123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B124" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D124" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>148</v>
+      </c>
+      <c r="B125" t="s">
+        <v>148</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B125" t="s">
-        <v>149</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D125" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -3765,24 +3774,24 @@
         <v>17</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D126" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>481</v>
+      </c>
+      <c r="B127" t="s">
+        <v>481</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B127" t="s">
-        <v>482</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="D127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -3796,21 +3805,21 @@
         <v>79</v>
       </c>
       <c r="D128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B129" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -3821,24 +3830,24 @@
         <v>18</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D130" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>305</v>
+      </c>
+      <c r="B131" t="s">
+        <v>305</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B131" t="s">
-        <v>306</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="D131" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -3849,192 +3858,192 @@
         <v>28</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B133" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D133" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B134" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D134" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B135" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D135" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>197</v>
+      </c>
+      <c r="B136" t="s">
+        <v>197</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B136" t="s">
-        <v>198</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="D136" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>262</v>
+      </c>
+      <c r="B137" t="s">
+        <v>262</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B137" t="s">
-        <v>263</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="D137" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B138" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D138" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>232</v>
+      </c>
+      <c r="B139" t="s">
+        <v>232</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B139" t="s">
-        <v>233</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="D139" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>294</v>
+      </c>
+      <c r="B140" t="s">
+        <v>294</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B140" t="s">
-        <v>295</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="D140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>173</v>
+      </c>
+      <c r="B141" t="s">
+        <v>173</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B141" t="s">
-        <v>174</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="D141" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B142" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D142" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>134</v>
+      </c>
+      <c r="B143" t="s">
+        <v>134</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B143" t="s">
-        <v>135</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="D143" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B144" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D144" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145" t="s">
+        <v>150</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B145" t="s">
-        <v>151</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="D145" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -4045,80 +4054,80 @@
         <v>19</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D146" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B147" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D147" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>385</v>
+      </c>
+      <c r="B148" t="s">
+        <v>385</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B148" t="s">
-        <v>386</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="D148" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>95</v>
+      </c>
+      <c r="B149" t="s">
+        <v>95</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B149" t="s">
-        <v>96</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D149" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>89</v>
+      </c>
+      <c r="B150" t="s">
+        <v>89</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B150" t="s">
-        <v>90</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D150" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B151" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D151" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -4132,161 +4141,161 @@
         <v>73</v>
       </c>
       <c r="D152" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B153" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D153" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>138</v>
+      </c>
+      <c r="B154" t="s">
+        <v>138</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B154" t="s">
-        <v>139</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="D154" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
+        <v>283</v>
+      </c>
+      <c r="B155" t="s">
+        <v>283</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B155" t="s">
-        <v>284</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="D155" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>126</v>
+      </c>
+      <c r="B156" t="s">
+        <v>126</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B156" t="s">
-        <v>127</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D156" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>113</v>
+      </c>
+      <c r="B157" t="s">
+        <v>113</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B157" t="s">
-        <v>114</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="D157" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>130</v>
+      </c>
+      <c r="B158" t="s">
+        <v>130</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B158" t="s">
-        <v>131</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="D158" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B159" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D159" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>234</v>
+      </c>
+      <c r="B160" t="s">
+        <v>234</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B160" t="s">
-        <v>235</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="D160" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
+        <v>296</v>
+      </c>
+      <c r="B161" t="s">
+        <v>296</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B161" t="s">
-        <v>297</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="D161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>471</v>
+      </c>
+      <c r="B162" t="s">
+        <v>471</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B162" t="s">
-        <v>472</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>473</v>
-      </c>
       <c r="D162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>183</v>
+      </c>
+      <c r="B163" t="s">
+        <v>183</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B163" t="s">
-        <v>184</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="D163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -4300,21 +4309,21 @@
         <v>80</v>
       </c>
       <c r="D164" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
+        <v>307</v>
+      </c>
+      <c r="B165" t="s">
+        <v>307</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B165" t="s">
-        <v>308</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="D165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -4325,150 +4334,150 @@
         <v>20</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D166" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B167" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D167" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>303</v>
+      </c>
+      <c r="B168" t="s">
+        <v>303</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B168" t="s">
-        <v>304</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="D168" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B169" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D169" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B170" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D170" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B171" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D171" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>124</v>
+      </c>
+      <c r="B172" t="s">
+        <v>124</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B172" t="s">
-        <v>125</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="D172" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B173" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D173" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B174" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D174" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
+        <v>298</v>
+      </c>
+      <c r="B175" t="s">
+        <v>298</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B175" t="s">
-        <v>299</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="D175" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B176" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D176" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -4482,7 +4491,7 @@
         <v>65</v>
       </c>
       <c r="D177" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -4496,35 +4505,35 @@
         <v>45</v>
       </c>
       <c r="D178" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
+        <v>236</v>
+      </c>
+      <c r="B179" t="s">
+        <v>236</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B179" t="s">
-        <v>237</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="D179" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
+        <v>281</v>
+      </c>
+      <c r="B180" t="s">
+        <v>281</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B180" t="s">
-        <v>282</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="D180" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -4538,49 +4547,49 @@
         <v>40</v>
       </c>
       <c r="D181" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>191</v>
+      </c>
+      <c r="B182" t="s">
+        <v>468</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B182" t="s">
-        <v>469</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="D182" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
+        <v>238</v>
+      </c>
+      <c r="B183" t="s">
+        <v>432</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B183" t="s">
-        <v>433</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="D183" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>314</v>
+      </c>
+      <c r="B184" t="s">
+        <v>314</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B184" t="s">
-        <v>315</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="D184" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -4594,63 +4603,63 @@
         <v>71</v>
       </c>
       <c r="D185" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B186" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D186" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187" t="s">
+        <v>189</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B187" t="s">
-        <v>190</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="D187" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B188" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D188" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
+        <v>258</v>
+      </c>
+      <c r="B189" t="s">
+        <v>258</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B189" t="s">
-        <v>259</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="D189" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -4658,27 +4667,27 @@
         <v>35</v>
       </c>
       <c r="B190" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D190" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B191" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D191" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -4692,805 +4701,805 @@
         <v>41</v>
       </c>
       <c r="D192" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B193" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D193" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
+        <v>97</v>
+      </c>
+      <c r="B194" t="s">
+        <v>97</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B194" t="s">
-        <v>98</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="D194" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B195" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D195" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
+        <v>411</v>
+      </c>
+      <c r="B196" t="s">
+        <v>411</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B196" t="s">
-        <v>412</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="D196" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B197" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="D197" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>129</v>
+        <v>449</v>
       </c>
       <c r="B198" t="s">
-        <v>129</v>
+        <v>449</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="D198" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>450</v>
+        <v>158</v>
       </c>
       <c r="B199" t="s">
-        <v>450</v>
+        <v>158</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>451</v>
+        <v>161</v>
       </c>
       <c r="D199" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="B200" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="D200" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>23</v>
+        <v>491</v>
       </c>
       <c r="B201" t="s">
-        <v>23</v>
+        <v>491</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>36</v>
+        <v>492</v>
       </c>
       <c r="D201" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="B202" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="D202" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>439</v>
+        <v>33</v>
       </c>
       <c r="B203" t="s">
-        <v>439</v>
+        <v>33</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>440</v>
+        <v>193</v>
       </c>
       <c r="D203" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="B204" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="D204" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c r="B205" t="s">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="D205" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>326</v>
+        <v>214</v>
       </c>
       <c r="B206" t="s">
-        <v>326</v>
+        <v>214</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="D206" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B207" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D207" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="B208" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="D208" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>302</v>
+        <v>419</v>
       </c>
       <c r="B209" t="s">
-        <v>302</v>
+        <v>419</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>303</v>
+        <v>421</v>
       </c>
       <c r="D209" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>420</v>
+        <v>364</v>
       </c>
       <c r="B210" t="s">
-        <v>420</v>
+        <v>364</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>422</v>
+        <v>366</v>
       </c>
       <c r="D210" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B211" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="D211" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>352</v>
+        <v>453</v>
       </c>
       <c r="B212" t="s">
-        <v>352</v>
+        <v>453</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>355</v>
+        <v>460</v>
       </c>
       <c r="D212" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>454</v>
+        <v>136</v>
       </c>
       <c r="B213" t="s">
-        <v>454</v>
+        <v>136</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>461</v>
+        <v>137</v>
       </c>
       <c r="D213" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="B214" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="D214" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="B215" t="s">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="D215" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>75</v>
+        <v>479</v>
       </c>
       <c r="B216" t="s">
-        <v>75</v>
+        <v>479</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>76</v>
+        <v>480</v>
       </c>
       <c r="D216" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="B217" t="s">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>481</v>
+        <v>241</v>
       </c>
       <c r="D217" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="B218" t="s">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="D218" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="B219" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="D219" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>214</v>
+        <v>414</v>
       </c>
       <c r="B220" t="s">
-        <v>214</v>
+        <v>414</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>223</v>
+        <v>415</v>
       </c>
       <c r="D220" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>415</v>
+        <v>242</v>
       </c>
       <c r="B221" t="s">
-        <v>415</v>
+        <v>242</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>416</v>
+        <v>243</v>
       </c>
       <c r="D221" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="B222" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="D222" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B223" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D223" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>25</v>
+        <v>267</v>
       </c>
       <c r="B224" t="s">
-        <v>25</v>
+        <v>267</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="D224" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
+        <v>267</v>
+      </c>
+      <c r="B225" t="s">
+        <v>267</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B225" t="s">
-        <v>268</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="D225" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B226" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D226" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="B227" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>267</v>
+        <v>144</v>
       </c>
       <c r="D227" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="B228" t="s">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="D228" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>245</v>
+        <v>418</v>
       </c>
       <c r="B229" t="s">
-        <v>245</v>
+        <v>418</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>246</v>
+        <v>363</v>
       </c>
       <c r="D229" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="B230" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>364</v>
+        <v>456</v>
       </c>
       <c r="D230" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>455</v>
+        <v>166</v>
       </c>
       <c r="B231" t="s">
-        <v>455</v>
+        <v>166</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>457</v>
+        <v>167</v>
       </c>
       <c r="D231" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>167</v>
+        <v>340</v>
       </c>
       <c r="B232" t="s">
-        <v>167</v>
+        <v>340</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>168</v>
+        <v>345</v>
       </c>
       <c r="D232" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>341</v>
+        <v>433</v>
       </c>
       <c r="B233" t="s">
-        <v>341</v>
+        <v>435</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>346</v>
+        <v>434</v>
       </c>
       <c r="D233" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="B234" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="D234" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>484</v>
+        <v>426</v>
       </c>
       <c r="B235" t="s">
-        <v>484</v>
+        <v>426</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>485</v>
+        <v>427</v>
       </c>
       <c r="D235" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>427</v>
+        <v>34</v>
       </c>
       <c r="B236" t="s">
-        <v>427</v>
+        <v>34</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>428</v>
+        <v>202</v>
       </c>
       <c r="D236" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="B237" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="D237" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>147</v>
+        <v>326</v>
       </c>
       <c r="B238" t="s">
-        <v>147</v>
+        <v>326</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="D238" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>327</v>
+        <v>175</v>
       </c>
       <c r="B239" t="s">
-        <v>327</v>
+        <v>175</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="D239" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B240" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D240" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>26</v>
+        <v>424</v>
       </c>
       <c r="B241" t="s">
-        <v>26</v>
+        <v>424</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>186</v>
+        <v>425</v>
       </c>
       <c r="D241" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>425</v>
+        <v>272</v>
       </c>
       <c r="B242" t="s">
-        <v>425</v>
+        <v>272</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>426</v>
+        <v>276</v>
       </c>
       <c r="D242" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="B243" t="s">
-        <v>273</v>
+        <v>27</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>277</v>
+        <v>44</v>
       </c>
       <c r="D243" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>27</v>
+        <v>493</v>
       </c>
       <c r="B244" t="s">
-        <v>27</v>
+        <v>493</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>44</v>
+        <v>494</v>
       </c>
       <c r="D244" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B245" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D245" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B246" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>497</v>
       </c>
       <c r="D246" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B247" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D247" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B248" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D248" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B249" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D249" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -5501,80 +5510,80 @@
         <v>505</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D250" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B251" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D251" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B252" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D252" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B253" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D253" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B254" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D254" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B255" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D255" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -5588,40 +5597,54 @@
         <v>518</v>
       </c>
       <c r="D256" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B257" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D257" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B258" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D258" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>523</v>
+      </c>
+      <c r="B259" t="s">
+        <v>523</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D259" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C201" r:id="rId1" xr:uid="{C45472D7-1E29-4980-95E0-15D6D01B36FA}"/>
+    <hyperlink ref="C200" r:id="rId1" xr:uid="{C45472D7-1E29-4980-95E0-15D6D01B36FA}"/>
     <hyperlink ref="C14" r:id="rId2" xr:uid="{1EA6B6DE-C528-4BBF-8958-B9D1378CBBEA}"/>
     <hyperlink ref="C18" r:id="rId3" xr:uid="{4F9BBF32-0E85-44F1-BAE2-FDFE1B91203C}"/>
     <hyperlink ref="C46" r:id="rId4" xr:uid="{1743C8BA-2A45-4EF9-8EAE-003FA5622677}"/>
@@ -5629,7 +5652,7 @@
     <hyperlink ref="C192" r:id="rId6" xr:uid="{8850343C-EAF0-4713-9C66-21BF05B290EC}"/>
     <hyperlink ref="C49" r:id="rId7" xr:uid="{CA8DDB4C-49CE-4AA5-B564-1108A8088B23}"/>
     <hyperlink ref="C74" r:id="rId8" xr:uid="{A96A63DD-6ED4-47E6-B759-BD9FCFC58B60}"/>
-    <hyperlink ref="C244" r:id="rId9" xr:uid="{55C307B9-C21E-4227-B6BA-602B4CDD2E63}"/>
+    <hyperlink ref="C243" r:id="rId9" xr:uid="{55C307B9-C21E-4227-B6BA-602B4CDD2E63}"/>
     <hyperlink ref="C178" r:id="rId10" xr:uid="{FBC71765-97DF-4951-8AED-C771FFA6C3B6}"/>
     <hyperlink ref="C87" r:id="rId11" xr:uid="{44C0BA97-BC98-4009-9EF5-8C29C471CC2B}"/>
     <hyperlink ref="C108" r:id="rId12" xr:uid="{83CC39A1-58DF-4F8E-80EF-7133BFDA09E5}"/>
@@ -5641,248 +5664,249 @@
     <hyperlink ref="C153" r:id="rId18" xr:uid="{ADEC84CE-4B4C-475A-B45C-A5A25ABA57F9}"/>
     <hyperlink ref="C114" r:id="rId19" xr:uid="{A903E050-8C42-4183-880A-565DF6E20245}"/>
     <hyperlink ref="C5" r:id="rId20" xr:uid="{E83EAE86-523E-449E-8625-E0FCBC6EDE67}"/>
-    <hyperlink ref="C239" r:id="rId21" xr:uid="{4F43B789-DA90-4D7B-B4C4-7719C98AFEF4}"/>
+    <hyperlink ref="C238" r:id="rId21" xr:uid="{4F43B789-DA90-4D7B-B4C4-7719C98AFEF4}"/>
     <hyperlink ref="C177" r:id="rId22" xr:uid="{1073D5D0-0D5E-4AB1-940D-24EDB5EF0E1D}"/>
     <hyperlink ref="C118" r:id="rId23" xr:uid="{30F225A0-9236-482B-8651-D6C10378128C}"/>
     <hyperlink ref="C4" r:id="rId24" xr:uid="{DE5B31BF-642F-4D65-BB0B-8BB02C0C599F}"/>
     <hyperlink ref="C185" r:id="rId25" xr:uid="{6478F936-7CCC-485F-8FAD-5E974D281F62}"/>
     <hyperlink ref="C152" r:id="rId26" xr:uid="{4FDE78C3-89C9-4179-86C1-21A106ED4B68}"/>
     <hyperlink ref="C119" r:id="rId27" xr:uid="{71FF812A-69FD-42EC-A428-9503EB1166BE}"/>
-    <hyperlink ref="C216" r:id="rId28" xr:uid="{6A269B70-A168-4F22-809C-69E3664B7B4F}"/>
+    <hyperlink ref="C215" r:id="rId28" xr:uid="{6A269B70-A168-4F22-809C-69E3664B7B4F}"/>
     <hyperlink ref="C128" r:id="rId29" xr:uid="{2AF8C5A2-0A6E-4AFA-BE5A-8756CD3E9A15}"/>
     <hyperlink ref="C164" r:id="rId30" xr:uid="{775807C5-A8E8-4E03-94A3-07FC338C7B2F}"/>
-    <hyperlink ref="C219" r:id="rId31" xr:uid="{4C620958-7BE1-4A72-AF05-2D2C30EFE637}"/>
+    <hyperlink ref="C218" r:id="rId31" xr:uid="{4C620958-7BE1-4A72-AF05-2D2C30EFE637}"/>
     <hyperlink ref="C171" r:id="rId32" xr:uid="{9C374395-032E-47D8-8E1D-F14135FEB884}"/>
     <hyperlink ref="C10" r:id="rId33" xr:uid="{7C24BFBA-D940-4280-9AA6-9EB5B2A7C325}"/>
     <hyperlink ref="C17" r:id="rId34" xr:uid="{935A4BCA-043C-42B5-9B58-F01D785A78E7}"/>
-    <hyperlink ref="C197" r:id="rId35" xr:uid="{AD23B2E5-01B6-4980-8B3E-2745128B55B6}"/>
-    <hyperlink ref="C150" r:id="rId36" xr:uid="{ADD15800-FFAF-4C56-96C3-B6E9A6B7A9B4}"/>
-    <hyperlink ref="C89" r:id="rId37" xr:uid="{FD14EBC0-A744-44D9-8D7E-8C400674FEED}"/>
-    <hyperlink ref="C38" r:id="rId38" xr:uid="{1C789BBB-C806-4AEC-87FD-4A30D09E0378}"/>
-    <hyperlink ref="C149" r:id="rId39" xr:uid="{39BDDF5C-5ED6-4DC6-8403-935839E42AE4}"/>
-    <hyperlink ref="C194" r:id="rId40" xr:uid="{16CEFA6F-1B35-42FD-8606-E6523BF824B9}"/>
-    <hyperlink ref="C62:C78" r:id="rId41" display="https://midfield.mlbstatic.com/v1/people/686752/spots/120" xr:uid="{1E5EFC44-7608-40AF-A777-AAC898C6A9CB}"/>
-    <hyperlink ref="C34" r:id="rId42" xr:uid="{17D051F0-8C68-4AF3-B256-1F5E71DD2455}"/>
-    <hyperlink ref="C93" r:id="rId43" xr:uid="{B4766B4E-7BF7-4C41-98C2-8E48C0CCFAC8}"/>
-    <hyperlink ref="C112" r:id="rId44" xr:uid="{49ACB698-CD82-44AA-8A65-26D2BBDB0788}"/>
-    <hyperlink ref="C64" r:id="rId45" xr:uid="{FBAE3FE6-1362-4C09-BAE7-1B131AB4C4B4}"/>
-    <hyperlink ref="C56" r:id="rId46" xr:uid="{2181E8B2-59C9-4709-AA9A-962EF37831F2}"/>
-    <hyperlink ref="C110" r:id="rId47" xr:uid="{17F5505C-32E7-4316-BF97-1E84202C4785}"/>
-    <hyperlink ref="C80" r:id="rId48" xr:uid="{880E4723-2052-4A3F-AA76-423C6810C994}"/>
-    <hyperlink ref="C157" r:id="rId49" xr:uid="{D33AE6C2-8688-4E9D-B293-9E99FBE0DEB4}"/>
-    <hyperlink ref="C79" r:id="rId50" xr:uid="{ECF4F8FF-BB1E-4B49-965D-64768DC4F1E2}"/>
-    <hyperlink ref="C104" r:id="rId51" xr:uid="{2511CD2C-B67C-4354-9629-DE649A920EDD}"/>
-    <hyperlink ref="C206" r:id="rId52" xr:uid="{AE0C1E2C-3D72-45CF-9965-CDB6C0591891}"/>
-    <hyperlink ref="C107" r:id="rId53" xr:uid="{0E258565-BD6E-428A-BCE6-5D446B3DA628}"/>
-    <hyperlink ref="C69" r:id="rId54" xr:uid="{46541DDA-A399-42E9-B388-CAC462670117}"/>
-    <hyperlink ref="C172" r:id="rId55" xr:uid="{E26B4D45-A378-40C0-ACBA-A3D7F3B56528}"/>
-    <hyperlink ref="C156" r:id="rId56" xr:uid="{845F84C0-232D-4D80-B9DD-7415056297C5}"/>
-    <hyperlink ref="C198" r:id="rId57" xr:uid="{89BF64D4-12AC-4144-8B32-FDDD10668077}"/>
-    <hyperlink ref="C158" r:id="rId58" xr:uid="{8742B9B5-62C4-423F-B53B-AE1C619A7CB3}"/>
-    <hyperlink ref="C101" r:id="rId59" xr:uid="{A93F2FF5-2AE8-404E-A935-39A2AA8E0351}"/>
-    <hyperlink ref="C143" r:id="rId60" xr:uid="{F60D4181-1F3A-4C64-97A2-8368BC1A6176}"/>
-    <hyperlink ref="C214" r:id="rId61" xr:uid="{ECDB48F3-3C25-4B15-A902-40A90B1D441F}"/>
-    <hyperlink ref="C154" r:id="rId62" xr:uid="{1BF5B84A-6403-496F-BE72-4F7CFE5CD46A}"/>
-    <hyperlink ref="C96" r:id="rId63" xr:uid="{D48CC097-21D9-4697-92AF-17FE888C3469}"/>
-    <hyperlink ref="C228" r:id="rId64" xr:uid="{BA111F30-72E9-4701-B810-D904333C5C12}"/>
-    <hyperlink ref="C167" r:id="rId65" xr:uid="{C971DFEC-7D7D-44F8-8D77-AF06DD0C3650}"/>
-    <hyperlink ref="C238" r:id="rId66" xr:uid="{FF747A90-D82C-417A-A604-11C8A9BB8A1B}"/>
-    <hyperlink ref="C125" r:id="rId67" xr:uid="{508F6AEF-0519-456E-95D4-CFBA12F1D839}"/>
-    <hyperlink ref="C145" r:id="rId68" xr:uid="{B67845F2-3B4F-45CB-AC96-C32761C20607}"/>
-    <hyperlink ref="C205" r:id="rId69" xr:uid="{B3EDDFE1-3BCD-4BF4-B469-F8CBF05D5228}"/>
-    <hyperlink ref="C35" r:id="rId70" xr:uid="{8E3867C0-9128-44B4-8D0A-62F663FD1C50}"/>
-    <hyperlink ref="C54" r:id="rId71" xr:uid="{7DF45689-E876-4814-B27F-BD82DF1893A8}"/>
-    <hyperlink ref="C200" r:id="rId72" xr:uid="{10233510-1E7F-47D8-9DC8-CECCEEAF2542}"/>
-    <hyperlink ref="C135" r:id="rId73" xr:uid="{C4B8637F-0EAC-421C-B98A-83396BEC74E6}"/>
-    <hyperlink ref="C11" r:id="rId74" xr:uid="{78FBD904-905A-4DF4-8336-339D9FD35EF9}"/>
-    <hyperlink ref="C232" r:id="rId75" xr:uid="{30FFC8B8-F48B-4956-82E5-5F5C1D42BFDA}"/>
-    <hyperlink ref="C190" r:id="rId76" xr:uid="{F297C688-6767-4A01-87CA-713F0DDF9C34}"/>
-    <hyperlink ref="C51" r:id="rId77" xr:uid="{DE8C1BDA-4F06-4739-8272-9C1526634215}"/>
-    <hyperlink ref="C224" r:id="rId78" xr:uid="{0B5DD545-15F8-4AED-86A6-780BA78A0233}"/>
-    <hyperlink ref="C130" r:id="rId79" xr:uid="{1EAB83F2-BCC3-4788-AB88-9206EE59BEFD}"/>
-    <hyperlink ref="C141" r:id="rId80" xr:uid="{B9CEB789-AD16-4793-B005-DBCE618DBE94}"/>
-    <hyperlink ref="C240" r:id="rId81" xr:uid="{BE0D192A-BC2F-4B35-99E0-370F38CA9C0B}"/>
-    <hyperlink ref="C78" r:id="rId82" xr:uid="{3F8FC17C-F146-4E12-BBB9-18B45BB5B3EC}"/>
-    <hyperlink ref="C116" r:id="rId83" xr:uid="{C3C3E0D1-E6BE-417A-AC79-EEB8F79FBE7C}"/>
-    <hyperlink ref="C60" r:id="rId84" xr:uid="{646B995D-2022-47E8-9C46-F74E16A3A629}"/>
-    <hyperlink ref="C57" r:id="rId85" xr:uid="{1F133298-7E48-4138-8126-F74D2CBDB050}"/>
-    <hyperlink ref="C223" r:id="rId86" xr:uid="{79CA2660-030A-4E38-B36D-D5A391C24AF6}"/>
-    <hyperlink ref="C163" r:id="rId87" xr:uid="{301BF770-273A-484E-AF66-F32DA8458844}"/>
-    <hyperlink ref="C241" r:id="rId88" xr:uid="{A72F7411-3596-45A9-BD47-96AE1238FE57}"/>
-    <hyperlink ref="C126" r:id="rId89" xr:uid="{9335E23F-5F7C-4364-8ABA-564F1B156EB5}"/>
-    <hyperlink ref="C146" r:id="rId90" xr:uid="{C528D45E-5270-4308-A5F4-DDDD4C29A97D}"/>
-    <hyperlink ref="C132" r:id="rId91" xr:uid="{E5C83DAC-00EF-49EE-9811-99C544403146}"/>
-    <hyperlink ref="C187" r:id="rId92" xr:uid="{F5146A50-BA2B-4466-A3AC-A9E6870FA443}"/>
-    <hyperlink ref="C182" r:id="rId93" xr:uid="{880D6AB9-DCD2-4819-B973-72461A04C7C8}"/>
-    <hyperlink ref="C204" r:id="rId94" xr:uid="{11544622-27D7-41FE-BA8C-7A64E8838D48}"/>
-    <hyperlink ref="C55" r:id="rId95" xr:uid="{BC65DFE4-1308-4C08-8CE7-8941756F790F}"/>
-    <hyperlink ref="C117" r:id="rId96" xr:uid="{8322B7F1-705E-4313-8FF2-F90CCF591E35}"/>
-    <hyperlink ref="C166" r:id="rId97" xr:uid="{EBB28F68-D663-44AA-86BD-53B20904935E}"/>
-    <hyperlink ref="C136" r:id="rId98" xr:uid="{6A80E6A8-DBFE-4A55-A512-7374F8FBE4FD}"/>
-    <hyperlink ref="C61" r:id="rId99" xr:uid="{CE6A856C-5BA0-46B8-BDBB-70D03B1E5FA6}"/>
-    <hyperlink ref="C73" r:id="rId100" xr:uid="{B219EA6C-AFC6-4A8E-A965-70B93C5367C4}"/>
-    <hyperlink ref="C237" r:id="rId101" xr:uid="{108B5805-5369-47C0-A3A2-CA30D2F91CFB}"/>
-    <hyperlink ref="C121" r:id="rId102" xr:uid="{7AD71135-DE45-46BB-A218-39306ABA3702}"/>
-    <hyperlink ref="C107:C115" r:id="rId103" display="https://midfield.mlbstatic.com/v1/people/570632/spots/120" xr:uid="{B6AEF0A1-DAD3-493D-AD72-9992AF4AC36A}"/>
-    <hyperlink ref="C207" r:id="rId104" xr:uid="{4FC1EEA6-0897-4ECD-9CE7-1A38B7A04DF4}"/>
-    <hyperlink ref="C176" r:id="rId105" xr:uid="{1C2C51A3-E75B-4CC0-A087-8366DF24A3F2}"/>
-    <hyperlink ref="C191" r:id="rId106" xr:uid="{BB7DF76E-86EB-4858-AEA6-0696B62895BC}"/>
-    <hyperlink ref="C20" r:id="rId107" xr:uid="{01DE55D4-78E8-461B-A8B9-B03E6D65C918}"/>
-    <hyperlink ref="C75" r:id="rId108" xr:uid="{FCD4C620-BB71-4CC3-A123-50EFE98B5FE2}"/>
-    <hyperlink ref="C186" r:id="rId109" xr:uid="{29ED6610-0117-47A3-9540-69CB5AC80B92}"/>
-    <hyperlink ref="C208" r:id="rId110" xr:uid="{9E30FD12-A196-40BE-A210-0C73986E5064}"/>
-    <hyperlink ref="C220" r:id="rId111" xr:uid="{B8175F43-D70E-459F-98CF-15ECFA717548}"/>
-    <hyperlink ref="C142" r:id="rId112" xr:uid="{A1F217DD-45E3-4ABD-A801-5D9F166E4EE3}"/>
-    <hyperlink ref="C16" r:id="rId113" xr:uid="{C6E8A0D7-8E63-4EC1-8C28-4570F13EECF8}"/>
-    <hyperlink ref="C42" r:id="rId114" xr:uid="{061EEF2C-85CF-400C-B70C-3AC1B107F1EC}"/>
-    <hyperlink ref="C44" r:id="rId115" xr:uid="{07D08D3B-A3C3-4916-9FE0-2CF26ECA4304}"/>
-    <hyperlink ref="C77" r:id="rId116" xr:uid="{91E7913A-86EE-40F5-9798-4A7B25F420CA}"/>
-    <hyperlink ref="C139" r:id="rId117" xr:uid="{0A5A0FD7-8B57-41D3-A410-CA8F6779F8C0}"/>
-    <hyperlink ref="C160" r:id="rId118" xr:uid="{9979CA0C-3483-428F-A7AC-8624936FB8FA}"/>
-    <hyperlink ref="C179" r:id="rId119" xr:uid="{482918C2-89BA-496F-8160-085C2940475B}"/>
-    <hyperlink ref="C183" r:id="rId120" xr:uid="{674942CB-83E4-4508-A135-1EB5B6D6E0BF}"/>
-    <hyperlink ref="C218" r:id="rId121" xr:uid="{1F6209AE-91BF-41D4-B9AD-7DEABA16621B}"/>
-    <hyperlink ref="C222" r:id="rId122" xr:uid="{F0E5D36A-2456-4111-9B29-31D8CBD1A12D}"/>
-    <hyperlink ref="C229" r:id="rId123" xr:uid="{789C651E-21E8-4E0D-8017-9BF6770B7FE4}"/>
-    <hyperlink ref="C215" r:id="rId124" xr:uid="{E96CD394-E5F8-46F9-9A93-3EA98A4EE8DE}"/>
-    <hyperlink ref="C26" r:id="rId125" xr:uid="{170B8200-FCC5-4ED1-8A6A-63B3F60FC427}"/>
-    <hyperlink ref="C31" r:id="rId126" xr:uid="{1165D173-E61C-477D-81EA-53C274E42084}"/>
-    <hyperlink ref="C13" r:id="rId127" xr:uid="{D71E6989-E12D-4FB6-8277-45C3718AA5C4}"/>
-    <hyperlink ref="C9" r:id="rId128" xr:uid="{FB4F273B-2196-4018-85BA-D42A207F8910}"/>
-    <hyperlink ref="C103" r:id="rId129" xr:uid="{9F233235-B9B1-4E7A-807E-8F2EE493E173}"/>
-    <hyperlink ref="C189" r:id="rId130" xr:uid="{F5D1A66D-4324-4468-A7A0-AD3D00B16AE7}"/>
-    <hyperlink ref="C28" r:id="rId131" xr:uid="{1759929B-600A-4949-96E1-F424E054D97A}"/>
-    <hyperlink ref="C137" r:id="rId132" xr:uid="{8B19E95A-E327-406E-9F25-861358533D76}"/>
-    <hyperlink ref="C27" r:id="rId133" xr:uid="{1DD3FDF5-6556-4823-8827-A75B5E83FD01}"/>
-    <hyperlink ref="C227" r:id="rId134" xr:uid="{B62475DC-179F-4CE0-8CF6-51DC972D40B7}"/>
-    <hyperlink ref="C225" r:id="rId135" xr:uid="{492088BD-9B89-42AA-A6AF-1F83749BDC72}"/>
-    <hyperlink ref="C32" r:id="rId136" xr:uid="{6118D192-2DB6-4311-A382-3371906C183D}"/>
-    <hyperlink ref="C140:C143" r:id="rId137" display="https://midfield.mlbstatic.com/v1/people/693821/spots/120" xr:uid="{0E83A794-B683-4463-A3A3-95576AFDD615}"/>
-    <hyperlink ref="C58" r:id="rId138" xr:uid="{98EC2002-988D-46D0-AD8B-CB1135815ADD}"/>
-    <hyperlink ref="C243" r:id="rId139" xr:uid="{80C5B6A6-E3F5-4F34-8C17-B202CF8842F5}"/>
-    <hyperlink ref="C173" r:id="rId140" xr:uid="{35842AC4-F920-4A32-B105-587FE352F876}"/>
-    <hyperlink ref="C111" r:id="rId141" xr:uid="{24E2A301-E80D-4F02-A94B-CFE6DF3719D1}"/>
-    <hyperlink ref="C99" r:id="rId142" xr:uid="{6D687EFE-5BD7-4FEF-B636-1A728E3CB6DF}"/>
-    <hyperlink ref="C180" r:id="rId143" xr:uid="{20E003D8-D5C4-4113-AFC3-D076CE9FE0A0}"/>
-    <hyperlink ref="C155" r:id="rId144" xr:uid="{3D5F262E-120A-4E2A-AF3A-1C4C1117AE44}"/>
-    <hyperlink ref="C25" r:id="rId145" xr:uid="{5ED77DE1-166F-4541-898A-786E114DAEF4}"/>
-    <hyperlink ref="C39" r:id="rId146" xr:uid="{81DC0D20-42F6-4D3C-87D3-B645CB35712A}"/>
-    <hyperlink ref="C48" r:id="rId147" xr:uid="{E396E594-A4D8-4E20-9A24-90B7589370B5}"/>
-    <hyperlink ref="C83" r:id="rId148" xr:uid="{823E8EED-4901-4993-A8EA-2CA91EBD8526}"/>
-    <hyperlink ref="C102" r:id="rId149" xr:uid="{923E21E9-8410-4112-9000-9E93896189E6}"/>
-    <hyperlink ref="C140" r:id="rId150" xr:uid="{C526E886-242E-4E87-ACB6-1E69A02EEBD3}"/>
-    <hyperlink ref="C161" r:id="rId151" xr:uid="{BFEEE380-0C63-474F-821D-61F8EF908A46}"/>
-    <hyperlink ref="C175" r:id="rId152" xr:uid="{2250FC95-0A39-4EE2-BCB2-FFF1EF3E4964}"/>
-    <hyperlink ref="C124" r:id="rId153" xr:uid="{174AA7F5-75DB-42B1-ACFF-646023A4BD2A}"/>
-    <hyperlink ref="C209" r:id="rId154" xr:uid="{30D34D43-AD29-4DE6-93CC-FD7C2F05FE00}"/>
-    <hyperlink ref="C168" r:id="rId155" xr:uid="{AD2496AE-C6CA-4D48-BE1B-E0D40292B961}"/>
-    <hyperlink ref="C131" r:id="rId156" xr:uid="{8EA8AFE5-38A5-4C45-95E6-52202880E214}"/>
-    <hyperlink ref="C165" r:id="rId157" xr:uid="{933DFE08-9AFA-4E05-81A6-D7AD9B2936B4}"/>
-    <hyperlink ref="C193" r:id="rId158" xr:uid="{5CB1E923-0C0B-46C3-9A06-C5BF1664BB99}"/>
-    <hyperlink ref="C7" r:id="rId159" xr:uid="{F0633C7D-B030-42F8-867D-487A4D0622C9}"/>
-    <hyperlink ref="C19" r:id="rId160" xr:uid="{F7C050ED-4E17-4083-9409-29763900B9F8}"/>
-    <hyperlink ref="C88" r:id="rId161" xr:uid="{96DF98C5-93EB-4B46-A8DE-540F97FB9D2D}"/>
-    <hyperlink ref="C184" r:id="rId162" xr:uid="{DC3780E6-8DBB-43AF-868F-038344C91A4E}"/>
-    <hyperlink ref="C151" r:id="rId163" xr:uid="{AF843F30-7625-42D0-BA56-6434FAE62C25}"/>
-    <hyperlink ref="C226" r:id="rId164" xr:uid="{5D94729E-5BC9-4A90-91A4-E22E6DF54EC5}"/>
-    <hyperlink ref="C50" r:id="rId165" xr:uid="{07FE2158-E54F-4DAF-A552-7A5F3BB2BAF7}"/>
-    <hyperlink ref="C47" r:id="rId166" xr:uid="{202CCF33-99A3-4853-AE16-95008489CCC5}"/>
-    <hyperlink ref="C65" r:id="rId167" xr:uid="{F4B5E23D-9319-41A2-AB51-5DE0A45DD8B4}"/>
-    <hyperlink ref="C115" r:id="rId168" xr:uid="{1692F5E0-FB63-492A-92F7-244666AA4D6C}"/>
-    <hyperlink ref="C3" r:id="rId169" xr:uid="{AB038426-E25A-4D00-959B-BADAAFC83263}"/>
-    <hyperlink ref="C22" r:id="rId170" xr:uid="{37BD58F8-5963-4DEE-8AC0-94C476AAA7B4}"/>
-    <hyperlink ref="C195" r:id="rId171" xr:uid="{224B22F8-17AF-4F0E-B83D-83E51925E3DA}"/>
-    <hyperlink ref="C133" r:id="rId172" xr:uid="{7C41A3D8-7B2C-4E19-8D41-28A0650CBF55}"/>
-    <hyperlink ref="C85" r:id="rId173" xr:uid="{04763326-6E4F-46B3-85EC-C59D9071D0F0}"/>
-    <hyperlink ref="C21" r:id="rId174" xr:uid="{6595AC92-4EB6-4C25-8AA6-B1D9744B1285}"/>
-    <hyperlink ref="C169" r:id="rId175" xr:uid="{B78F9174-E83B-47E6-946E-143B1E2D43D8}"/>
-    <hyperlink ref="C174" r:id="rId176" xr:uid="{063DB121-1B09-4C4A-A7CB-67F92A70E822}"/>
-    <hyperlink ref="C233" r:id="rId177" xr:uid="{4529126A-013E-48BE-BF9C-0857DD382C6C}"/>
-    <hyperlink ref="C15" r:id="rId178" xr:uid="{2F41BBD7-2015-4D42-8F88-8932B17FA34E}"/>
-    <hyperlink ref="C63" r:id="rId179" xr:uid="{E3EEE818-F47C-4DA4-97C5-449CA4C17CE4}"/>
-    <hyperlink ref="C12" r:id="rId180" xr:uid="{9F68A673-C7E6-4A90-BBDE-1C7409208E96}"/>
-    <hyperlink ref="C129" r:id="rId181" xr:uid="{889380E0-647D-4489-BE9B-25BAE5EB7861}"/>
-    <hyperlink ref="C212" r:id="rId182" xr:uid="{E541544B-61E3-4737-BBE7-E7662EC00A72}"/>
-    <hyperlink ref="C67" r:id="rId183" xr:uid="{4BE71305-E922-40EC-A901-A899B6397770}"/>
-    <hyperlink ref="C8" r:id="rId184" xr:uid="{1DB36123-F811-448C-80B1-68D23463FD4D}"/>
-    <hyperlink ref="C72" r:id="rId185" xr:uid="{3C679776-3AB8-453B-A4D3-B37792A73D16}"/>
-    <hyperlink ref="C52" r:id="rId186" xr:uid="{FA711ADD-C082-40DD-82D1-0E78DD912F0F}"/>
-    <hyperlink ref="C230" r:id="rId187" xr:uid="{C7B04CD8-F035-43DB-A418-9133A48E8921}"/>
-    <hyperlink ref="C211" r:id="rId188" xr:uid="{53F20A14-3749-4B51-B405-0EB1EA8BE457}"/>
-    <hyperlink ref="C170" r:id="rId189" xr:uid="{F2A8C005-E73E-4EA8-9A69-7D1C21C8DA9F}"/>
-    <hyperlink ref="C24" r:id="rId190" xr:uid="{E1A325DE-861E-4917-B535-A3626E67093B}"/>
-    <hyperlink ref="C105" r:id="rId191" xr:uid="{0B8721CA-ADDC-484A-A593-AA5D129028A4}"/>
-    <hyperlink ref="C70" r:id="rId192" xr:uid="{976908EE-A22D-40EC-95CA-B678C03D5727}"/>
-    <hyperlink ref="C6" r:id="rId193" xr:uid="{2359E283-699E-4E88-A140-3D7A568FC6E6}"/>
-    <hyperlink ref="C2" r:id="rId194" xr:uid="{6EAF58AD-5C21-4CAF-9E5B-779352704AB8}"/>
-    <hyperlink ref="C100" r:id="rId195" xr:uid="{075C6DD4-9B5F-454C-9441-F8AB51EBBED6}"/>
-    <hyperlink ref="C36" r:id="rId196" xr:uid="{2AB02CE7-6DE6-4936-A9B6-C3A30517DB7F}"/>
-    <hyperlink ref="C92" r:id="rId197" xr:uid="{3FA450BF-3E01-439C-8C3C-97285CDF42E4}"/>
-    <hyperlink ref="C81" r:id="rId198" xr:uid="{B7C88999-8CA0-468E-9DB7-0C84FECCE62D}"/>
-    <hyperlink ref="C148" r:id="rId199" xr:uid="{4030FD80-AC58-4604-AAD9-3C8DDF33D9BF}"/>
-    <hyperlink ref="C147" r:id="rId200" xr:uid="{A6D3B7B5-05D6-404A-A466-9DFEDA40D0C8}"/>
-    <hyperlink ref="C33" r:id="rId201" xr:uid="{E49A6EE8-5822-4020-9BE9-083EAD5C84FB}"/>
-    <hyperlink ref="C95" r:id="rId202" xr:uid="{9CB2615F-20AF-4560-8DE8-06A6D01F94D3}"/>
-    <hyperlink ref="C29" r:id="rId203" xr:uid="{050FB622-EB1C-4B7B-9B5C-D0165F6DB2BB}"/>
-    <hyperlink ref="C71" r:id="rId204" xr:uid="{B0AA3E5E-F474-4547-A4BB-1562AFD05639}"/>
-    <hyperlink ref="C120" r:id="rId205" xr:uid="{5EE48E44-6645-423B-9D3B-BA27E3C88CF6}"/>
-    <hyperlink ref="C144" r:id="rId206" xr:uid="{DC2CCDEC-A6B0-4412-9293-3D708FF0E861}"/>
-    <hyperlink ref="C106" r:id="rId207" xr:uid="{ACFA800E-8414-4E9A-BE09-CB33D46601E0}"/>
-    <hyperlink ref="C113" r:id="rId208" xr:uid="{4423E675-229D-4F9B-9CC0-F8C46E201512}"/>
-    <hyperlink ref="C40" r:id="rId209" xr:uid="{4DA93860-D7DA-4B52-A9A0-ABAC3B793A26}"/>
-    <hyperlink ref="C196" r:id="rId210" xr:uid="{FA66E72F-4556-483C-AED4-B7C4E5F6ED33}"/>
-    <hyperlink ref="C221" r:id="rId211" xr:uid="{6B606037-8FCB-4B89-85F6-9C109BB639E4}"/>
-    <hyperlink ref="C122" r:id="rId212" xr:uid="{043B1326-06A0-4BFB-AE2B-D08C2362D448}"/>
-    <hyperlink ref="C210" r:id="rId213" xr:uid="{ED67AC35-5992-4B66-83D1-089BA4E99A16}"/>
-    <hyperlink ref="C41" r:id="rId214" xr:uid="{CF84CEFF-E17D-40A8-AD53-CB8315ADCC37}"/>
-    <hyperlink ref="C242" r:id="rId215" xr:uid="{1BAB86BA-7E57-4837-A02D-20C7C66B9848}"/>
-    <hyperlink ref="C236" r:id="rId216" xr:uid="{3EA55CB4-1A31-46CB-B169-BAD40E4583E7}"/>
-    <hyperlink ref="C84" r:id="rId217" xr:uid="{2B1255F2-0C8E-4311-B384-A243584166D0}"/>
-    <hyperlink ref="C23" r:id="rId218" xr:uid="{73AE9BCD-6C33-4EA3-8B2C-295D6F0D05CF}"/>
-    <hyperlink ref="C234" r:id="rId219" xr:uid="{498C586A-7DD4-40BB-8CE1-2E05FEE50369}"/>
-    <hyperlink ref="C98" r:id="rId220" xr:uid="{A11E9FF1-3605-41EC-A0B4-E449B0C39866}"/>
-    <hyperlink ref="C203" r:id="rId221" xr:uid="{055DA19C-8857-47CC-ADFC-73E251BEB3F6}"/>
-    <hyperlink ref="C159" r:id="rId222" xr:uid="{C53F4E20-43C2-464F-97C3-89E4C10E252A}"/>
-    <hyperlink ref="C45" r:id="rId223" xr:uid="{FE90B83E-5FAF-459E-A2DA-3A8652D917EF}"/>
-    <hyperlink ref="C138" r:id="rId224" xr:uid="{BF5DAC24-D303-4D5E-A915-A885363E7451}"/>
-    <hyperlink ref="C134" r:id="rId225" xr:uid="{80A36AEF-A598-4857-BE4F-69DA9DA67DFD}"/>
-    <hyperlink ref="C199" r:id="rId226" xr:uid="{B7D987BA-6271-4CC8-A0DC-4BF330477802}"/>
-    <hyperlink ref="C231" r:id="rId227" xr:uid="{20EE4B5A-0C19-4A82-A1B2-5DDF4FA49FDE}"/>
-    <hyperlink ref="C90" r:id="rId228" xr:uid="{DDEB8DCF-19D0-4DAE-873E-83BD559EDD37}"/>
-    <hyperlink ref="C62" r:id="rId229" xr:uid="{E823F0E1-6A3E-40D1-BDE4-8CFCEDB0173E}"/>
-    <hyperlink ref="C188" r:id="rId230" xr:uid="{571ED490-0BB2-41BB-96E6-1E80746B048B}"/>
-    <hyperlink ref="C213" r:id="rId231" xr:uid="{45DC0BB5-E895-42EC-B035-878800D93341}"/>
-    <hyperlink ref="C43" r:id="rId232" xr:uid="{EE178400-7D70-4075-8104-3752416DC5D0}"/>
-    <hyperlink ref="C66" r:id="rId233" xr:uid="{19C897C7-B2B8-445D-8CA3-7B0E06E16618}"/>
-    <hyperlink ref="C68" r:id="rId234" xr:uid="{6B029C37-DB04-4255-9E5E-5B9AD78DD349}"/>
-    <hyperlink ref="C76" r:id="rId235" xr:uid="{A9A83049-37C9-4D85-962F-CDE28F86C75A}"/>
-    <hyperlink ref="C162" r:id="rId236" xr:uid="{B4FECB5A-4B35-4E03-AFC1-6C2C41C57BC4}"/>
-    <hyperlink ref="C59" r:id="rId237" xr:uid="{6AF6B864-0809-4988-BC6C-FE85AF6A202D}"/>
-    <hyperlink ref="C82" r:id="rId238" xr:uid="{92E22DB8-61D8-40BB-9529-1D8887BF37E3}"/>
-    <hyperlink ref="C123" r:id="rId239" xr:uid="{EF429FDF-10FE-4488-85F5-9AAD30A38E0D}"/>
-    <hyperlink ref="C217" r:id="rId240" xr:uid="{1CB793AA-FB4F-4E62-A9F2-D519D201BB92}"/>
-    <hyperlink ref="C127" r:id="rId241" xr:uid="{FB613A25-AD87-4EA9-8D51-EB22AD2DA559}"/>
-    <hyperlink ref="C235" r:id="rId242" xr:uid="{BC37F7AB-1C24-408D-B43C-01BC9A4CB101}"/>
-    <hyperlink ref="C30" r:id="rId243" xr:uid="{79BF7850-C154-4D58-B412-E89AB032C55E}"/>
-    <hyperlink ref="C86" r:id="rId244" xr:uid="{B8E8A859-C13F-41E7-9FAD-D3C18BA3F91A}"/>
-    <hyperlink ref="C97" r:id="rId245" xr:uid="{3F2A85F7-CD20-4B5E-8F45-33C916C206AC}"/>
-    <hyperlink ref="C202" r:id="rId246" xr:uid="{E3459AA4-E722-42C5-A1AB-A7FFD03D0F3B}"/>
-    <hyperlink ref="C245" r:id="rId247" xr:uid="{1743BC82-9600-4519-9B4F-9CD7EFD81FF1}"/>
-    <hyperlink ref="C246" r:id="rId248" xr:uid="{EE28F3C4-52BE-44BE-9325-4786DD6AB506}"/>
-    <hyperlink ref="C247" r:id="rId249" xr:uid="{F0E6E7B5-1C14-476D-9A89-29BFCE96A9D7}"/>
-    <hyperlink ref="C249" r:id="rId250" xr:uid="{38155FF3-C389-470F-BA87-10126AA09D77}"/>
-    <hyperlink ref="C248" r:id="rId251" xr:uid="{F252B92C-DC16-4B40-A105-556309A9543A}"/>
-    <hyperlink ref="C250" r:id="rId252" xr:uid="{1C3BCD92-F988-49D2-B8EE-4A69CC30D4DB}"/>
-    <hyperlink ref="C251" r:id="rId253" xr:uid="{DDC84E62-B03E-4D21-A421-DF6C2A56BFBE}"/>
-    <hyperlink ref="C252" r:id="rId254" xr:uid="{31950E17-1D24-4646-BC8C-02FC7FA9FB84}"/>
-    <hyperlink ref="C253" r:id="rId255" xr:uid="{443D6E6B-8664-4842-A466-97A6B65D4324}"/>
-    <hyperlink ref="C254" r:id="rId256" xr:uid="{78CAF157-7D63-4B6C-B1DF-9A525C2E0A15}"/>
-    <hyperlink ref="C255" r:id="rId257" xr:uid="{3B63F0D3-856B-4A30-8787-3B63743AB327}"/>
-    <hyperlink ref="C256" r:id="rId258" xr:uid="{594FEABE-FD5E-4217-A563-4A66D78D95C3}"/>
-    <hyperlink ref="C257" r:id="rId259" xr:uid="{F900DDFE-DBD7-4F11-A705-56E2B860D510}"/>
-    <hyperlink ref="C258" r:id="rId260" xr:uid="{D0C39FB3-3224-4C83-8762-9D6D731D2136}"/>
+    <hyperlink ref="C150" r:id="rId35" xr:uid="{ADD15800-FFAF-4C56-96C3-B6E9A6B7A9B4}"/>
+    <hyperlink ref="C89" r:id="rId36" xr:uid="{FD14EBC0-A744-44D9-8D7E-8C400674FEED}"/>
+    <hyperlink ref="C38" r:id="rId37" xr:uid="{1C789BBB-C806-4AEC-87FD-4A30D09E0378}"/>
+    <hyperlink ref="C149" r:id="rId38" xr:uid="{39BDDF5C-5ED6-4DC6-8403-935839E42AE4}"/>
+    <hyperlink ref="C194" r:id="rId39" xr:uid="{16CEFA6F-1B35-42FD-8606-E6523BF824B9}"/>
+    <hyperlink ref="C62:C78" r:id="rId40" display="https://midfield.mlbstatic.com/v1/people/686752/spots/120" xr:uid="{1E5EFC44-7608-40AF-A777-AAC898C6A9CB}"/>
+    <hyperlink ref="C34" r:id="rId41" xr:uid="{17D051F0-8C68-4AF3-B256-1F5E71DD2455}"/>
+    <hyperlink ref="C93" r:id="rId42" xr:uid="{B4766B4E-7BF7-4C41-98C2-8E48C0CCFAC8}"/>
+    <hyperlink ref="C112" r:id="rId43" xr:uid="{49ACB698-CD82-44AA-8A65-26D2BBDB0788}"/>
+    <hyperlink ref="C64" r:id="rId44" xr:uid="{FBAE3FE6-1362-4C09-BAE7-1B131AB4C4B4}"/>
+    <hyperlink ref="C56" r:id="rId45" xr:uid="{2181E8B2-59C9-4709-AA9A-962EF37831F2}"/>
+    <hyperlink ref="C110" r:id="rId46" xr:uid="{17F5505C-32E7-4316-BF97-1E84202C4785}"/>
+    <hyperlink ref="C80" r:id="rId47" xr:uid="{880E4723-2052-4A3F-AA76-423C6810C994}"/>
+    <hyperlink ref="C157" r:id="rId48" xr:uid="{D33AE6C2-8688-4E9D-B293-9E99FBE0DEB4}"/>
+    <hyperlink ref="C79" r:id="rId49" xr:uid="{ECF4F8FF-BB1E-4B49-965D-64768DC4F1E2}"/>
+    <hyperlink ref="C104" r:id="rId50" xr:uid="{2511CD2C-B67C-4354-9629-DE649A920EDD}"/>
+    <hyperlink ref="C205" r:id="rId51" xr:uid="{AE0C1E2C-3D72-45CF-9965-CDB6C0591891}"/>
+    <hyperlink ref="C107" r:id="rId52" xr:uid="{0E258565-BD6E-428A-BCE6-5D446B3DA628}"/>
+    <hyperlink ref="C69" r:id="rId53" xr:uid="{46541DDA-A399-42E9-B388-CAC462670117}"/>
+    <hyperlink ref="C172" r:id="rId54" xr:uid="{E26B4D45-A378-40C0-ACBA-A3D7F3B56528}"/>
+    <hyperlink ref="C156" r:id="rId55" xr:uid="{845F84C0-232D-4D80-B9DD-7415056297C5}"/>
+    <hyperlink ref="C197" r:id="rId56" xr:uid="{89BF64D4-12AC-4144-8B32-FDDD10668077}"/>
+    <hyperlink ref="C158" r:id="rId57" xr:uid="{8742B9B5-62C4-423F-B53B-AE1C619A7CB3}"/>
+    <hyperlink ref="C101" r:id="rId58" xr:uid="{A93F2FF5-2AE8-404E-A935-39A2AA8E0351}"/>
+    <hyperlink ref="C143" r:id="rId59" xr:uid="{F60D4181-1F3A-4C64-97A2-8368BC1A6176}"/>
+    <hyperlink ref="C213" r:id="rId60" xr:uid="{ECDB48F3-3C25-4B15-A902-40A90B1D441F}"/>
+    <hyperlink ref="C154" r:id="rId61" xr:uid="{1BF5B84A-6403-496F-BE72-4F7CFE5CD46A}"/>
+    <hyperlink ref="C96" r:id="rId62" xr:uid="{D48CC097-21D9-4697-92AF-17FE888C3469}"/>
+    <hyperlink ref="C227" r:id="rId63" xr:uid="{BA111F30-72E9-4701-B810-D904333C5C12}"/>
+    <hyperlink ref="C167" r:id="rId64" xr:uid="{C971DFEC-7D7D-44F8-8D77-AF06DD0C3650}"/>
+    <hyperlink ref="C237" r:id="rId65" xr:uid="{FF747A90-D82C-417A-A604-11C8A9BB8A1B}"/>
+    <hyperlink ref="C125" r:id="rId66" xr:uid="{508F6AEF-0519-456E-95D4-CFBA12F1D839}"/>
+    <hyperlink ref="C145" r:id="rId67" xr:uid="{B67845F2-3B4F-45CB-AC96-C32761C20607}"/>
+    <hyperlink ref="C204" r:id="rId68" xr:uid="{B3EDDFE1-3BCD-4BF4-B469-F8CBF05D5228}"/>
+    <hyperlink ref="C35" r:id="rId69" xr:uid="{8E3867C0-9128-44B4-8D0A-62F663FD1C50}"/>
+    <hyperlink ref="C54" r:id="rId70" xr:uid="{7DF45689-E876-4814-B27F-BD82DF1893A8}"/>
+    <hyperlink ref="C199" r:id="rId71" xr:uid="{10233510-1E7F-47D8-9DC8-CECCEEAF2542}"/>
+    <hyperlink ref="C135" r:id="rId72" xr:uid="{C4B8637F-0EAC-421C-B98A-83396BEC74E6}"/>
+    <hyperlink ref="C11" r:id="rId73" xr:uid="{78FBD904-905A-4DF4-8336-339D9FD35EF9}"/>
+    <hyperlink ref="C231" r:id="rId74" xr:uid="{30FFC8B8-F48B-4956-82E5-5F5C1D42BFDA}"/>
+    <hyperlink ref="C190" r:id="rId75" xr:uid="{F297C688-6767-4A01-87CA-713F0DDF9C34}"/>
+    <hyperlink ref="C51" r:id="rId76" xr:uid="{DE8C1BDA-4F06-4739-8272-9C1526634215}"/>
+    <hyperlink ref="C223" r:id="rId77" xr:uid="{0B5DD545-15F8-4AED-86A6-780BA78A0233}"/>
+    <hyperlink ref="C130" r:id="rId78" xr:uid="{1EAB83F2-BCC3-4788-AB88-9206EE59BEFD}"/>
+    <hyperlink ref="C141" r:id="rId79" xr:uid="{B9CEB789-AD16-4793-B005-DBCE618DBE94}"/>
+    <hyperlink ref="C239" r:id="rId80" xr:uid="{BE0D192A-BC2F-4B35-99E0-370F38CA9C0B}"/>
+    <hyperlink ref="C78" r:id="rId81" xr:uid="{3F8FC17C-F146-4E12-BBB9-18B45BB5B3EC}"/>
+    <hyperlink ref="C116" r:id="rId82" xr:uid="{C3C3E0D1-E6BE-417A-AC79-EEB8F79FBE7C}"/>
+    <hyperlink ref="C60" r:id="rId83" xr:uid="{646B995D-2022-47E8-9C46-F74E16A3A629}"/>
+    <hyperlink ref="C57" r:id="rId84" xr:uid="{1F133298-7E48-4138-8126-F74D2CBDB050}"/>
+    <hyperlink ref="C222" r:id="rId85" xr:uid="{79CA2660-030A-4E38-B36D-D5A391C24AF6}"/>
+    <hyperlink ref="C163" r:id="rId86" xr:uid="{301BF770-273A-484E-AF66-F32DA8458844}"/>
+    <hyperlink ref="C240" r:id="rId87" xr:uid="{A72F7411-3596-45A9-BD47-96AE1238FE57}"/>
+    <hyperlink ref="C126" r:id="rId88" xr:uid="{9335E23F-5F7C-4364-8ABA-564F1B156EB5}"/>
+    <hyperlink ref="C146" r:id="rId89" xr:uid="{C528D45E-5270-4308-A5F4-DDDD4C29A97D}"/>
+    <hyperlink ref="C132" r:id="rId90" xr:uid="{E5C83DAC-00EF-49EE-9811-99C544403146}"/>
+    <hyperlink ref="C187" r:id="rId91" xr:uid="{F5146A50-BA2B-4466-A3AC-A9E6870FA443}"/>
+    <hyperlink ref="C182" r:id="rId92" xr:uid="{880D6AB9-DCD2-4819-B973-72461A04C7C8}"/>
+    <hyperlink ref="C203" r:id="rId93" xr:uid="{11544622-27D7-41FE-BA8C-7A64E8838D48}"/>
+    <hyperlink ref="C55" r:id="rId94" xr:uid="{BC65DFE4-1308-4C08-8CE7-8941756F790F}"/>
+    <hyperlink ref="C117" r:id="rId95" xr:uid="{8322B7F1-705E-4313-8FF2-F90CCF591E35}"/>
+    <hyperlink ref="C166" r:id="rId96" xr:uid="{EBB28F68-D663-44AA-86BD-53B20904935E}"/>
+    <hyperlink ref="C136" r:id="rId97" xr:uid="{6A80E6A8-DBFE-4A55-A512-7374F8FBE4FD}"/>
+    <hyperlink ref="C61" r:id="rId98" xr:uid="{CE6A856C-5BA0-46B8-BDBB-70D03B1E5FA6}"/>
+    <hyperlink ref="C73" r:id="rId99" xr:uid="{B219EA6C-AFC6-4A8E-A965-70B93C5367C4}"/>
+    <hyperlink ref="C236" r:id="rId100" xr:uid="{108B5805-5369-47C0-A3A2-CA30D2F91CFB}"/>
+    <hyperlink ref="C121" r:id="rId101" xr:uid="{7AD71135-DE45-46BB-A218-39306ABA3702}"/>
+    <hyperlink ref="C107:C115" r:id="rId102" display="https://midfield.mlbstatic.com/v1/people/570632/spots/120" xr:uid="{B6AEF0A1-DAD3-493D-AD72-9992AF4AC36A}"/>
+    <hyperlink ref="C206" r:id="rId103" xr:uid="{4FC1EEA6-0897-4ECD-9CE7-1A38B7A04DF4}"/>
+    <hyperlink ref="C176" r:id="rId104" xr:uid="{1C2C51A3-E75B-4CC0-A087-8366DF24A3F2}"/>
+    <hyperlink ref="C191" r:id="rId105" xr:uid="{BB7DF76E-86EB-4858-AEA6-0696B62895BC}"/>
+    <hyperlink ref="C20" r:id="rId106" xr:uid="{01DE55D4-78E8-461B-A8B9-B03E6D65C918}"/>
+    <hyperlink ref="C75" r:id="rId107" xr:uid="{FCD4C620-BB71-4CC3-A123-50EFE98B5FE2}"/>
+    <hyperlink ref="C186" r:id="rId108" xr:uid="{29ED6610-0117-47A3-9540-69CB5AC80B92}"/>
+    <hyperlink ref="C207" r:id="rId109" xr:uid="{9E30FD12-A196-40BE-A210-0C73986E5064}"/>
+    <hyperlink ref="C219" r:id="rId110" xr:uid="{B8175F43-D70E-459F-98CF-15ECFA717548}"/>
+    <hyperlink ref="C142" r:id="rId111" xr:uid="{A1F217DD-45E3-4ABD-A801-5D9F166E4EE3}"/>
+    <hyperlink ref="C16" r:id="rId112" xr:uid="{C6E8A0D7-8E63-4EC1-8C28-4570F13EECF8}"/>
+    <hyperlink ref="C42" r:id="rId113" xr:uid="{061EEF2C-85CF-400C-B70C-3AC1B107F1EC}"/>
+    <hyperlink ref="C44" r:id="rId114" xr:uid="{07D08D3B-A3C3-4916-9FE0-2CF26ECA4304}"/>
+    <hyperlink ref="C77" r:id="rId115" xr:uid="{91E7913A-86EE-40F5-9798-4A7B25F420CA}"/>
+    <hyperlink ref="C139" r:id="rId116" xr:uid="{0A5A0FD7-8B57-41D3-A410-CA8F6779F8C0}"/>
+    <hyperlink ref="C160" r:id="rId117" xr:uid="{9979CA0C-3483-428F-A7AC-8624936FB8FA}"/>
+    <hyperlink ref="C179" r:id="rId118" xr:uid="{482918C2-89BA-496F-8160-085C2940475B}"/>
+    <hyperlink ref="C183" r:id="rId119" xr:uid="{674942CB-83E4-4508-A135-1EB5B6D6E0BF}"/>
+    <hyperlink ref="C217" r:id="rId120" xr:uid="{1F6209AE-91BF-41D4-B9AD-7DEABA16621B}"/>
+    <hyperlink ref="C221" r:id="rId121" xr:uid="{F0E5D36A-2456-4111-9B29-31D8CBD1A12D}"/>
+    <hyperlink ref="C228" r:id="rId122" xr:uid="{789C651E-21E8-4E0D-8017-9BF6770B7FE4}"/>
+    <hyperlink ref="C214" r:id="rId123" xr:uid="{E96CD394-E5F8-46F9-9A93-3EA98A4EE8DE}"/>
+    <hyperlink ref="C26" r:id="rId124" xr:uid="{170B8200-FCC5-4ED1-8A6A-63B3F60FC427}"/>
+    <hyperlink ref="C31" r:id="rId125" xr:uid="{1165D173-E61C-477D-81EA-53C274E42084}"/>
+    <hyperlink ref="C13" r:id="rId126" xr:uid="{D71E6989-E12D-4FB6-8277-45C3718AA5C4}"/>
+    <hyperlink ref="C9" r:id="rId127" xr:uid="{FB4F273B-2196-4018-85BA-D42A207F8910}"/>
+    <hyperlink ref="C103" r:id="rId128" xr:uid="{9F233235-B9B1-4E7A-807E-8F2EE493E173}"/>
+    <hyperlink ref="C189" r:id="rId129" xr:uid="{F5D1A66D-4324-4468-A7A0-AD3D00B16AE7}"/>
+    <hyperlink ref="C28" r:id="rId130" xr:uid="{1759929B-600A-4949-96E1-F424E054D97A}"/>
+    <hyperlink ref="C137" r:id="rId131" xr:uid="{8B19E95A-E327-406E-9F25-861358533D76}"/>
+    <hyperlink ref="C27" r:id="rId132" xr:uid="{1DD3FDF5-6556-4823-8827-A75B5E83FD01}"/>
+    <hyperlink ref="C226" r:id="rId133" xr:uid="{B62475DC-179F-4CE0-8CF6-51DC972D40B7}"/>
+    <hyperlink ref="C224" r:id="rId134" xr:uid="{492088BD-9B89-42AA-A6AF-1F83749BDC72}"/>
+    <hyperlink ref="C32" r:id="rId135" xr:uid="{6118D192-2DB6-4311-A382-3371906C183D}"/>
+    <hyperlink ref="C140:C143" r:id="rId136" display="https://midfield.mlbstatic.com/v1/people/693821/spots/120" xr:uid="{0E83A794-B683-4463-A3A3-95576AFDD615}"/>
+    <hyperlink ref="C58" r:id="rId137" xr:uid="{98EC2002-988D-46D0-AD8B-CB1135815ADD}"/>
+    <hyperlink ref="C242" r:id="rId138" xr:uid="{80C5B6A6-E3F5-4F34-8C17-B202CF8842F5}"/>
+    <hyperlink ref="C173" r:id="rId139" xr:uid="{35842AC4-F920-4A32-B105-587FE352F876}"/>
+    <hyperlink ref="C111" r:id="rId140" xr:uid="{24E2A301-E80D-4F02-A94B-CFE6DF3719D1}"/>
+    <hyperlink ref="C99" r:id="rId141" xr:uid="{6D687EFE-5BD7-4FEF-B636-1A728E3CB6DF}"/>
+    <hyperlink ref="C180" r:id="rId142" xr:uid="{20E003D8-D5C4-4113-AFC3-D076CE9FE0A0}"/>
+    <hyperlink ref="C155" r:id="rId143" xr:uid="{3D5F262E-120A-4E2A-AF3A-1C4C1117AE44}"/>
+    <hyperlink ref="C25" r:id="rId144" xr:uid="{5ED77DE1-166F-4541-898A-786E114DAEF4}"/>
+    <hyperlink ref="C39" r:id="rId145" xr:uid="{81DC0D20-42F6-4D3C-87D3-B645CB35712A}"/>
+    <hyperlink ref="C48" r:id="rId146" xr:uid="{E396E594-A4D8-4E20-9A24-90B7589370B5}"/>
+    <hyperlink ref="C83" r:id="rId147" xr:uid="{823E8EED-4901-4993-A8EA-2CA91EBD8526}"/>
+    <hyperlink ref="C102" r:id="rId148" xr:uid="{923E21E9-8410-4112-9000-9E93896189E6}"/>
+    <hyperlink ref="C140" r:id="rId149" xr:uid="{C526E886-242E-4E87-ACB6-1E69A02EEBD3}"/>
+    <hyperlink ref="C161" r:id="rId150" xr:uid="{BFEEE380-0C63-474F-821D-61F8EF908A46}"/>
+    <hyperlink ref="C175" r:id="rId151" xr:uid="{2250FC95-0A39-4EE2-BCB2-FFF1EF3E4964}"/>
+    <hyperlink ref="C124" r:id="rId152" xr:uid="{174AA7F5-75DB-42B1-ACFF-646023A4BD2A}"/>
+    <hyperlink ref="C208" r:id="rId153" xr:uid="{30D34D43-AD29-4DE6-93CC-FD7C2F05FE00}"/>
+    <hyperlink ref="C168" r:id="rId154" xr:uid="{AD2496AE-C6CA-4D48-BE1B-E0D40292B961}"/>
+    <hyperlink ref="C131" r:id="rId155" xr:uid="{8EA8AFE5-38A5-4C45-95E6-52202880E214}"/>
+    <hyperlink ref="C165" r:id="rId156" xr:uid="{933DFE08-9AFA-4E05-81A6-D7AD9B2936B4}"/>
+    <hyperlink ref="C193" r:id="rId157" xr:uid="{5CB1E923-0C0B-46C3-9A06-C5BF1664BB99}"/>
+    <hyperlink ref="C7" r:id="rId158" xr:uid="{F0633C7D-B030-42F8-867D-487A4D0622C9}"/>
+    <hyperlink ref="C19" r:id="rId159" xr:uid="{F7C050ED-4E17-4083-9409-29763900B9F8}"/>
+    <hyperlink ref="C88" r:id="rId160" xr:uid="{96DF98C5-93EB-4B46-A8DE-540F97FB9D2D}"/>
+    <hyperlink ref="C184" r:id="rId161" xr:uid="{DC3780E6-8DBB-43AF-868F-038344C91A4E}"/>
+    <hyperlink ref="C151" r:id="rId162" xr:uid="{AF843F30-7625-42D0-BA56-6434FAE62C25}"/>
+    <hyperlink ref="C225" r:id="rId163" xr:uid="{5D94729E-5BC9-4A90-91A4-E22E6DF54EC5}"/>
+    <hyperlink ref="C50" r:id="rId164" xr:uid="{07FE2158-E54F-4DAF-A552-7A5F3BB2BAF7}"/>
+    <hyperlink ref="C47" r:id="rId165" xr:uid="{202CCF33-99A3-4853-AE16-95008489CCC5}"/>
+    <hyperlink ref="C65" r:id="rId166" xr:uid="{F4B5E23D-9319-41A2-AB51-5DE0A45DD8B4}"/>
+    <hyperlink ref="C115" r:id="rId167" xr:uid="{1692F5E0-FB63-492A-92F7-244666AA4D6C}"/>
+    <hyperlink ref="C3" r:id="rId168" xr:uid="{AB038426-E25A-4D00-959B-BADAAFC83263}"/>
+    <hyperlink ref="C22" r:id="rId169" xr:uid="{37BD58F8-5963-4DEE-8AC0-94C476AAA7B4}"/>
+    <hyperlink ref="C195" r:id="rId170" xr:uid="{224B22F8-17AF-4F0E-B83D-83E51925E3DA}"/>
+    <hyperlink ref="C133" r:id="rId171" xr:uid="{7C41A3D8-7B2C-4E19-8D41-28A0650CBF55}"/>
+    <hyperlink ref="C85" r:id="rId172" xr:uid="{04763326-6E4F-46B3-85EC-C59D9071D0F0}"/>
+    <hyperlink ref="C21" r:id="rId173" xr:uid="{6595AC92-4EB6-4C25-8AA6-B1D9744B1285}"/>
+    <hyperlink ref="C169" r:id="rId174" xr:uid="{B78F9174-E83B-47E6-946E-143B1E2D43D8}"/>
+    <hyperlink ref="C174" r:id="rId175" xr:uid="{063DB121-1B09-4C4A-A7CB-67F92A70E822}"/>
+    <hyperlink ref="C232" r:id="rId176" xr:uid="{4529126A-013E-48BE-BF9C-0857DD382C6C}"/>
+    <hyperlink ref="C15" r:id="rId177" xr:uid="{2F41BBD7-2015-4D42-8F88-8932B17FA34E}"/>
+    <hyperlink ref="C63" r:id="rId178" xr:uid="{E3EEE818-F47C-4DA4-97C5-449CA4C17CE4}"/>
+    <hyperlink ref="C12" r:id="rId179" xr:uid="{9F68A673-C7E6-4A90-BBDE-1C7409208E96}"/>
+    <hyperlink ref="C129" r:id="rId180" xr:uid="{889380E0-647D-4489-BE9B-25BAE5EB7861}"/>
+    <hyperlink ref="C211" r:id="rId181" xr:uid="{E541544B-61E3-4737-BBE7-E7662EC00A72}"/>
+    <hyperlink ref="C67" r:id="rId182" xr:uid="{4BE71305-E922-40EC-A901-A899B6397770}"/>
+    <hyperlink ref="C8" r:id="rId183" xr:uid="{1DB36123-F811-448C-80B1-68D23463FD4D}"/>
+    <hyperlink ref="C72" r:id="rId184" xr:uid="{3C679776-3AB8-453B-A4D3-B37792A73D16}"/>
+    <hyperlink ref="C52" r:id="rId185" xr:uid="{FA711ADD-C082-40DD-82D1-0E78DD912F0F}"/>
+    <hyperlink ref="C229" r:id="rId186" xr:uid="{C7B04CD8-F035-43DB-A418-9133A48E8921}"/>
+    <hyperlink ref="C210" r:id="rId187" xr:uid="{53F20A14-3749-4B51-B405-0EB1EA8BE457}"/>
+    <hyperlink ref="C170" r:id="rId188" xr:uid="{F2A8C005-E73E-4EA8-9A69-7D1C21C8DA9F}"/>
+    <hyperlink ref="C24" r:id="rId189" xr:uid="{E1A325DE-861E-4917-B535-A3626E67093B}"/>
+    <hyperlink ref="C105" r:id="rId190" xr:uid="{0B8721CA-ADDC-484A-A593-AA5D129028A4}"/>
+    <hyperlink ref="C70" r:id="rId191" xr:uid="{976908EE-A22D-40EC-95CA-B678C03D5727}"/>
+    <hyperlink ref="C6" r:id="rId192" xr:uid="{2359E283-699E-4E88-A140-3D7A568FC6E6}"/>
+    <hyperlink ref="C2" r:id="rId193" xr:uid="{6EAF58AD-5C21-4CAF-9E5B-779352704AB8}"/>
+    <hyperlink ref="C100" r:id="rId194" xr:uid="{075C6DD4-9B5F-454C-9441-F8AB51EBBED6}"/>
+    <hyperlink ref="C36" r:id="rId195" xr:uid="{2AB02CE7-6DE6-4936-A9B6-C3A30517DB7F}"/>
+    <hyperlink ref="C92" r:id="rId196" xr:uid="{3FA450BF-3E01-439C-8C3C-97285CDF42E4}"/>
+    <hyperlink ref="C81" r:id="rId197" xr:uid="{B7C88999-8CA0-468E-9DB7-0C84FECCE62D}"/>
+    <hyperlink ref="C148" r:id="rId198" xr:uid="{4030FD80-AC58-4604-AAD9-3C8DDF33D9BF}"/>
+    <hyperlink ref="C147" r:id="rId199" xr:uid="{A6D3B7B5-05D6-404A-A466-9DFEDA40D0C8}"/>
+    <hyperlink ref="C33" r:id="rId200" xr:uid="{E49A6EE8-5822-4020-9BE9-083EAD5C84FB}"/>
+    <hyperlink ref="C95" r:id="rId201" xr:uid="{9CB2615F-20AF-4560-8DE8-06A6D01F94D3}"/>
+    <hyperlink ref="C29" r:id="rId202" xr:uid="{050FB622-EB1C-4B7B-9B5C-D0165F6DB2BB}"/>
+    <hyperlink ref="C71" r:id="rId203" xr:uid="{B0AA3E5E-F474-4547-A4BB-1562AFD05639}"/>
+    <hyperlink ref="C120" r:id="rId204" xr:uid="{5EE48E44-6645-423B-9D3B-BA27E3C88CF6}"/>
+    <hyperlink ref="C144" r:id="rId205" xr:uid="{DC2CCDEC-A6B0-4412-9293-3D708FF0E861}"/>
+    <hyperlink ref="C106" r:id="rId206" xr:uid="{ACFA800E-8414-4E9A-BE09-CB33D46601E0}"/>
+    <hyperlink ref="C113" r:id="rId207" xr:uid="{4423E675-229D-4F9B-9CC0-F8C46E201512}"/>
+    <hyperlink ref="C40" r:id="rId208" xr:uid="{4DA93860-D7DA-4B52-A9A0-ABAC3B793A26}"/>
+    <hyperlink ref="C196" r:id="rId209" xr:uid="{FA66E72F-4556-483C-AED4-B7C4E5F6ED33}"/>
+    <hyperlink ref="C220" r:id="rId210" xr:uid="{6B606037-8FCB-4B89-85F6-9C109BB639E4}"/>
+    <hyperlink ref="C122" r:id="rId211" xr:uid="{043B1326-06A0-4BFB-AE2B-D08C2362D448}"/>
+    <hyperlink ref="C209" r:id="rId212" xr:uid="{ED67AC35-5992-4B66-83D1-089BA4E99A16}"/>
+    <hyperlink ref="C41" r:id="rId213" xr:uid="{CF84CEFF-E17D-40A8-AD53-CB8315ADCC37}"/>
+    <hyperlink ref="C241" r:id="rId214" xr:uid="{1BAB86BA-7E57-4837-A02D-20C7C66B9848}"/>
+    <hyperlink ref="C235" r:id="rId215" xr:uid="{3EA55CB4-1A31-46CB-B169-BAD40E4583E7}"/>
+    <hyperlink ref="C84" r:id="rId216" xr:uid="{2B1255F2-0C8E-4311-B384-A243584166D0}"/>
+    <hyperlink ref="C23" r:id="rId217" xr:uid="{73AE9BCD-6C33-4EA3-8B2C-295D6F0D05CF}"/>
+    <hyperlink ref="C233" r:id="rId218" xr:uid="{498C586A-7DD4-40BB-8CE1-2E05FEE50369}"/>
+    <hyperlink ref="C98" r:id="rId219" xr:uid="{A11E9FF1-3605-41EC-A0B4-E449B0C39866}"/>
+    <hyperlink ref="C202" r:id="rId220" xr:uid="{055DA19C-8857-47CC-ADFC-73E251BEB3F6}"/>
+    <hyperlink ref="C159" r:id="rId221" xr:uid="{C53F4E20-43C2-464F-97C3-89E4C10E252A}"/>
+    <hyperlink ref="C45" r:id="rId222" xr:uid="{FE90B83E-5FAF-459E-A2DA-3A8652D917EF}"/>
+    <hyperlink ref="C138" r:id="rId223" xr:uid="{BF5DAC24-D303-4D5E-A915-A885363E7451}"/>
+    <hyperlink ref="C134" r:id="rId224" xr:uid="{80A36AEF-A598-4857-BE4F-69DA9DA67DFD}"/>
+    <hyperlink ref="C198" r:id="rId225" xr:uid="{B7D987BA-6271-4CC8-A0DC-4BF330477802}"/>
+    <hyperlink ref="C230" r:id="rId226" xr:uid="{20EE4B5A-0C19-4A82-A1B2-5DDF4FA49FDE}"/>
+    <hyperlink ref="C90" r:id="rId227" xr:uid="{DDEB8DCF-19D0-4DAE-873E-83BD559EDD37}"/>
+    <hyperlink ref="C62" r:id="rId228" xr:uid="{E823F0E1-6A3E-40D1-BDE4-8CFCEDB0173E}"/>
+    <hyperlink ref="C188" r:id="rId229" xr:uid="{571ED490-0BB2-41BB-96E6-1E80746B048B}"/>
+    <hyperlink ref="C212" r:id="rId230" xr:uid="{45DC0BB5-E895-42EC-B035-878800D93341}"/>
+    <hyperlink ref="C43" r:id="rId231" xr:uid="{EE178400-7D70-4075-8104-3752416DC5D0}"/>
+    <hyperlink ref="C66" r:id="rId232" xr:uid="{19C897C7-B2B8-445D-8CA3-7B0E06E16618}"/>
+    <hyperlink ref="C68" r:id="rId233" xr:uid="{6B029C37-DB04-4255-9E5E-5B9AD78DD349}"/>
+    <hyperlink ref="C76" r:id="rId234" xr:uid="{A9A83049-37C9-4D85-962F-CDE28F86C75A}"/>
+    <hyperlink ref="C162" r:id="rId235" xr:uid="{B4FECB5A-4B35-4E03-AFC1-6C2C41C57BC4}"/>
+    <hyperlink ref="C59" r:id="rId236" xr:uid="{6AF6B864-0809-4988-BC6C-FE85AF6A202D}"/>
+    <hyperlink ref="C82" r:id="rId237" xr:uid="{92E22DB8-61D8-40BB-9529-1D8887BF37E3}"/>
+    <hyperlink ref="C123" r:id="rId238" xr:uid="{EF429FDF-10FE-4488-85F5-9AAD30A38E0D}"/>
+    <hyperlink ref="C216" r:id="rId239" xr:uid="{1CB793AA-FB4F-4E62-A9F2-D519D201BB92}"/>
+    <hyperlink ref="C127" r:id="rId240" xr:uid="{FB613A25-AD87-4EA9-8D51-EB22AD2DA559}"/>
+    <hyperlink ref="C234" r:id="rId241" xr:uid="{BC37F7AB-1C24-408D-B43C-01BC9A4CB101}"/>
+    <hyperlink ref="C30" r:id="rId242" xr:uid="{79BF7850-C154-4D58-B412-E89AB032C55E}"/>
+    <hyperlink ref="C86" r:id="rId243" xr:uid="{B8E8A859-C13F-41E7-9FAD-D3C18BA3F91A}"/>
+    <hyperlink ref="C97" r:id="rId244" xr:uid="{3F2A85F7-CD20-4B5E-8F45-33C916C206AC}"/>
+    <hyperlink ref="C201" r:id="rId245" xr:uid="{E3459AA4-E722-42C5-A1AB-A7FFD03D0F3B}"/>
+    <hyperlink ref="C244" r:id="rId246" xr:uid="{1743BC82-9600-4519-9B4F-9CD7EFD81FF1}"/>
+    <hyperlink ref="C245" r:id="rId247" xr:uid="{EE28F3C4-52BE-44BE-9325-4786DD6AB506}"/>
+    <hyperlink ref="C246" r:id="rId248" xr:uid="{F0E6E7B5-1C14-476D-9A89-29BFCE96A9D7}"/>
+    <hyperlink ref="C248" r:id="rId249" xr:uid="{38155FF3-C389-470F-BA87-10126AA09D77}"/>
+    <hyperlink ref="C247" r:id="rId250" xr:uid="{F252B92C-DC16-4B40-A105-556309A9543A}"/>
+    <hyperlink ref="C249" r:id="rId251" xr:uid="{1C3BCD92-F988-49D2-B8EE-4A69CC30D4DB}"/>
+    <hyperlink ref="C250" r:id="rId252" xr:uid="{DDC84E62-B03E-4D21-A421-DF6C2A56BFBE}"/>
+    <hyperlink ref="C251" r:id="rId253" xr:uid="{31950E17-1D24-4646-BC8C-02FC7FA9FB84}"/>
+    <hyperlink ref="C252" r:id="rId254" xr:uid="{443D6E6B-8664-4842-A466-97A6B65D4324}"/>
+    <hyperlink ref="C253" r:id="rId255" xr:uid="{78CAF157-7D63-4B6C-B1DF-9A525C2E0A15}"/>
+    <hyperlink ref="C254" r:id="rId256" xr:uid="{3B63F0D3-856B-4A30-8787-3B63743AB327}"/>
+    <hyperlink ref="C255" r:id="rId257" xr:uid="{594FEABE-FD5E-4217-A563-4A66D78D95C3}"/>
+    <hyperlink ref="C256" r:id="rId258" xr:uid="{F900DDFE-DBD7-4F11-A705-56E2B860D510}"/>
+    <hyperlink ref="C257" r:id="rId259" xr:uid="{D0C39FB3-3224-4C83-8762-9D6D731D2136}"/>
+    <hyperlink ref="C258" r:id="rId260" xr:uid="{F5F95968-D161-4016-9D2C-2F22BA136214}"/>
+    <hyperlink ref="C259" r:id="rId261" xr:uid="{7CBD63D9-3E3B-49D6-B2C3-AA17EC324B4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId261"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId262"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D63618B-0D05-4293-9D7D-2B41C2166A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B45540-AB67-4FC5-9A09-131E3C79E7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="527">
   <si>
     <t>Name</t>
   </si>
@@ -1614,6 +1614,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/700241/spots/120</t>
+  </si>
+  <si>
+    <t>Max Meyer</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/676974/spots/120</t>
   </si>
 </sst>
 </file>
@@ -2003,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D259"/>
+  <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A100" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="B261" sqref="B261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5639,6 +5645,20 @@
         <v>524</v>
       </c>
       <c r="D259" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>525</v>
+      </c>
+      <c r="B260" t="s">
+        <v>525</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D260" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5905,8 +5925,9 @@
     <hyperlink ref="C257" r:id="rId259" xr:uid="{D0C39FB3-3224-4C83-8762-9D6D731D2136}"/>
     <hyperlink ref="C258" r:id="rId260" xr:uid="{F5F95968-D161-4016-9D2C-2F22BA136214}"/>
     <hyperlink ref="C259" r:id="rId261" xr:uid="{7CBD63D9-3E3B-49D6-B2C3-AA17EC324B4A}"/>
+    <hyperlink ref="C260" r:id="rId262" xr:uid="{6DFE34AB-E349-4BF2-BDB5-19C8CF1BBA54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId262"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId263"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B45540-AB67-4FC5-9A09-131E3C79E7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FDB0A3-6797-40E6-BF42-D1F569ADA5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="529">
   <si>
     <t>Name</t>
   </si>
@@ -1620,6 +1620,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/676974/spots/120</t>
+  </si>
+  <si>
+    <t>Brant Hurter</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/676428/spots/120</t>
   </si>
 </sst>
 </file>
@@ -2009,9 +2015,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D260"/>
+  <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
       <selection activeCell="B261" sqref="B261"/>
     </sheetView>
   </sheetViews>
@@ -5660,6 +5666,20 @@
       </c>
       <c r="D260" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>527</v>
+      </c>
+      <c r="B261" t="s">
+        <v>527</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D261" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -5926,8 +5946,9 @@
     <hyperlink ref="C258" r:id="rId260" xr:uid="{F5F95968-D161-4016-9D2C-2F22BA136214}"/>
     <hyperlink ref="C259" r:id="rId261" xr:uid="{7CBD63D9-3E3B-49D6-B2C3-AA17EC324B4A}"/>
     <hyperlink ref="C260" r:id="rId262" xr:uid="{6DFE34AB-E349-4BF2-BDB5-19C8CF1BBA54}"/>
+    <hyperlink ref="C261" r:id="rId263" xr:uid="{F2E2CCBB-0CA8-44C0-9716-180B49E13A0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId263"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId264"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FDB0A3-6797-40E6-BF42-D1F569ADA5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894F6B0A-31BE-4DA0-B82B-F99A094A5144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="533">
   <si>
     <t>Name</t>
   </si>
@@ -1626,6 +1626,18 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/676428/spots/120</t>
+  </si>
+  <si>
+    <t>Tyler Mahle</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/641816/spots/120</t>
+  </si>
+  <si>
+    <t>Eduardo Rodriguez</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/593958/spots/120</t>
   </si>
 </sst>
 </file>
@@ -2015,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D261"/>
+  <dimension ref="A1:D263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="B261" sqref="B261"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5679,6 +5691,34 @@
         <v>528</v>
       </c>
       <c r="D261" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>529</v>
+      </c>
+      <c r="B262" t="s">
+        <v>529</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D262" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>531</v>
+      </c>
+      <c r="B263" t="s">
+        <v>531</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D263" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5947,8 +5987,10 @@
     <hyperlink ref="C259" r:id="rId261" xr:uid="{7CBD63D9-3E3B-49D6-B2C3-AA17EC324B4A}"/>
     <hyperlink ref="C260" r:id="rId262" xr:uid="{6DFE34AB-E349-4BF2-BDB5-19C8CF1BBA54}"/>
     <hyperlink ref="C261" r:id="rId263" xr:uid="{F2E2CCBB-0CA8-44C0-9716-180B49E13A0D}"/>
+    <hyperlink ref="C262" r:id="rId264" xr:uid="{F3A30D78-B475-4DE9-8FD5-0042C7497C89}"/>
+    <hyperlink ref="C263" r:id="rId265" xr:uid="{7BF67F2F-BA76-437F-A042-7840AD9C9BA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId264"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId266"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894F6B0A-31BE-4DA0-B82B-F99A094A5144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB4562D-CF0C-4BD2-BE42-F60E785B6784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="537">
   <si>
     <t>Name</t>
   </si>
@@ -1638,6 +1638,18 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/593958/spots/120</t>
+  </si>
+  <si>
+    <t>Ky Bush</t>
+  </si>
+  <si>
+    <t>Davis Martin</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/681066/spots/120</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/663436/spots/120</t>
   </si>
 </sst>
 </file>
@@ -2027,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D263"/>
+  <dimension ref="A1:D266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="C264" sqref="C264"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="B264" sqref="B264:B266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5720,6 +5732,48 @@
       </c>
       <c r="D263" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>527</v>
+      </c>
+      <c r="B264" t="s">
+        <v>527</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D264" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>533</v>
+      </c>
+      <c r="B265" t="s">
+        <v>533</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D265" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>534</v>
+      </c>
+      <c r="B266" t="s">
+        <v>534</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D266" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -5989,8 +6043,11 @@
     <hyperlink ref="C261" r:id="rId263" xr:uid="{F2E2CCBB-0CA8-44C0-9716-180B49E13A0D}"/>
     <hyperlink ref="C262" r:id="rId264" xr:uid="{F3A30D78-B475-4DE9-8FD5-0042C7497C89}"/>
     <hyperlink ref="C263" r:id="rId265" xr:uid="{7BF67F2F-BA76-437F-A042-7840AD9C9BA7}"/>
+    <hyperlink ref="C264" r:id="rId266" xr:uid="{1F7B27FC-06CF-4777-9F66-AE96909E0169}"/>
+    <hyperlink ref="C265" r:id="rId267" xr:uid="{AA0495F7-D024-4B48-94E4-EFF1BDF07E33}"/>
+    <hyperlink ref="C266" r:id="rId268" xr:uid="{6A713AD3-59FB-4F42-A516-853FDE63E4C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId266"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId269"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB4562D-CF0C-4BD2-BE42-F60E785B6784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9CF92E-3B64-4DFF-A015-B2165DC6ED8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="539">
   <si>
     <t>Name</t>
   </si>
@@ -1650,6 +1650,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/663436/spots/120</t>
+  </si>
+  <si>
+    <t>Brad Keller</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/641745/spots/120</t>
   </si>
 </sst>
 </file>
@@ -2039,10 +2045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D266"/>
+  <dimension ref="A1:D267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="B264" sqref="B264:B266"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="C268" sqref="C268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5773,6 +5779,20 @@
         <v>536</v>
       </c>
       <c r="D266" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>537</v>
+      </c>
+      <c r="B267" t="s">
+        <v>537</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D267" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6046,8 +6066,9 @@
     <hyperlink ref="C264" r:id="rId266" xr:uid="{1F7B27FC-06CF-4777-9F66-AE96909E0169}"/>
     <hyperlink ref="C265" r:id="rId267" xr:uid="{AA0495F7-D024-4B48-94E4-EFF1BDF07E33}"/>
     <hyperlink ref="C266" r:id="rId268" xr:uid="{6A713AD3-59FB-4F42-A516-853FDE63E4C9}"/>
+    <hyperlink ref="C267" r:id="rId269" xr:uid="{5EEDD14D-9AA0-4542-B4BD-3FC20F60D984}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId269"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId270"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28011"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9CF92E-3B64-4DFF-A015-B2165DC6ED8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA647B5-8E77-4194-AD39-A01A34FD676C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="545">
   <si>
     <t>Name</t>
   </si>
@@ -1656,6 +1656,24 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/641745/spots/120</t>
+  </si>
+  <si>
+    <t>Adam Oller</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/670124/spots/120</t>
+  </si>
+  <si>
+    <t>Julian Aguiar</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/687924/spots/120</t>
+  </si>
+  <si>
+    <t>Zebby Matthews</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/805673/spots/120</t>
   </si>
 </sst>
 </file>
@@ -2045,10 +2063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D267"/>
+  <dimension ref="A1:D270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="C268" sqref="C268"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="B270" sqref="B270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5793,6 +5811,48 @@
         <v>538</v>
       </c>
       <c r="D267" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>539</v>
+      </c>
+      <c r="B268" t="s">
+        <v>539</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D268" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>541</v>
+      </c>
+      <c r="B269" t="s">
+        <v>541</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D269" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>543</v>
+      </c>
+      <c r="B270" t="s">
+        <v>543</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D270" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6067,8 +6127,11 @@
     <hyperlink ref="C265" r:id="rId267" xr:uid="{AA0495F7-D024-4B48-94E4-EFF1BDF07E33}"/>
     <hyperlink ref="C266" r:id="rId268" xr:uid="{6A713AD3-59FB-4F42-A516-853FDE63E4C9}"/>
     <hyperlink ref="C267" r:id="rId269" xr:uid="{5EEDD14D-9AA0-4542-B4BD-3FC20F60D984}"/>
+    <hyperlink ref="C268" r:id="rId270" xr:uid="{CB40EE28-843E-4792-A265-65F2B8AA722E}"/>
+    <hyperlink ref="C269" r:id="rId271" xr:uid="{3754438A-A1DB-4C09-B782-F7AFD0DE9168}"/>
+    <hyperlink ref="C270" r:id="rId272" xr:uid="{B8639668-9CB6-4165-A371-9E4F7569ED25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId270"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId273"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28015"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA647B5-8E77-4194-AD39-A01A34FD676C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B98436-1DAC-4F7B-BC8B-2711E88C7B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="547">
   <si>
     <t>Name</t>
   </si>
@@ -1674,6 +1674,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/805673/spots/120</t>
+  </si>
+  <si>
+    <t>Casey Kelly</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/543391/spots/120</t>
   </si>
 </sst>
 </file>
@@ -2063,10 +2069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D270"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="B270" sqref="B270"/>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="A271" sqref="A271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5853,6 +5859,20 @@
         <v>544</v>
       </c>
       <c r="D270" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>545</v>
+      </c>
+      <c r="B271" t="s">
+        <v>545</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D271" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6130,8 +6150,9 @@
     <hyperlink ref="C268" r:id="rId270" xr:uid="{CB40EE28-843E-4792-A265-65F2B8AA722E}"/>
     <hyperlink ref="C269" r:id="rId271" xr:uid="{3754438A-A1DB-4C09-B782-F7AFD0DE9168}"/>
     <hyperlink ref="C270" r:id="rId272" xr:uid="{B8639668-9CB6-4165-A371-9E4F7569ED25}"/>
+    <hyperlink ref="C271" r:id="rId273" xr:uid="{290F1DD9-FF34-4C4A-9786-DD6CF8DE7183}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId273"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId274"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B98436-1DAC-4F7B-BC8B-2711E88C7B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8CF75A-9BEB-43FC-977A-950D5836682D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="549">
   <si>
     <t>Name</t>
   </si>
@@ -1680,6 +1680,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/543391/spots/120</t>
+  </si>
+  <si>
+    <t>J T Ginn</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/669372/spots/120</t>
   </si>
 </sst>
 </file>
@@ -2069,10 +2075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D271"/>
+  <dimension ref="A1:D272"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="A271" sqref="A271"/>
+      <selection activeCell="B272" sqref="B272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5873,6 +5879,20 @@
         <v>546</v>
       </c>
       <c r="D271" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>547</v>
+      </c>
+      <c r="B272" t="s">
+        <v>547</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D272" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6151,8 +6171,9 @@
     <hyperlink ref="C269" r:id="rId271" xr:uid="{3754438A-A1DB-4C09-B782-F7AFD0DE9168}"/>
     <hyperlink ref="C270" r:id="rId272" xr:uid="{B8639668-9CB6-4165-A371-9E4F7569ED25}"/>
     <hyperlink ref="C271" r:id="rId273" xr:uid="{290F1DD9-FF34-4C4A-9786-DD6CF8DE7183}"/>
+    <hyperlink ref="C272" r:id="rId274" xr:uid="{D2988798-B299-4979-B100-86B2ED2C9F06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId274"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId275"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8CF75A-9BEB-43FC-977A-950D5836682D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E463584B-B43E-4EB1-B95B-DB9B2831AB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="553">
   <si>
     <t>Name</t>
   </si>
@@ -1686,6 +1686,18 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/669372/spots/120</t>
+  </si>
+  <si>
+    <t>Rhett Lowder</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/695076/spots/120</t>
+  </si>
+  <si>
+    <t>Samuel Aldegheri</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/691591/spots/120</t>
   </si>
 </sst>
 </file>
@@ -2075,10 +2087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D272"/>
+  <dimension ref="A1:D274"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="B272" sqref="B272"/>
+      <selection activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5894,6 +5906,34 @@
       </c>
       <c r="D272" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>549</v>
+      </c>
+      <c r="B273" t="s">
+        <v>549</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D273" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>551</v>
+      </c>
+      <c r="B274" t="s">
+        <v>551</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D274" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -6172,8 +6212,10 @@
     <hyperlink ref="C270" r:id="rId272" xr:uid="{B8639668-9CB6-4165-A371-9E4F7569ED25}"/>
     <hyperlink ref="C271" r:id="rId273" xr:uid="{290F1DD9-FF34-4C4A-9786-DD6CF8DE7183}"/>
     <hyperlink ref="C272" r:id="rId274" xr:uid="{D2988798-B299-4979-B100-86B2ED2C9F06}"/>
+    <hyperlink ref="C273" r:id="rId275" xr:uid="{4FD4C7B0-EF04-4E0A-8FD2-368570B10C6B}"/>
+    <hyperlink ref="C274" r:id="rId276" xr:uid="{7B199D27-9A15-4B07-8488-AB9B9E10898A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId275"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId277"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E463584B-B43E-4EB1-B95B-DB9B2831AB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30303BD9-0575-425E-803F-495E84D0BEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="557">
   <si>
     <t>Name</t>
   </si>
@@ -1698,6 +1698,18 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/691591/spots/120</t>
+  </si>
+  <si>
+    <t>Caden Dana</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/702674/spots/120</t>
+  </si>
+  <si>
+    <t>Ty Madden</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/680744/spots/120</t>
   </si>
 </sst>
 </file>
@@ -2087,10 +2099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D274"/>
+  <dimension ref="A1:D276"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="B275" sqref="B275"/>
+      <selection activeCell="C277" sqref="C277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5934,6 +5946,34 @@
       </c>
       <c r="D274" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>553</v>
+      </c>
+      <c r="B275" t="s">
+        <v>553</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D275" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>555</v>
+      </c>
+      <c r="B276" t="s">
+        <v>555</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D276" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -6214,8 +6254,10 @@
     <hyperlink ref="C272" r:id="rId274" xr:uid="{D2988798-B299-4979-B100-86B2ED2C9F06}"/>
     <hyperlink ref="C273" r:id="rId275" xr:uid="{4FD4C7B0-EF04-4E0A-8FD2-368570B10C6B}"/>
     <hyperlink ref="C274" r:id="rId276" xr:uid="{7B199D27-9A15-4B07-8488-AB9B9E10898A}"/>
+    <hyperlink ref="C275" r:id="rId277" xr:uid="{BC5EEEAA-05AF-465B-B484-BA3BD587FB32}"/>
+    <hyperlink ref="C276" r:id="rId278" xr:uid="{FF1D8502-6C9C-4EEF-8CE0-0FCCD25157D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId277"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId279"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30303BD9-0575-425E-803F-495E84D0BEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A517BE07-F79F-4A7C-8F7E-0B8CC225D74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="559">
   <si>
     <t>Name</t>
   </si>
@@ -1710,6 +1710,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/680744/spots/120</t>
+  </si>
+  <si>
+    <t>Domingo German</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/593334/spots/120</t>
   </si>
 </sst>
 </file>
@@ -2099,10 +2105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D276"/>
+  <dimension ref="A1:D277"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="C277" sqref="C277"/>
+      <selection activeCell="D278" sqref="D278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5973,6 +5979,20 @@
         <v>556</v>
       </c>
       <c r="D276" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>557</v>
+      </c>
+      <c r="B277" t="s">
+        <v>557</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D277" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6256,8 +6276,9 @@
     <hyperlink ref="C274" r:id="rId276" xr:uid="{7B199D27-9A15-4B07-8488-AB9B9E10898A}"/>
     <hyperlink ref="C275" r:id="rId277" xr:uid="{BC5EEEAA-05AF-465B-B484-BA3BD587FB32}"/>
     <hyperlink ref="C276" r:id="rId278" xr:uid="{FF1D8502-6C9C-4EEF-8CE0-0FCCD25157D3}"/>
+    <hyperlink ref="C277" r:id="rId279" xr:uid="{3142FDD5-E08D-450C-82E3-7E82CA47B2F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId279"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId280"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A517BE07-F79F-4A7C-8F7E-0B8CC225D74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09AE852-7E30-4C7E-8D91-27911048571F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="563">
   <si>
     <t>Name</t>
   </si>
@@ -1716,6 +1716,18 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/593334/spots/120</t>
+  </si>
+  <si>
+    <t>Matthew Boyd</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/571510/spots/120</t>
+  </si>
+  <si>
+    <t>Jakob Junis</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/596001/spots/120</t>
   </si>
 </sst>
 </file>
@@ -2105,10 +2117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D277"/>
+  <dimension ref="A1:D279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="D278" sqref="D278"/>
+      <selection activeCell="D280" sqref="D280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5993,6 +6005,34 @@
         <v>558</v>
       </c>
       <c r="D277" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>559</v>
+      </c>
+      <c r="B278" t="s">
+        <v>559</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D278" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>561</v>
+      </c>
+      <c r="B279" t="s">
+        <v>561</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D279" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6277,8 +6317,10 @@
     <hyperlink ref="C275" r:id="rId277" xr:uid="{BC5EEEAA-05AF-465B-B484-BA3BD587FB32}"/>
     <hyperlink ref="C276" r:id="rId278" xr:uid="{FF1D8502-6C9C-4EEF-8CE0-0FCCD25157D3}"/>
     <hyperlink ref="C277" r:id="rId279" xr:uid="{3142FDD5-E08D-450C-82E3-7E82CA47B2F8}"/>
+    <hyperlink ref="C278" r:id="rId280" xr:uid="{F27B86AE-D98D-4675-BC4E-D55710E1565F}"/>
+    <hyperlink ref="C279" r:id="rId281" xr:uid="{FF49231A-634F-42AC-ACE9-CC1FA60639CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId280"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId282"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28028"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09AE852-7E30-4C7E-8D91-27911048571F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC120F4-8DDF-47B8-A8ED-081846CBDE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="567">
   <si>
     <t>Name</t>
   </si>
@@ -1728,6 +1728,18 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/596001/spots/120</t>
+  </si>
+  <si>
+    <t>Richard Fitts</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/690916/spots/120</t>
+  </si>
+  <si>
+    <t>Seth Johnson</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/686751/spots/120</t>
   </si>
 </sst>
 </file>
@@ -2117,10 +2129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D279"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="D280" sqref="D280"/>
+      <selection activeCell="E281" sqref="E281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6033,6 +6045,34 @@
         <v>562</v>
       </c>
       <c r="D279" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>563</v>
+      </c>
+      <c r="B280" t="s">
+        <v>563</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D280" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>565</v>
+      </c>
+      <c r="B281" t="s">
+        <v>565</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D281" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6319,8 +6359,10 @@
     <hyperlink ref="C277" r:id="rId279" xr:uid="{3142FDD5-E08D-450C-82E3-7E82CA47B2F8}"/>
     <hyperlink ref="C278" r:id="rId280" xr:uid="{F27B86AE-D98D-4675-BC4E-D55710E1565F}"/>
     <hyperlink ref="C279" r:id="rId281" xr:uid="{FF49231A-634F-42AC-ACE9-CC1FA60639CF}"/>
+    <hyperlink ref="C280" r:id="rId282" xr:uid="{7A4C5B20-DABF-49C4-BFC4-566C1A29C9C2}"/>
+    <hyperlink ref="C281" r:id="rId283" xr:uid="{0241C337-C50B-4944-9154-BF8CAEE71AD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId282"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId284"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC120F4-8DDF-47B8-A8ED-081846CBDE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F638150-57C3-48DA-8922-3FF5D3B176CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="570">
   <si>
     <t>Name</t>
   </si>
@@ -308,9 +308,6 @@
     <t>https://midfield.mlbstatic.com/v1/people/663372/spots/120</t>
   </si>
   <si>
-    <t>Mackenzie Gore</t>
-  </si>
-  <si>
     <t>https://midfield.mlbstatic.com/v1/people/669022/spots/120</t>
   </si>
   <si>
@@ -1740,6 +1737,18 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/686751/spots/120</t>
+  </si>
+  <si>
+    <t>Bradley Blalock</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/687134/spots/120</t>
+  </si>
+  <si>
+    <t>Carmen Mlodzinski</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/669387/spots/120</t>
   </si>
 </sst>
 </file>
@@ -2129,10 +2138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D281"/>
+  <dimension ref="A1:D282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="E281" sqref="E281"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="A202" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2147,41 +2156,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2195,7 +2204,7 @@
         <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2209,63 +2218,63 @@
         <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2279,49 +2288,49 @@
         <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2332,38 +2341,38 @@
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B16" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2377,7 +2386,7 @@
         <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2391,259 +2400,259 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B19" t="s">
-        <v>312</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>428</v>
+      </c>
+      <c r="B23" t="s">
+        <v>428</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B23" t="s">
-        <v>429</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="D23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B25" t="s">
-        <v>285</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B26" t="s">
-        <v>248</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="D26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>259</v>
+      </c>
+      <c r="B28" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B28" t="s">
-        <v>260</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="D28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" t="s">
+        <v>249</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B31" t="s">
-        <v>250</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>268</v>
+      </c>
+      <c r="B32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B32" t="s">
-        <v>269</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>387</v>
+      </c>
+      <c r="B33" t="s">
+        <v>387</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B33" t="s">
-        <v>388</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="D34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B35" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2657,119 +2666,119 @@
         <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B40" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>421</v>
+      </c>
+      <c r="B41" t="s">
+        <v>421</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B41" t="s">
-        <v>422</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B42" t="s">
-        <v>226</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>227</v>
+      </c>
+      <c r="B44" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B44" t="s">
-        <v>228</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="D44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B45" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2783,7 +2792,7 @@
         <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2797,21 +2806,21 @@
         <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>287</v>
+      </c>
+      <c r="B48" t="s">
+        <v>287</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B48" t="s">
-        <v>288</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2825,21 +2834,21 @@
         <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>316</v>
+      </c>
+      <c r="B50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B50" t="s">
-        <v>317</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="D50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2853,21 +2862,21 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>360</v>
+      </c>
+      <c r="B52" t="s">
+        <v>360</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B52" t="s">
-        <v>361</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="D52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2881,21 +2890,21 @@
         <v>53</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2906,24 +2915,24 @@
         <v>30</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B56" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2934,52 +2943,52 @@
         <v>11</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B58" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>472</v>
+      </c>
+      <c r="B59" t="s">
+        <v>472</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B59" t="s">
-        <v>473</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="D59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2990,52 +2999,52 @@
         <v>12</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>346</v>
+      </c>
+      <c r="B63" t="s">
+        <v>346</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B63" t="s">
-        <v>347</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="D63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3046,122 +3055,122 @@
         <v>13</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B66" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>354</v>
+      </c>
+      <c r="B67" t="s">
+        <v>354</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B67" t="s">
-        <v>355</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="D67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B68" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B69" t="s">
-        <v>122</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="D69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B70" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B71" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B72" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" t="s">
+        <v>199</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B73" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="D73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3175,175 +3184,175 @@
         <v>43</v>
       </c>
       <c r="D74" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B75" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>468</v>
+      </c>
+      <c r="B76" t="s">
+        <v>468</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B76" t="s">
-        <v>469</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>470</v>
-      </c>
       <c r="D76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>229</v>
+      </c>
+      <c r="B77" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B77" t="s">
-        <v>230</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="D77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B78" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B78" t="s">
-        <v>177</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="D78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B79" t="s">
-        <v>115</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="D79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B80" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="D80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B81" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>474</v>
+      </c>
+      <c r="B82" t="s">
+        <v>474</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B82" t="s">
-        <v>475</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>476</v>
-      </c>
       <c r="D82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>289</v>
+      </c>
+      <c r="B83" t="s">
+        <v>289</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B83" t="s">
-        <v>290</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="D83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B84" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D84" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B85" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>485</v>
+      </c>
+      <c r="B86" t="s">
+        <v>485</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B86" t="s">
-        <v>486</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>487</v>
-      </c>
       <c r="D86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -3357,7 +3366,7 @@
         <v>46</v>
       </c>
       <c r="D87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -3371,35 +3380,35 @@
         <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B89" t="s">
-        <v>91</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D89" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B90" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D90" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3413,35 +3422,35 @@
         <v>51</v>
       </c>
       <c r="D91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>381</v>
+      </c>
+      <c r="B92" t="s">
+        <v>381</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B92" t="s">
-        <v>382</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>383</v>
-      </c>
       <c r="D92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B93" t="s">
-        <v>101</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="D93" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -3455,189 +3464,189 @@
         <v>55</v>
       </c>
       <c r="D94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D95" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>139</v>
+      </c>
+      <c r="B96" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B96" t="s">
-        <v>140</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="D96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>488</v>
+      </c>
+      <c r="B97" t="s">
+        <v>488</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B97" t="s">
-        <v>489</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>490</v>
-      </c>
       <c r="D97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>435</v>
+      </c>
+      <c r="B98" t="s">
+        <v>435</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B98" t="s">
-        <v>436</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>437</v>
-      </c>
       <c r="D98" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>278</v>
+      </c>
+      <c r="B99" t="s">
+        <v>278</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B99" t="s">
-        <v>279</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="D99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B100" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D100" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B101" t="s">
-        <v>132</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="D101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>291</v>
+      </c>
+      <c r="B102" t="s">
+        <v>291</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B102" t="s">
-        <v>292</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="D102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>255</v>
+      </c>
+      <c r="B103" t="s">
+        <v>255</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B103" t="s">
-        <v>256</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="D103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B104" t="s">
-        <v>117</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="D104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B105" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>405</v>
+      </c>
+      <c r="B106" t="s">
+        <v>405</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B106" t="s">
-        <v>406</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="D106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B107" t="s">
-        <v>120</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="D107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3651,7 +3660,7 @@
         <v>47</v>
       </c>
       <c r="D108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -3665,63 +3674,63 @@
         <v>49</v>
       </c>
       <c r="D109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>108</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
-        <v>109</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="D110" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B111" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D111" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>407</v>
+      </c>
+      <c r="B113" t="s">
+        <v>407</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B113" t="s">
-        <v>408</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="D113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -3735,7 +3744,7 @@
         <v>60</v>
       </c>
       <c r="D114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -3746,24 +3755,24 @@
         <v>16</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B116" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D116" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3774,10 +3783,10 @@
         <v>31</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3791,105 +3800,105 @@
         <v>67</v>
       </c>
       <c r="D118" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B119" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D119" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B120" t="s">
+        <v>402</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="D120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B121" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D121" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B122" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>476</v>
+      </c>
+      <c r="B123" t="s">
+        <v>476</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B123" t="s">
-        <v>477</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="D123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B124" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>147</v>
+      </c>
+      <c r="B125" t="s">
+        <v>147</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B125" t="s">
-        <v>148</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="D125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -3900,24 +3909,24 @@
         <v>17</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D126" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>480</v>
+      </c>
+      <c r="B127" t="s">
+        <v>480</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B127" t="s">
-        <v>481</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="D127" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -3931,21 +3940,21 @@
         <v>79</v>
       </c>
       <c r="D128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B129" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D129" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -3956,24 +3965,24 @@
         <v>18</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D130" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>304</v>
+      </c>
+      <c r="B131" t="s">
+        <v>304</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B131" t="s">
-        <v>305</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="D131" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -3984,192 +3993,192 @@
         <v>28</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B133" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D133" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B134" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D134" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B135" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D135" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>196</v>
+      </c>
+      <c r="B136" t="s">
+        <v>196</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B136" t="s">
-        <v>197</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="D136" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>261</v>
+      </c>
+      <c r="B137" t="s">
+        <v>261</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B137" t="s">
-        <v>262</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="D137" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B138" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D138" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>231</v>
+      </c>
+      <c r="B139" t="s">
+        <v>231</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B139" t="s">
-        <v>232</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="D139" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>293</v>
+      </c>
+      <c r="B140" t="s">
+        <v>293</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B140" t="s">
-        <v>294</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="D140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>172</v>
+      </c>
+      <c r="B141" t="s">
+        <v>172</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B141" t="s">
-        <v>173</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="D141" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B142" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D142" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>133</v>
+      </c>
+      <c r="B143" t="s">
+        <v>133</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B143" t="s">
-        <v>134</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="D143" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B144" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D144" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B145" t="s">
-        <v>150</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="D145" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -4180,1438 +4189,1438 @@
         <v>19</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D146" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B147" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D147" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>384</v>
+      </c>
+      <c r="B148" t="s">
+        <v>384</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B148" t="s">
-        <v>385</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="D148" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>94</v>
+      </c>
+      <c r="B149" t="s">
+        <v>94</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B149" t="s">
-        <v>95</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D149" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>315</v>
+      </c>
+      <c r="B150" t="s">
+        <v>315</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B150" t="s">
-        <v>89</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="D150" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>316</v>
+        <v>72</v>
       </c>
       <c r="B151" t="s">
-        <v>316</v>
+        <v>72</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D151" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>72</v>
+        <v>322</v>
       </c>
       <c r="B152" t="s">
-        <v>72</v>
+        <v>322</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D152" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>323</v>
+        <v>137</v>
       </c>
       <c r="B153" t="s">
-        <v>323</v>
+        <v>137</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="D153" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>138</v>
+        <v>282</v>
       </c>
       <c r="B154" t="s">
-        <v>138</v>
+        <v>282</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>139</v>
+        <v>283</v>
       </c>
       <c r="D154" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>283</v>
+        <v>125</v>
       </c>
       <c r="B155" t="s">
-        <v>283</v>
+        <v>125</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>284</v>
+        <v>126</v>
       </c>
       <c r="D155" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B156" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D156" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B157" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D157" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>130</v>
+        <v>440</v>
       </c>
       <c r="B158" t="s">
-        <v>130</v>
+        <v>440</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>131</v>
+        <v>444</v>
       </c>
       <c r="D158" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>441</v>
+        <v>233</v>
       </c>
       <c r="B159" t="s">
-        <v>441</v>
+        <v>233</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="D159" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="B160" t="s">
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="D160" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>296</v>
+        <v>470</v>
       </c>
       <c r="B161" t="s">
-        <v>296</v>
+        <v>470</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>297</v>
+        <v>471</v>
       </c>
       <c r="D161" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>471</v>
+        <v>182</v>
       </c>
       <c r="B162" t="s">
-        <v>471</v>
+        <v>182</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>472</v>
+        <v>183</v>
       </c>
       <c r="D162" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="B163" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="D163" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="B164" t="s">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="D164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>307</v>
+        <v>20</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>308</v>
+        <v>195</v>
       </c>
       <c r="D165" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="B166" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="D166" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>143</v>
+        <v>302</v>
       </c>
       <c r="B167" t="s">
-        <v>143</v>
+        <v>302</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>145</v>
+        <v>303</v>
       </c>
       <c r="D167" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="B168" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="D168" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="B169" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="D169" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="B170" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>367</v>
+        <v>83</v>
       </c>
       <c r="D170" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>324</v>
+        <v>123</v>
       </c>
       <c r="B171" t="s">
-        <v>324</v>
+        <v>123</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="D171" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>124</v>
+        <v>272</v>
       </c>
       <c r="B172" t="s">
-        <v>124</v>
+        <v>272</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>125</v>
+        <v>276</v>
       </c>
       <c r="D172" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>273</v>
+        <v>338</v>
       </c>
       <c r="B173" t="s">
-        <v>273</v>
+        <v>338</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>277</v>
+        <v>343</v>
       </c>
       <c r="D173" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="B174" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="D174" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>298</v>
+        <v>208</v>
       </c>
       <c r="B175" t="s">
-        <v>298</v>
+        <v>208</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>299</v>
+        <v>215</v>
       </c>
       <c r="D175" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="B176" t="s">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c r="D176" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B177" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D177" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="B178" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="D178" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="B179" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="D179" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>281</v>
+        <v>32</v>
       </c>
       <c r="B180" t="s">
-        <v>281</v>
+        <v>32</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>282</v>
+        <v>40</v>
       </c>
       <c r="D180" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="B181" t="s">
-        <v>32</v>
+        <v>467</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="D181" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="B182" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="D182" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>238</v>
+        <v>313</v>
       </c>
       <c r="B183" t="s">
-        <v>432</v>
+        <v>313</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>239</v>
+        <v>314</v>
       </c>
       <c r="D183" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>314</v>
+        <v>70</v>
       </c>
       <c r="B184" t="s">
-        <v>314</v>
+        <v>70</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>315</v>
+        <v>71</v>
       </c>
       <c r="D184" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="B185" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="D185" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="B186" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="D186" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>189</v>
+        <v>451</v>
       </c>
       <c r="B187" t="s">
-        <v>189</v>
+        <v>451</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>190</v>
+        <v>458</v>
       </c>
       <c r="D187" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>452</v>
+        <v>257</v>
       </c>
       <c r="B188" t="s">
-        <v>452</v>
+        <v>257</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>459</v>
+        <v>258</v>
       </c>
       <c r="D188" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>258</v>
+        <v>35</v>
       </c>
       <c r="B189" t="s">
-        <v>258</v>
+        <v>412</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="D189" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="B190" t="s">
-        <v>413</v>
+        <v>210</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="D190" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="B191" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="D191" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>22</v>
+        <v>308</v>
       </c>
       <c r="B192" t="s">
-        <v>22</v>
+        <v>308</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="D192" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>309</v>
+        <v>96</v>
       </c>
       <c r="B193" t="s">
-        <v>309</v>
+        <v>96</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D193" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>97</v>
+        <v>328</v>
       </c>
       <c r="B194" t="s">
-        <v>97</v>
+        <v>328</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>98</v>
+        <v>333</v>
       </c>
       <c r="D194" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>329</v>
+        <v>410</v>
       </c>
       <c r="B195" t="s">
-        <v>329</v>
+        <v>410</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>334</v>
+        <v>411</v>
       </c>
       <c r="D195" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>411</v>
+        <v>127</v>
       </c>
       <c r="B196" t="s">
-        <v>411</v>
+        <v>127</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>412</v>
+        <v>128</v>
       </c>
       <c r="D196" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>128</v>
+        <v>448</v>
       </c>
       <c r="B197" t="s">
-        <v>128</v>
+        <v>448</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>129</v>
+        <v>449</v>
       </c>
       <c r="D197" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>449</v>
+        <v>157</v>
       </c>
       <c r="B198" t="s">
-        <v>449</v>
+        <v>157</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>450</v>
+        <v>160</v>
       </c>
       <c r="D198" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="B199" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="D199" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>23</v>
+        <v>490</v>
       </c>
       <c r="B200" t="s">
-        <v>23</v>
+        <v>490</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>36</v>
+        <v>491</v>
       </c>
       <c r="D200" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>491</v>
+        <v>437</v>
       </c>
       <c r="B201" t="s">
-        <v>491</v>
+        <v>437</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="D201" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>438</v>
+        <v>33</v>
       </c>
       <c r="B202" t="s">
-        <v>438</v>
+        <v>33</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>439</v>
+        <v>192</v>
       </c>
       <c r="D202" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="B203" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="D203" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>152</v>
+        <v>324</v>
       </c>
       <c r="B204" t="s">
-        <v>152</v>
+        <v>324</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="D204" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>325</v>
+        <v>213</v>
       </c>
       <c r="B205" t="s">
-        <v>325</v>
+        <v>213</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="D205" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B206" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D206" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="B207" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="D207" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>301</v>
+        <v>418</v>
       </c>
       <c r="B208" t="s">
-        <v>301</v>
+        <v>418</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>302</v>
+        <v>420</v>
       </c>
       <c r="D208" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="B209" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>421</v>
+        <v>365</v>
       </c>
       <c r="D209" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B210" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="D210" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>351</v>
+        <v>452</v>
       </c>
       <c r="B211" t="s">
-        <v>351</v>
+        <v>452</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>354</v>
+        <v>459</v>
       </c>
       <c r="D211" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>453</v>
+        <v>135</v>
       </c>
       <c r="B212" t="s">
-        <v>453</v>
+        <v>135</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>460</v>
+        <v>136</v>
       </c>
       <c r="D212" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="B213" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="D213" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="B214" t="s">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="D214" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>75</v>
+        <v>478</v>
       </c>
       <c r="B215" t="s">
-        <v>75</v>
+        <v>478</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>76</v>
+        <v>479</v>
       </c>
       <c r="D215" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>479</v>
+        <v>239</v>
       </c>
       <c r="B216" t="s">
-        <v>479</v>
+        <v>239</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="D216" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="B217" t="s">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="D217" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="B218" t="s">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="D218" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>213</v>
+        <v>413</v>
       </c>
       <c r="B219" t="s">
-        <v>213</v>
+        <v>413</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>222</v>
+        <v>414</v>
       </c>
       <c r="D219" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>414</v>
+        <v>241</v>
       </c>
       <c r="B220" t="s">
-        <v>414</v>
+        <v>241</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>415</v>
+        <v>242</v>
       </c>
       <c r="D220" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="B221" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="D221" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B222" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D222" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>25</v>
+        <v>266</v>
       </c>
       <c r="B223" t="s">
-        <v>25</v>
+        <v>266</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>171</v>
+        <v>267</v>
       </c>
       <c r="D223" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
+        <v>266</v>
+      </c>
+      <c r="B224" t="s">
+        <v>266</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B224" t="s">
-        <v>267</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="D224" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B225" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D225" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>265</v>
+        <v>141</v>
       </c>
       <c r="B226" t="s">
-        <v>265</v>
+        <v>141</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>266</v>
+        <v>143</v>
       </c>
       <c r="D226" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="B227" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>144</v>
+        <v>244</v>
       </c>
       <c r="D227" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>244</v>
+        <v>417</v>
       </c>
       <c r="B228" t="s">
-        <v>244</v>
+        <v>417</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>245</v>
+        <v>362</v>
       </c>
       <c r="D228" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="B229" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>363</v>
+        <v>455</v>
       </c>
       <c r="D229" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>454</v>
+        <v>165</v>
       </c>
       <c r="B230" t="s">
-        <v>454</v>
+        <v>165</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>456</v>
+        <v>166</v>
       </c>
       <c r="D230" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>166</v>
+        <v>339</v>
       </c>
       <c r="B231" t="s">
-        <v>166</v>
+        <v>339</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>167</v>
+        <v>344</v>
       </c>
       <c r="D231" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>340</v>
+        <v>432</v>
       </c>
       <c r="B232" t="s">
-        <v>340</v>
+        <v>434</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>345</v>
+        <v>433</v>
       </c>
       <c r="D232" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="B233" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="D233" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>483</v>
+        <v>425</v>
       </c>
       <c r="B234" t="s">
-        <v>483</v>
+        <v>425</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>484</v>
+        <v>426</v>
       </c>
       <c r="D234" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>426</v>
+        <v>34</v>
       </c>
       <c r="B235" t="s">
-        <v>426</v>
+        <v>34</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>427</v>
+        <v>201</v>
       </c>
       <c r="D235" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="B236" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="D236" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>146</v>
+        <v>325</v>
       </c>
       <c r="B237" t="s">
-        <v>146</v>
+        <v>325</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="D237" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>326</v>
+        <v>174</v>
       </c>
       <c r="B238" t="s">
-        <v>326</v>
+        <v>174</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="D238" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="B239" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D239" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>26</v>
+        <v>423</v>
       </c>
       <c r="B240" t="s">
-        <v>26</v>
+        <v>423</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>185</v>
+        <v>424</v>
       </c>
       <c r="D240" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>424</v>
+        <v>271</v>
       </c>
       <c r="B241" t="s">
-        <v>424</v>
+        <v>271</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>425</v>
+        <v>275</v>
       </c>
       <c r="D241" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="B242" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>276</v>
+        <v>44</v>
       </c>
       <c r="D242" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>27</v>
+        <v>492</v>
       </c>
       <c r="B243" t="s">
-        <v>27</v>
+        <v>492</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>44</v>
+        <v>493</v>
       </c>
       <c r="D243" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B244" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D244" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B245" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>496</v>
       </c>
       <c r="D245" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B246" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D246" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B247" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D247" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B248" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D248" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -5622,80 +5631,80 @@
         <v>504</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D249" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B250" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D250" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B251" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D251" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B252" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D252" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B253" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D253" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B254" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D254" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -5709,133 +5718,133 @@
         <v>517</v>
       </c>
       <c r="D255" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B256" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D256" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B257" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D257" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B258" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D258" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B259" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D259" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B260" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D260" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B261" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D261" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B262" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D262" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B263" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D263" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B264" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D264" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -5849,245 +5858,259 @@
         <v>535</v>
       </c>
       <c r="D265" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B266" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D266" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B267" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D267" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B268" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D268" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B269" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D269" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B270" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D270" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B271" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D271" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B272" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D272" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B273" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D273" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B274" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D274" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B275" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D275" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B276" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D276" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B277" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D277" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B278" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D278" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B279" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D279" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B280" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D280" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B281" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D281" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>568</v>
+      </c>
+      <c r="B282" t="s">
+        <v>568</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D282" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C200" r:id="rId1" xr:uid="{C45472D7-1E29-4980-95E0-15D6D01B36FA}"/>
+    <hyperlink ref="C199" r:id="rId1" xr:uid="{C45472D7-1E29-4980-95E0-15D6D01B36FA}"/>
     <hyperlink ref="C14" r:id="rId2" xr:uid="{1EA6B6DE-C528-4BBF-8958-B9D1378CBBEA}"/>
     <hyperlink ref="C18" r:id="rId3" xr:uid="{4F9BBF32-0E85-44F1-BAE2-FDFE1B91203C}"/>
     <hyperlink ref="C46" r:id="rId4" xr:uid="{1743C8BA-2A45-4EF9-8EAE-003FA5622677}"/>
-    <hyperlink ref="C181" r:id="rId5" xr:uid="{759148E7-8E0F-41F6-B9F3-BB34C434E2D7}"/>
-    <hyperlink ref="C192" r:id="rId6" xr:uid="{8850343C-EAF0-4713-9C66-21BF05B290EC}"/>
+    <hyperlink ref="C180" r:id="rId5" xr:uid="{759148E7-8E0F-41F6-B9F3-BB34C434E2D7}"/>
+    <hyperlink ref="C191" r:id="rId6" xr:uid="{8850343C-EAF0-4713-9C66-21BF05B290EC}"/>
     <hyperlink ref="C49" r:id="rId7" xr:uid="{CA8DDB4C-49CE-4AA5-B564-1108A8088B23}"/>
     <hyperlink ref="C74" r:id="rId8" xr:uid="{A96A63DD-6ED4-47E6-B759-BD9FCFC58B60}"/>
-    <hyperlink ref="C243" r:id="rId9" xr:uid="{55C307B9-C21E-4227-B6BA-602B4CDD2E63}"/>
-    <hyperlink ref="C178" r:id="rId10" xr:uid="{FBC71765-97DF-4951-8AED-C771FFA6C3B6}"/>
+    <hyperlink ref="C242" r:id="rId9" xr:uid="{55C307B9-C21E-4227-B6BA-602B4CDD2E63}"/>
+    <hyperlink ref="C177" r:id="rId10" xr:uid="{FBC71765-97DF-4951-8AED-C771FFA6C3B6}"/>
     <hyperlink ref="C87" r:id="rId11" xr:uid="{44C0BA97-BC98-4009-9EF5-8C29C471CC2B}"/>
     <hyperlink ref="C108" r:id="rId12" xr:uid="{83CC39A1-58DF-4F8E-80EF-7133BFDA09E5}"/>
     <hyperlink ref="C109" r:id="rId13" xr:uid="{A9F4C6E5-7612-40C3-92FF-2F0A1197F32E}"/>
@@ -6095,274 +6118,275 @@
     <hyperlink ref="C53" r:id="rId15" xr:uid="{03239B77-EAD5-4377-8E99-41BDC8C35FAF}"/>
     <hyperlink ref="C94" r:id="rId16" xr:uid="{A963AD17-9953-4B76-B014-99AE04AFBC22}"/>
     <hyperlink ref="C37" r:id="rId17" xr:uid="{254FC5D9-2139-49F1-AF42-C37C7AD52CF9}"/>
-    <hyperlink ref="C153" r:id="rId18" xr:uid="{ADEC84CE-4B4C-475A-B45C-A5A25ABA57F9}"/>
+    <hyperlink ref="C152" r:id="rId18" xr:uid="{ADEC84CE-4B4C-475A-B45C-A5A25ABA57F9}"/>
     <hyperlink ref="C114" r:id="rId19" xr:uid="{A903E050-8C42-4183-880A-565DF6E20245}"/>
     <hyperlink ref="C5" r:id="rId20" xr:uid="{E83EAE86-523E-449E-8625-E0FCBC6EDE67}"/>
-    <hyperlink ref="C238" r:id="rId21" xr:uid="{4F43B789-DA90-4D7B-B4C4-7719C98AFEF4}"/>
-    <hyperlink ref="C177" r:id="rId22" xr:uid="{1073D5D0-0D5E-4AB1-940D-24EDB5EF0E1D}"/>
+    <hyperlink ref="C237" r:id="rId21" xr:uid="{4F43B789-DA90-4D7B-B4C4-7719C98AFEF4}"/>
+    <hyperlink ref="C176" r:id="rId22" xr:uid="{1073D5D0-0D5E-4AB1-940D-24EDB5EF0E1D}"/>
     <hyperlink ref="C118" r:id="rId23" xr:uid="{30F225A0-9236-482B-8651-D6C10378128C}"/>
     <hyperlink ref="C4" r:id="rId24" xr:uid="{DE5B31BF-642F-4D65-BB0B-8BB02C0C599F}"/>
-    <hyperlink ref="C185" r:id="rId25" xr:uid="{6478F936-7CCC-485F-8FAD-5E974D281F62}"/>
-    <hyperlink ref="C152" r:id="rId26" xr:uid="{4FDE78C3-89C9-4179-86C1-21A106ED4B68}"/>
+    <hyperlink ref="C184" r:id="rId25" xr:uid="{6478F936-7CCC-485F-8FAD-5E974D281F62}"/>
+    <hyperlink ref="C151" r:id="rId26" xr:uid="{4FDE78C3-89C9-4179-86C1-21A106ED4B68}"/>
     <hyperlink ref="C119" r:id="rId27" xr:uid="{71FF812A-69FD-42EC-A428-9503EB1166BE}"/>
-    <hyperlink ref="C215" r:id="rId28" xr:uid="{6A269B70-A168-4F22-809C-69E3664B7B4F}"/>
+    <hyperlink ref="C214" r:id="rId28" xr:uid="{6A269B70-A168-4F22-809C-69E3664B7B4F}"/>
     <hyperlink ref="C128" r:id="rId29" xr:uid="{2AF8C5A2-0A6E-4AFA-BE5A-8756CD3E9A15}"/>
-    <hyperlink ref="C164" r:id="rId30" xr:uid="{775807C5-A8E8-4E03-94A3-07FC338C7B2F}"/>
-    <hyperlink ref="C218" r:id="rId31" xr:uid="{4C620958-7BE1-4A72-AF05-2D2C30EFE637}"/>
-    <hyperlink ref="C171" r:id="rId32" xr:uid="{9C374395-032E-47D8-8E1D-F14135FEB884}"/>
+    <hyperlink ref="C163" r:id="rId30" xr:uid="{775807C5-A8E8-4E03-94A3-07FC338C7B2F}"/>
+    <hyperlink ref="C217" r:id="rId31" xr:uid="{4C620958-7BE1-4A72-AF05-2D2C30EFE637}"/>
+    <hyperlink ref="C170" r:id="rId32" xr:uid="{9C374395-032E-47D8-8E1D-F14135FEB884}"/>
     <hyperlink ref="C10" r:id="rId33" xr:uid="{7C24BFBA-D940-4280-9AA6-9EB5B2A7C325}"/>
     <hyperlink ref="C17" r:id="rId34" xr:uid="{935A4BCA-043C-42B5-9B58-F01D785A78E7}"/>
-    <hyperlink ref="C150" r:id="rId35" xr:uid="{ADD15800-FFAF-4C56-96C3-B6E9A6B7A9B4}"/>
-    <hyperlink ref="C89" r:id="rId36" xr:uid="{FD14EBC0-A744-44D9-8D7E-8C400674FEED}"/>
-    <hyperlink ref="C38" r:id="rId37" xr:uid="{1C789BBB-C806-4AEC-87FD-4A30D09E0378}"/>
-    <hyperlink ref="C149" r:id="rId38" xr:uid="{39BDDF5C-5ED6-4DC6-8403-935839E42AE4}"/>
-    <hyperlink ref="C194" r:id="rId39" xr:uid="{16CEFA6F-1B35-42FD-8606-E6523BF824B9}"/>
-    <hyperlink ref="C62:C78" r:id="rId40" display="https://midfield.mlbstatic.com/v1/people/686752/spots/120" xr:uid="{1E5EFC44-7608-40AF-A777-AAC898C6A9CB}"/>
-    <hyperlink ref="C34" r:id="rId41" xr:uid="{17D051F0-8C68-4AF3-B256-1F5E71DD2455}"/>
-    <hyperlink ref="C93" r:id="rId42" xr:uid="{B4766B4E-7BF7-4C41-98C2-8E48C0CCFAC8}"/>
-    <hyperlink ref="C112" r:id="rId43" xr:uid="{49ACB698-CD82-44AA-8A65-26D2BBDB0788}"/>
-    <hyperlink ref="C64" r:id="rId44" xr:uid="{FBAE3FE6-1362-4C09-BAE7-1B131AB4C4B4}"/>
-    <hyperlink ref="C56" r:id="rId45" xr:uid="{2181E8B2-59C9-4709-AA9A-962EF37831F2}"/>
-    <hyperlink ref="C110" r:id="rId46" xr:uid="{17F5505C-32E7-4316-BF97-1E84202C4785}"/>
-    <hyperlink ref="C80" r:id="rId47" xr:uid="{880E4723-2052-4A3F-AA76-423C6810C994}"/>
-    <hyperlink ref="C157" r:id="rId48" xr:uid="{D33AE6C2-8688-4E9D-B293-9E99FBE0DEB4}"/>
-    <hyperlink ref="C79" r:id="rId49" xr:uid="{ECF4F8FF-BB1E-4B49-965D-64768DC4F1E2}"/>
-    <hyperlink ref="C104" r:id="rId50" xr:uid="{2511CD2C-B67C-4354-9629-DE649A920EDD}"/>
-    <hyperlink ref="C205" r:id="rId51" xr:uid="{AE0C1E2C-3D72-45CF-9965-CDB6C0591891}"/>
-    <hyperlink ref="C107" r:id="rId52" xr:uid="{0E258565-BD6E-428A-BCE6-5D446B3DA628}"/>
-    <hyperlink ref="C69" r:id="rId53" xr:uid="{46541DDA-A399-42E9-B388-CAC462670117}"/>
-    <hyperlink ref="C172" r:id="rId54" xr:uid="{E26B4D45-A378-40C0-ACBA-A3D7F3B56528}"/>
-    <hyperlink ref="C156" r:id="rId55" xr:uid="{845F84C0-232D-4D80-B9DD-7415056297C5}"/>
-    <hyperlink ref="C197" r:id="rId56" xr:uid="{89BF64D4-12AC-4144-8B32-FDDD10668077}"/>
-    <hyperlink ref="C158" r:id="rId57" xr:uid="{8742B9B5-62C4-423F-B53B-AE1C619A7CB3}"/>
-    <hyperlink ref="C101" r:id="rId58" xr:uid="{A93F2FF5-2AE8-404E-A935-39A2AA8E0351}"/>
-    <hyperlink ref="C143" r:id="rId59" xr:uid="{F60D4181-1F3A-4C64-97A2-8368BC1A6176}"/>
-    <hyperlink ref="C213" r:id="rId60" xr:uid="{ECDB48F3-3C25-4B15-A902-40A90B1D441F}"/>
-    <hyperlink ref="C154" r:id="rId61" xr:uid="{1BF5B84A-6403-496F-BE72-4F7CFE5CD46A}"/>
-    <hyperlink ref="C96" r:id="rId62" xr:uid="{D48CC097-21D9-4697-92AF-17FE888C3469}"/>
-    <hyperlink ref="C227" r:id="rId63" xr:uid="{BA111F30-72E9-4701-B810-D904333C5C12}"/>
-    <hyperlink ref="C167" r:id="rId64" xr:uid="{C971DFEC-7D7D-44F8-8D77-AF06DD0C3650}"/>
-    <hyperlink ref="C237" r:id="rId65" xr:uid="{FF747A90-D82C-417A-A604-11C8A9BB8A1B}"/>
-    <hyperlink ref="C125" r:id="rId66" xr:uid="{508F6AEF-0519-456E-95D4-CFBA12F1D839}"/>
-    <hyperlink ref="C145" r:id="rId67" xr:uid="{B67845F2-3B4F-45CB-AC96-C32761C20607}"/>
-    <hyperlink ref="C204" r:id="rId68" xr:uid="{B3EDDFE1-3BCD-4BF4-B469-F8CBF05D5228}"/>
-    <hyperlink ref="C35" r:id="rId69" xr:uid="{8E3867C0-9128-44B4-8D0A-62F663FD1C50}"/>
-    <hyperlink ref="C54" r:id="rId70" xr:uid="{7DF45689-E876-4814-B27F-BD82DF1893A8}"/>
-    <hyperlink ref="C199" r:id="rId71" xr:uid="{10233510-1E7F-47D8-9DC8-CECCEEAF2542}"/>
-    <hyperlink ref="C135" r:id="rId72" xr:uid="{C4B8637F-0EAC-421C-B98A-83396BEC74E6}"/>
-    <hyperlink ref="C11" r:id="rId73" xr:uid="{78FBD904-905A-4DF4-8336-339D9FD35EF9}"/>
-    <hyperlink ref="C231" r:id="rId74" xr:uid="{30FFC8B8-F48B-4956-82E5-5F5C1D42BFDA}"/>
-    <hyperlink ref="C190" r:id="rId75" xr:uid="{F297C688-6767-4A01-87CA-713F0DDF9C34}"/>
-    <hyperlink ref="C51" r:id="rId76" xr:uid="{DE8C1BDA-4F06-4739-8272-9C1526634215}"/>
-    <hyperlink ref="C223" r:id="rId77" xr:uid="{0B5DD545-15F8-4AED-86A6-780BA78A0233}"/>
-    <hyperlink ref="C130" r:id="rId78" xr:uid="{1EAB83F2-BCC3-4788-AB88-9206EE59BEFD}"/>
-    <hyperlink ref="C141" r:id="rId79" xr:uid="{B9CEB789-AD16-4793-B005-DBCE618DBE94}"/>
-    <hyperlink ref="C239" r:id="rId80" xr:uid="{BE0D192A-BC2F-4B35-99E0-370F38CA9C0B}"/>
-    <hyperlink ref="C78" r:id="rId81" xr:uid="{3F8FC17C-F146-4E12-BBB9-18B45BB5B3EC}"/>
-    <hyperlink ref="C116" r:id="rId82" xr:uid="{C3C3E0D1-E6BE-417A-AC79-EEB8F79FBE7C}"/>
-    <hyperlink ref="C60" r:id="rId83" xr:uid="{646B995D-2022-47E8-9C46-F74E16A3A629}"/>
-    <hyperlink ref="C57" r:id="rId84" xr:uid="{1F133298-7E48-4138-8126-F74D2CBDB050}"/>
-    <hyperlink ref="C222" r:id="rId85" xr:uid="{79CA2660-030A-4E38-B36D-D5A391C24AF6}"/>
-    <hyperlink ref="C163" r:id="rId86" xr:uid="{301BF770-273A-484E-AF66-F32DA8458844}"/>
-    <hyperlink ref="C240" r:id="rId87" xr:uid="{A72F7411-3596-45A9-BD47-96AE1238FE57}"/>
-    <hyperlink ref="C126" r:id="rId88" xr:uid="{9335E23F-5F7C-4364-8ABA-564F1B156EB5}"/>
-    <hyperlink ref="C146" r:id="rId89" xr:uid="{C528D45E-5270-4308-A5F4-DDDD4C29A97D}"/>
-    <hyperlink ref="C132" r:id="rId90" xr:uid="{E5C83DAC-00EF-49EE-9811-99C544403146}"/>
-    <hyperlink ref="C187" r:id="rId91" xr:uid="{F5146A50-BA2B-4466-A3AC-A9E6870FA443}"/>
-    <hyperlink ref="C182" r:id="rId92" xr:uid="{880D6AB9-DCD2-4819-B973-72461A04C7C8}"/>
-    <hyperlink ref="C203" r:id="rId93" xr:uid="{11544622-27D7-41FE-BA8C-7A64E8838D48}"/>
-    <hyperlink ref="C55" r:id="rId94" xr:uid="{BC65DFE4-1308-4C08-8CE7-8941756F790F}"/>
-    <hyperlink ref="C117" r:id="rId95" xr:uid="{8322B7F1-705E-4313-8FF2-F90CCF591E35}"/>
-    <hyperlink ref="C166" r:id="rId96" xr:uid="{EBB28F68-D663-44AA-86BD-53B20904935E}"/>
-    <hyperlink ref="C136" r:id="rId97" xr:uid="{6A80E6A8-DBFE-4A55-A512-7374F8FBE4FD}"/>
-    <hyperlink ref="C61" r:id="rId98" xr:uid="{CE6A856C-5BA0-46B8-BDBB-70D03B1E5FA6}"/>
-    <hyperlink ref="C73" r:id="rId99" xr:uid="{B219EA6C-AFC6-4A8E-A965-70B93C5367C4}"/>
-    <hyperlink ref="C236" r:id="rId100" xr:uid="{108B5805-5369-47C0-A3A2-CA30D2F91CFB}"/>
-    <hyperlink ref="C121" r:id="rId101" xr:uid="{7AD71135-DE45-46BB-A218-39306ABA3702}"/>
-    <hyperlink ref="C107:C115" r:id="rId102" display="https://midfield.mlbstatic.com/v1/people/570632/spots/120" xr:uid="{B6AEF0A1-DAD3-493D-AD72-9992AF4AC36A}"/>
-    <hyperlink ref="C206" r:id="rId103" xr:uid="{4FC1EEA6-0897-4ECD-9CE7-1A38B7A04DF4}"/>
-    <hyperlink ref="C176" r:id="rId104" xr:uid="{1C2C51A3-E75B-4CC0-A087-8366DF24A3F2}"/>
-    <hyperlink ref="C191" r:id="rId105" xr:uid="{BB7DF76E-86EB-4858-AEA6-0696B62895BC}"/>
-    <hyperlink ref="C20" r:id="rId106" xr:uid="{01DE55D4-78E8-461B-A8B9-B03E6D65C918}"/>
-    <hyperlink ref="C75" r:id="rId107" xr:uid="{FCD4C620-BB71-4CC3-A123-50EFE98B5FE2}"/>
-    <hyperlink ref="C186" r:id="rId108" xr:uid="{29ED6610-0117-47A3-9540-69CB5AC80B92}"/>
-    <hyperlink ref="C207" r:id="rId109" xr:uid="{9E30FD12-A196-40BE-A210-0C73986E5064}"/>
-    <hyperlink ref="C219" r:id="rId110" xr:uid="{B8175F43-D70E-459F-98CF-15ECFA717548}"/>
-    <hyperlink ref="C142" r:id="rId111" xr:uid="{A1F217DD-45E3-4ABD-A801-5D9F166E4EE3}"/>
-    <hyperlink ref="C16" r:id="rId112" xr:uid="{C6E8A0D7-8E63-4EC1-8C28-4570F13EECF8}"/>
-    <hyperlink ref="C42" r:id="rId113" xr:uid="{061EEF2C-85CF-400C-B70C-3AC1B107F1EC}"/>
-    <hyperlink ref="C44" r:id="rId114" xr:uid="{07D08D3B-A3C3-4916-9FE0-2CF26ECA4304}"/>
-    <hyperlink ref="C77" r:id="rId115" xr:uid="{91E7913A-86EE-40F5-9798-4A7B25F420CA}"/>
-    <hyperlink ref="C139" r:id="rId116" xr:uid="{0A5A0FD7-8B57-41D3-A410-CA8F6779F8C0}"/>
-    <hyperlink ref="C160" r:id="rId117" xr:uid="{9979CA0C-3483-428F-A7AC-8624936FB8FA}"/>
-    <hyperlink ref="C179" r:id="rId118" xr:uid="{482918C2-89BA-496F-8160-085C2940475B}"/>
-    <hyperlink ref="C183" r:id="rId119" xr:uid="{674942CB-83E4-4508-A135-1EB5B6D6E0BF}"/>
-    <hyperlink ref="C217" r:id="rId120" xr:uid="{1F6209AE-91BF-41D4-B9AD-7DEABA16621B}"/>
-    <hyperlink ref="C221" r:id="rId121" xr:uid="{F0E5D36A-2456-4111-9B29-31D8CBD1A12D}"/>
-    <hyperlink ref="C228" r:id="rId122" xr:uid="{789C651E-21E8-4E0D-8017-9BF6770B7FE4}"/>
-    <hyperlink ref="C214" r:id="rId123" xr:uid="{E96CD394-E5F8-46F9-9A93-3EA98A4EE8DE}"/>
-    <hyperlink ref="C26" r:id="rId124" xr:uid="{170B8200-FCC5-4ED1-8A6A-63B3F60FC427}"/>
-    <hyperlink ref="C31" r:id="rId125" xr:uid="{1165D173-E61C-477D-81EA-53C274E42084}"/>
-    <hyperlink ref="C13" r:id="rId126" xr:uid="{D71E6989-E12D-4FB6-8277-45C3718AA5C4}"/>
-    <hyperlink ref="C9" r:id="rId127" xr:uid="{FB4F273B-2196-4018-85BA-D42A207F8910}"/>
-    <hyperlink ref="C103" r:id="rId128" xr:uid="{9F233235-B9B1-4E7A-807E-8F2EE493E173}"/>
-    <hyperlink ref="C189" r:id="rId129" xr:uid="{F5D1A66D-4324-4468-A7A0-AD3D00B16AE7}"/>
-    <hyperlink ref="C28" r:id="rId130" xr:uid="{1759929B-600A-4949-96E1-F424E054D97A}"/>
-    <hyperlink ref="C137" r:id="rId131" xr:uid="{8B19E95A-E327-406E-9F25-861358533D76}"/>
-    <hyperlink ref="C27" r:id="rId132" xr:uid="{1DD3FDF5-6556-4823-8827-A75B5E83FD01}"/>
-    <hyperlink ref="C226" r:id="rId133" xr:uid="{B62475DC-179F-4CE0-8CF6-51DC972D40B7}"/>
-    <hyperlink ref="C224" r:id="rId134" xr:uid="{492088BD-9B89-42AA-A6AF-1F83749BDC72}"/>
-    <hyperlink ref="C32" r:id="rId135" xr:uid="{6118D192-2DB6-4311-A382-3371906C183D}"/>
-    <hyperlink ref="C140:C143" r:id="rId136" display="https://midfield.mlbstatic.com/v1/people/693821/spots/120" xr:uid="{0E83A794-B683-4463-A3A3-95576AFDD615}"/>
-    <hyperlink ref="C58" r:id="rId137" xr:uid="{98EC2002-988D-46D0-AD8B-CB1135815ADD}"/>
-    <hyperlink ref="C242" r:id="rId138" xr:uid="{80C5B6A6-E3F5-4F34-8C17-B202CF8842F5}"/>
-    <hyperlink ref="C173" r:id="rId139" xr:uid="{35842AC4-F920-4A32-B105-587FE352F876}"/>
-    <hyperlink ref="C111" r:id="rId140" xr:uid="{24E2A301-E80D-4F02-A94B-CFE6DF3719D1}"/>
-    <hyperlink ref="C99" r:id="rId141" xr:uid="{6D687EFE-5BD7-4FEF-B636-1A728E3CB6DF}"/>
-    <hyperlink ref="C180" r:id="rId142" xr:uid="{20E003D8-D5C4-4113-AFC3-D076CE9FE0A0}"/>
-    <hyperlink ref="C155" r:id="rId143" xr:uid="{3D5F262E-120A-4E2A-AF3A-1C4C1117AE44}"/>
-    <hyperlink ref="C25" r:id="rId144" xr:uid="{5ED77DE1-166F-4541-898A-786E114DAEF4}"/>
-    <hyperlink ref="C39" r:id="rId145" xr:uid="{81DC0D20-42F6-4D3C-87D3-B645CB35712A}"/>
-    <hyperlink ref="C48" r:id="rId146" xr:uid="{E396E594-A4D8-4E20-9A24-90B7589370B5}"/>
-    <hyperlink ref="C83" r:id="rId147" xr:uid="{823E8EED-4901-4993-A8EA-2CA91EBD8526}"/>
-    <hyperlink ref="C102" r:id="rId148" xr:uid="{923E21E9-8410-4112-9000-9E93896189E6}"/>
-    <hyperlink ref="C140" r:id="rId149" xr:uid="{C526E886-242E-4E87-ACB6-1E69A02EEBD3}"/>
-    <hyperlink ref="C161" r:id="rId150" xr:uid="{BFEEE380-0C63-474F-821D-61F8EF908A46}"/>
-    <hyperlink ref="C175" r:id="rId151" xr:uid="{2250FC95-0A39-4EE2-BCB2-FFF1EF3E4964}"/>
-    <hyperlink ref="C124" r:id="rId152" xr:uid="{174AA7F5-75DB-42B1-ACFF-646023A4BD2A}"/>
-    <hyperlink ref="C208" r:id="rId153" xr:uid="{30D34D43-AD29-4DE6-93CC-FD7C2F05FE00}"/>
-    <hyperlink ref="C168" r:id="rId154" xr:uid="{AD2496AE-C6CA-4D48-BE1B-E0D40292B961}"/>
-    <hyperlink ref="C131" r:id="rId155" xr:uid="{8EA8AFE5-38A5-4C45-95E6-52202880E214}"/>
-    <hyperlink ref="C165" r:id="rId156" xr:uid="{933DFE08-9AFA-4E05-81A6-D7AD9B2936B4}"/>
-    <hyperlink ref="C193" r:id="rId157" xr:uid="{5CB1E923-0C0B-46C3-9A06-C5BF1664BB99}"/>
-    <hyperlink ref="C7" r:id="rId158" xr:uid="{F0633C7D-B030-42F8-867D-487A4D0622C9}"/>
-    <hyperlink ref="C19" r:id="rId159" xr:uid="{F7C050ED-4E17-4083-9409-29763900B9F8}"/>
-    <hyperlink ref="C88" r:id="rId160" xr:uid="{96DF98C5-93EB-4B46-A8DE-540F97FB9D2D}"/>
-    <hyperlink ref="C184" r:id="rId161" xr:uid="{DC3780E6-8DBB-43AF-868F-038344C91A4E}"/>
-    <hyperlink ref="C151" r:id="rId162" xr:uid="{AF843F30-7625-42D0-BA56-6434FAE62C25}"/>
-    <hyperlink ref="C225" r:id="rId163" xr:uid="{5D94729E-5BC9-4A90-91A4-E22E6DF54EC5}"/>
-    <hyperlink ref="C50" r:id="rId164" xr:uid="{07FE2158-E54F-4DAF-A552-7A5F3BB2BAF7}"/>
-    <hyperlink ref="C47" r:id="rId165" xr:uid="{202CCF33-99A3-4853-AE16-95008489CCC5}"/>
-    <hyperlink ref="C65" r:id="rId166" xr:uid="{F4B5E23D-9319-41A2-AB51-5DE0A45DD8B4}"/>
-    <hyperlink ref="C115" r:id="rId167" xr:uid="{1692F5E0-FB63-492A-92F7-244666AA4D6C}"/>
-    <hyperlink ref="C3" r:id="rId168" xr:uid="{AB038426-E25A-4D00-959B-BADAAFC83263}"/>
-    <hyperlink ref="C22" r:id="rId169" xr:uid="{37BD58F8-5963-4DEE-8AC0-94C476AAA7B4}"/>
-    <hyperlink ref="C195" r:id="rId170" xr:uid="{224B22F8-17AF-4F0E-B83D-83E51925E3DA}"/>
-    <hyperlink ref="C133" r:id="rId171" xr:uid="{7C41A3D8-7B2C-4E19-8D41-28A0650CBF55}"/>
-    <hyperlink ref="C85" r:id="rId172" xr:uid="{04763326-6E4F-46B3-85EC-C59D9071D0F0}"/>
-    <hyperlink ref="C21" r:id="rId173" xr:uid="{6595AC92-4EB6-4C25-8AA6-B1D9744B1285}"/>
-    <hyperlink ref="C169" r:id="rId174" xr:uid="{B78F9174-E83B-47E6-946E-143B1E2D43D8}"/>
-    <hyperlink ref="C174" r:id="rId175" xr:uid="{063DB121-1B09-4C4A-A7CB-67F92A70E822}"/>
-    <hyperlink ref="C232" r:id="rId176" xr:uid="{4529126A-013E-48BE-BF9C-0857DD382C6C}"/>
-    <hyperlink ref="C15" r:id="rId177" xr:uid="{2F41BBD7-2015-4D42-8F88-8932B17FA34E}"/>
-    <hyperlink ref="C63" r:id="rId178" xr:uid="{E3EEE818-F47C-4DA4-97C5-449CA4C17CE4}"/>
-    <hyperlink ref="C12" r:id="rId179" xr:uid="{9F68A673-C7E6-4A90-BBDE-1C7409208E96}"/>
-    <hyperlink ref="C129" r:id="rId180" xr:uid="{889380E0-647D-4489-BE9B-25BAE5EB7861}"/>
-    <hyperlink ref="C211" r:id="rId181" xr:uid="{E541544B-61E3-4737-BBE7-E7662EC00A72}"/>
-    <hyperlink ref="C67" r:id="rId182" xr:uid="{4BE71305-E922-40EC-A901-A899B6397770}"/>
-    <hyperlink ref="C8" r:id="rId183" xr:uid="{1DB36123-F811-448C-80B1-68D23463FD4D}"/>
-    <hyperlink ref="C72" r:id="rId184" xr:uid="{3C679776-3AB8-453B-A4D3-B37792A73D16}"/>
-    <hyperlink ref="C52" r:id="rId185" xr:uid="{FA711ADD-C082-40DD-82D1-0E78DD912F0F}"/>
-    <hyperlink ref="C229" r:id="rId186" xr:uid="{C7B04CD8-F035-43DB-A418-9133A48E8921}"/>
-    <hyperlink ref="C210" r:id="rId187" xr:uid="{53F20A14-3749-4B51-B405-0EB1EA8BE457}"/>
-    <hyperlink ref="C170" r:id="rId188" xr:uid="{F2A8C005-E73E-4EA8-9A69-7D1C21C8DA9F}"/>
-    <hyperlink ref="C24" r:id="rId189" xr:uid="{E1A325DE-861E-4917-B535-A3626E67093B}"/>
-    <hyperlink ref="C105" r:id="rId190" xr:uid="{0B8721CA-ADDC-484A-A593-AA5D129028A4}"/>
-    <hyperlink ref="C70" r:id="rId191" xr:uid="{976908EE-A22D-40EC-95CA-B678C03D5727}"/>
-    <hyperlink ref="C6" r:id="rId192" xr:uid="{2359E283-699E-4E88-A140-3D7A568FC6E6}"/>
-    <hyperlink ref="C2" r:id="rId193" xr:uid="{6EAF58AD-5C21-4CAF-9E5B-779352704AB8}"/>
-    <hyperlink ref="C100" r:id="rId194" xr:uid="{075C6DD4-9B5F-454C-9441-F8AB51EBBED6}"/>
-    <hyperlink ref="C36" r:id="rId195" xr:uid="{2AB02CE7-6DE6-4936-A9B6-C3A30517DB7F}"/>
-    <hyperlink ref="C92" r:id="rId196" xr:uid="{3FA450BF-3E01-439C-8C3C-97285CDF42E4}"/>
-    <hyperlink ref="C81" r:id="rId197" xr:uid="{B7C88999-8CA0-468E-9DB7-0C84FECCE62D}"/>
-    <hyperlink ref="C148" r:id="rId198" xr:uid="{4030FD80-AC58-4604-AAD9-3C8DDF33D9BF}"/>
-    <hyperlink ref="C147" r:id="rId199" xr:uid="{A6D3B7B5-05D6-404A-A466-9DFEDA40D0C8}"/>
-    <hyperlink ref="C33" r:id="rId200" xr:uid="{E49A6EE8-5822-4020-9BE9-083EAD5C84FB}"/>
-    <hyperlink ref="C95" r:id="rId201" xr:uid="{9CB2615F-20AF-4560-8DE8-06A6D01F94D3}"/>
-    <hyperlink ref="C29" r:id="rId202" xr:uid="{050FB622-EB1C-4B7B-9B5C-D0165F6DB2BB}"/>
-    <hyperlink ref="C71" r:id="rId203" xr:uid="{B0AA3E5E-F474-4547-A4BB-1562AFD05639}"/>
-    <hyperlink ref="C120" r:id="rId204" xr:uid="{5EE48E44-6645-423B-9D3B-BA27E3C88CF6}"/>
-    <hyperlink ref="C144" r:id="rId205" xr:uid="{DC2CCDEC-A6B0-4412-9293-3D708FF0E861}"/>
-    <hyperlink ref="C106" r:id="rId206" xr:uid="{ACFA800E-8414-4E9A-BE09-CB33D46601E0}"/>
-    <hyperlink ref="C113" r:id="rId207" xr:uid="{4423E675-229D-4F9B-9CC0-F8C46E201512}"/>
-    <hyperlink ref="C40" r:id="rId208" xr:uid="{4DA93860-D7DA-4B52-A9A0-ABAC3B793A26}"/>
-    <hyperlink ref="C196" r:id="rId209" xr:uid="{FA66E72F-4556-483C-AED4-B7C4E5F6ED33}"/>
-    <hyperlink ref="C220" r:id="rId210" xr:uid="{6B606037-8FCB-4B89-85F6-9C109BB639E4}"/>
-    <hyperlink ref="C122" r:id="rId211" xr:uid="{043B1326-06A0-4BFB-AE2B-D08C2362D448}"/>
-    <hyperlink ref="C209" r:id="rId212" xr:uid="{ED67AC35-5992-4B66-83D1-089BA4E99A16}"/>
-    <hyperlink ref="C41" r:id="rId213" xr:uid="{CF84CEFF-E17D-40A8-AD53-CB8315ADCC37}"/>
-    <hyperlink ref="C241" r:id="rId214" xr:uid="{1BAB86BA-7E57-4837-A02D-20C7C66B9848}"/>
-    <hyperlink ref="C235" r:id="rId215" xr:uid="{3EA55CB4-1A31-46CB-B169-BAD40E4583E7}"/>
-    <hyperlink ref="C84" r:id="rId216" xr:uid="{2B1255F2-0C8E-4311-B384-A243584166D0}"/>
-    <hyperlink ref="C23" r:id="rId217" xr:uid="{73AE9BCD-6C33-4EA3-8B2C-295D6F0D05CF}"/>
-    <hyperlink ref="C233" r:id="rId218" xr:uid="{498C586A-7DD4-40BB-8CE1-2E05FEE50369}"/>
-    <hyperlink ref="C98" r:id="rId219" xr:uid="{A11E9FF1-3605-41EC-A0B4-E449B0C39866}"/>
-    <hyperlink ref="C202" r:id="rId220" xr:uid="{055DA19C-8857-47CC-ADFC-73E251BEB3F6}"/>
-    <hyperlink ref="C159" r:id="rId221" xr:uid="{C53F4E20-43C2-464F-97C3-89E4C10E252A}"/>
-    <hyperlink ref="C45" r:id="rId222" xr:uid="{FE90B83E-5FAF-459E-A2DA-3A8652D917EF}"/>
-    <hyperlink ref="C138" r:id="rId223" xr:uid="{BF5DAC24-D303-4D5E-A915-A885363E7451}"/>
-    <hyperlink ref="C134" r:id="rId224" xr:uid="{80A36AEF-A598-4857-BE4F-69DA9DA67DFD}"/>
-    <hyperlink ref="C198" r:id="rId225" xr:uid="{B7D987BA-6271-4CC8-A0DC-4BF330477802}"/>
-    <hyperlink ref="C230" r:id="rId226" xr:uid="{20EE4B5A-0C19-4A82-A1B2-5DDF4FA49FDE}"/>
-    <hyperlink ref="C90" r:id="rId227" xr:uid="{DDEB8DCF-19D0-4DAE-873E-83BD559EDD37}"/>
-    <hyperlink ref="C62" r:id="rId228" xr:uid="{E823F0E1-6A3E-40D1-BDE4-8CFCEDB0173E}"/>
-    <hyperlink ref="C188" r:id="rId229" xr:uid="{571ED490-0BB2-41BB-96E6-1E80746B048B}"/>
-    <hyperlink ref="C212" r:id="rId230" xr:uid="{45DC0BB5-E895-42EC-B035-878800D93341}"/>
-    <hyperlink ref="C43" r:id="rId231" xr:uid="{EE178400-7D70-4075-8104-3752416DC5D0}"/>
-    <hyperlink ref="C66" r:id="rId232" xr:uid="{19C897C7-B2B8-445D-8CA3-7B0E06E16618}"/>
-    <hyperlink ref="C68" r:id="rId233" xr:uid="{6B029C37-DB04-4255-9E5E-5B9AD78DD349}"/>
-    <hyperlink ref="C76" r:id="rId234" xr:uid="{A9A83049-37C9-4D85-962F-CDE28F86C75A}"/>
-    <hyperlink ref="C162" r:id="rId235" xr:uid="{B4FECB5A-4B35-4E03-AFC1-6C2C41C57BC4}"/>
-    <hyperlink ref="C59" r:id="rId236" xr:uid="{6AF6B864-0809-4988-BC6C-FE85AF6A202D}"/>
-    <hyperlink ref="C82" r:id="rId237" xr:uid="{92E22DB8-61D8-40BB-9529-1D8887BF37E3}"/>
-    <hyperlink ref="C123" r:id="rId238" xr:uid="{EF429FDF-10FE-4488-85F5-9AAD30A38E0D}"/>
-    <hyperlink ref="C216" r:id="rId239" xr:uid="{1CB793AA-FB4F-4E62-A9F2-D519D201BB92}"/>
-    <hyperlink ref="C127" r:id="rId240" xr:uid="{FB613A25-AD87-4EA9-8D51-EB22AD2DA559}"/>
-    <hyperlink ref="C234" r:id="rId241" xr:uid="{BC37F7AB-1C24-408D-B43C-01BC9A4CB101}"/>
-    <hyperlink ref="C30" r:id="rId242" xr:uid="{79BF7850-C154-4D58-B412-E89AB032C55E}"/>
-    <hyperlink ref="C86" r:id="rId243" xr:uid="{B8E8A859-C13F-41E7-9FAD-D3C18BA3F91A}"/>
-    <hyperlink ref="C97" r:id="rId244" xr:uid="{3F2A85F7-CD20-4B5E-8F45-33C916C206AC}"/>
-    <hyperlink ref="C201" r:id="rId245" xr:uid="{E3459AA4-E722-42C5-A1AB-A7FFD03D0F3B}"/>
-    <hyperlink ref="C244" r:id="rId246" xr:uid="{1743BC82-9600-4519-9B4F-9CD7EFD81FF1}"/>
-    <hyperlink ref="C245" r:id="rId247" xr:uid="{EE28F3C4-52BE-44BE-9325-4786DD6AB506}"/>
-    <hyperlink ref="C246" r:id="rId248" xr:uid="{F0E6E7B5-1C14-476D-9A89-29BFCE96A9D7}"/>
-    <hyperlink ref="C248" r:id="rId249" xr:uid="{38155FF3-C389-470F-BA87-10126AA09D77}"/>
-    <hyperlink ref="C247" r:id="rId250" xr:uid="{F252B92C-DC16-4B40-A105-556309A9543A}"/>
-    <hyperlink ref="C249" r:id="rId251" xr:uid="{1C3BCD92-F988-49D2-B8EE-4A69CC30D4DB}"/>
-    <hyperlink ref="C250" r:id="rId252" xr:uid="{DDC84E62-B03E-4D21-A421-DF6C2A56BFBE}"/>
-    <hyperlink ref="C251" r:id="rId253" xr:uid="{31950E17-1D24-4646-BC8C-02FC7FA9FB84}"/>
-    <hyperlink ref="C252" r:id="rId254" xr:uid="{443D6E6B-8664-4842-A466-97A6B65D4324}"/>
-    <hyperlink ref="C253" r:id="rId255" xr:uid="{78CAF157-7D63-4B6C-B1DF-9A525C2E0A15}"/>
-    <hyperlink ref="C254" r:id="rId256" xr:uid="{3B63F0D3-856B-4A30-8787-3B63743AB327}"/>
-    <hyperlink ref="C255" r:id="rId257" xr:uid="{594FEABE-FD5E-4217-A563-4A66D78D95C3}"/>
-    <hyperlink ref="C256" r:id="rId258" xr:uid="{F900DDFE-DBD7-4F11-A705-56E2B860D510}"/>
-    <hyperlink ref="C257" r:id="rId259" xr:uid="{D0C39FB3-3224-4C83-8762-9D6D731D2136}"/>
-    <hyperlink ref="C258" r:id="rId260" xr:uid="{F5F95968-D161-4016-9D2C-2F22BA136214}"/>
-    <hyperlink ref="C259" r:id="rId261" xr:uid="{7CBD63D9-3E3B-49D6-B2C3-AA17EC324B4A}"/>
-    <hyperlink ref="C260" r:id="rId262" xr:uid="{6DFE34AB-E349-4BF2-BDB5-19C8CF1BBA54}"/>
-    <hyperlink ref="C261" r:id="rId263" xr:uid="{F2E2CCBB-0CA8-44C0-9716-180B49E13A0D}"/>
-    <hyperlink ref="C262" r:id="rId264" xr:uid="{F3A30D78-B475-4DE9-8FD5-0042C7497C89}"/>
-    <hyperlink ref="C263" r:id="rId265" xr:uid="{7BF67F2F-BA76-437F-A042-7840AD9C9BA7}"/>
-    <hyperlink ref="C264" r:id="rId266" xr:uid="{1F7B27FC-06CF-4777-9F66-AE96909E0169}"/>
-    <hyperlink ref="C265" r:id="rId267" xr:uid="{AA0495F7-D024-4B48-94E4-EFF1BDF07E33}"/>
-    <hyperlink ref="C266" r:id="rId268" xr:uid="{6A713AD3-59FB-4F42-A516-853FDE63E4C9}"/>
-    <hyperlink ref="C267" r:id="rId269" xr:uid="{5EEDD14D-9AA0-4542-B4BD-3FC20F60D984}"/>
-    <hyperlink ref="C268" r:id="rId270" xr:uid="{CB40EE28-843E-4792-A265-65F2B8AA722E}"/>
-    <hyperlink ref="C269" r:id="rId271" xr:uid="{3754438A-A1DB-4C09-B782-F7AFD0DE9168}"/>
-    <hyperlink ref="C270" r:id="rId272" xr:uid="{B8639668-9CB6-4165-A371-9E4F7569ED25}"/>
-    <hyperlink ref="C271" r:id="rId273" xr:uid="{290F1DD9-FF34-4C4A-9786-DD6CF8DE7183}"/>
-    <hyperlink ref="C272" r:id="rId274" xr:uid="{D2988798-B299-4979-B100-86B2ED2C9F06}"/>
-    <hyperlink ref="C273" r:id="rId275" xr:uid="{4FD4C7B0-EF04-4E0A-8FD2-368570B10C6B}"/>
-    <hyperlink ref="C274" r:id="rId276" xr:uid="{7B199D27-9A15-4B07-8488-AB9B9E10898A}"/>
-    <hyperlink ref="C275" r:id="rId277" xr:uid="{BC5EEEAA-05AF-465B-B484-BA3BD587FB32}"/>
-    <hyperlink ref="C276" r:id="rId278" xr:uid="{FF1D8502-6C9C-4EEF-8CE0-0FCCD25157D3}"/>
-    <hyperlink ref="C277" r:id="rId279" xr:uid="{3142FDD5-E08D-450C-82E3-7E82CA47B2F8}"/>
-    <hyperlink ref="C278" r:id="rId280" xr:uid="{F27B86AE-D98D-4675-BC4E-D55710E1565F}"/>
-    <hyperlink ref="C279" r:id="rId281" xr:uid="{FF49231A-634F-42AC-ACE9-CC1FA60639CF}"/>
-    <hyperlink ref="C280" r:id="rId282" xr:uid="{7A4C5B20-DABF-49C4-BFC4-566C1A29C9C2}"/>
-    <hyperlink ref="C281" r:id="rId283" xr:uid="{0241C337-C50B-4944-9154-BF8CAEE71AD0}"/>
+    <hyperlink ref="C89" r:id="rId35" xr:uid="{FD14EBC0-A744-44D9-8D7E-8C400674FEED}"/>
+    <hyperlink ref="C38" r:id="rId36" xr:uid="{1C789BBB-C806-4AEC-87FD-4A30D09E0378}"/>
+    <hyperlink ref="C149" r:id="rId37" xr:uid="{39BDDF5C-5ED6-4DC6-8403-935839E42AE4}"/>
+    <hyperlink ref="C193" r:id="rId38" xr:uid="{16CEFA6F-1B35-42FD-8606-E6523BF824B9}"/>
+    <hyperlink ref="C62:C78" r:id="rId39" display="https://midfield.mlbstatic.com/v1/people/686752/spots/120" xr:uid="{1E5EFC44-7608-40AF-A777-AAC898C6A9CB}"/>
+    <hyperlink ref="C34" r:id="rId40" xr:uid="{17D051F0-8C68-4AF3-B256-1F5E71DD2455}"/>
+    <hyperlink ref="C93" r:id="rId41" xr:uid="{B4766B4E-7BF7-4C41-98C2-8E48C0CCFAC8}"/>
+    <hyperlink ref="C112" r:id="rId42" xr:uid="{49ACB698-CD82-44AA-8A65-26D2BBDB0788}"/>
+    <hyperlink ref="C64" r:id="rId43" xr:uid="{FBAE3FE6-1362-4C09-BAE7-1B131AB4C4B4}"/>
+    <hyperlink ref="C56" r:id="rId44" xr:uid="{2181E8B2-59C9-4709-AA9A-962EF37831F2}"/>
+    <hyperlink ref="C110" r:id="rId45" xr:uid="{17F5505C-32E7-4316-BF97-1E84202C4785}"/>
+    <hyperlink ref="C80" r:id="rId46" xr:uid="{880E4723-2052-4A3F-AA76-423C6810C994}"/>
+    <hyperlink ref="C156" r:id="rId47" xr:uid="{D33AE6C2-8688-4E9D-B293-9E99FBE0DEB4}"/>
+    <hyperlink ref="C79" r:id="rId48" xr:uid="{ECF4F8FF-BB1E-4B49-965D-64768DC4F1E2}"/>
+    <hyperlink ref="C104" r:id="rId49" xr:uid="{2511CD2C-B67C-4354-9629-DE649A920EDD}"/>
+    <hyperlink ref="C204" r:id="rId50" xr:uid="{AE0C1E2C-3D72-45CF-9965-CDB6C0591891}"/>
+    <hyperlink ref="C107" r:id="rId51" xr:uid="{0E258565-BD6E-428A-BCE6-5D446B3DA628}"/>
+    <hyperlink ref="C69" r:id="rId52" xr:uid="{46541DDA-A399-42E9-B388-CAC462670117}"/>
+    <hyperlink ref="C171" r:id="rId53" xr:uid="{E26B4D45-A378-40C0-ACBA-A3D7F3B56528}"/>
+    <hyperlink ref="C155" r:id="rId54" xr:uid="{845F84C0-232D-4D80-B9DD-7415056297C5}"/>
+    <hyperlink ref="C196" r:id="rId55" xr:uid="{89BF64D4-12AC-4144-8B32-FDDD10668077}"/>
+    <hyperlink ref="C157" r:id="rId56" xr:uid="{8742B9B5-62C4-423F-B53B-AE1C619A7CB3}"/>
+    <hyperlink ref="C101" r:id="rId57" xr:uid="{A93F2FF5-2AE8-404E-A935-39A2AA8E0351}"/>
+    <hyperlink ref="C143" r:id="rId58" xr:uid="{F60D4181-1F3A-4C64-97A2-8368BC1A6176}"/>
+    <hyperlink ref="C212" r:id="rId59" xr:uid="{ECDB48F3-3C25-4B15-A902-40A90B1D441F}"/>
+    <hyperlink ref="C153" r:id="rId60" xr:uid="{1BF5B84A-6403-496F-BE72-4F7CFE5CD46A}"/>
+    <hyperlink ref="C96" r:id="rId61" xr:uid="{D48CC097-21D9-4697-92AF-17FE888C3469}"/>
+    <hyperlink ref="C226" r:id="rId62" xr:uid="{BA111F30-72E9-4701-B810-D904333C5C12}"/>
+    <hyperlink ref="C166" r:id="rId63" xr:uid="{C971DFEC-7D7D-44F8-8D77-AF06DD0C3650}"/>
+    <hyperlink ref="C236" r:id="rId64" xr:uid="{FF747A90-D82C-417A-A604-11C8A9BB8A1B}"/>
+    <hyperlink ref="C125" r:id="rId65" xr:uid="{508F6AEF-0519-456E-95D4-CFBA12F1D839}"/>
+    <hyperlink ref="C145" r:id="rId66" xr:uid="{B67845F2-3B4F-45CB-AC96-C32761C20607}"/>
+    <hyperlink ref="C203" r:id="rId67" xr:uid="{B3EDDFE1-3BCD-4BF4-B469-F8CBF05D5228}"/>
+    <hyperlink ref="C35" r:id="rId68" xr:uid="{8E3867C0-9128-44B4-8D0A-62F663FD1C50}"/>
+    <hyperlink ref="C54" r:id="rId69" xr:uid="{7DF45689-E876-4814-B27F-BD82DF1893A8}"/>
+    <hyperlink ref="C198" r:id="rId70" xr:uid="{10233510-1E7F-47D8-9DC8-CECCEEAF2542}"/>
+    <hyperlink ref="C135" r:id="rId71" xr:uid="{C4B8637F-0EAC-421C-B98A-83396BEC74E6}"/>
+    <hyperlink ref="C11" r:id="rId72" xr:uid="{78FBD904-905A-4DF4-8336-339D9FD35EF9}"/>
+    <hyperlink ref="C230" r:id="rId73" xr:uid="{30FFC8B8-F48B-4956-82E5-5F5C1D42BFDA}"/>
+    <hyperlink ref="C189" r:id="rId74" xr:uid="{F297C688-6767-4A01-87CA-713F0DDF9C34}"/>
+    <hyperlink ref="C51" r:id="rId75" xr:uid="{DE8C1BDA-4F06-4739-8272-9C1526634215}"/>
+    <hyperlink ref="C222" r:id="rId76" xr:uid="{0B5DD545-15F8-4AED-86A6-780BA78A0233}"/>
+    <hyperlink ref="C130" r:id="rId77" xr:uid="{1EAB83F2-BCC3-4788-AB88-9206EE59BEFD}"/>
+    <hyperlink ref="C141" r:id="rId78" xr:uid="{B9CEB789-AD16-4793-B005-DBCE618DBE94}"/>
+    <hyperlink ref="C238" r:id="rId79" xr:uid="{BE0D192A-BC2F-4B35-99E0-370F38CA9C0B}"/>
+    <hyperlink ref="C78" r:id="rId80" xr:uid="{3F8FC17C-F146-4E12-BBB9-18B45BB5B3EC}"/>
+    <hyperlink ref="C116" r:id="rId81" xr:uid="{C3C3E0D1-E6BE-417A-AC79-EEB8F79FBE7C}"/>
+    <hyperlink ref="C60" r:id="rId82" xr:uid="{646B995D-2022-47E8-9C46-F74E16A3A629}"/>
+    <hyperlink ref="C57" r:id="rId83" xr:uid="{1F133298-7E48-4138-8126-F74D2CBDB050}"/>
+    <hyperlink ref="C221" r:id="rId84" xr:uid="{79CA2660-030A-4E38-B36D-D5A391C24AF6}"/>
+    <hyperlink ref="C162" r:id="rId85" xr:uid="{301BF770-273A-484E-AF66-F32DA8458844}"/>
+    <hyperlink ref="C239" r:id="rId86" xr:uid="{A72F7411-3596-45A9-BD47-96AE1238FE57}"/>
+    <hyperlink ref="C126" r:id="rId87" xr:uid="{9335E23F-5F7C-4364-8ABA-564F1B156EB5}"/>
+    <hyperlink ref="C146" r:id="rId88" xr:uid="{C528D45E-5270-4308-A5F4-DDDD4C29A97D}"/>
+    <hyperlink ref="C132" r:id="rId89" xr:uid="{E5C83DAC-00EF-49EE-9811-99C544403146}"/>
+    <hyperlink ref="C186" r:id="rId90" xr:uid="{F5146A50-BA2B-4466-A3AC-A9E6870FA443}"/>
+    <hyperlink ref="C181" r:id="rId91" xr:uid="{880D6AB9-DCD2-4819-B973-72461A04C7C8}"/>
+    <hyperlink ref="C202" r:id="rId92" xr:uid="{11544622-27D7-41FE-BA8C-7A64E8838D48}"/>
+    <hyperlink ref="C55" r:id="rId93" xr:uid="{BC65DFE4-1308-4C08-8CE7-8941756F790F}"/>
+    <hyperlink ref="C117" r:id="rId94" xr:uid="{8322B7F1-705E-4313-8FF2-F90CCF591E35}"/>
+    <hyperlink ref="C165" r:id="rId95" xr:uid="{EBB28F68-D663-44AA-86BD-53B20904935E}"/>
+    <hyperlink ref="C136" r:id="rId96" xr:uid="{6A80E6A8-DBFE-4A55-A512-7374F8FBE4FD}"/>
+    <hyperlink ref="C61" r:id="rId97" xr:uid="{CE6A856C-5BA0-46B8-BDBB-70D03B1E5FA6}"/>
+    <hyperlink ref="C73" r:id="rId98" xr:uid="{B219EA6C-AFC6-4A8E-A965-70B93C5367C4}"/>
+    <hyperlink ref="C235" r:id="rId99" xr:uid="{108B5805-5369-47C0-A3A2-CA30D2F91CFB}"/>
+    <hyperlink ref="C121" r:id="rId100" xr:uid="{7AD71135-DE45-46BB-A218-39306ABA3702}"/>
+    <hyperlink ref="C107:C115" r:id="rId101" display="https://midfield.mlbstatic.com/v1/people/570632/spots/120" xr:uid="{B6AEF0A1-DAD3-493D-AD72-9992AF4AC36A}"/>
+    <hyperlink ref="C205" r:id="rId102" xr:uid="{4FC1EEA6-0897-4ECD-9CE7-1A38B7A04DF4}"/>
+    <hyperlink ref="C175" r:id="rId103" xr:uid="{1C2C51A3-E75B-4CC0-A087-8366DF24A3F2}"/>
+    <hyperlink ref="C190" r:id="rId104" xr:uid="{BB7DF76E-86EB-4858-AEA6-0696B62895BC}"/>
+    <hyperlink ref="C20" r:id="rId105" xr:uid="{01DE55D4-78E8-461B-A8B9-B03E6D65C918}"/>
+    <hyperlink ref="C75" r:id="rId106" xr:uid="{FCD4C620-BB71-4CC3-A123-50EFE98B5FE2}"/>
+    <hyperlink ref="C185" r:id="rId107" xr:uid="{29ED6610-0117-47A3-9540-69CB5AC80B92}"/>
+    <hyperlink ref="C206" r:id="rId108" xr:uid="{9E30FD12-A196-40BE-A210-0C73986E5064}"/>
+    <hyperlink ref="C218" r:id="rId109" xr:uid="{B8175F43-D70E-459F-98CF-15ECFA717548}"/>
+    <hyperlink ref="C142" r:id="rId110" xr:uid="{A1F217DD-45E3-4ABD-A801-5D9F166E4EE3}"/>
+    <hyperlink ref="C16" r:id="rId111" xr:uid="{C6E8A0D7-8E63-4EC1-8C28-4570F13EECF8}"/>
+    <hyperlink ref="C42" r:id="rId112" xr:uid="{061EEF2C-85CF-400C-B70C-3AC1B107F1EC}"/>
+    <hyperlink ref="C44" r:id="rId113" xr:uid="{07D08D3B-A3C3-4916-9FE0-2CF26ECA4304}"/>
+    <hyperlink ref="C77" r:id="rId114" xr:uid="{91E7913A-86EE-40F5-9798-4A7B25F420CA}"/>
+    <hyperlink ref="C139" r:id="rId115" xr:uid="{0A5A0FD7-8B57-41D3-A410-CA8F6779F8C0}"/>
+    <hyperlink ref="C159" r:id="rId116" xr:uid="{9979CA0C-3483-428F-A7AC-8624936FB8FA}"/>
+    <hyperlink ref="C178" r:id="rId117" xr:uid="{482918C2-89BA-496F-8160-085C2940475B}"/>
+    <hyperlink ref="C182" r:id="rId118" xr:uid="{674942CB-83E4-4508-A135-1EB5B6D6E0BF}"/>
+    <hyperlink ref="C216" r:id="rId119" xr:uid="{1F6209AE-91BF-41D4-B9AD-7DEABA16621B}"/>
+    <hyperlink ref="C220" r:id="rId120" xr:uid="{F0E5D36A-2456-4111-9B29-31D8CBD1A12D}"/>
+    <hyperlink ref="C227" r:id="rId121" xr:uid="{789C651E-21E8-4E0D-8017-9BF6770B7FE4}"/>
+    <hyperlink ref="C213" r:id="rId122" xr:uid="{E96CD394-E5F8-46F9-9A93-3EA98A4EE8DE}"/>
+    <hyperlink ref="C26" r:id="rId123" xr:uid="{170B8200-FCC5-4ED1-8A6A-63B3F60FC427}"/>
+    <hyperlink ref="C31" r:id="rId124" xr:uid="{1165D173-E61C-477D-81EA-53C274E42084}"/>
+    <hyperlink ref="C13" r:id="rId125" xr:uid="{D71E6989-E12D-4FB6-8277-45C3718AA5C4}"/>
+    <hyperlink ref="C9" r:id="rId126" xr:uid="{FB4F273B-2196-4018-85BA-D42A207F8910}"/>
+    <hyperlink ref="C103" r:id="rId127" xr:uid="{9F233235-B9B1-4E7A-807E-8F2EE493E173}"/>
+    <hyperlink ref="C188" r:id="rId128" xr:uid="{F5D1A66D-4324-4468-A7A0-AD3D00B16AE7}"/>
+    <hyperlink ref="C28" r:id="rId129" xr:uid="{1759929B-600A-4949-96E1-F424E054D97A}"/>
+    <hyperlink ref="C137" r:id="rId130" xr:uid="{8B19E95A-E327-406E-9F25-861358533D76}"/>
+    <hyperlink ref="C27" r:id="rId131" xr:uid="{1DD3FDF5-6556-4823-8827-A75B5E83FD01}"/>
+    <hyperlink ref="C225" r:id="rId132" xr:uid="{B62475DC-179F-4CE0-8CF6-51DC972D40B7}"/>
+    <hyperlink ref="C223" r:id="rId133" xr:uid="{492088BD-9B89-42AA-A6AF-1F83749BDC72}"/>
+    <hyperlink ref="C32" r:id="rId134" xr:uid="{6118D192-2DB6-4311-A382-3371906C183D}"/>
+    <hyperlink ref="C140:C143" r:id="rId135" display="https://midfield.mlbstatic.com/v1/people/693821/spots/120" xr:uid="{0E83A794-B683-4463-A3A3-95576AFDD615}"/>
+    <hyperlink ref="C58" r:id="rId136" xr:uid="{98EC2002-988D-46D0-AD8B-CB1135815ADD}"/>
+    <hyperlink ref="C241" r:id="rId137" xr:uid="{80C5B6A6-E3F5-4F34-8C17-B202CF8842F5}"/>
+    <hyperlink ref="C172" r:id="rId138" xr:uid="{35842AC4-F920-4A32-B105-587FE352F876}"/>
+    <hyperlink ref="C111" r:id="rId139" xr:uid="{24E2A301-E80D-4F02-A94B-CFE6DF3719D1}"/>
+    <hyperlink ref="C99" r:id="rId140" xr:uid="{6D687EFE-5BD7-4FEF-B636-1A728E3CB6DF}"/>
+    <hyperlink ref="C179" r:id="rId141" xr:uid="{20E003D8-D5C4-4113-AFC3-D076CE9FE0A0}"/>
+    <hyperlink ref="C154" r:id="rId142" xr:uid="{3D5F262E-120A-4E2A-AF3A-1C4C1117AE44}"/>
+    <hyperlink ref="C25" r:id="rId143" xr:uid="{5ED77DE1-166F-4541-898A-786E114DAEF4}"/>
+    <hyperlink ref="C39" r:id="rId144" xr:uid="{81DC0D20-42F6-4D3C-87D3-B645CB35712A}"/>
+    <hyperlink ref="C48" r:id="rId145" xr:uid="{E396E594-A4D8-4E20-9A24-90B7589370B5}"/>
+    <hyperlink ref="C83" r:id="rId146" xr:uid="{823E8EED-4901-4993-A8EA-2CA91EBD8526}"/>
+    <hyperlink ref="C102" r:id="rId147" xr:uid="{923E21E9-8410-4112-9000-9E93896189E6}"/>
+    <hyperlink ref="C140" r:id="rId148" xr:uid="{C526E886-242E-4E87-ACB6-1E69A02EEBD3}"/>
+    <hyperlink ref="C160" r:id="rId149" xr:uid="{BFEEE380-0C63-474F-821D-61F8EF908A46}"/>
+    <hyperlink ref="C174" r:id="rId150" xr:uid="{2250FC95-0A39-4EE2-BCB2-FFF1EF3E4964}"/>
+    <hyperlink ref="C124" r:id="rId151" xr:uid="{174AA7F5-75DB-42B1-ACFF-646023A4BD2A}"/>
+    <hyperlink ref="C207" r:id="rId152" xr:uid="{30D34D43-AD29-4DE6-93CC-FD7C2F05FE00}"/>
+    <hyperlink ref="C167" r:id="rId153" xr:uid="{AD2496AE-C6CA-4D48-BE1B-E0D40292B961}"/>
+    <hyperlink ref="C131" r:id="rId154" xr:uid="{8EA8AFE5-38A5-4C45-95E6-52202880E214}"/>
+    <hyperlink ref="C164" r:id="rId155" xr:uid="{933DFE08-9AFA-4E05-81A6-D7AD9B2936B4}"/>
+    <hyperlink ref="C192" r:id="rId156" xr:uid="{5CB1E923-0C0B-46C3-9A06-C5BF1664BB99}"/>
+    <hyperlink ref="C7" r:id="rId157" xr:uid="{F0633C7D-B030-42F8-867D-487A4D0622C9}"/>
+    <hyperlink ref="C19" r:id="rId158" xr:uid="{F7C050ED-4E17-4083-9409-29763900B9F8}"/>
+    <hyperlink ref="C88" r:id="rId159" xr:uid="{96DF98C5-93EB-4B46-A8DE-540F97FB9D2D}"/>
+    <hyperlink ref="C183" r:id="rId160" xr:uid="{DC3780E6-8DBB-43AF-868F-038344C91A4E}"/>
+    <hyperlink ref="C150" r:id="rId161" xr:uid="{AF843F30-7625-42D0-BA56-6434FAE62C25}"/>
+    <hyperlink ref="C224" r:id="rId162" xr:uid="{5D94729E-5BC9-4A90-91A4-E22E6DF54EC5}"/>
+    <hyperlink ref="C50" r:id="rId163" xr:uid="{07FE2158-E54F-4DAF-A552-7A5F3BB2BAF7}"/>
+    <hyperlink ref="C47" r:id="rId164" xr:uid="{202CCF33-99A3-4853-AE16-95008489CCC5}"/>
+    <hyperlink ref="C65" r:id="rId165" xr:uid="{F4B5E23D-9319-41A2-AB51-5DE0A45DD8B4}"/>
+    <hyperlink ref="C115" r:id="rId166" xr:uid="{1692F5E0-FB63-492A-92F7-244666AA4D6C}"/>
+    <hyperlink ref="C3" r:id="rId167" xr:uid="{AB038426-E25A-4D00-959B-BADAAFC83263}"/>
+    <hyperlink ref="C22" r:id="rId168" xr:uid="{37BD58F8-5963-4DEE-8AC0-94C476AAA7B4}"/>
+    <hyperlink ref="C194" r:id="rId169" xr:uid="{224B22F8-17AF-4F0E-B83D-83E51925E3DA}"/>
+    <hyperlink ref="C133" r:id="rId170" xr:uid="{7C41A3D8-7B2C-4E19-8D41-28A0650CBF55}"/>
+    <hyperlink ref="C85" r:id="rId171" xr:uid="{04763326-6E4F-46B3-85EC-C59D9071D0F0}"/>
+    <hyperlink ref="C21" r:id="rId172" xr:uid="{6595AC92-4EB6-4C25-8AA6-B1D9744B1285}"/>
+    <hyperlink ref="C168" r:id="rId173" xr:uid="{B78F9174-E83B-47E6-946E-143B1E2D43D8}"/>
+    <hyperlink ref="C173" r:id="rId174" xr:uid="{063DB121-1B09-4C4A-A7CB-67F92A70E822}"/>
+    <hyperlink ref="C231" r:id="rId175" xr:uid="{4529126A-013E-48BE-BF9C-0857DD382C6C}"/>
+    <hyperlink ref="C15" r:id="rId176" xr:uid="{2F41BBD7-2015-4D42-8F88-8932B17FA34E}"/>
+    <hyperlink ref="C63" r:id="rId177" xr:uid="{E3EEE818-F47C-4DA4-97C5-449CA4C17CE4}"/>
+    <hyperlink ref="C12" r:id="rId178" xr:uid="{9F68A673-C7E6-4A90-BBDE-1C7409208E96}"/>
+    <hyperlink ref="C129" r:id="rId179" xr:uid="{889380E0-647D-4489-BE9B-25BAE5EB7861}"/>
+    <hyperlink ref="C210" r:id="rId180" xr:uid="{E541544B-61E3-4737-BBE7-E7662EC00A72}"/>
+    <hyperlink ref="C67" r:id="rId181" xr:uid="{4BE71305-E922-40EC-A901-A899B6397770}"/>
+    <hyperlink ref="C8" r:id="rId182" xr:uid="{1DB36123-F811-448C-80B1-68D23463FD4D}"/>
+    <hyperlink ref="C72" r:id="rId183" xr:uid="{3C679776-3AB8-453B-A4D3-B37792A73D16}"/>
+    <hyperlink ref="C52" r:id="rId184" xr:uid="{FA711ADD-C082-40DD-82D1-0E78DD912F0F}"/>
+    <hyperlink ref="C228" r:id="rId185" xr:uid="{C7B04CD8-F035-43DB-A418-9133A48E8921}"/>
+    <hyperlink ref="C209" r:id="rId186" xr:uid="{53F20A14-3749-4B51-B405-0EB1EA8BE457}"/>
+    <hyperlink ref="C169" r:id="rId187" xr:uid="{F2A8C005-E73E-4EA8-9A69-7D1C21C8DA9F}"/>
+    <hyperlink ref="C24" r:id="rId188" xr:uid="{E1A325DE-861E-4917-B535-A3626E67093B}"/>
+    <hyperlink ref="C105" r:id="rId189" xr:uid="{0B8721CA-ADDC-484A-A593-AA5D129028A4}"/>
+    <hyperlink ref="C70" r:id="rId190" xr:uid="{976908EE-A22D-40EC-95CA-B678C03D5727}"/>
+    <hyperlink ref="C6" r:id="rId191" xr:uid="{2359E283-699E-4E88-A140-3D7A568FC6E6}"/>
+    <hyperlink ref="C2" r:id="rId192" xr:uid="{6EAF58AD-5C21-4CAF-9E5B-779352704AB8}"/>
+    <hyperlink ref="C100" r:id="rId193" xr:uid="{075C6DD4-9B5F-454C-9441-F8AB51EBBED6}"/>
+    <hyperlink ref="C36" r:id="rId194" xr:uid="{2AB02CE7-6DE6-4936-A9B6-C3A30517DB7F}"/>
+    <hyperlink ref="C92" r:id="rId195" xr:uid="{3FA450BF-3E01-439C-8C3C-97285CDF42E4}"/>
+    <hyperlink ref="C81" r:id="rId196" xr:uid="{B7C88999-8CA0-468E-9DB7-0C84FECCE62D}"/>
+    <hyperlink ref="C148" r:id="rId197" xr:uid="{4030FD80-AC58-4604-AAD9-3C8DDF33D9BF}"/>
+    <hyperlink ref="C147" r:id="rId198" xr:uid="{A6D3B7B5-05D6-404A-A466-9DFEDA40D0C8}"/>
+    <hyperlink ref="C33" r:id="rId199" xr:uid="{E49A6EE8-5822-4020-9BE9-083EAD5C84FB}"/>
+    <hyperlink ref="C95" r:id="rId200" xr:uid="{9CB2615F-20AF-4560-8DE8-06A6D01F94D3}"/>
+    <hyperlink ref="C29" r:id="rId201" xr:uid="{050FB622-EB1C-4B7B-9B5C-D0165F6DB2BB}"/>
+    <hyperlink ref="C71" r:id="rId202" xr:uid="{B0AA3E5E-F474-4547-A4BB-1562AFD05639}"/>
+    <hyperlink ref="C120" r:id="rId203" xr:uid="{5EE48E44-6645-423B-9D3B-BA27E3C88CF6}"/>
+    <hyperlink ref="C144" r:id="rId204" xr:uid="{DC2CCDEC-A6B0-4412-9293-3D708FF0E861}"/>
+    <hyperlink ref="C106" r:id="rId205" xr:uid="{ACFA800E-8414-4E9A-BE09-CB33D46601E0}"/>
+    <hyperlink ref="C113" r:id="rId206" xr:uid="{4423E675-229D-4F9B-9CC0-F8C46E201512}"/>
+    <hyperlink ref="C40" r:id="rId207" xr:uid="{4DA93860-D7DA-4B52-A9A0-ABAC3B793A26}"/>
+    <hyperlink ref="C195" r:id="rId208" xr:uid="{FA66E72F-4556-483C-AED4-B7C4E5F6ED33}"/>
+    <hyperlink ref="C219" r:id="rId209" xr:uid="{6B606037-8FCB-4B89-85F6-9C109BB639E4}"/>
+    <hyperlink ref="C122" r:id="rId210" xr:uid="{043B1326-06A0-4BFB-AE2B-D08C2362D448}"/>
+    <hyperlink ref="C208" r:id="rId211" xr:uid="{ED67AC35-5992-4B66-83D1-089BA4E99A16}"/>
+    <hyperlink ref="C41" r:id="rId212" xr:uid="{CF84CEFF-E17D-40A8-AD53-CB8315ADCC37}"/>
+    <hyperlink ref="C240" r:id="rId213" xr:uid="{1BAB86BA-7E57-4837-A02D-20C7C66B9848}"/>
+    <hyperlink ref="C234" r:id="rId214" xr:uid="{3EA55CB4-1A31-46CB-B169-BAD40E4583E7}"/>
+    <hyperlink ref="C84" r:id="rId215" xr:uid="{2B1255F2-0C8E-4311-B384-A243584166D0}"/>
+    <hyperlink ref="C23" r:id="rId216" xr:uid="{73AE9BCD-6C33-4EA3-8B2C-295D6F0D05CF}"/>
+    <hyperlink ref="C232" r:id="rId217" xr:uid="{498C586A-7DD4-40BB-8CE1-2E05FEE50369}"/>
+    <hyperlink ref="C98" r:id="rId218" xr:uid="{A11E9FF1-3605-41EC-A0B4-E449B0C39866}"/>
+    <hyperlink ref="C201" r:id="rId219" xr:uid="{055DA19C-8857-47CC-ADFC-73E251BEB3F6}"/>
+    <hyperlink ref="C158" r:id="rId220" xr:uid="{C53F4E20-43C2-464F-97C3-89E4C10E252A}"/>
+    <hyperlink ref="C45" r:id="rId221" xr:uid="{FE90B83E-5FAF-459E-A2DA-3A8652D917EF}"/>
+    <hyperlink ref="C138" r:id="rId222" xr:uid="{BF5DAC24-D303-4D5E-A915-A885363E7451}"/>
+    <hyperlink ref="C134" r:id="rId223" xr:uid="{80A36AEF-A598-4857-BE4F-69DA9DA67DFD}"/>
+    <hyperlink ref="C197" r:id="rId224" xr:uid="{B7D987BA-6271-4CC8-A0DC-4BF330477802}"/>
+    <hyperlink ref="C229" r:id="rId225" xr:uid="{20EE4B5A-0C19-4A82-A1B2-5DDF4FA49FDE}"/>
+    <hyperlink ref="C90" r:id="rId226" xr:uid="{DDEB8DCF-19D0-4DAE-873E-83BD559EDD37}"/>
+    <hyperlink ref="C62" r:id="rId227" xr:uid="{E823F0E1-6A3E-40D1-BDE4-8CFCEDB0173E}"/>
+    <hyperlink ref="C187" r:id="rId228" xr:uid="{571ED490-0BB2-41BB-96E6-1E80746B048B}"/>
+    <hyperlink ref="C211" r:id="rId229" xr:uid="{45DC0BB5-E895-42EC-B035-878800D93341}"/>
+    <hyperlink ref="C43" r:id="rId230" xr:uid="{EE178400-7D70-4075-8104-3752416DC5D0}"/>
+    <hyperlink ref="C66" r:id="rId231" xr:uid="{19C897C7-B2B8-445D-8CA3-7B0E06E16618}"/>
+    <hyperlink ref="C68" r:id="rId232" xr:uid="{6B029C37-DB04-4255-9E5E-5B9AD78DD349}"/>
+    <hyperlink ref="C76" r:id="rId233" xr:uid="{A9A83049-37C9-4D85-962F-CDE28F86C75A}"/>
+    <hyperlink ref="C161" r:id="rId234" xr:uid="{B4FECB5A-4B35-4E03-AFC1-6C2C41C57BC4}"/>
+    <hyperlink ref="C59" r:id="rId235" xr:uid="{6AF6B864-0809-4988-BC6C-FE85AF6A202D}"/>
+    <hyperlink ref="C82" r:id="rId236" xr:uid="{92E22DB8-61D8-40BB-9529-1D8887BF37E3}"/>
+    <hyperlink ref="C123" r:id="rId237" xr:uid="{EF429FDF-10FE-4488-85F5-9AAD30A38E0D}"/>
+    <hyperlink ref="C215" r:id="rId238" xr:uid="{1CB793AA-FB4F-4E62-A9F2-D519D201BB92}"/>
+    <hyperlink ref="C127" r:id="rId239" xr:uid="{FB613A25-AD87-4EA9-8D51-EB22AD2DA559}"/>
+    <hyperlink ref="C233" r:id="rId240" xr:uid="{BC37F7AB-1C24-408D-B43C-01BC9A4CB101}"/>
+    <hyperlink ref="C30" r:id="rId241" xr:uid="{79BF7850-C154-4D58-B412-E89AB032C55E}"/>
+    <hyperlink ref="C86" r:id="rId242" xr:uid="{B8E8A859-C13F-41E7-9FAD-D3C18BA3F91A}"/>
+    <hyperlink ref="C97" r:id="rId243" xr:uid="{3F2A85F7-CD20-4B5E-8F45-33C916C206AC}"/>
+    <hyperlink ref="C200" r:id="rId244" xr:uid="{E3459AA4-E722-42C5-A1AB-A7FFD03D0F3B}"/>
+    <hyperlink ref="C243" r:id="rId245" xr:uid="{1743BC82-9600-4519-9B4F-9CD7EFD81FF1}"/>
+    <hyperlink ref="C244" r:id="rId246" xr:uid="{EE28F3C4-52BE-44BE-9325-4786DD6AB506}"/>
+    <hyperlink ref="C245" r:id="rId247" xr:uid="{F0E6E7B5-1C14-476D-9A89-29BFCE96A9D7}"/>
+    <hyperlink ref="C247" r:id="rId248" xr:uid="{38155FF3-C389-470F-BA87-10126AA09D77}"/>
+    <hyperlink ref="C246" r:id="rId249" xr:uid="{F252B92C-DC16-4B40-A105-556309A9543A}"/>
+    <hyperlink ref="C248" r:id="rId250" xr:uid="{1C3BCD92-F988-49D2-B8EE-4A69CC30D4DB}"/>
+    <hyperlink ref="C249" r:id="rId251" xr:uid="{DDC84E62-B03E-4D21-A421-DF6C2A56BFBE}"/>
+    <hyperlink ref="C250" r:id="rId252" xr:uid="{31950E17-1D24-4646-BC8C-02FC7FA9FB84}"/>
+    <hyperlink ref="C251" r:id="rId253" xr:uid="{443D6E6B-8664-4842-A466-97A6B65D4324}"/>
+    <hyperlink ref="C252" r:id="rId254" xr:uid="{78CAF157-7D63-4B6C-B1DF-9A525C2E0A15}"/>
+    <hyperlink ref="C253" r:id="rId255" xr:uid="{3B63F0D3-856B-4A30-8787-3B63743AB327}"/>
+    <hyperlink ref="C254" r:id="rId256" xr:uid="{594FEABE-FD5E-4217-A563-4A66D78D95C3}"/>
+    <hyperlink ref="C255" r:id="rId257" xr:uid="{F900DDFE-DBD7-4F11-A705-56E2B860D510}"/>
+    <hyperlink ref="C256" r:id="rId258" xr:uid="{D0C39FB3-3224-4C83-8762-9D6D731D2136}"/>
+    <hyperlink ref="C257" r:id="rId259" xr:uid="{F5F95968-D161-4016-9D2C-2F22BA136214}"/>
+    <hyperlink ref="C258" r:id="rId260" xr:uid="{7CBD63D9-3E3B-49D6-B2C3-AA17EC324B4A}"/>
+    <hyperlink ref="C259" r:id="rId261" xr:uid="{6DFE34AB-E349-4BF2-BDB5-19C8CF1BBA54}"/>
+    <hyperlink ref="C260" r:id="rId262" xr:uid="{F2E2CCBB-0CA8-44C0-9716-180B49E13A0D}"/>
+    <hyperlink ref="C261" r:id="rId263" xr:uid="{F3A30D78-B475-4DE9-8FD5-0042C7497C89}"/>
+    <hyperlink ref="C262" r:id="rId264" xr:uid="{7BF67F2F-BA76-437F-A042-7840AD9C9BA7}"/>
+    <hyperlink ref="C263" r:id="rId265" xr:uid="{1F7B27FC-06CF-4777-9F66-AE96909E0169}"/>
+    <hyperlink ref="C264" r:id="rId266" xr:uid="{AA0495F7-D024-4B48-94E4-EFF1BDF07E33}"/>
+    <hyperlink ref="C265" r:id="rId267" xr:uid="{6A713AD3-59FB-4F42-A516-853FDE63E4C9}"/>
+    <hyperlink ref="C266" r:id="rId268" xr:uid="{5EEDD14D-9AA0-4542-B4BD-3FC20F60D984}"/>
+    <hyperlink ref="C267" r:id="rId269" xr:uid="{CB40EE28-843E-4792-A265-65F2B8AA722E}"/>
+    <hyperlink ref="C268" r:id="rId270" xr:uid="{3754438A-A1DB-4C09-B782-F7AFD0DE9168}"/>
+    <hyperlink ref="C269" r:id="rId271" xr:uid="{B8639668-9CB6-4165-A371-9E4F7569ED25}"/>
+    <hyperlink ref="C270" r:id="rId272" xr:uid="{290F1DD9-FF34-4C4A-9786-DD6CF8DE7183}"/>
+    <hyperlink ref="C271" r:id="rId273" xr:uid="{D2988798-B299-4979-B100-86B2ED2C9F06}"/>
+    <hyperlink ref="C272" r:id="rId274" xr:uid="{4FD4C7B0-EF04-4E0A-8FD2-368570B10C6B}"/>
+    <hyperlink ref="C273" r:id="rId275" xr:uid="{7B199D27-9A15-4B07-8488-AB9B9E10898A}"/>
+    <hyperlink ref="C274" r:id="rId276" xr:uid="{BC5EEEAA-05AF-465B-B484-BA3BD587FB32}"/>
+    <hyperlink ref="C275" r:id="rId277" xr:uid="{FF1D8502-6C9C-4EEF-8CE0-0FCCD25157D3}"/>
+    <hyperlink ref="C276" r:id="rId278" xr:uid="{3142FDD5-E08D-450C-82E3-7E82CA47B2F8}"/>
+    <hyperlink ref="C277" r:id="rId279" xr:uid="{F27B86AE-D98D-4675-BC4E-D55710E1565F}"/>
+    <hyperlink ref="C278" r:id="rId280" xr:uid="{FF49231A-634F-42AC-ACE9-CC1FA60639CF}"/>
+    <hyperlink ref="C279" r:id="rId281" xr:uid="{7A4C5B20-DABF-49C4-BFC4-566C1A29C9C2}"/>
+    <hyperlink ref="C280" r:id="rId282" xr:uid="{0241C337-C50B-4944-9154-BF8CAEE71AD0}"/>
+    <hyperlink ref="C281" r:id="rId283" xr:uid="{1CE146AC-F731-4231-872A-0CA1DBBA9F49}"/>
+    <hyperlink ref="C282" r:id="rId284" xr:uid="{5344323C-0F67-462C-A854-B75DE067D6E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId284"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId285"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F638150-57C3-48DA-8922-3FF5D3B176CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467ADF24-5B0D-4A47-8007-FFB21BBB0F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="572">
   <si>
     <t>Name</t>
   </si>
@@ -1749,6 +1749,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/669387/spots/120</t>
+  </si>
+  <si>
+    <t>Kumar Rocker</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/677958/spots/120</t>
   </si>
 </sst>
 </file>
@@ -2138,10 +2144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D282"/>
+  <dimension ref="A1:D283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="A202" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6096,6 +6102,20 @@
         <v>569</v>
       </c>
       <c r="D282" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>570</v>
+      </c>
+      <c r="B283" t="s">
+        <v>570</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D283" t="s">
         <v>162</v>
       </c>
     </row>
@@ -6385,8 +6405,9 @@
     <hyperlink ref="C280" r:id="rId282" xr:uid="{0241C337-C50B-4944-9154-BF8CAEE71AD0}"/>
     <hyperlink ref="C281" r:id="rId283" xr:uid="{1CE146AC-F731-4231-872A-0CA1DBBA9F49}"/>
     <hyperlink ref="C282" r:id="rId284" xr:uid="{5344323C-0F67-462C-A854-B75DE067D6E5}"/>
+    <hyperlink ref="C283" r:id="rId285" xr:uid="{14DE60C9-962C-434D-8394-49CC4468B264}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId285"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId286"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467ADF24-5B0D-4A47-8007-FFB21BBB0F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930B6C8E-EE7D-4A54-9698-2E98A4619056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="576">
   <si>
     <t>Name</t>
   </si>
@@ -1755,6 +1755,18 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/677958/spots/120</t>
+  </si>
+  <si>
+    <t>Jacob deGrom</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/594798/spots/120</t>
+  </si>
+  <si>
+    <t>Brady Basso</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/669620/spots/120</t>
   </si>
 </sst>
 </file>
@@ -2144,10 +2156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D283"/>
+  <dimension ref="A1:D285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="C283" sqref="C283"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="C286" sqref="C286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6117,6 +6129,34 @@
       </c>
       <c r="D283" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>572</v>
+      </c>
+      <c r="B284" t="s">
+        <v>572</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D284" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>574</v>
+      </c>
+      <c r="B285" t="s">
+        <v>574</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D285" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -6406,8 +6446,10 @@
     <hyperlink ref="C281" r:id="rId283" xr:uid="{1CE146AC-F731-4231-872A-0CA1DBBA9F49}"/>
     <hyperlink ref="C282" r:id="rId284" xr:uid="{5344323C-0F67-462C-A854-B75DE067D6E5}"/>
     <hyperlink ref="C283" r:id="rId285" xr:uid="{14DE60C9-962C-434D-8394-49CC4468B264}"/>
+    <hyperlink ref="C284" r:id="rId286" xr:uid="{883C098E-7F4C-43CD-9C73-CA566E4A630D}"/>
+    <hyperlink ref="C285" r:id="rId287" xr:uid="{9BE87356-EA42-4DBB-A0E7-5104A2F58C91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId286"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId288"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930B6C8E-EE7D-4A54-9698-2E98A4619056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22363CC-6F96-43A3-8D9F-701312DE71CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="578">
   <si>
     <t>Name</t>
   </si>
@@ -1767,6 +1767,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/669620/spots/120</t>
+  </si>
+  <si>
+    <t>Sean Burke</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/680732/spots/120</t>
   </si>
 </sst>
 </file>
@@ -2156,10 +2162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D285"/>
+  <dimension ref="A1:D286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="C286" sqref="C286"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="C287" sqref="C287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6157,6 +6163,20 @@
       </c>
       <c r="D285" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>576</v>
+      </c>
+      <c r="B286" t="s">
+        <v>576</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D286" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -6448,8 +6468,9 @@
     <hyperlink ref="C283" r:id="rId285" xr:uid="{14DE60C9-962C-434D-8394-49CC4468B264}"/>
     <hyperlink ref="C284" r:id="rId286" xr:uid="{883C098E-7F4C-43CD-9C73-CA566E4A630D}"/>
     <hyperlink ref="C285" r:id="rId287" xr:uid="{9BE87356-EA42-4DBB-A0E7-5104A2F58C91}"/>
+    <hyperlink ref="C286" r:id="rId288" xr:uid="{E3289A33-CC84-4C15-8CAA-1E87786BF9DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId288"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId289"/>
 </worksheet>
 </file>
--- a/assets/Pitcher_Headshots.xlsx
+++ b/assets/Pitcher_Headshots.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28108"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22363CC-6F96-43A3-8D9F-701312DE71CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2DCBFF-4208-40C1-AE12-AFE02EE9EB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{485955CB-CA9F-4484-BF64-3C0860480D03}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="580">
   <si>
     <t>Name</t>
   </si>
@@ -1773,6 +1773,12 @@
   </si>
   <si>
     <t>https://midfield.mlbstatic.com/v1/people/680732/spots/120</t>
+  </si>
+  <si>
+    <t>Jairo Iriarte</t>
+  </si>
+  <si>
+    <t>https://midfield.mlbstatic.com/v1/people/683568/spots/120</t>
   </si>
 </sst>
 </file>
@@ -2162,10 +2168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8121A6F-EAC3-49EE-8365-3E22E9EB309E}">
-  <dimension ref="A1:D286"/>
+  <dimension ref="A1:D287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="C287" sqref="C287"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="C288" sqref="C288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6176,6 +6182,20 @@
         <v>577</v>
       </c>
       <c r="D286" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>578</v>
+      </c>
+      <c r="B287" t="s">
+        <v>578</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D287" t="s">
         <v>162</v>
       </c>
     </row>
@@ -6469,8 +6489,9 @@
     <hyperlink ref="C284" r:id="rId286" xr:uid="{883C098E-7F4C-43CD-9C73-CA566E4A630D}"/>
     <hyperlink ref="C285" r:id="rId287" xr:uid="{9BE87356-EA42-4DBB-A0E7-5104A2F58C91}"/>
     <hyperlink ref="C286" r:id="rId288" xr:uid="{E3289A33-CC84-4C15-8CAA-1E87786BF9DE}"/>
+    <hyperlink ref="C287" r:id="rId289" xr:uid="{7BE37A64-9F8A-469B-8DC4-1798D3BC6A01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId289"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId290"/>
 </worksheet>
 </file>